--- a/migforecasting/clustering/for paper/examples for improv test.xlsx
+++ b/migforecasting/clustering/for paper/examples for improv test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="examples" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="58">
   <si>
     <t>oktmo</t>
   </si>
@@ -98,9 +98,6 @@
     <t>город Белогорск</t>
   </si>
   <si>
-    <t>город Камышин</t>
-  </si>
-  <si>
     <t>город Славгород</t>
   </si>
   <si>
@@ -122,28 +119,10 @@
     <t>город Новошахтинск</t>
   </si>
   <si>
-    <t>pred &gt; real</t>
-  </si>
-  <si>
     <t>changes &gt; no changes</t>
   </si>
   <si>
-    <t>pred no changes(dataset-24)</t>
-  </si>
-  <si>
-    <t>pred changes (dataset-24)</t>
-  </si>
-  <si>
-    <t>pred no changes</t>
-  </si>
-  <si>
-    <t>pred changes</t>
-  </si>
-  <si>
     <t>Павловский</t>
-  </si>
-  <si>
-    <t>Усть-Лабинский</t>
   </si>
   <si>
     <t>Вейделевский</t>
@@ -170,9 +149,6 @@
     <t>Суетский</t>
   </si>
   <si>
-    <t>Лабинский</t>
-  </si>
-  <si>
     <t>Старополтавский</t>
   </si>
   <si>
@@ -195,6 +171,30 @@
   </si>
   <si>
     <t>real saldo (next year)</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>prediction (no changes)</t>
+  </si>
+  <si>
+    <t>pred (major changes)</t>
+  </si>
+  <si>
+    <t>pred (no changes)</t>
+  </si>
+  <si>
+    <t>prediction (with changes)</t>
+  </si>
+  <si>
+    <t>Цивильский</t>
+  </si>
+  <si>
+    <t>город Михайловка</t>
+  </si>
+  <si>
+    <t>Кормиловский</t>
   </si>
 </sst>
 </file>
@@ -224,18 +224,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -387,10 +381,10 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -426,7 +420,17 @@
   <c:chart>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="3.8079222506151207E-2"/>
+          <c:y val="2.768270290490648E-2"/>
+          <c:w val="0.94216769299429448"/>
+          <c:h val="0.89157116190055252"/>
+        </c:manualLayout>
+      </c:layout>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
@@ -439,7 +443,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>saldo</c:v>
+                  <c:v>real</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -469,7 +473,7 @@
                   <c:v>-476</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-898</c:v>
+                  <c:v>-246</c:v>
                 </c:pt>
                 <c:pt idx="3">
                   <c:v>-166</c:v>
@@ -490,7 +494,7 @@
                   <c:v>-340</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-825</c:v>
+                  <c:v>-193</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>-168</c:v>
@@ -511,7 +515,7 @@
                   <c:v>-76</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-953</c:v>
+                  <c:v>-164</c:v>
                 </c:pt>
                 <c:pt idx="17">
                   <c:v>-188</c:v>
@@ -571,7 +575,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pred no changes</c:v>
+                  <c:v>prediction (no changes)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -598,94 +602,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>-86.789999999999921</c:v>
+                  <c:v>-78.749999999999901</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>14.580000000000011</c:v>
+                  <c:v>16.199999999999989</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-53.44</c:v>
+                  <c:v>-256.73999999999961</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-13.86999999999999</c:v>
+                  <c:v>-88.059999999999832</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-195.4399999999998</c:v>
+                  <c:v>-181.11999999999981</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-115.3</c:v>
+                  <c:v>-261.94999999999987</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-170.90000000000009</c:v>
+                  <c:v>-186.52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-243.18999999999971</c:v>
+                  <c:v>-199.47000000000011</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-262.89000000000021</c:v>
+                  <c:v>-302.77000000000032</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-188.31</c:v>
+                  <c:v>56.37</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-141.7799999999998</c:v>
+                  <c:v>-147.9899999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-155.09999999999991</c:v>
+                  <c:v>-126.85</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-197.8</c:v>
+                  <c:v>-187.78</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-149.20999999999989</c:v>
+                  <c:v>-179.64</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-143.57</c:v>
+                  <c:v>-136.37999999999991</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-79.469999999999956</c:v>
+                  <c:v>-68.259999999999891</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-200.74000000000021</c:v>
+                  <c:v>-156.45000000000019</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-168.0500000000001</c:v>
+                  <c:v>-150.97</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-36.529999999999987</c:v>
+                  <c:v>11.79999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-44.29999999999999</c:v>
+                  <c:v>-28.490000000000009</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-129.7299999999999</c:v>
+                  <c:v>-163.22999999999979</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-250.49999999999989</c:v>
+                  <c:v>-199.15999999999991</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-252.35000000000039</c:v>
+                  <c:v>-385.68999999999988</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-348.47000000000031</c:v>
+                  <c:v>-153.38999999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-166.34999999999991</c:v>
+                  <c:v>-13.20999999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-252.85000000000011</c:v>
+                  <c:v>-121.01</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-124.8</c:v>
+                  <c:v>-100.94</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-181.38000000000011</c:v>
+                  <c:v>-192.22</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-246.49000000000029</c:v>
+                  <c:v>-232.42000000000041</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-269.03000000000009</c:v>
+                  <c:v>-186</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -706,7 +710,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>pred changes</c:v>
+                  <c:v>prediction (with changes)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -730,94 +734,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>-50.299999999999933</c:v>
+                  <c:v>-72.919999999999973</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-82.33</c:v>
+                  <c:v>-69.39</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>116.78</c:v>
+                  <c:v>-103.4999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-35.789999999999992</c:v>
+                  <c:v>-60.98</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-113.29</c:v>
+                  <c:v>-26.03</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-126.93000000000011</c:v>
+                  <c:v>-63.529999999999987</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-125.5500000000001</c:v>
+                  <c:v>-66.910000000000082</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-198.42999999999989</c:v>
+                  <c:v>28.79999999999999</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-311.97000000000003</c:v>
+                  <c:v>-114.95</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-150.56</c:v>
+                  <c:v>131.78</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-138.43999999999991</c:v>
+                  <c:v>-84.729999999999947</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-133.63</c:v>
+                  <c:v>-107.67999999999989</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-169.22</c:v>
+                  <c:v>-128.62</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-192.99</c:v>
+                  <c:v>-208.3900000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-113.56</c:v>
+                  <c:v>-92.459999999999951</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-1.489999999999982</c:v>
+                  <c:v>-91.84999999999998</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>157.88999999999999</c:v>
+                  <c:v>-107.55</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-121.56</c:v>
+                  <c:v>-98.489999999999966</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-8.0399999999999814</c:v>
+                  <c:v>9.0299999999999816</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>23.47999999999999</c:v>
+                  <c:v>-24.160000000000021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-98.72</c:v>
+                  <c:v>-17.309999999999992</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-205.68999999999991</c:v>
+                  <c:v>4.8999999999999941</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-155.62</c:v>
+                  <c:v>-195.11000000000021</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-93.860000000000028</c:v>
+                  <c:v>-23.409999999999989</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-177.25</c:v>
+                  <c:v>-50.880000000000038</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-114.89</c:v>
+                  <c:v>-111.88</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-21.41</c:v>
+                  <c:v>-100.94</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-229.78999999999991</c:v>
+                  <c:v>-199.71</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-120.91</c:v>
+                  <c:v>-234.7600000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-5.5499999999999989</c:v>
+                  <c:v>-200.12000000000009</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -869,12 +873,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -928,12 +929,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:schemeClr val="tx1"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -971,7 +969,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr rtl="0">
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -1584,16 +1582,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>299356</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>394605</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>118380</xdr:rowOff>
+      <xdr:rowOff>36737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>340178</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>1687285</xdr:colOff>
+      <xdr:row>64</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1881,7 +1879,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="J35" sqref="J35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2034,7 +2032,7 @@
         <v>2019</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D3" s="6">
         <v>0</v>
@@ -2093,67 +2091,67 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>3657000</v>
+        <v>97641000</v>
       </c>
       <c r="B4" s="6">
-        <v>2016</v>
+        <v>2021</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>40</v>
+        <v>55</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
       </c>
       <c r="E4" s="6">
-        <v>-898</v>
+        <v>-246</v>
       </c>
       <c r="F4" s="6">
-        <v>110482</v>
+        <v>34498.999999999993</v>
       </c>
       <c r="G4" s="6">
-        <v>0.16932169946235581</v>
+        <v>0.20974521000608709</v>
       </c>
       <c r="H4" s="6">
-        <v>21442.174780000001</v>
+        <v>18166.422620000001</v>
       </c>
       <c r="I4" s="6">
-        <v>0.64434025452109822</v>
+        <v>0.44743036030029842</v>
       </c>
       <c r="J4" s="6">
-        <v>2.777828062489816E-2</v>
+        <v>6.6291776573233985E-2</v>
       </c>
       <c r="K4" s="6">
-        <v>12.98022834217339</v>
+        <v>34.779159367807758</v>
       </c>
       <c r="L4" s="6">
-        <v>24.9</v>
+        <v>30.3</v>
       </c>
       <c r="M4" s="6">
-        <v>1.891710866928537E-3</v>
+        <v>3.3044436070610531E-3</v>
       </c>
       <c r="N4" s="6">
-        <v>2.262812041780552E-3</v>
+        <v>1.6812081509608901E-3</v>
       </c>
       <c r="O4" s="6">
-        <v>6.8816639814630346E-3</v>
+        <v>1.927012377170351E-2</v>
       </c>
       <c r="P4" s="6">
-        <v>0.74870114588801784</v>
+        <v>6.0381460332183554</v>
       </c>
       <c r="Q4" s="6">
-        <v>2.9872370159845039</v>
+        <v>1.732328763152555</v>
       </c>
       <c r="R4" s="6">
-        <v>103.91411304103831</v>
+        <v>54.539706945128827</v>
       </c>
       <c r="S4" s="6">
-        <v>2.7153744501366662E-4</v>
+        <v>1.18844024464477E-3</v>
       </c>
       <c r="T4" s="6">
-        <v>4.3165402509005982E-2</v>
+        <v>5.8378503724745637E-2</v>
       </c>
       <c r="U4" s="7">
-        <v>139.45180162098799</v>
+        <v>112.737892110206</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -2164,7 +2162,7 @@
         <v>2020</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D5" s="6">
         <v>0</v>
@@ -2222,67 +2220,67 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
+      <c r="A6" s="5">
         <v>18610000</v>
       </c>
-      <c r="B6" s="9">
+      <c r="B6" s="6">
         <v>2021</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" s="9">
+      <c r="C6" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="6">
         <v>0</v>
       </c>
-      <c r="E6" s="9">
+      <c r="E6" s="6">
         <v>-210</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="6">
         <v>28673</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="6">
         <v>0.14693265441355979</v>
       </c>
-      <c r="H6" s="9">
+      <c r="H6" s="6">
         <v>18718.034879999999</v>
       </c>
-      <c r="I6" s="9">
+      <c r="I6" s="6">
         <v>0.54777665399504738</v>
       </c>
-      <c r="J6" s="9">
+      <c r="J6" s="6">
         <v>4.1362954696055498E-2</v>
       </c>
-      <c r="K6" s="9">
+      <c r="K6" s="6">
         <v>31.83643813448192</v>
       </c>
-      <c r="L6" s="9">
+      <c r="L6" s="6">
         <v>36.5</v>
       </c>
-      <c r="M6" s="9">
+      <c r="M6" s="6">
         <v>3.766609702507561E-3</v>
       </c>
-      <c r="N6" s="9">
+      <c r="N6" s="6">
         <v>3.208593450284227E-3</v>
       </c>
-      <c r="O6" s="9">
+      <c r="O6" s="6">
         <v>3.0467687371394669E-2</v>
       </c>
-      <c r="P6" s="9">
+      <c r="P6" s="6">
         <v>4.4495867192131957</v>
       </c>
-      <c r="Q6" s="9">
+      <c r="Q6" s="6">
         <v>1.9845499250165659</v>
       </c>
-      <c r="R6" s="9">
+      <c r="R6" s="6">
         <v>192.41406268266309</v>
       </c>
-      <c r="S6" s="9">
+      <c r="S6" s="6">
         <v>1.360164614794403E-3</v>
       </c>
-      <c r="T6" s="9">
+      <c r="T6" s="6">
         <v>3.8817005545286512E-2</v>
       </c>
-      <c r="U6" s="10">
+      <c r="U6" s="7">
         <v>214.23228544414599</v>
       </c>
     </row>
@@ -2424,7 +2422,7 @@
         <v>2019</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D9" s="6">
         <v>1</v>
@@ -2548,131 +2546,131 @@
     </row>
     <row r="11" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="8">
-        <v>18715000</v>
+        <v>18720000</v>
       </c>
       <c r="B11" s="9">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D11" s="9">
         <v>1</v>
       </c>
       <c r="E11" s="9">
-        <v>-825</v>
+        <v>-193</v>
       </c>
       <c r="F11" s="9">
-        <v>108665</v>
+        <v>86435.999999999985</v>
       </c>
       <c r="G11" s="9">
-        <v>0.16043804352827501</v>
+        <v>0.15063168124392609</v>
       </c>
       <c r="H11" s="9">
-        <v>19751.678240000001</v>
+        <v>21164.783759999998</v>
       </c>
       <c r="I11" s="9">
-        <v>0.66736299636497476</v>
+        <v>0.65549076773566561</v>
       </c>
       <c r="J11" s="9">
-        <v>1.6794736115584592E-2</v>
+        <v>2.148410384561986E-2</v>
       </c>
       <c r="K11" s="9">
-        <v>59.996390382183783</v>
+        <v>43.652040974593923</v>
       </c>
       <c r="L11" s="9">
-        <v>26.6</v>
+        <v>28.1</v>
       </c>
       <c r="M11" s="9">
-        <v>2.493903280725148E-3</v>
+        <v>1.3073256513489661E-3</v>
       </c>
       <c r="N11" s="9">
-        <v>2.6963603736253521E-3</v>
+        <v>4.3037623212550148E-3</v>
       </c>
       <c r="O11" s="9">
-        <v>2.074264942713839E-3</v>
+        <v>1.1512564209357199E-2</v>
       </c>
       <c r="P11" s="9">
-        <v>1.874568628353053E-2</v>
+        <v>1.5594081169882921</v>
       </c>
       <c r="Q11" s="9">
-        <v>0.23344223070905981</v>
+        <v>0.79530519690869517</v>
       </c>
       <c r="R11" s="9">
-        <v>2.2627752643445369</v>
+        <v>60.131282299042049</v>
       </c>
       <c r="S11" s="9">
-        <v>3.1288823448212311E-4</v>
+        <v>6.0160118469156228E-4</v>
       </c>
       <c r="T11" s="9">
-        <v>5.2574425988128642E-2</v>
+        <v>3.8166967467259012E-2</v>
       </c>
       <c r="U11" s="10">
-        <v>114.1425780428841</v>
+        <v>134.60475346105781</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12" s="5">
         <v>1606000</v>
       </c>
-      <c r="B12" s="3">
+      <c r="B12" s="6">
         <v>2021</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="3">
+      <c r="C12" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="6">
         <v>2</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="6">
         <v>-168</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="6">
         <v>9622.9999999999964</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="6">
         <v>0.1255325781980671</v>
       </c>
-      <c r="H12" s="3">
+      <c r="H12" s="6">
         <v>16635.344249999991</v>
       </c>
-      <c r="I12" s="3">
+      <c r="I12" s="6">
         <v>0.38933804426893881</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="6">
         <v>4.6762963732723652E-3</v>
       </c>
-      <c r="K12" s="3">
+      <c r="K12" s="6">
         <v>8.2392280847968369</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12" s="6">
         <v>30.1</v>
       </c>
-      <c r="M12" s="3">
+      <c r="M12" s="6">
         <v>3.4292840070663808E-3</v>
       </c>
-      <c r="N12" s="3">
+      <c r="N12" s="6">
         <v>1.039176971838299E-3</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="6">
         <v>2.207211888184556E-2</v>
       </c>
-      <c r="P12" s="3">
+      <c r="P12" s="6">
         <v>2.3890678582562601</v>
       </c>
-      <c r="Q12" s="3">
+      <c r="Q12" s="6">
         <v>0.77812428556583157</v>
       </c>
-      <c r="R12" s="3">
+      <c r="R12" s="6">
         <v>63.738560563233889</v>
       </c>
-      <c r="S12" s="3">
+      <c r="S12" s="6">
         <v>1.5587654577574521E-3</v>
       </c>
-      <c r="T12" s="3">
+      <c r="T12" s="6">
         <v>6.9936610204717878E-2</v>
       </c>
-      <c r="U12" s="4">
+      <c r="U12" s="7">
         <v>24.202441109840969</v>
       </c>
     </row>
@@ -2684,7 +2682,7 @@
         <v>2018</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D13" s="6">
         <v>2</v>
@@ -2749,7 +2747,7 @@
         <v>2015</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="6">
         <v>2</v>
@@ -2814,7 +2812,7 @@
         <v>2021</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D15" s="6">
         <v>2</v>
@@ -2879,7 +2877,7 @@
         <v>2017</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D16" s="9">
         <v>2</v>
@@ -2944,7 +2942,7 @@
         <v>2020</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D17" s="3">
         <v>3</v>
@@ -3003,67 +3001,67 @@
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
-        <v>3630000</v>
+        <v>52623000</v>
       </c>
       <c r="B18" s="6">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="D18" s="6">
         <v>3</v>
       </c>
       <c r="E18" s="6">
-        <v>-953</v>
+        <v>-164</v>
       </c>
       <c r="F18" s="6">
-        <v>95828.000000000015</v>
+        <v>25263.999999999989</v>
       </c>
       <c r="G18" s="6">
-        <v>0.14024084818633381</v>
+        <v>0.16335497150094999</v>
       </c>
       <c r="H18" s="6">
-        <v>21170.54232</v>
+        <v>20441.322639999999</v>
       </c>
       <c r="I18" s="6">
-        <v>0.7397743874441709</v>
+        <v>0.67569268524382509</v>
       </c>
       <c r="J18" s="6">
-        <v>2.1987310598155011E-2</v>
+        <v>1.108296390120327E-3</v>
       </c>
       <c r="K18" s="6">
-        <v>30.604403820177811</v>
+        <v>10.626096000633311</v>
       </c>
       <c r="L18" s="6">
-        <v>27.2</v>
+        <v>21.79</v>
       </c>
       <c r="M18" s="6">
-        <v>2.0244604917143091E-3</v>
+        <v>2.9290690310322799E-3</v>
       </c>
       <c r="N18" s="6">
-        <v>2.3166506657761729E-3</v>
+        <v>2.7707409753008122E-3</v>
       </c>
       <c r="O18" s="6">
-        <v>8.2762866803022007E-3</v>
+        <v>8.0193160227992315E-3</v>
       </c>
       <c r="P18" s="6">
-        <v>11.998883416120551</v>
+        <v>12.45681602279924</v>
       </c>
       <c r="Q18" s="6">
-        <v>0.760384230078891</v>
+        <v>0.75126622862571246</v>
       </c>
       <c r="R18" s="6">
-        <v>102.08716093834779</v>
+        <v>153.33132419252689</v>
       </c>
       <c r="S18" s="6">
-        <v>2.8175481070250767E-4</v>
+        <v>1.147878404053196E-3</v>
       </c>
       <c r="T18" s="6">
-        <v>4.0572692741161237E-2</v>
+        <v>4.3856871437618752E-2</v>
       </c>
       <c r="U18" s="7">
-        <v>99.507022928580298</v>
+        <v>141.8954285164661</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -3074,7 +3072,7 @@
         <v>2021</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D19" s="6">
         <v>3</v>
@@ -3139,7 +3137,7 @@
         <v>2018</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="6">
         <v>3</v>
@@ -3204,7 +3202,7 @@
         <v>2020</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="9">
         <v>3</v>
@@ -3269,7 +3267,7 @@
         <v>2014</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="3">
         <v>4</v>
@@ -3334,7 +3332,7 @@
         <v>2017</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D23" s="6">
         <v>4</v>
@@ -3399,7 +3397,7 @@
         <v>2021</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="6">
         <v>4</v>
@@ -3464,7 +3462,7 @@
         <v>2018</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D25" s="6">
         <v>4</v>
@@ -3529,7 +3527,7 @@
         <v>2021</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D26" s="9">
         <v>4</v>
@@ -3594,7 +3592,7 @@
         <v>2021</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D27" s="3">
         <v>5</v>
@@ -3659,7 +3657,7 @@
         <v>2019</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D28" s="6">
         <v>5</v>
@@ -3724,7 +3722,7 @@
         <v>2015</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" s="6">
         <v>5</v>
@@ -3789,7 +3787,7 @@
         <v>2020</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D30" s="6">
         <v>5</v>
@@ -3854,7 +3852,7 @@
         <v>2021</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" s="9">
         <v>5</v>
@@ -3918,16 +3916,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U31"/>
+  <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="23.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.5703125" customWidth="1"/>
     <col min="11" max="11" width="14.140625" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" customWidth="1"/>
     <col min="14" max="14" width="13.5703125" customWidth="1"/>
@@ -3998,7 +3997,7 @@
         <v>20</v>
       </c>
       <c r="U1" s="12" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
@@ -4074,7 +4073,7 @@
         <v>2019</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D3" s="11">
         <v>0</v>
@@ -4132,68 +4131,68 @@
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>3657000</v>
-      </c>
-      <c r="B4" s="11">
-        <v>2016</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="11">
+      <c r="A4" s="6">
+        <v>97641000</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="6">
         <v>0</v>
       </c>
       <c r="E4" s="11">
-        <v>110482</v>
+        <v>34498.999999999993</v>
       </c>
       <c r="F4" s="11">
-        <v>18706.999999999996</v>
-      </c>
-      <c r="G4" s="11">
-        <v>21442.174780000001</v>
+        <v>7235.9999999999973</v>
+      </c>
+      <c r="G4" s="6">
+        <v>18166.422620000001</v>
       </c>
       <c r="H4" s="11">
-        <v>71187.999999999971</v>
+        <v>15435.899999999992</v>
       </c>
       <c r="I4" s="11">
-        <v>3068.9999999999986</v>
+        <v>2286.9999999999986</v>
       </c>
       <c r="J4" s="11">
-        <v>1434081.5877000005</v>
-      </c>
-      <c r="K4" s="11">
-        <v>24.9</v>
+        <v>1199846.2190299996</v>
+      </c>
+      <c r="K4" s="6">
+        <v>30.3</v>
       </c>
       <c r="L4" s="11">
-        <v>208.99999999999864</v>
+        <v>113.99999999999925</v>
       </c>
       <c r="M4" s="11">
-        <v>249.99999999999895</v>
+        <v>57.999999999999737</v>
       </c>
       <c r="N4" s="11">
-        <v>760.29999999999905</v>
+        <v>664.79999999999927</v>
       </c>
       <c r="O4" s="11">
-        <v>82717.999999999985</v>
+        <v>208310</v>
       </c>
       <c r="P4" s="11">
-        <v>330035.92</v>
+        <v>59763.609999999986</v>
       </c>
       <c r="Q4" s="11">
-        <v>11480639.036999995</v>
+        <v>1881565.3498999991</v>
       </c>
       <c r="R4" s="11">
-        <v>29.999999999999915</v>
+        <v>40.999999999999908</v>
       </c>
       <c r="S4" s="11">
-        <v>4768.9999999999991</v>
+        <v>2013.9999999999993</v>
       </c>
       <c r="T4" s="11">
-        <v>15406913.946689995</v>
+        <v>3889344.5399099961</v>
       </c>
       <c r="U4" s="11">
-        <v>-898</v>
+        <v>-246</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -4204,7 +4203,7 @@
         <v>2020</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D5" s="11">
         <v>0</v>
@@ -4269,7 +4268,7 @@
         <v>2021</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D6" s="11">
         <v>0</v>
@@ -4464,7 +4463,7 @@
         <v>2019</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D9" s="11">
         <v>1</v>
@@ -4588,67 +4587,67 @@
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
-        <v>18715000</v>
+        <v>18720000</v>
       </c>
       <c r="B11" s="11">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D11" s="11">
         <v>1</v>
       </c>
       <c r="E11" s="11">
-        <v>108665</v>
+        <v>86435.999999999985</v>
       </c>
       <c r="F11" s="11">
-        <v>17434.000000000004</v>
-      </c>
-      <c r="G11" s="11">
-        <v>19751.678240000001</v>
-      </c>
-      <c r="H11" s="11">
-        <v>72518.999999999985</v>
-      </c>
-      <c r="I11" s="11">
-        <v>1824.9999999999995</v>
-      </c>
-      <c r="J11" s="11">
-        <v>6519507.7608800009</v>
-      </c>
-      <c r="K11" s="11">
-        <v>26.6</v>
+        <v>13019.999999999993</v>
+      </c>
+      <c r="G11" s="6">
+        <v>21164.783759999998</v>
+      </c>
+      <c r="H11" s="6">
+        <v>56657.999999999985</v>
+      </c>
+      <c r="I11" s="6">
+        <v>1856.999999999998</v>
+      </c>
+      <c r="J11" s="6">
+        <v>3773107.8136799997</v>
+      </c>
+      <c r="K11" s="6">
+        <v>28.1</v>
       </c>
       <c r="L11" s="11">
-        <v>270.99999999999818</v>
+        <v>112.99999999999922</v>
       </c>
       <c r="M11" s="11">
-        <v>292.99999999999886</v>
+        <v>371.99999999999841</v>
       </c>
       <c r="N11" s="11">
-        <v>225.39999999999932</v>
+        <v>995.09999999999877</v>
       </c>
       <c r="O11" s="11">
-        <v>2036.9999999998449</v>
+        <v>134789</v>
       </c>
       <c r="P11" s="11">
-        <v>25366.999999999985</v>
+        <v>68742.999999999971</v>
       </c>
       <c r="Q11" s="11">
-        <v>245884.47409999909</v>
+        <v>5197507.5167999975</v>
       </c>
       <c r="R11" s="11">
-        <v>33.999999999999908</v>
+        <v>51.999999999999872</v>
       </c>
       <c r="S11" s="11">
-        <v>5712.9999999999991</v>
+        <v>3298.9999999999995</v>
       </c>
       <c r="T11" s="11">
-        <v>12403303.24303</v>
+        <v>11634696.470159991</v>
       </c>
       <c r="U11" s="11">
-        <v>-825</v>
+        <v>-193</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -4659,7 +4658,7 @@
         <v>2021</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D12" s="11">
         <v>2</v>
@@ -4724,7 +4723,7 @@
         <v>2018</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D13" s="11">
         <v>2</v>
@@ -4789,7 +4788,7 @@
         <v>2015</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="11">
         <v>2</v>
@@ -4854,7 +4853,7 @@
         <v>2021</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D15" s="11">
         <v>2</v>
@@ -4919,7 +4918,7 @@
         <v>2017</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D16" s="11">
         <v>2</v>
@@ -4984,7 +4983,7 @@
         <v>2020</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D17" s="11">
         <v>3</v>
@@ -5042,68 +5041,68 @@
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>3630000</v>
-      </c>
-      <c r="B18" s="11">
-        <v>2020</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="11">
+      <c r="A18" s="5">
+        <v>52623000</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2018</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="6">
         <v>3</v>
       </c>
       <c r="E18" s="11">
-        <v>95828.000000000015</v>
+        <v>25263.999999999989</v>
       </c>
       <c r="F18" s="11">
-        <v>13438.999999999998</v>
-      </c>
-      <c r="G18" s="11">
-        <v>21170.54232</v>
+        <v>4126.9999999999991</v>
+      </c>
+      <c r="G18" s="6">
+        <v>20441.322639999999</v>
       </c>
       <c r="H18" s="11">
-        <v>70891.10000000002</v>
+        <v>17070.69999999999</v>
       </c>
       <c r="I18" s="11">
-        <v>2106.9999999999986</v>
+        <v>27.999999999999929</v>
       </c>
       <c r="J18" s="11">
-        <v>2932758.8092799997</v>
-      </c>
-      <c r="K18" s="11">
-        <v>27.2</v>
+        <v>268457.68935999984</v>
+      </c>
+      <c r="K18" s="6">
+        <v>21.79</v>
       </c>
       <c r="L18" s="11">
-        <v>193.99999999999883</v>
+        <v>73.999999999999488</v>
       </c>
       <c r="M18" s="11">
-        <v>221.99999999999912</v>
+        <v>69.999999999999687</v>
       </c>
       <c r="N18" s="11">
-        <v>793.09999999999945</v>
+        <v>202.59999999999971</v>
       </c>
       <c r="O18" s="11">
-        <v>1149829.0000000002</v>
+        <v>314708.99999999988</v>
       </c>
       <c r="P18" s="11">
-        <v>72866.099999999977</v>
+        <v>18979.989999999991</v>
       </c>
       <c r="Q18" s="11">
-        <v>9782808.4583999943</v>
+        <v>3873762.5743999979</v>
       </c>
       <c r="R18" s="11">
-        <v>26.999999999999911</v>
+        <v>28.999999999999932</v>
       </c>
       <c r="S18" s="11">
-        <v>3887.9999999999995</v>
+        <v>1107.9999999999998</v>
       </c>
       <c r="T18" s="11">
-        <v>9535558.9931999948</v>
+        <v>3584846.1060399981</v>
       </c>
       <c r="U18" s="11">
-        <v>-953</v>
+        <v>-164</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -5114,7 +5113,7 @@
         <v>2021</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D19" s="11">
         <v>3</v>
@@ -5179,7 +5178,7 @@
         <v>2018</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="11">
         <v>3</v>
@@ -5244,7 +5243,7 @@
         <v>2020</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="11">
         <v>3</v>
@@ -5309,7 +5308,7 @@
         <v>2014</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="11">
         <v>4</v>
@@ -5374,7 +5373,7 @@
         <v>2017</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D23" s="11">
         <v>4</v>
@@ -5439,7 +5438,7 @@
         <v>2021</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="11">
         <v>4</v>
@@ -5504,7 +5503,7 @@
         <v>2018</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D25" s="11">
         <v>4</v>
@@ -5569,7 +5568,7 @@
         <v>2021</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D26" s="11">
         <v>4</v>
@@ -5634,7 +5633,7 @@
         <v>2021</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D27" s="11">
         <v>5</v>
@@ -5699,7 +5698,7 @@
         <v>2019</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D28" s="11">
         <v>5</v>
@@ -5764,7 +5763,7 @@
         <v>2015</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" s="11">
         <v>5</v>
@@ -5829,7 +5828,7 @@
         <v>2020</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D30" s="11">
         <v>5</v>
@@ -5894,7 +5893,7 @@
         <v>2021</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" s="11">
         <v>5</v>
@@ -5950,6 +5949,73 @@
       <c r="U31" s="11">
         <v>-429</v>
       </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="5"/>
+      <c r="B35" s="6"/>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="6"/>
+      <c r="K35" s="6"/>
+      <c r="L35" s="6"/>
+      <c r="M35" s="6"/>
+      <c r="N35" s="6"/>
+      <c r="O35" s="6"/>
+      <c r="P35" s="6"/>
+      <c r="Q35" s="6"/>
+      <c r="R35" s="6"/>
+      <c r="S35" s="6"/>
+      <c r="T35" s="6"/>
+      <c r="U35" s="6"/>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F36" s="6"/>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="6"/>
+      <c r="B38" s="6"/>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="6"/>
+      <c r="I38" s="6"/>
+      <c r="J38" s="6"/>
+      <c r="K38" s="6"/>
+      <c r="L38" s="6"/>
+      <c r="M38" s="6"/>
+      <c r="N38" s="6"/>
+      <c r="O38" s="6"/>
+      <c r="P38" s="6"/>
+      <c r="Q38" s="6"/>
+      <c r="R38" s="6"/>
+      <c r="S38" s="6"/>
+      <c r="T38" s="6"/>
+      <c r="U38" s="6"/>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F39" s="6"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+      <c r="U39" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5959,15 +6025,17 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Y69"/>
+  <dimension ref="A1:X70"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G31"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C70" sqref="C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
+    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
     <col min="8" max="8" width="9.5703125" customWidth="1"/>
@@ -5986,11 +6054,11 @@
     <col min="21" max="21" width="14.42578125" customWidth="1"/>
     <col min="22" max="22" width="28.7109375" customWidth="1"/>
     <col min="23" max="23" width="23.7109375" customWidth="1"/>
-    <col min="24" max="24" width="12.85546875" customWidth="1"/>
+    <col min="24" max="24" width="21.28515625" customWidth="1"/>
     <col min="25" max="25" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
@@ -6055,19 +6123,16 @@
         <v>20</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>35</v>
-      </c>
-      <c r="W1" s="12" t="s">
-        <v>36</v>
+        <v>53</v>
+      </c>
+      <c r="W1" s="16" t="s">
+        <v>52</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="Y1" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>22719000</v>
       </c>
@@ -6132,21 +6197,17 @@
         <v>356159.95995556167</v>
       </c>
       <c r="V2" s="11">
-        <v>-86.789999999999921</v>
-      </c>
-      <c r="W2" s="16">
-        <v>-50.299999999999933</v>
+        <v>-78.749999999999901</v>
+      </c>
+      <c r="W2" s="15">
+        <v>-72.919999999999973</v>
       </c>
       <c r="X2" s="11">
-        <f t="shared" ref="X2:X31" si="0">IF(W2&gt;E2,1,0)</f>
+        <f t="shared" ref="X2:X31" si="0">IF(W2&gt;V2,1,0)</f>
         <v>1</v>
       </c>
-      <c r="Y2" s="11">
-        <f>IF(W2&gt;V2,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>3639000</v>
       </c>
@@ -6154,7 +6215,7 @@
         <v>2019</v>
       </c>
       <c r="C3" s="11" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D3" s="11">
         <v>0</v>
@@ -6211,100 +6272,92 @@
         <v>18702978.115983784</v>
       </c>
       <c r="V3" s="11">
-        <v>14.580000000000011</v>
-      </c>
-      <c r="W3" s="16">
-        <v>-82.33</v>
+        <v>16.199999999999989</v>
+      </c>
+      <c r="W3" s="15">
+        <v>-69.39</v>
       </c>
       <c r="X3" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y3" s="15">
-        <f>IF(W3&gt;V3,1,0)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" s="11">
-        <v>3657000</v>
-      </c>
-      <c r="B4" s="11">
-        <v>2016</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>40</v>
-      </c>
-      <c r="D4" s="11">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4" s="6">
+        <v>97641000</v>
+      </c>
+      <c r="B4" s="6">
+        <v>2021</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="6">
         <v>0</v>
       </c>
       <c r="E4" s="11">
-        <v>-898</v>
-      </c>
-      <c r="F4" s="14">
-        <v>110482</v>
-      </c>
-      <c r="G4" s="13">
-        <v>23757.889999999996</v>
-      </c>
-      <c r="H4" s="13">
-        <v>23374.655086082195</v>
-      </c>
-      <c r="I4" s="13">
-        <v>87752.516275045637</v>
-      </c>
-      <c r="J4" s="13">
-        <v>3755.8691620892382</v>
-      </c>
-      <c r="K4" s="13">
-        <v>2076660.1605172826</v>
-      </c>
-      <c r="L4" s="13">
-        <v>25.175729834009683</v>
-      </c>
-      <c r="M4" s="13">
-        <v>242.82034083237392</v>
-      </c>
-      <c r="N4" s="13">
-        <v>307.17137982232691</v>
-      </c>
-      <c r="O4" s="13">
-        <v>868.06713037909356</v>
-      </c>
-      <c r="P4" s="13">
-        <v>91892.042028160213</v>
-      </c>
-      <c r="Q4" s="13">
-        <v>404333.93767816876</v>
-      </c>
-      <c r="R4" s="13">
-        <v>15529696.715903692</v>
-      </c>
-      <c r="S4" s="13">
-        <v>30.675841915138577</v>
-      </c>
-      <c r="T4" s="13">
-        <v>5484.0548567619135</v>
-      </c>
-      <c r="U4" s="13">
-        <v>23228394.098859005</v>
+        <v>-246</v>
+      </c>
+      <c r="F4" s="11">
+        <v>34498.999999999993</v>
+      </c>
+      <c r="G4" s="11">
+        <v>7235.9999999999973</v>
+      </c>
+      <c r="H4" s="6">
+        <v>18166.422620000001</v>
+      </c>
+      <c r="I4" s="11">
+        <v>15435.899999999992</v>
+      </c>
+      <c r="J4" s="11">
+        <v>2286.9999999999986</v>
+      </c>
+      <c r="K4" s="11">
+        <v>1199846.2190299996</v>
+      </c>
+      <c r="L4" s="6">
+        <v>30.3</v>
+      </c>
+      <c r="M4" s="11">
+        <v>113.99999999999925</v>
+      </c>
+      <c r="N4" s="11">
+        <v>57.999999999999737</v>
+      </c>
+      <c r="O4" s="11">
+        <v>664.79999999999927</v>
+      </c>
+      <c r="P4" s="11">
+        <v>208310</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>59763.609999999986</v>
+      </c>
+      <c r="R4" s="11">
+        <v>1881565.3498999991</v>
+      </c>
+      <c r="S4" s="11">
+        <v>40.999999999999908</v>
+      </c>
+      <c r="T4" s="11">
+        <v>2013.9999999999993</v>
+      </c>
+      <c r="U4" s="11">
+        <v>3889344.5399099961</v>
       </c>
       <c r="V4" s="11">
-        <v>-53.44</v>
-      </c>
-      <c r="W4" s="16">
-        <v>116.78</v>
+        <v>-256.73999999999961</v>
+      </c>
+      <c r="W4" s="15">
+        <v>-103.4999999999999</v>
       </c>
       <c r="X4" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y4" s="11">
-        <f t="shared" ref="Y4:Y31" si="1">IF(W4&gt;V4,1,0)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="11">
         <v>14625000</v>
       </c>
@@ -6312,7 +6365,7 @@
         <v>2020</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D5" s="11">
         <v>0</v>
@@ -6369,21 +6422,17 @@
         <v>2603925.131103361</v>
       </c>
       <c r="V5" s="11">
-        <v>-13.86999999999999</v>
-      </c>
-      <c r="W5" s="16">
-        <v>-35.789999999999992</v>
+        <v>-88.059999999999832</v>
+      </c>
+      <c r="W5" s="15">
+        <v>-60.98</v>
       </c>
       <c r="X5" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y5" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="11">
         <v>18610000</v>
       </c>
@@ -6391,7 +6440,7 @@
         <v>2021</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D6" s="11">
         <v>0</v>
@@ -6448,21 +6497,17 @@
         <v>9261078.9064769875</v>
       </c>
       <c r="V6" s="11">
-        <v>-195.4399999999998</v>
-      </c>
-      <c r="W6" s="16">
-        <v>-113.29</v>
+        <v>-181.11999999999981</v>
+      </c>
+      <c r="W6" s="15">
+        <v>-26.03</v>
       </c>
       <c r="X6" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y6" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>1703000</v>
       </c>
@@ -6527,21 +6572,17 @@
         <v>6244959.3830651175</v>
       </c>
       <c r="V7" s="11">
-        <v>-115.3</v>
-      </c>
-      <c r="W7" s="11">
-        <v>-126.93000000000011</v>
+        <v>-261.94999999999987</v>
+      </c>
+      <c r="W7" s="15">
+        <v>-63.529999999999987</v>
       </c>
       <c r="X7" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y7" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
         <v>1716000</v>
       </c>
@@ -6606,21 +6647,17 @@
         <v>17700089.625400923</v>
       </c>
       <c r="V8" s="11">
-        <v>-170.90000000000009</v>
-      </c>
-      <c r="W8" s="11">
-        <v>-125.5500000000001</v>
+        <v>-186.52</v>
+      </c>
+      <c r="W8" s="15">
+        <v>-66.910000000000082</v>
       </c>
       <c r="X8" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y8" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
         <v>10615000</v>
       </c>
@@ -6628,7 +6665,7 @@
         <v>2019</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D9" s="11">
         <v>1</v>
@@ -6685,21 +6722,17 @@
         <v>5837841.9366662949</v>
       </c>
       <c r="V9" s="11">
-        <v>-243.18999999999971</v>
-      </c>
-      <c r="W9" s="11">
-        <v>-198.42999999999989</v>
+        <v>-199.47000000000011</v>
+      </c>
+      <c r="W9" s="15">
+        <v>28.79999999999999</v>
       </c>
       <c r="X9" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y9" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
         <v>10710000</v>
       </c>
@@ -6764,100 +6797,92 @@
         <v>9740873.2307771854</v>
       </c>
       <c r="V10" s="11">
-        <v>-262.89000000000021</v>
-      </c>
-      <c r="W10" s="11">
-        <v>-311.97000000000003</v>
+        <v>-302.77000000000032</v>
+      </c>
+      <c r="W10" s="15">
+        <v>-114.95</v>
       </c>
       <c r="X10" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y10" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
-        <v>18715000</v>
+        <v>18720000</v>
       </c>
       <c r="B11" s="11">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>25</v>
+        <v>56</v>
       </c>
       <c r="D11" s="11">
         <v>1</v>
       </c>
       <c r="E11" s="11">
-        <v>-825</v>
-      </c>
-      <c r="F11" s="14">
-        <v>108665</v>
-      </c>
-      <c r="G11" s="13">
-        <v>17782.680000000004</v>
-      </c>
-      <c r="H11" s="13">
-        <v>19751.678240000001</v>
-      </c>
-      <c r="I11" s="13">
-        <v>80578.646260303038</v>
-      </c>
-      <c r="J11" s="13">
-        <v>2207.1191203775575</v>
-      </c>
-      <c r="K11" s="13">
-        <v>8035015.1850104388</v>
-      </c>
-      <c r="L11" s="13">
-        <v>26.6</v>
-      </c>
-      <c r="M11" s="13">
-        <v>270.99999999999818</v>
-      </c>
-      <c r="N11" s="13">
-        <v>306.50931386876721</v>
-      </c>
-      <c r="O11" s="13">
-        <v>225.39999999999932</v>
-      </c>
-      <c r="P11" s="13">
-        <v>2036.9999999998449</v>
-      </c>
-      <c r="Q11" s="13">
-        <v>29538.77332959717</v>
-      </c>
-      <c r="R11" s="13">
-        <v>267802.97913148615</v>
-      </c>
-      <c r="S11" s="13">
-        <v>33.999999999999908</v>
-      </c>
-      <c r="T11" s="13">
-        <v>5967.2409246760681</v>
-      </c>
-      <c r="U11" s="13">
-        <v>14464008.469065005</v>
+        <v>-193</v>
+      </c>
+      <c r="F11" s="11">
+        <v>86435.999999999985</v>
+      </c>
+      <c r="G11" s="11">
+        <v>13019.999999999993</v>
+      </c>
+      <c r="H11" s="6">
+        <v>21164.783759999998</v>
+      </c>
+      <c r="I11" s="6">
+        <v>56657.999999999985</v>
+      </c>
+      <c r="J11" s="6">
+        <v>1856.999999999998</v>
+      </c>
+      <c r="K11" s="6">
+        <v>3773107.8136799997</v>
+      </c>
+      <c r="L11" s="6">
+        <v>28.1</v>
+      </c>
+      <c r="M11" s="11">
+        <v>112.99999999999922</v>
+      </c>
+      <c r="N11" s="11">
+        <v>371.99999999999841</v>
+      </c>
+      <c r="O11" s="11">
+        <v>995.09999999999877</v>
+      </c>
+      <c r="P11" s="11">
+        <v>134789</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>68742.999999999971</v>
+      </c>
+      <c r="R11" s="11">
+        <v>5197507.5167999975</v>
+      </c>
+      <c r="S11" s="11">
+        <v>51.999999999999872</v>
+      </c>
+      <c r="T11" s="11">
+        <v>3298.9999999999995</v>
+      </c>
+      <c r="U11" s="11">
+        <v>11634696.470159991</v>
       </c>
       <c r="V11" s="11">
-        <v>-188.31</v>
-      </c>
-      <c r="W11" s="11">
-        <v>-150.56</v>
+        <v>56.37</v>
+      </c>
+      <c r="W11" s="15">
+        <v>131.78</v>
       </c>
       <c r="X11" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y11" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>1606000</v>
       </c>
@@ -6865,7 +6890,7 @@
         <v>2021</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D12" s="11">
         <v>2</v>
@@ -6922,21 +6947,17 @@
         <v>286032.99613732687</v>
       </c>
       <c r="V12" s="11">
-        <v>-141.7799999999998</v>
-      </c>
-      <c r="W12" s="11">
-        <v>-138.43999999999991</v>
+        <v>-147.9899999999999</v>
+      </c>
+      <c r="W12" s="15">
+        <v>-84.729999999999947</v>
       </c>
       <c r="X12" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y12" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
         <v>1620000</v>
       </c>
@@ -6944,7 +6965,7 @@
         <v>2018</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D13" s="11">
         <v>2</v>
@@ -7001,21 +7022,17 @@
         <v>1832988.2302829542</v>
       </c>
       <c r="V13" s="11">
-        <v>-155.09999999999991</v>
-      </c>
-      <c r="W13" s="11">
-        <v>-133.63</v>
+        <v>-126.85</v>
+      </c>
+      <c r="W13" s="15">
+        <v>-107.67999999999989</v>
       </c>
       <c r="X13" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y13" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
         <v>1719000</v>
       </c>
@@ -7023,7 +7040,7 @@
         <v>2015</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D14" s="11">
         <v>2</v>
@@ -7080,21 +7097,17 @@
         <v>2408571.3178105522</v>
       </c>
       <c r="V14" s="11">
-        <v>-197.8</v>
-      </c>
-      <c r="W14" s="11">
-        <v>-169.22</v>
+        <v>-187.78</v>
+      </c>
+      <c r="W14" s="15">
+        <v>-128.62</v>
       </c>
       <c r="X14" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y14" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
         <v>4621000</v>
       </c>
@@ -7102,7 +7115,7 @@
         <v>2021</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D15" s="11">
         <v>2</v>
@@ -7159,21 +7172,17 @@
         <v>4328559.1604477121</v>
       </c>
       <c r="V15" s="11">
-        <v>-149.20999999999989</v>
-      </c>
-      <c r="W15" s="11">
-        <v>-192.99</v>
-      </c>
-      <c r="X15" s="15">
+        <v>-179.64</v>
+      </c>
+      <c r="W15" s="15">
+        <v>-208.3900000000001</v>
+      </c>
+      <c r="X15" s="11">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y15" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
         <v>36616000</v>
       </c>
@@ -7181,7 +7190,7 @@
         <v>2017</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D16" s="11">
         <v>2</v>
@@ -7238,21 +7247,17 @@
         <v>2294824.0449553295</v>
       </c>
       <c r="V16" s="11">
-        <v>-143.57</v>
-      </c>
-      <c r="W16" s="11">
-        <v>-113.56</v>
+        <v>-136.37999999999991</v>
+      </c>
+      <c r="W16" s="15">
+        <v>-92.459999999999951</v>
       </c>
       <c r="X16" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y16" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
         <v>1641000</v>
       </c>
@@ -7260,7 +7265,7 @@
         <v>2020</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D17" s="11">
         <v>3</v>
@@ -7317,100 +7322,92 @@
         <v>1122077.8321941854</v>
       </c>
       <c r="V17" s="11">
-        <v>-79.469999999999956</v>
-      </c>
-      <c r="W17" s="11">
-        <v>-1.489999999999982</v>
+        <v>-68.259999999999891</v>
+      </c>
+      <c r="W17" s="15">
+        <v>-91.84999999999998</v>
       </c>
       <c r="X17" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y17" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A18" s="11">
-        <v>3630000</v>
-      </c>
-      <c r="B18" s="11">
-        <v>2020</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D18" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18" s="5">
+        <v>52623000</v>
+      </c>
+      <c r="B18" s="6">
+        <v>2018</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="D18" s="6">
         <v>3</v>
       </c>
       <c r="E18" s="11">
-        <v>-953</v>
-      </c>
-      <c r="F18" s="14">
-        <v>95828.000000000015</v>
-      </c>
-      <c r="G18" s="13">
-        <v>18008.259999999998</v>
-      </c>
-      <c r="H18" s="13">
-        <v>22455.614878771485</v>
-      </c>
-      <c r="I18" s="13">
-        <v>92694.324653006508</v>
-      </c>
-      <c r="J18" s="13">
-        <v>2987.3308045404933</v>
-      </c>
-      <c r="K18" s="13">
-        <v>4123326.2785686189</v>
-      </c>
-      <c r="L18" s="13">
-        <v>27.42970365349845</v>
-      </c>
-      <c r="M18" s="13">
-        <v>238.50847556776347</v>
-      </c>
-      <c r="N18" s="13">
-        <v>285.67338508661948</v>
-      </c>
-      <c r="O18" s="13">
-        <v>1071.6954272613598</v>
-      </c>
-      <c r="P18" s="13">
-        <v>1592537.543345849</v>
-      </c>
-      <c r="Q18" s="13">
-        <v>117295.81425731478</v>
-      </c>
-      <c r="R18" s="13">
-        <v>12574233.283892285</v>
-      </c>
-      <c r="S18" s="13">
-        <v>31.260369476560907</v>
-      </c>
-      <c r="T18" s="13">
-        <v>4873.0621851700944</v>
-      </c>
-      <c r="U18" s="13">
-        <v>14264173.483645547</v>
+        <v>-164</v>
+      </c>
+      <c r="F18" s="11">
+        <v>25263.999999999989</v>
+      </c>
+      <c r="G18" s="11">
+        <v>4126.9999999999991</v>
+      </c>
+      <c r="H18" s="6">
+        <v>20441.322639999999</v>
+      </c>
+      <c r="I18" s="11">
+        <v>17070.69999999999</v>
+      </c>
+      <c r="J18" s="11">
+        <v>27.999999999999929</v>
+      </c>
+      <c r="K18" s="11">
+        <v>268457.68935999984</v>
+      </c>
+      <c r="L18" s="6">
+        <v>21.79</v>
+      </c>
+      <c r="M18" s="11">
+        <v>73.999999999999488</v>
+      </c>
+      <c r="N18" s="11">
+        <v>69.999999999999687</v>
+      </c>
+      <c r="O18" s="11">
+        <v>202.59999999999971</v>
+      </c>
+      <c r="P18" s="11">
+        <v>314708.99999999988</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>18979.989999999991</v>
+      </c>
+      <c r="R18" s="11">
+        <v>3873762.5743999979</v>
+      </c>
+      <c r="S18" s="11">
+        <v>28.999999999999932</v>
+      </c>
+      <c r="T18" s="11">
+        <v>1107.9999999999998</v>
+      </c>
+      <c r="U18" s="11">
+        <v>3584846.1060399981</v>
       </c>
       <c r="V18" s="11">
-        <v>-200.74000000000021</v>
-      </c>
-      <c r="W18" s="11">
-        <v>157.88999999999999</v>
+        <v>-156.45000000000019</v>
+      </c>
+      <c r="W18" s="15">
+        <v>-107.55</v>
       </c>
       <c r="X18" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y18" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
         <v>18652000</v>
       </c>
@@ -7418,7 +7415,7 @@
         <v>2021</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D19" s="11">
         <v>3</v>
@@ -7475,21 +7472,17 @@
         <v>482329.48363598721</v>
       </c>
       <c r="V19" s="11">
-        <v>-168.0500000000001</v>
-      </c>
-      <c r="W19" s="11">
-        <v>-121.56</v>
+        <v>-150.97</v>
+      </c>
+      <c r="W19" s="15">
+        <v>-98.489999999999966</v>
       </c>
       <c r="X19" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y19" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
         <v>22712000</v>
       </c>
@@ -7497,7 +7490,7 @@
         <v>2018</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D20" s="11">
         <v>3</v>
@@ -7554,21 +7547,17 @@
         <v>40371896.324514598</v>
       </c>
       <c r="V20" s="11">
-        <v>-36.529999999999987</v>
-      </c>
-      <c r="W20" s="11">
-        <v>-8.0399999999999814</v>
+        <v>11.79999999999999</v>
+      </c>
+      <c r="W20" s="15">
+        <v>9.0299999999999816</v>
       </c>
       <c r="X20" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y20" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
         <v>53725000</v>
       </c>
@@ -7576,7 +7565,7 @@
         <v>2020</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D21" s="11">
         <v>3</v>
@@ -7633,21 +7622,17 @@
         <v>5608681.5484265415</v>
       </c>
       <c r="V21" s="11">
-        <v>-44.29999999999999</v>
-      </c>
-      <c r="W21" s="11">
-        <v>23.47999999999999</v>
+        <v>-28.490000000000009</v>
+      </c>
+      <c r="W21" s="15">
+        <v>-24.160000000000021</v>
       </c>
       <c r="X21" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y21" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
         <v>1706000</v>
       </c>
@@ -7655,7 +7640,7 @@
         <v>2014</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="11">
         <v>4</v>
@@ -7712,21 +7697,17 @@
         <v>36698725.509738542</v>
       </c>
       <c r="V22" s="11">
-        <v>-129.7299999999999</v>
-      </c>
-      <c r="W22" s="11">
-        <v>-98.72</v>
+        <v>-163.22999999999979</v>
+      </c>
+      <c r="W22" s="15">
+        <v>-17.309999999999992</v>
       </c>
       <c r="X22" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y22" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
         <v>5634000</v>
       </c>
@@ -7734,7 +7715,7 @@
         <v>2017</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D23" s="11">
         <v>4</v>
@@ -7791,21 +7772,17 @@
         <v>15073222.510616535</v>
       </c>
       <c r="V23" s="11">
-        <v>-250.49999999999989</v>
-      </c>
-      <c r="W23" s="11">
-        <v>-205.68999999999991</v>
+        <v>-199.15999999999991</v>
+      </c>
+      <c r="W23" s="15">
+        <v>4.8999999999999941</v>
       </c>
       <c r="X23" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y23" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
         <v>25738000</v>
       </c>
@@ -7813,7 +7790,7 @@
         <v>2021</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D24" s="11">
         <v>4</v>
@@ -7870,21 +7847,17 @@
         <v>42433907.62955901</v>
       </c>
       <c r="V24" s="11">
-        <v>-252.35000000000039</v>
-      </c>
-      <c r="W24" s="11">
-        <v>-155.62</v>
+        <v>-385.68999999999988</v>
+      </c>
+      <c r="W24" s="15">
+        <v>-195.11000000000021</v>
       </c>
       <c r="X24" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y24" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
         <v>36704000</v>
       </c>
@@ -7892,7 +7865,7 @@
         <v>2018</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D25" s="11">
         <v>4</v>
@@ -7949,21 +7922,17 @@
         <v>36383677.220934838</v>
       </c>
       <c r="V25" s="11">
-        <v>-348.47000000000031</v>
-      </c>
-      <c r="W25" s="11">
-        <v>-93.860000000000028</v>
+        <v>-153.38999999999999</v>
+      </c>
+      <c r="W25" s="15">
+        <v>-23.409999999999989</v>
       </c>
       <c r="X25" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y25" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
         <v>65753000</v>
       </c>
@@ -7971,7 +7940,7 @@
         <v>2021</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D26" s="11">
         <v>4</v>
@@ -8028,21 +7997,17 @@
         <v>89911704.287623957</v>
       </c>
       <c r="V26" s="11">
-        <v>-166.34999999999991</v>
-      </c>
-      <c r="W26" s="11">
-        <v>-177.25</v>
+        <v>-13.20999999999999</v>
+      </c>
+      <c r="W26" s="15">
+        <v>-50.880000000000038</v>
       </c>
       <c r="X26" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y26" s="15">
-        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
         <v>1625000</v>
       </c>
@@ -8050,7 +8015,7 @@
         <v>2021</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="D27" s="11">
         <v>5</v>
@@ -8107,21 +8072,17 @@
         <v>1155335.2855618461</v>
       </c>
       <c r="V27" s="11">
-        <v>-252.85000000000011</v>
-      </c>
-      <c r="W27" s="11">
-        <v>-114.89</v>
+        <v>-121.01</v>
+      </c>
+      <c r="W27" s="15">
+        <v>-111.88</v>
       </c>
       <c r="X27" s="11">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="Y27" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
         <v>3654000</v>
       </c>
@@ -8129,7 +8090,7 @@
         <v>2019</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D28" s="11">
         <v>5</v>
@@ -8186,21 +8147,17 @@
         <v>27065491.890230715</v>
       </c>
       <c r="V28" s="11">
-        <v>-124.8</v>
-      </c>
-      <c r="W28" s="11">
-        <v>-21.41</v>
-      </c>
-      <c r="X28" s="11">
+        <v>-100.94</v>
+      </c>
+      <c r="W28" s="15">
+        <v>-100.94</v>
+      </c>
+      <c r="X28" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y28" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
         <v>4722000</v>
       </c>
@@ -8208,7 +8165,7 @@
         <v>2015</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D29" s="11">
         <v>5</v>
@@ -8265,21 +8222,17 @@
         <v>13159071.296912728</v>
       </c>
       <c r="V29" s="11">
-        <v>-181.38000000000011</v>
-      </c>
-      <c r="W29" s="11">
-        <v>-229.78999999999991</v>
+        <v>-192.22</v>
+      </c>
+      <c r="W29" s="15">
+        <v>-199.71</v>
       </c>
       <c r="X29" s="15">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="Y29" s="15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.25">
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
         <v>7726000</v>
       </c>
@@ -8287,7 +8240,7 @@
         <v>2020</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D30" s="11">
         <v>5</v>
@@ -8344,21 +8297,17 @@
         <v>9808902.6612626221</v>
       </c>
       <c r="V30" s="11">
-        <v>-246.49000000000029</v>
-      </c>
-      <c r="W30" s="11">
-        <v>-120.91</v>
+        <v>-232.42000000000041</v>
+      </c>
+      <c r="W30" s="15">
+        <v>-234.7600000000003</v>
       </c>
       <c r="X30" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y30" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
         <v>60730000</v>
       </c>
@@ -8366,7 +8315,7 @@
         <v>2021</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D31" s="11">
         <v>5</v>
@@ -8423,21 +8372,17 @@
         <v>8288037.572059215</v>
       </c>
       <c r="V31" s="11">
-        <v>-269.03000000000009</v>
-      </c>
-      <c r="W31" s="11">
-        <v>-5.5499999999999989</v>
-      </c>
-      <c r="X31" s="11">
+        <v>-186</v>
+      </c>
+      <c r="W31" s="15">
+        <v>-200.12000000000009</v>
+      </c>
+      <c r="X31" s="15">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="Y31" s="11">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -8459,6 +8404,10 @@
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
       <c r="U32" s="11"/>
+      <c r="X32" s="16">
+        <f>COUNTIF(X2:X31,1)</f>
+        <v>21</v>
+      </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
@@ -8484,10 +8433,10 @@
       <c r="U33" s="11"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="11"/>
-      <c r="B34" s="11"/>
-      <c r="C34" s="11"/>
-      <c r="D34" s="11"/>
+      <c r="A34" s="5"/>
+      <c r="B34" s="6"/>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
@@ -8606,15 +8555,15 @@
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="12" t="s">
-        <v>4</v>
+        <v>50</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="11"/>
+        <v>54</v>
+      </c>
+      <c r="F39" s="12"/>
       <c r="G39" s="11"/>
       <c r="H39" s="11"/>
       <c r="I39" s="11"/>
@@ -8639,10 +8588,10 @@
         <v>-140</v>
       </c>
       <c r="D40" s="11">
-        <v>-86.789999999999921</v>
-      </c>
-      <c r="E40" s="16">
-        <v>-50.299999999999933</v>
+        <v>-78.749999999999901</v>
+      </c>
+      <c r="E40" s="11">
+        <v>-72.919999999999973</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
@@ -8668,10 +8617,10 @@
         <v>-476</v>
       </c>
       <c r="D41" s="11">
-        <v>14.580000000000011</v>
-      </c>
-      <c r="E41" s="16">
-        <v>-82.33</v>
+        <v>16.199999999999989</v>
+      </c>
+      <c r="E41" s="11">
+        <v>-69.39</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
@@ -8695,13 +8644,13 @@
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11">
-        <v>-898</v>
+        <v>-246</v>
       </c>
       <c r="D42" s="11">
-        <v>-53.44</v>
-      </c>
-      <c r="E42" s="16">
-        <v>116.78</v>
+        <v>-256.73999999999961</v>
+      </c>
+      <c r="E42" s="11">
+        <v>-103.4999999999999</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
@@ -8725,10 +8674,10 @@
         <v>-166</v>
       </c>
       <c r="D43" s="11">
-        <v>-13.86999999999999</v>
-      </c>
-      <c r="E43" s="16">
-        <v>-35.789999999999992</v>
+        <v>-88.059999999999832</v>
+      </c>
+      <c r="E43" s="11">
+        <v>-60.98</v>
       </c>
       <c r="V43" s="11"/>
     </row>
@@ -8737,10 +8686,10 @@
         <v>-210</v>
       </c>
       <c r="D44" s="11">
-        <v>-195.4399999999998</v>
-      </c>
-      <c r="E44" s="16">
-        <v>-113.29</v>
+        <v>-181.11999999999981</v>
+      </c>
+      <c r="E44" s="11">
+        <v>-26.03</v>
       </c>
       <c r="V44" s="11"/>
     </row>
@@ -8749,10 +8698,10 @@
         <v>-291</v>
       </c>
       <c r="D45" s="11">
-        <v>-115.3</v>
+        <v>-261.94999999999987</v>
       </c>
       <c r="E45" s="11">
-        <v>-126.93000000000011</v>
+        <v>-63.529999999999987</v>
       </c>
       <c r="V45" s="11"/>
     </row>
@@ -8761,10 +8710,10 @@
         <v>-284</v>
       </c>
       <c r="D46" s="11">
-        <v>-170.90000000000009</v>
+        <v>-186.52</v>
       </c>
       <c r="E46" s="11">
-        <v>-125.5500000000001</v>
+        <v>-66.910000000000082</v>
       </c>
       <c r="V46" s="11"/>
     </row>
@@ -8773,10 +8722,10 @@
         <v>-274</v>
       </c>
       <c r="D47" s="11">
-        <v>-243.18999999999971</v>
+        <v>-199.47000000000011</v>
       </c>
       <c r="E47" s="11">
-        <v>-198.42999999999989</v>
+        <v>28.79999999999999</v>
       </c>
       <c r="V47" s="11"/>
     </row>
@@ -8785,21 +8734,21 @@
         <v>-340</v>
       </c>
       <c r="D48" s="11">
-        <v>-262.89000000000021</v>
+        <v>-302.77000000000032</v>
       </c>
       <c r="E48" s="11">
-        <v>-311.97000000000003</v>
+        <v>-114.95</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C49" s="11">
-        <v>-825</v>
+        <v>-193</v>
       </c>
       <c r="D49" s="11">
-        <v>-188.31</v>
+        <v>56.37</v>
       </c>
       <c r="E49" s="11">
-        <v>-150.56</v>
+        <v>131.78</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.25">
@@ -8807,10 +8756,10 @@
         <v>-168</v>
       </c>
       <c r="D50" s="11">
-        <v>-141.7799999999998</v>
+        <v>-147.9899999999999</v>
       </c>
       <c r="E50" s="11">
-        <v>-138.43999999999991</v>
+        <v>-84.729999999999947</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
@@ -8818,10 +8767,10 @@
         <v>-174</v>
       </c>
       <c r="D51" s="11">
-        <v>-155.09999999999991</v>
+        <v>-126.85</v>
       </c>
       <c r="E51" s="11">
-        <v>-133.63</v>
+        <v>-107.67999999999989</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.25">
@@ -8829,10 +8778,10 @@
         <v>-193</v>
       </c>
       <c r="D52" s="11">
-        <v>-197.8</v>
+        <v>-187.78</v>
       </c>
       <c r="E52" s="11">
-        <v>-169.22</v>
+        <v>-128.62</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
@@ -8840,10 +8789,10 @@
         <v>-121</v>
       </c>
       <c r="D53" s="11">
-        <v>-149.20999999999989</v>
+        <v>-179.64</v>
       </c>
       <c r="E53" s="11">
-        <v>-192.99</v>
+        <v>-208.3900000000001</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.25">
@@ -8851,10 +8800,10 @@
         <v>-158</v>
       </c>
       <c r="D54" s="11">
-        <v>-143.57</v>
+        <v>-136.37999999999991</v>
       </c>
       <c r="E54" s="11">
-        <v>-113.56</v>
+        <v>-92.459999999999951</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
@@ -8862,21 +8811,21 @@
         <v>-76</v>
       </c>
       <c r="D55" s="11">
-        <v>-79.469999999999956</v>
+        <v>-68.259999999999891</v>
       </c>
       <c r="E55" s="11">
-        <v>-1.489999999999982</v>
+        <v>-91.84999999999998</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C56" s="11">
-        <v>-953</v>
+        <v>-164</v>
       </c>
       <c r="D56" s="11">
-        <v>-200.74000000000021</v>
+        <v>-156.45000000000019</v>
       </c>
       <c r="E56" s="11">
-        <v>157.88999999999999</v>
+        <v>-107.55</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
@@ -8884,10 +8833,10 @@
         <v>-188</v>
       </c>
       <c r="D57" s="11">
-        <v>-168.0500000000001</v>
+        <v>-150.97</v>
       </c>
       <c r="E57" s="11">
-        <v>-121.56</v>
+        <v>-98.489999999999966</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.25">
@@ -8895,10 +8844,10 @@
         <v>-483</v>
       </c>
       <c r="D58" s="11">
-        <v>-36.529999999999987</v>
+        <v>11.79999999999999</v>
       </c>
       <c r="E58" s="11">
-        <v>-8.0399999999999814</v>
+        <v>9.0299999999999816</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.25">
@@ -8906,10 +8855,10 @@
         <v>-523</v>
       </c>
       <c r="D59" s="11">
-        <v>-44.29999999999999</v>
+        <v>-28.490000000000009</v>
       </c>
       <c r="E59" s="11">
-        <v>23.47999999999999</v>
+        <v>-24.160000000000021</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.25">
@@ -8917,10 +8866,10 @@
         <v>-199</v>
       </c>
       <c r="D60" s="11">
-        <v>-129.7299999999999</v>
+        <v>-163.22999999999979</v>
       </c>
       <c r="E60" s="11">
-        <v>-98.72</v>
+        <v>-17.309999999999992</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.25">
@@ -8928,10 +8877,10 @@
         <v>-310</v>
       </c>
       <c r="D61" s="11">
-        <v>-250.49999999999989</v>
+        <v>-199.15999999999991</v>
       </c>
       <c r="E61" s="11">
-        <v>-205.68999999999991</v>
+        <v>4.8999999999999941</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.25">
@@ -8939,10 +8888,10 @@
         <v>-236</v>
       </c>
       <c r="D62" s="11">
-        <v>-252.35000000000039</v>
+        <v>-385.68999999999988</v>
       </c>
       <c r="E62" s="11">
-        <v>-155.62</v>
+        <v>-195.11000000000021</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.25">
@@ -8950,10 +8899,10 @@
         <v>-472</v>
       </c>
       <c r="D63" s="11">
-        <v>-348.47000000000031</v>
+        <v>-153.38999999999999</v>
       </c>
       <c r="E63" s="11">
-        <v>-93.860000000000028</v>
+        <v>-23.409999999999989</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.25">
@@ -8961,10 +8910,10 @@
         <v>-402</v>
       </c>
       <c r="D64" s="11">
-        <v>-166.34999999999991</v>
+        <v>-13.20999999999999</v>
       </c>
       <c r="E64" s="11">
-        <v>-177.25</v>
+        <v>-50.880000000000038</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.25">
@@ -8972,10 +8921,10 @@
         <v>-294</v>
       </c>
       <c r="D65" s="11">
-        <v>-252.85000000000011</v>
+        <v>-121.01</v>
       </c>
       <c r="E65" s="11">
-        <v>-114.89</v>
+        <v>-111.88</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.25">
@@ -8983,10 +8932,10 @@
         <v>-541</v>
       </c>
       <c r="D66" s="11">
-        <v>-124.8</v>
+        <v>-100.94</v>
       </c>
       <c r="E66" s="11">
-        <v>-21.41</v>
+        <v>-100.94</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.25">
@@ -8994,10 +8943,10 @@
         <v>-192</v>
       </c>
       <c r="D67" s="11">
-        <v>-181.38000000000011</v>
+        <v>-192.22</v>
       </c>
       <c r="E67" s="11">
-        <v>-229.78999999999991</v>
+        <v>-199.71</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.25">
@@ -9005,10 +8954,10 @@
         <v>-300</v>
       </c>
       <c r="D68" s="11">
-        <v>-246.49000000000029</v>
+        <v>-232.42000000000041</v>
       </c>
       <c r="E68" s="11">
-        <v>-120.91</v>
+        <v>-234.7600000000003</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.25">
@@ -9016,10 +8965,20 @@
         <v>-429</v>
       </c>
       <c r="D69" s="11">
-        <v>-269.03000000000009</v>
+        <v>-186</v>
       </c>
       <c r="E69" s="11">
-        <v>-5.5499999999999989</v>
+        <v>-200.12000000000009</v>
+      </c>
+    </row>
+    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="D70" s="11">
+        <f>AVERAGE(D40:D69)</f>
+        <v>-146.70299999999995</v>
+      </c>
+      <c r="E70" s="11">
+        <f>AVERAGE(E40:E69)</f>
+        <v>-82.725000000000009</v>
       </c>
     </row>
   </sheetData>

--- a/migforecasting/clustering/for paper/examples for improv test.xlsx
+++ b/migforecasting/clustering/for paper/examples for improv test.xlsx
@@ -173,19 +173,10 @@
     <t>real saldo (next year)</t>
   </si>
   <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>prediction (no changes)</t>
-  </si>
-  <si>
     <t>pred (major changes)</t>
   </si>
   <si>
     <t>pred (no changes)</t>
-  </si>
-  <si>
-    <t>prediction (with changes)</t>
   </si>
   <si>
     <t>Цивильский</t>
@@ -195,6 +186,15 @@
   </si>
   <si>
     <t>Кормиловский</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Prediction (no changes)</t>
+  </si>
+  <si>
+    <t>Prediction (with changes)</t>
   </si>
 </sst>
 </file>
@@ -224,12 +224,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="10">
@@ -337,7 +343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -378,13 +384,22 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -443,7 +458,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>real</c:v>
+                  <c:v>Actual</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -458,7 +473,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -575,7 +602,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>prediction (no changes)</c:v>
+                  <c:v>Prediction (no changes)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -583,17 +610,26 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="75000"/>
-                  <a:lumOff val="25000"/>
-                </a:schemeClr>
+                <a:schemeClr val="tx1"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -710,7 +746,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>prediction (with changes)</c:v>
+                  <c:v>Prediction (with changes)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -725,7 +761,19 @@
             <a:effectLst/>
           </c:spPr>
           <c:marker>
-            <c:symbol val="none"/>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:srgbClr val="00B050"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
           </c:marker>
           <c:val>
             <c:numRef>
@@ -841,6 +889,7 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
+        <c:marker val="1"/>
         <c:smooth val="0"/>
         <c:axId val="1601997952"/>
         <c:axId val="1601992960"/>
@@ -852,6 +901,78 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Example</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1800">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                </a:endParaRPr>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.45316005310534435"/>
+              <c:y val="0.91677359253335211"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -873,9 +994,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -913,6 +1034,67 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Net migration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="3.7046520059556727E-2"/>
+              <c:y val="0.61315197925149945"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -931,7 +1113,7 @@
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1"/>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -954,13 +1136,15 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -968,13 +1152,10 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr rtl="0">
-            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:pPr>
+            <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
+                <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1063,7 +1244,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1171,11 +1352,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -1186,11 +1362,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -1222,9 +1393,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1582,8 +1750,8 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>394605</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>36737</xdr:rowOff>
     </xdr:from>
@@ -1879,7 +2047,7 @@
   <dimension ref="A1:U31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J35" sqref="J35"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2097,7 +2265,7 @@
         <v>2021</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
@@ -2552,7 +2720,7 @@
         <v>2020</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D11" s="9">
         <v>1</v>
@@ -3007,7 +3175,7 @@
         <v>2018</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D18" s="6">
         <v>3</v>
@@ -3918,8 +4086,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3927,6 +4095,7 @@
     <col min="3" max="3" width="23.28515625" customWidth="1"/>
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
     <col min="8" max="8" width="11.5703125" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" customWidth="1"/>
     <col min="11" max="11" width="14.140625" customWidth="1"/>
     <col min="13" max="13" width="11.42578125" customWidth="1"/>
     <col min="14" max="14" width="13.5703125" customWidth="1"/>
@@ -4138,7 +4307,7 @@
         <v>2021</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
@@ -4593,7 +4762,7 @@
         <v>2020</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D11" s="11">
         <v>1</v>
@@ -5048,7 +5217,7 @@
         <v>2018</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D18" s="6">
         <v>3</v>
@@ -5654,7 +5823,7 @@
         <v>346.9999999999996</v>
       </c>
       <c r="J27" s="11">
-        <v>573514.04293999961</v>
+        <v>573514.04293999996</v>
       </c>
       <c r="K27" s="11">
         <v>28</v>
@@ -5684,7 +5853,7 @@
         <v>744.99999999999955</v>
       </c>
       <c r="T27" s="11">
-        <v>828015.21829999832</v>
+        <v>828015.21829999797</v>
       </c>
       <c r="U27" s="11">
         <v>-294</v>
@@ -5719,7 +5888,7 @@
         <v>2076.9999999999995</v>
       </c>
       <c r="J28" s="11">
-        <v>4676977.1911799992</v>
+        <v>4676977.1911800001</v>
       </c>
       <c r="K28" s="11">
         <v>30.2</v>
@@ -5914,7 +6083,7 @@
         <v>79.999999999999517</v>
       </c>
       <c r="J31" s="11">
-        <v>3389505.0557000008</v>
+        <v>3389505.0556999999</v>
       </c>
       <c r="K31" s="11">
         <v>21.85</v>
@@ -5944,7 +6113,7 @@
         <v>3403</v>
       </c>
       <c r="T31" s="11">
-        <v>5939939.1027599983</v>
+        <v>5939939.1027600002</v>
       </c>
       <c r="U31" s="11">
         <v>-429</v>
@@ -6027,8 +6196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X70"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C70" sqref="C70"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Y37" sqref="Y37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6123,10 +6292,10 @@
         <v>20</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="W1" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="W1" s="15" t="s">
+        <v>50</v>
       </c>
       <c r="X1" s="12" t="s">
         <v>32</v>
@@ -6148,7 +6317,7 @@
       <c r="E2" s="11">
         <v>-140</v>
       </c>
-      <c r="F2" s="14">
+      <c r="F2" s="13">
         <v>17275</v>
       </c>
       <c r="G2" s="13">
@@ -6199,7 +6368,7 @@
       <c r="V2" s="11">
         <v>-78.749999999999901</v>
       </c>
-      <c r="W2" s="15">
+      <c r="W2" s="14">
         <v>-72.919999999999973</v>
       </c>
       <c r="X2" s="11">
@@ -6223,7 +6392,7 @@
       <c r="E3" s="11">
         <v>-476</v>
       </c>
-      <c r="F3" s="14">
+      <c r="F3" s="13">
         <v>65842</v>
       </c>
       <c r="G3" s="13">
@@ -6274,7 +6443,7 @@
       <c r="V3" s="11">
         <v>16.199999999999989</v>
       </c>
-      <c r="W3" s="15">
+      <c r="W3" s="14">
         <v>-69.39</v>
       </c>
       <c r="X3" s="11">
@@ -6283,73 +6452,73 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="A4" s="18">
         <v>97641000</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="18">
         <v>2021</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="C4" s="18" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="18">
         <v>0</v>
       </c>
       <c r="E4" s="11">
         <v>-246</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="13">
         <v>34498.999999999993</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="13">
         <v>7235.9999999999973</v>
       </c>
-      <c r="H4" s="6">
+      <c r="H4" s="16">
         <v>18166.422620000001</v>
       </c>
-      <c r="I4" s="11">
+      <c r="I4" s="13">
         <v>15435.899999999992</v>
       </c>
-      <c r="J4" s="11">
+      <c r="J4" s="13">
         <v>2286.9999999999986</v>
       </c>
-      <c r="K4" s="11">
+      <c r="K4" s="13">
         <v>1199846.2190299996</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="16">
         <v>30.3</v>
       </c>
-      <c r="M4" s="11">
+      <c r="M4" s="13">
         <v>113.99999999999925</v>
       </c>
-      <c r="N4" s="11">
+      <c r="N4" s="13">
         <v>57.999999999999737</v>
       </c>
-      <c r="O4" s="11">
+      <c r="O4" s="13">
         <v>664.79999999999927</v>
       </c>
-      <c r="P4" s="11">
+      <c r="P4" s="13">
         <v>208310</v>
       </c>
-      <c r="Q4" s="11">
+      <c r="Q4" s="13">
         <v>59763.609999999986</v>
       </c>
-      <c r="R4" s="11">
+      <c r="R4" s="13">
         <v>1881565.3498999991</v>
       </c>
-      <c r="S4" s="11">
+      <c r="S4" s="13">
         <v>40.999999999999908</v>
       </c>
-      <c r="T4" s="11">
+      <c r="T4" s="13">
         <v>2013.9999999999993</v>
       </c>
-      <c r="U4" s="11">
+      <c r="U4" s="13">
         <v>3889344.5399099961</v>
       </c>
       <c r="V4" s="11">
         <v>-256.73999999999961</v>
       </c>
-      <c r="W4" s="15">
+      <c r="W4" s="14">
         <v>-103.4999999999999</v>
       </c>
       <c r="X4" s="11">
@@ -6373,7 +6542,7 @@
       <c r="E5" s="11">
         <v>-166</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="13">
         <v>18562</v>
       </c>
       <c r="G5" s="13">
@@ -6424,7 +6593,7 @@
       <c r="V5" s="11">
         <v>-88.059999999999832</v>
       </c>
-      <c r="W5" s="15">
+      <c r="W5" s="14">
         <v>-60.98</v>
       </c>
       <c r="X5" s="11">
@@ -6448,7 +6617,7 @@
       <c r="E6" s="11">
         <v>-210</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="13">
         <v>28673</v>
       </c>
       <c r="G6" s="13">
@@ -6499,7 +6668,7 @@
       <c r="V6" s="11">
         <v>-181.11999999999981</v>
       </c>
-      <c r="W6" s="15">
+      <c r="W6" s="14">
         <v>-26.03</v>
       </c>
       <c r="X6" s="11">
@@ -6523,7 +6692,7 @@
       <c r="E7" s="11">
         <v>-291</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="13">
         <v>28434</v>
       </c>
       <c r="G7" s="13">
@@ -6574,7 +6743,7 @@
       <c r="V7" s="11">
         <v>-261.94999999999987</v>
       </c>
-      <c r="W7" s="15">
+      <c r="W7" s="14">
         <v>-63.529999999999987</v>
       </c>
       <c r="X7" s="11">
@@ -6598,7 +6767,7 @@
       <c r="E8" s="11">
         <v>-284</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="13">
         <v>139565</v>
       </c>
       <c r="G8" s="13">
@@ -6649,7 +6818,7 @@
       <c r="V8" s="11">
         <v>-186.52</v>
       </c>
-      <c r="W8" s="15">
+      <c r="W8" s="14">
         <v>-66.910000000000082</v>
       </c>
       <c r="X8" s="11">
@@ -6673,7 +6842,7 @@
       <c r="E9" s="11">
         <v>-274</v>
       </c>
-      <c r="F9" s="14">
+      <c r="F9" s="13">
         <v>19887.999999999989</v>
       </c>
       <c r="G9" s="13">
@@ -6724,7 +6893,7 @@
       <c r="V9" s="11">
         <v>-199.47000000000011</v>
       </c>
-      <c r="W9" s="15">
+      <c r="W9" s="14">
         <v>28.79999999999999</v>
       </c>
       <c r="X9" s="11">
@@ -6748,7 +6917,7 @@
       <c r="E10" s="11">
         <v>-340</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="13">
         <v>65776</v>
       </c>
       <c r="G10" s="13">
@@ -6799,7 +6968,7 @@
       <c r="V10" s="11">
         <v>-302.77000000000032</v>
       </c>
-      <c r="W10" s="15">
+      <c r="W10" s="14">
         <v>-114.95</v>
       </c>
       <c r="X10" s="11">
@@ -6808,73 +6977,73 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11" s="11">
+      <c r="A11" s="17">
         <v>18720000</v>
       </c>
-      <c r="B11" s="11">
+      <c r="B11" s="17">
         <v>2020</v>
       </c>
-      <c r="C11" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="D11" s="11">
+      <c r="C11" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11" s="17">
         <v>1</v>
       </c>
-      <c r="E11" s="11">
+      <c r="E11" s="17">
         <v>-193</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="13">
         <v>86435.999999999985</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="13">
         <v>13019.999999999993</v>
       </c>
-      <c r="H11" s="6">
+      <c r="H11" s="16">
         <v>21164.783759999998</v>
       </c>
-      <c r="I11" s="6">
+      <c r="I11" s="16">
         <v>56657.999999999985</v>
       </c>
-      <c r="J11" s="6">
+      <c r="J11" s="16">
         <v>1856.999999999998</v>
       </c>
-      <c r="K11" s="6">
+      <c r="K11" s="16">
         <v>3773107.8136799997</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="16">
         <v>28.1</v>
       </c>
-      <c r="M11" s="11">
+      <c r="M11" s="13">
         <v>112.99999999999922</v>
       </c>
-      <c r="N11" s="11">
+      <c r="N11" s="13">
         <v>371.99999999999841</v>
       </c>
-      <c r="O11" s="11">
+      <c r="O11" s="13">
         <v>995.09999999999877</v>
       </c>
-      <c r="P11" s="11">
+      <c r="P11" s="13">
         <v>134789</v>
       </c>
-      <c r="Q11" s="11">
+      <c r="Q11" s="13">
         <v>68742.999999999971</v>
       </c>
-      <c r="R11" s="11">
+      <c r="R11" s="13">
         <v>5197507.5167999975</v>
       </c>
-      <c r="S11" s="11">
+      <c r="S11" s="13">
         <v>51.999999999999872</v>
       </c>
-      <c r="T11" s="11">
+      <c r="T11" s="13">
         <v>3298.9999999999995</v>
       </c>
-      <c r="U11" s="11">
+      <c r="U11" s="13">
         <v>11634696.470159991</v>
       </c>
       <c r="V11" s="11">
         <v>56.37</v>
       </c>
-      <c r="W11" s="15">
+      <c r="W11" s="14">
         <v>131.78</v>
       </c>
       <c r="X11" s="11">
@@ -6898,7 +7067,7 @@
       <c r="E12" s="11">
         <v>-168</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="13">
         <v>9622.9999999999964</v>
       </c>
       <c r="G12" s="13">
@@ -6949,7 +7118,7 @@
       <c r="V12" s="11">
         <v>-147.9899999999999</v>
       </c>
-      <c r="W12" s="15">
+      <c r="W12" s="14">
         <v>-84.729999999999947</v>
       </c>
       <c r="X12" s="11">
@@ -6973,7 +7142,7 @@
       <c r="E13" s="11">
         <v>-174</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="13">
         <v>16685</v>
       </c>
       <c r="G13" s="13">
@@ -7024,7 +7193,7 @@
       <c r="V13" s="11">
         <v>-126.85</v>
       </c>
-      <c r="W13" s="15">
+      <c r="W13" s="14">
         <v>-107.67999999999989</v>
       </c>
       <c r="X13" s="11">
@@ -7048,7 +7217,7 @@
       <c r="E14" s="11">
         <v>-193</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="13">
         <v>40956</v>
       </c>
       <c r="G14" s="13">
@@ -7099,7 +7268,7 @@
       <c r="V14" s="11">
         <v>-187.78</v>
       </c>
-      <c r="W14" s="15">
+      <c r="W14" s="14">
         <v>-128.62</v>
       </c>
       <c r="X14" s="11">
@@ -7123,7 +7292,7 @@
       <c r="E15" s="11">
         <v>-121</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="13">
         <v>24184.999999999989</v>
       </c>
       <c r="G15" s="13">
@@ -7174,7 +7343,7 @@
       <c r="V15" s="11">
         <v>-179.64</v>
       </c>
-      <c r="W15" s="15">
+      <c r="W15" s="14">
         <v>-208.3900000000001</v>
       </c>
       <c r="X15" s="11">
@@ -7198,7 +7367,7 @@
       <c r="E16" s="11">
         <v>-158</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="13">
         <v>12565.999999999991</v>
       </c>
       <c r="G16" s="13">
@@ -7249,7 +7418,7 @@
       <c r="V16" s="11">
         <v>-136.37999999999991</v>
       </c>
-      <c r="W16" s="15">
+      <c r="W16" s="14">
         <v>-92.459999999999951</v>
       </c>
       <c r="X16" s="11">
@@ -7273,7 +7442,7 @@
       <c r="E17" s="11">
         <v>-76</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="13">
         <v>4183.9999999999918</v>
       </c>
       <c r="G17" s="13">
@@ -7324,7 +7493,7 @@
       <c r="V17" s="11">
         <v>-68.259999999999891</v>
       </c>
-      <c r="W17" s="15">
+      <c r="W17" s="14">
         <v>-91.84999999999998</v>
       </c>
       <c r="X17" s="11">
@@ -7333,14 +7502,14 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
+      <c r="A18" s="19">
         <v>52623000</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="18">
         <v>2018</v>
       </c>
-      <c r="C18" s="6" t="s">
-        <v>57</v>
+      <c r="C18" s="18" t="s">
+        <v>54</v>
       </c>
       <c r="D18" s="6">
         <v>3</v>
@@ -7348,58 +7517,58 @@
       <c r="E18" s="11">
         <v>-164</v>
       </c>
-      <c r="F18" s="11">
+      <c r="F18" s="13">
         <v>25263.999999999989</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="13">
         <v>4126.9999999999991</v>
       </c>
-      <c r="H18" s="6">
+      <c r="H18" s="16">
         <v>20441.322639999999</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="13">
         <v>17070.69999999999</v>
       </c>
-      <c r="J18" s="11">
+      <c r="J18" s="13">
         <v>27.999999999999929</v>
       </c>
-      <c r="K18" s="11">
+      <c r="K18" s="13">
         <v>268457.68935999984</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="16">
         <v>21.79</v>
       </c>
-      <c r="M18" s="11">
+      <c r="M18" s="13">
         <v>73.999999999999488</v>
       </c>
-      <c r="N18" s="11">
+      <c r="N18" s="13">
         <v>69.999999999999687</v>
       </c>
-      <c r="O18" s="11">
+      <c r="O18" s="13">
         <v>202.59999999999971</v>
       </c>
-      <c r="P18" s="11">
+      <c r="P18" s="13">
         <v>314708.99999999988</v>
       </c>
-      <c r="Q18" s="11">
+      <c r="Q18" s="13">
         <v>18979.989999999991</v>
       </c>
-      <c r="R18" s="11">
+      <c r="R18" s="13">
         <v>3873762.5743999979</v>
       </c>
-      <c r="S18" s="11">
+      <c r="S18" s="13">
         <v>28.999999999999932</v>
       </c>
-      <c r="T18" s="11">
+      <c r="T18" s="13">
         <v>1107.9999999999998</v>
       </c>
-      <c r="U18" s="11">
+      <c r="U18" s="13">
         <v>3584846.1060399981</v>
       </c>
       <c r="V18" s="11">
         <v>-156.45000000000019</v>
       </c>
-      <c r="W18" s="15">
+      <c r="W18" s="14">
         <v>-107.55</v>
       </c>
       <c r="X18" s="11">
@@ -7423,7 +7592,7 @@
       <c r="E19" s="11">
         <v>-188</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="13">
         <v>17569.999999999989</v>
       </c>
       <c r="G19" s="13">
@@ -7474,7 +7643,7 @@
       <c r="V19" s="11">
         <v>-150.97</v>
       </c>
-      <c r="W19" s="15">
+      <c r="W19" s="14">
         <v>-98.489999999999966</v>
       </c>
       <c r="X19" s="11">
@@ -7498,7 +7667,7 @@
       <c r="E20" s="11">
         <v>-483</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="13">
         <v>120926</v>
       </c>
       <c r="G20" s="13">
@@ -7549,7 +7718,7 @@
       <c r="V20" s="11">
         <v>11.79999999999999</v>
       </c>
-      <c r="W20" s="15">
+      <c r="W20" s="14">
         <v>9.0299999999999816</v>
       </c>
       <c r="X20" s="11">
@@ -7573,7 +7742,7 @@
       <c r="E21" s="11">
         <v>-523</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="13">
         <v>50473.999999999993</v>
       </c>
       <c r="G21" s="13">
@@ -7624,7 +7793,7 @@
       <c r="V21" s="11">
         <v>-28.490000000000009</v>
       </c>
-      <c r="W21" s="15">
+      <c r="W21" s="14">
         <v>-24.160000000000021</v>
       </c>
       <c r="X21" s="11">
@@ -7648,7 +7817,7 @@
       <c r="E22" s="11">
         <v>-199</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="13">
         <v>47578.999999999993</v>
       </c>
       <c r="G22" s="13">
@@ -7699,7 +7868,7 @@
       <c r="V22" s="11">
         <v>-163.22999999999979</v>
       </c>
-      <c r="W22" s="15">
+      <c r="W22" s="14">
         <v>-17.309999999999992</v>
       </c>
       <c r="X22" s="11">
@@ -7723,7 +7892,7 @@
       <c r="E23" s="11">
         <v>-310</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="13">
         <v>28553</v>
       </c>
       <c r="G23" s="13">
@@ -7774,7 +7943,7 @@
       <c r="V23" s="11">
         <v>-199.15999999999991</v>
       </c>
-      <c r="W23" s="15">
+      <c r="W23" s="14">
         <v>4.8999999999999941</v>
       </c>
       <c r="X23" s="11">
@@ -7798,7 +7967,7 @@
       <c r="E24" s="11">
         <v>-236</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="13">
         <v>79746</v>
       </c>
       <c r="G24" s="13">
@@ -7849,7 +8018,7 @@
       <c r="V24" s="11">
         <v>-385.68999999999988</v>
       </c>
-      <c r="W24" s="15">
+      <c r="W24" s="14">
         <v>-195.11000000000021</v>
       </c>
       <c r="X24" s="11">
@@ -7873,7 +8042,7 @@
       <c r="E25" s="11">
         <v>-472</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="13">
         <v>57687</v>
       </c>
       <c r="G25" s="13">
@@ -7924,7 +8093,7 @@
       <c r="V25" s="11">
         <v>-153.38999999999999</v>
       </c>
-      <c r="W25" s="15">
+      <c r="W25" s="14">
         <v>-23.409999999999989</v>
       </c>
       <c r="X25" s="11">
@@ -7948,7 +8117,7 @@
       <c r="E26" s="11">
         <v>-402</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="13">
         <v>141368</v>
       </c>
       <c r="G26" s="13">
@@ -7999,7 +8168,7 @@
       <c r="V26" s="11">
         <v>-13.20999999999999</v>
       </c>
-      <c r="W26" s="15">
+      <c r="W26" s="14">
         <v>-50.880000000000038</v>
       </c>
       <c r="X26" s="11">
@@ -8023,7 +8192,7 @@
       <c r="E27" s="11">
         <v>-294</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="13">
         <v>23671.999999999989</v>
       </c>
       <c r="G27" s="13">
@@ -8074,7 +8243,7 @@
       <c r="V27" s="11">
         <v>-121.01</v>
       </c>
-      <c r="W27" s="15">
+      <c r="W27" s="14">
         <v>-111.88</v>
       </c>
       <c r="X27" s="11">
@@ -8098,7 +8267,7 @@
       <c r="E28" s="11">
         <v>-541</v>
       </c>
-      <c r="F28" s="14">
+      <c r="F28" s="13">
         <v>116468</v>
       </c>
       <c r="G28" s="13">
@@ -8149,10 +8318,10 @@
       <c r="V28" s="11">
         <v>-100.94</v>
       </c>
-      <c r="W28" s="15">
+      <c r="W28" s="14">
         <v>-100.94</v>
       </c>
-      <c r="X28" s="15">
+      <c r="X28" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8173,7 +8342,7 @@
       <c r="E29" s="11">
         <v>-192</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="13">
         <v>64841.999999999993</v>
       </c>
       <c r="G29" s="13">
@@ -8224,10 +8393,10 @@
       <c r="V29" s="11">
         <v>-192.22</v>
       </c>
-      <c r="W29" s="15">
+      <c r="W29" s="14">
         <v>-199.71</v>
       </c>
-      <c r="X29" s="15">
+      <c r="X29" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8248,7 +8417,7 @@
       <c r="E30" s="11">
         <v>-300</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="13">
         <v>64100</v>
       </c>
       <c r="G30" s="13">
@@ -8299,7 +8468,7 @@
       <c r="V30" s="11">
         <v>-232.42000000000041</v>
       </c>
-      <c r="W30" s="15">
+      <c r="W30" s="14">
         <v>-234.7600000000003</v>
       </c>
       <c r="X30" s="11">
@@ -8323,7 +8492,7 @@
       <c r="E31" s="11">
         <v>-429</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="13">
         <v>105038</v>
       </c>
       <c r="G31" s="13">
@@ -8339,7 +8508,7 @@
         <v>104.05083288568417</v>
       </c>
       <c r="K31" s="13">
-        <v>4462143.4689371828</v>
+        <v>4462143.46893718</v>
       </c>
       <c r="L31" s="13">
         <v>21.85</v>
@@ -8374,10 +8543,10 @@
       <c r="V31" s="11">
         <v>-186</v>
       </c>
-      <c r="W31" s="15">
+      <c r="W31" s="14">
         <v>-200.12000000000009</v>
       </c>
-      <c r="X31" s="15">
+      <c r="X31" s="14">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -8404,7 +8573,7 @@
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
       <c r="U32" s="11"/>
-      <c r="X32" s="16">
+      <c r="X32" s="15">
         <f>COUNTIF(X2:X31,1)</f>
         <v>21</v>
       </c>
@@ -8555,13 +8724,13 @@
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="12" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D39" s="12" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="11"/>

--- a/migforecasting/clustering/for paper/examples for improv test.xlsx
+++ b/migforecasting/clustering/for paper/examples for improv test.xlsx
@@ -191,10 +191,10 @@
     <t>Actual</t>
   </si>
   <si>
-    <t>Prediction (no changes)</t>
+    <t>Prediction (no modifications)</t>
   </si>
   <si>
-    <t>Prediction (with changes)</t>
+    <t>Prediction (with modifications)</t>
   </si>
 </sst>
 </file>
@@ -602,7 +602,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Prediction (no changes)</c:v>
+                  <c:v>Prediction (no modifications)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -746,7 +746,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Prediction (with changes)</c:v>
+                  <c:v>Prediction (with modifications)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -926,7 +926,7 @@
                       <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                   </a:rPr>
-                  <a:t>Example</a:t>
+                  <a:t>Examples</a:t>
                 </a:r>
                 <a:endParaRPr lang="ru-RU" sz="1800">
                   <a:solidFill>
@@ -6196,8 +6196,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Y37" sqref="Y37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/migforecasting/clustering/for paper/examples for improv test.xlsx
+++ b/migforecasting/clustering/for paper/examples for improv test.xlsx
@@ -173,9 +173,6 @@
     <t>real saldo (next year)</t>
   </si>
   <si>
-    <t>pred (major changes)</t>
-  </si>
-  <si>
     <t>pred (no changes)</t>
   </si>
   <si>
@@ -195,6 +192,9 @@
   </si>
   <si>
     <t>Prediction (with modifications)</t>
+  </si>
+  <si>
+    <t>pred (adaptive changes)</t>
   </si>
 </sst>
 </file>
@@ -441,9 +441,9 @@
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
           <c:x val="3.8079222506151207E-2"/>
-          <c:y val="2.768270290490648E-2"/>
+          <c:y val="0.10705202944318475"/>
           <c:w val="0.94216769299429448"/>
-          <c:h val="0.89157116190055252"/>
+          <c:h val="0.8122018526004956"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -638,94 +638,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>-78.749999999999901</c:v>
+                  <c:v>-134.09999999999991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>16.199999999999989</c:v>
+                  <c:v>-65.860000000000014</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-256.73999999999961</c:v>
+                  <c:v>-214.9399999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-88.059999999999832</c:v>
+                  <c:v>-112.9399999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-181.11999999999981</c:v>
+                  <c:v>-216.70999999999981</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-261.94999999999987</c:v>
+                  <c:v>-257.14999999999992</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-186.52</c:v>
+                  <c:v>-174.21000000000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-199.47000000000011</c:v>
+                  <c:v>-245.06999999999991</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-302.77000000000032</c:v>
+                  <c:v>-282.63000000000011</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>56.37</c:v>
+                  <c:v>29.48</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-147.9899999999999</c:v>
+                  <c:v>-146.71999999999991</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-126.85</c:v>
+                  <c:v>-162.49999999999969</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-187.78</c:v>
+                  <c:v>-164.46999999999991</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-179.64</c:v>
+                  <c:v>-177.36</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-136.37999999999991</c:v>
+                  <c:v>-146.4199999999999</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-68.259999999999891</c:v>
+                  <c:v>-67.559999999999889</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-156.45000000000019</c:v>
+                  <c:v>-148.33000000000021</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-150.97</c:v>
+                  <c:v>-167.30999999999989</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>11.79999999999999</c:v>
+                  <c:v>-168.3000000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-28.490000000000009</c:v>
+                  <c:v>-36.560000000000016</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-163.22999999999979</c:v>
+                  <c:v>-167.89999999999969</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-199.15999999999991</c:v>
+                  <c:v>-251.58999999999969</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-385.68999999999988</c:v>
+                  <c:v>-233.12000000000029</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-153.38999999999999</c:v>
+                  <c:v>-405.5900000000006</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-13.20999999999999</c:v>
+                  <c:v>-45.940000000000033</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-121.01</c:v>
+                  <c:v>-133.03</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-100.94</c:v>
+                  <c:v>-167.35</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-192.22</c:v>
+                  <c:v>-181.37999999999991</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-232.42000000000041</c:v>
+                  <c:v>-221.16000000000031</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-186</c:v>
+                  <c:v>-291.58999999999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -782,94 +782,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>-72.919999999999973</c:v>
+                  <c:v>-94.229999999999961</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-69.39</c:v>
+                  <c:v>-154.85</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-103.4999999999999</c:v>
+                  <c:v>-196.7999999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-60.98</c:v>
+                  <c:v>-120.63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-26.03</c:v>
+                  <c:v>-176.57</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-63.529999999999987</c:v>
+                  <c:v>-106.74</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-66.910000000000082</c:v>
+                  <c:v>-157.94999999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28.79999999999999</c:v>
+                  <c:v>-51.019999999999982</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-114.95</c:v>
+                  <c:v>-271.08000000000021</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>131.78</c:v>
+                  <c:v>59.129999999999988</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-84.729999999999947</c:v>
+                  <c:v>-96.48</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-107.67999999999989</c:v>
+                  <c:v>-96.749999999999943</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-128.62</c:v>
+                  <c:v>-122.05</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-208.3900000000001</c:v>
+                  <c:v>-207.77999999999989</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-92.459999999999951</c:v>
+                  <c:v>-91.530000000000015</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-91.84999999999998</c:v>
+                  <c:v>-35.519999999999982</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-107.55</c:v>
+                  <c:v>-124.98</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-98.489999999999966</c:v>
+                  <c:v>-210.17999999999989</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>9.0299999999999816</c:v>
+                  <c:v>-131.60000000000011</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-24.160000000000021</c:v>
+                  <c:v>-31.200000000000021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-17.309999999999992</c:v>
+                  <c:v>-53.430000000000007</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>4.8999999999999941</c:v>
+                  <c:v>-205.8</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-195.11000000000021</c:v>
+                  <c:v>-175.22</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-23.409999999999989</c:v>
+                  <c:v>-82.169999999999987</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-50.880000000000038</c:v>
+                  <c:v>-53.120000000000033</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-111.88</c:v>
+                  <c:v>-81.75</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-100.94</c:v>
+                  <c:v>-167.35</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-199.71</c:v>
+                  <c:v>-210.99999999999989</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-234.7600000000003</c:v>
+                  <c:v>-221.6200000000002</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-200.12000000000009</c:v>
+                  <c:v>-314.64999999999992</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1137,7 +1137,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10106219157501722"/>
+          <c:y val="1.4881737061970131E-2"/>
+          <c:w val="0.79787552275161644"/>
+          <c:h val="6.1400055074145032E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1751,15 +1760,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>136071</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>36737</xdr:rowOff>
+      <xdr:colOff>40823</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>172809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>1687285</xdr:colOff>
-      <xdr:row>64</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:colOff>1700893</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2265,7 +2274,7 @@
         <v>2021</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
@@ -2720,7 +2729,7 @@
         <v>2020</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="9">
         <v>1</v>
@@ -3175,7 +3184,7 @@
         <v>2018</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="6">
         <v>3</v>
@@ -4086,8 +4095,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U39"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4307,7 +4316,7 @@
         <v>2021</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="6">
         <v>0</v>
@@ -4762,7 +4771,7 @@
         <v>2020</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="11">
         <v>1</v>
@@ -5217,7 +5226,7 @@
         <v>2018</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="6">
         <v>3</v>
@@ -6196,8 +6205,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H70" sqref="H70"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W36" sqref="W36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6292,10 +6301,10 @@
         <v>20</v>
       </c>
       <c r="V1" s="12" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="W1" s="15" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="X1" s="12" t="s">
         <v>32</v>
@@ -6366,10 +6375,10 @@
         <v>356159.95995556167</v>
       </c>
       <c r="V2" s="11">
-        <v>-78.749999999999901</v>
+        <v>-134.09999999999991</v>
       </c>
       <c r="W2" s="14">
-        <v>-72.919999999999973</v>
+        <v>-94.229999999999961</v>
       </c>
       <c r="X2" s="11">
         <f t="shared" ref="X2:X31" si="0">IF(W2&gt;V2,1,0)</f>
@@ -6441,10 +6450,10 @@
         <v>18702978.115983784</v>
       </c>
       <c r="V3" s="11">
-        <v>16.199999999999989</v>
+        <v>-65.860000000000014</v>
       </c>
       <c r="W3" s="14">
-        <v>-69.39</v>
+        <v>-154.85</v>
       </c>
       <c r="X3" s="11">
         <f t="shared" si="0"/>
@@ -6459,7 +6468,7 @@
         <v>2021</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D4" s="18">
         <v>0</v>
@@ -6516,10 +6525,10 @@
         <v>3889344.5399099961</v>
       </c>
       <c r="V4" s="11">
-        <v>-256.73999999999961</v>
+        <v>-214.9399999999998</v>
       </c>
       <c r="W4" s="14">
-        <v>-103.4999999999999</v>
+        <v>-196.7999999999999</v>
       </c>
       <c r="X4" s="11">
         <f t="shared" si="0"/>
@@ -6591,14 +6600,14 @@
         <v>2603925.131103361</v>
       </c>
       <c r="V5" s="11">
-        <v>-88.059999999999832</v>
+        <v>-112.9399999999998</v>
       </c>
       <c r="W5" s="14">
-        <v>-60.98</v>
+        <v>-120.63</v>
       </c>
       <c r="X5" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
@@ -6666,10 +6675,10 @@
         <v>9261078.9064769875</v>
       </c>
       <c r="V6" s="11">
-        <v>-181.11999999999981</v>
+        <v>-216.70999999999981</v>
       </c>
       <c r="W6" s="14">
-        <v>-26.03</v>
+        <v>-176.57</v>
       </c>
       <c r="X6" s="11">
         <f t="shared" si="0"/>
@@ -6741,10 +6750,10 @@
         <v>6244959.3830651175</v>
       </c>
       <c r="V7" s="11">
-        <v>-261.94999999999987</v>
+        <v>-257.14999999999992</v>
       </c>
       <c r="W7" s="14">
-        <v>-63.529999999999987</v>
+        <v>-106.74</v>
       </c>
       <c r="X7" s="11">
         <f t="shared" si="0"/>
@@ -6816,10 +6825,10 @@
         <v>17700089.625400923</v>
       </c>
       <c r="V8" s="11">
-        <v>-186.52</v>
+        <v>-174.21000000000009</v>
       </c>
       <c r="W8" s="14">
-        <v>-66.910000000000082</v>
+        <v>-157.94999999999999</v>
       </c>
       <c r="X8" s="11">
         <f t="shared" si="0"/>
@@ -6891,10 +6900,10 @@
         <v>5837841.9366662949</v>
       </c>
       <c r="V9" s="11">
-        <v>-199.47000000000011</v>
+        <v>-245.06999999999991</v>
       </c>
       <c r="W9" s="14">
-        <v>28.79999999999999</v>
+        <v>-51.019999999999982</v>
       </c>
       <c r="X9" s="11">
         <f t="shared" si="0"/>
@@ -6966,10 +6975,10 @@
         <v>9740873.2307771854</v>
       </c>
       <c r="V10" s="11">
-        <v>-302.77000000000032</v>
+        <v>-282.63000000000011</v>
       </c>
       <c r="W10" s="14">
-        <v>-114.95</v>
+        <v>-271.08000000000021</v>
       </c>
       <c r="X10" s="11">
         <f t="shared" si="0"/>
@@ -6984,7 +6993,7 @@
         <v>2020</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D11" s="17">
         <v>1</v>
@@ -7041,10 +7050,10 @@
         <v>11634696.470159991</v>
       </c>
       <c r="V11" s="11">
-        <v>56.37</v>
+        <v>29.48</v>
       </c>
       <c r="W11" s="14">
-        <v>131.78</v>
+        <v>59.129999999999988</v>
       </c>
       <c r="X11" s="11">
         <f t="shared" si="0"/>
@@ -7116,10 +7125,10 @@
         <v>286032.99613732687</v>
       </c>
       <c r="V12" s="11">
-        <v>-147.9899999999999</v>
+        <v>-146.71999999999991</v>
       </c>
       <c r="W12" s="14">
-        <v>-84.729999999999947</v>
+        <v>-96.48</v>
       </c>
       <c r="X12" s="11">
         <f t="shared" si="0"/>
@@ -7191,10 +7200,10 @@
         <v>1832988.2302829542</v>
       </c>
       <c r="V13" s="11">
-        <v>-126.85</v>
+        <v>-162.49999999999969</v>
       </c>
       <c r="W13" s="14">
-        <v>-107.67999999999989</v>
+        <v>-96.749999999999943</v>
       </c>
       <c r="X13" s="11">
         <f t="shared" si="0"/>
@@ -7266,10 +7275,10 @@
         <v>2408571.3178105522</v>
       </c>
       <c r="V14" s="11">
-        <v>-187.78</v>
+        <v>-164.46999999999991</v>
       </c>
       <c r="W14" s="14">
-        <v>-128.62</v>
+        <v>-122.05</v>
       </c>
       <c r="X14" s="11">
         <f t="shared" si="0"/>
@@ -7341,10 +7350,10 @@
         <v>4328559.1604477121</v>
       </c>
       <c r="V15" s="11">
-        <v>-179.64</v>
+        <v>-177.36</v>
       </c>
       <c r="W15" s="14">
-        <v>-208.3900000000001</v>
+        <v>-207.77999999999989</v>
       </c>
       <c r="X15" s="11">
         <f t="shared" si="0"/>
@@ -7416,10 +7425,10 @@
         <v>2294824.0449553295</v>
       </c>
       <c r="V16" s="11">
-        <v>-136.37999999999991</v>
+        <v>-146.4199999999999</v>
       </c>
       <c r="W16" s="14">
-        <v>-92.459999999999951</v>
+        <v>-91.530000000000015</v>
       </c>
       <c r="X16" s="11">
         <f t="shared" si="0"/>
@@ -7491,14 +7500,14 @@
         <v>1122077.8321941854</v>
       </c>
       <c r="V17" s="11">
-        <v>-68.259999999999891</v>
+        <v>-67.559999999999889</v>
       </c>
       <c r="W17" s="14">
-        <v>-91.84999999999998</v>
+        <v>-35.519999999999982</v>
       </c>
       <c r="X17" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
@@ -7509,7 +7518,7 @@
         <v>2018</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D18" s="6">
         <v>3</v>
@@ -7566,10 +7575,10 @@
         <v>3584846.1060399981</v>
       </c>
       <c r="V18" s="11">
-        <v>-156.45000000000019</v>
+        <v>-148.33000000000021</v>
       </c>
       <c r="W18" s="14">
-        <v>-107.55</v>
+        <v>-124.98</v>
       </c>
       <c r="X18" s="11">
         <f t="shared" si="0"/>
@@ -7641,14 +7650,14 @@
         <v>482329.48363598721</v>
       </c>
       <c r="V19" s="11">
-        <v>-150.97</v>
+        <v>-167.30999999999989</v>
       </c>
       <c r="W19" s="14">
-        <v>-98.489999999999966</v>
+        <v>-210.17999999999989</v>
       </c>
       <c r="X19" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
@@ -7716,14 +7725,14 @@
         <v>40371896.324514598</v>
       </c>
       <c r="V20" s="11">
-        <v>11.79999999999999</v>
+        <v>-168.3000000000001</v>
       </c>
       <c r="W20" s="14">
-        <v>9.0299999999999816</v>
+        <v>-131.60000000000011</v>
       </c>
       <c r="X20" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:24" x14ac:dyDescent="0.25">
@@ -7791,10 +7800,10 @@
         <v>5608681.5484265415</v>
       </c>
       <c r="V21" s="11">
-        <v>-28.490000000000009</v>
+        <v>-36.560000000000016</v>
       </c>
       <c r="W21" s="14">
-        <v>-24.160000000000021</v>
+        <v>-31.200000000000021</v>
       </c>
       <c r="X21" s="11">
         <f t="shared" si="0"/>
@@ -7866,10 +7875,10 @@
         <v>36698725.509738542</v>
       </c>
       <c r="V22" s="11">
-        <v>-163.22999999999979</v>
+        <v>-167.89999999999969</v>
       </c>
       <c r="W22" s="14">
-        <v>-17.309999999999992</v>
+        <v>-53.430000000000007</v>
       </c>
       <c r="X22" s="11">
         <f t="shared" si="0"/>
@@ -7941,10 +7950,10 @@
         <v>15073222.510616535</v>
       </c>
       <c r="V23" s="11">
-        <v>-199.15999999999991</v>
+        <v>-251.58999999999969</v>
       </c>
       <c r="W23" s="14">
-        <v>4.8999999999999941</v>
+        <v>-205.8</v>
       </c>
       <c r="X23" s="11">
         <f t="shared" si="0"/>
@@ -8016,10 +8025,10 @@
         <v>42433907.62955901</v>
       </c>
       <c r="V24" s="11">
-        <v>-385.68999999999988</v>
+        <v>-233.12000000000029</v>
       </c>
       <c r="W24" s="14">
-        <v>-195.11000000000021</v>
+        <v>-175.22</v>
       </c>
       <c r="X24" s="11">
         <f t="shared" si="0"/>
@@ -8091,10 +8100,10 @@
         <v>36383677.220934838</v>
       </c>
       <c r="V25" s="11">
-        <v>-153.38999999999999</v>
+        <v>-405.5900000000006</v>
       </c>
       <c r="W25" s="14">
-        <v>-23.409999999999989</v>
+        <v>-82.169999999999987</v>
       </c>
       <c r="X25" s="11">
         <f t="shared" si="0"/>
@@ -8166,10 +8175,10 @@
         <v>89911704.287623957</v>
       </c>
       <c r="V26" s="11">
-        <v>-13.20999999999999</v>
+        <v>-45.940000000000033</v>
       </c>
       <c r="W26" s="14">
-        <v>-50.880000000000038</v>
+        <v>-53.120000000000033</v>
       </c>
       <c r="X26" s="11">
         <f t="shared" si="0"/>
@@ -8241,10 +8250,10 @@
         <v>1155335.2855618461</v>
       </c>
       <c r="V27" s="11">
-        <v>-121.01</v>
+        <v>-133.03</v>
       </c>
       <c r="W27" s="14">
-        <v>-111.88</v>
+        <v>-81.75</v>
       </c>
       <c r="X27" s="11">
         <f t="shared" si="0"/>
@@ -8316,10 +8325,10 @@
         <v>27065491.890230715</v>
       </c>
       <c r="V28" s="11">
-        <v>-100.94</v>
+        <v>-167.35</v>
       </c>
       <c r="W28" s="14">
-        <v>-100.94</v>
+        <v>-167.35</v>
       </c>
       <c r="X28" s="14">
         <f t="shared" si="0"/>
@@ -8391,10 +8400,10 @@
         <v>13159071.296912728</v>
       </c>
       <c r="V29" s="11">
-        <v>-192.22</v>
+        <v>-181.37999999999991</v>
       </c>
       <c r="W29" s="14">
-        <v>-199.71</v>
+        <v>-210.99999999999989</v>
       </c>
       <c r="X29" s="14">
         <f t="shared" si="0"/>
@@ -8466,10 +8475,10 @@
         <v>9808902.6612626221</v>
       </c>
       <c r="V30" s="11">
-        <v>-232.42000000000041</v>
+        <v>-221.16000000000031</v>
       </c>
       <c r="W30" s="14">
-        <v>-234.7600000000003</v>
+        <v>-221.6200000000002</v>
       </c>
       <c r="X30" s="11">
         <f t="shared" si="0"/>
@@ -8541,10 +8550,10 @@
         <v>8288037.572059215</v>
       </c>
       <c r="V31" s="11">
-        <v>-186</v>
+        <v>-291.58999999999992</v>
       </c>
       <c r="W31" s="14">
-        <v>-200.12000000000009</v>
+        <v>-314.64999999999992</v>
       </c>
       <c r="X31" s="14">
         <f t="shared" si="0"/>
@@ -8724,13 +8733,13 @@
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="D39" s="12" t="s">
+      <c r="E39" s="12" t="s">
         <v>56</v>
-      </c>
-      <c r="E39" s="12" t="s">
-        <v>57</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="11"/>
@@ -8757,10 +8766,10 @@
         <v>-140</v>
       </c>
       <c r="D40" s="11">
-        <v>-78.749999999999901</v>
+        <v>-134.09999999999991</v>
       </c>
       <c r="E40" s="11">
-        <v>-72.919999999999973</v>
+        <v>-94.229999999999961</v>
       </c>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
@@ -8786,10 +8795,10 @@
         <v>-476</v>
       </c>
       <c r="D41" s="11">
-        <v>16.199999999999989</v>
+        <v>-65.860000000000014</v>
       </c>
       <c r="E41" s="11">
-        <v>-69.39</v>
+        <v>-154.85</v>
       </c>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
@@ -8816,10 +8825,10 @@
         <v>-246</v>
       </c>
       <c r="D42" s="11">
-        <v>-256.73999999999961</v>
+        <v>-214.9399999999998</v>
       </c>
       <c r="E42" s="11">
-        <v>-103.4999999999999</v>
+        <v>-196.7999999999999</v>
       </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
@@ -8843,10 +8852,10 @@
         <v>-166</v>
       </c>
       <c r="D43" s="11">
-        <v>-88.059999999999832</v>
+        <v>-112.9399999999998</v>
       </c>
       <c r="E43" s="11">
-        <v>-60.98</v>
+        <v>-120.63</v>
       </c>
       <c r="V43" s="11"/>
     </row>
@@ -8855,10 +8864,10 @@
         <v>-210</v>
       </c>
       <c r="D44" s="11">
-        <v>-181.11999999999981</v>
+        <v>-216.70999999999981</v>
       </c>
       <c r="E44" s="11">
-        <v>-26.03</v>
+        <v>-176.57</v>
       </c>
       <c r="V44" s="11"/>
     </row>
@@ -8867,10 +8876,10 @@
         <v>-291</v>
       </c>
       <c r="D45" s="11">
-        <v>-261.94999999999987</v>
+        <v>-257.14999999999992</v>
       </c>
       <c r="E45" s="11">
-        <v>-63.529999999999987</v>
+        <v>-106.74</v>
       </c>
       <c r="V45" s="11"/>
     </row>
@@ -8879,10 +8888,10 @@
         <v>-284</v>
       </c>
       <c r="D46" s="11">
-        <v>-186.52</v>
+        <v>-174.21000000000009</v>
       </c>
       <c r="E46" s="11">
-        <v>-66.910000000000082</v>
+        <v>-157.94999999999999</v>
       </c>
       <c r="V46" s="11"/>
     </row>
@@ -8891,10 +8900,10 @@
         <v>-274</v>
       </c>
       <c r="D47" s="11">
-        <v>-199.47000000000011</v>
+        <v>-245.06999999999991</v>
       </c>
       <c r="E47" s="11">
-        <v>28.79999999999999</v>
+        <v>-51.019999999999982</v>
       </c>
       <c r="V47" s="11"/>
     </row>
@@ -8903,10 +8912,10 @@
         <v>-340</v>
       </c>
       <c r="D48" s="11">
-        <v>-302.77000000000032</v>
+        <v>-282.63000000000011</v>
       </c>
       <c r="E48" s="11">
-        <v>-114.95</v>
+        <v>-271.08000000000021</v>
       </c>
     </row>
     <row r="49" spans="3:5" x14ac:dyDescent="0.25">
@@ -8914,10 +8923,10 @@
         <v>-193</v>
       </c>
       <c r="D49" s="11">
-        <v>56.37</v>
+        <v>29.48</v>
       </c>
       <c r="E49" s="11">
-        <v>131.78</v>
+        <v>59.129999999999988</v>
       </c>
     </row>
     <row r="50" spans="3:5" x14ac:dyDescent="0.25">
@@ -8925,10 +8934,10 @@
         <v>-168</v>
       </c>
       <c r="D50" s="11">
-        <v>-147.9899999999999</v>
+        <v>-146.71999999999991</v>
       </c>
       <c r="E50" s="11">
-        <v>-84.729999999999947</v>
+        <v>-96.48</v>
       </c>
     </row>
     <row r="51" spans="3:5" x14ac:dyDescent="0.25">
@@ -8936,10 +8945,10 @@
         <v>-174</v>
       </c>
       <c r="D51" s="11">
-        <v>-126.85</v>
+        <v>-162.49999999999969</v>
       </c>
       <c r="E51" s="11">
-        <v>-107.67999999999989</v>
+        <v>-96.749999999999943</v>
       </c>
     </row>
     <row r="52" spans="3:5" x14ac:dyDescent="0.25">
@@ -8947,10 +8956,10 @@
         <v>-193</v>
       </c>
       <c r="D52" s="11">
-        <v>-187.78</v>
+        <v>-164.46999999999991</v>
       </c>
       <c r="E52" s="11">
-        <v>-128.62</v>
+        <v>-122.05</v>
       </c>
     </row>
     <row r="53" spans="3:5" x14ac:dyDescent="0.25">
@@ -8958,10 +8967,10 @@
         <v>-121</v>
       </c>
       <c r="D53" s="11">
-        <v>-179.64</v>
+        <v>-177.36</v>
       </c>
       <c r="E53" s="11">
-        <v>-208.3900000000001</v>
+        <v>-207.77999999999989</v>
       </c>
     </row>
     <row r="54" spans="3:5" x14ac:dyDescent="0.25">
@@ -8969,10 +8978,10 @@
         <v>-158</v>
       </c>
       <c r="D54" s="11">
-        <v>-136.37999999999991</v>
+        <v>-146.4199999999999</v>
       </c>
       <c r="E54" s="11">
-        <v>-92.459999999999951</v>
+        <v>-91.530000000000015</v>
       </c>
     </row>
     <row r="55" spans="3:5" x14ac:dyDescent="0.25">
@@ -8980,10 +8989,10 @@
         <v>-76</v>
       </c>
       <c r="D55" s="11">
-        <v>-68.259999999999891</v>
+        <v>-67.559999999999889</v>
       </c>
       <c r="E55" s="11">
-        <v>-91.84999999999998</v>
+        <v>-35.519999999999982</v>
       </c>
     </row>
     <row r="56" spans="3:5" x14ac:dyDescent="0.25">
@@ -8991,10 +9000,10 @@
         <v>-164</v>
       </c>
       <c r="D56" s="11">
-        <v>-156.45000000000019</v>
+        <v>-148.33000000000021</v>
       </c>
       <c r="E56" s="11">
-        <v>-107.55</v>
+        <v>-124.98</v>
       </c>
     </row>
     <row r="57" spans="3:5" x14ac:dyDescent="0.25">
@@ -9002,10 +9011,10 @@
         <v>-188</v>
       </c>
       <c r="D57" s="11">
-        <v>-150.97</v>
+        <v>-167.30999999999989</v>
       </c>
       <c r="E57" s="11">
-        <v>-98.489999999999966</v>
+        <v>-210.17999999999989</v>
       </c>
     </row>
     <row r="58" spans="3:5" x14ac:dyDescent="0.25">
@@ -9013,10 +9022,10 @@
         <v>-483</v>
       </c>
       <c r="D58" s="11">
-        <v>11.79999999999999</v>
+        <v>-168.3000000000001</v>
       </c>
       <c r="E58" s="11">
-        <v>9.0299999999999816</v>
+        <v>-131.60000000000011</v>
       </c>
     </row>
     <row r="59" spans="3:5" x14ac:dyDescent="0.25">
@@ -9024,10 +9033,10 @@
         <v>-523</v>
       </c>
       <c r="D59" s="11">
-        <v>-28.490000000000009</v>
+        <v>-36.560000000000016</v>
       </c>
       <c r="E59" s="11">
-        <v>-24.160000000000021</v>
+        <v>-31.200000000000021</v>
       </c>
     </row>
     <row r="60" spans="3:5" x14ac:dyDescent="0.25">
@@ -9035,10 +9044,10 @@
         <v>-199</v>
       </c>
       <c r="D60" s="11">
-        <v>-163.22999999999979</v>
+        <v>-167.89999999999969</v>
       </c>
       <c r="E60" s="11">
-        <v>-17.309999999999992</v>
+        <v>-53.430000000000007</v>
       </c>
     </row>
     <row r="61" spans="3:5" x14ac:dyDescent="0.25">
@@ -9046,10 +9055,10 @@
         <v>-310</v>
       </c>
       <c r="D61" s="11">
-        <v>-199.15999999999991</v>
+        <v>-251.58999999999969</v>
       </c>
       <c r="E61" s="11">
-        <v>4.8999999999999941</v>
+        <v>-205.8</v>
       </c>
     </row>
     <row r="62" spans="3:5" x14ac:dyDescent="0.25">
@@ -9057,10 +9066,10 @@
         <v>-236</v>
       </c>
       <c r="D62" s="11">
-        <v>-385.68999999999988</v>
+        <v>-233.12000000000029</v>
       </c>
       <c r="E62" s="11">
-        <v>-195.11000000000021</v>
+        <v>-175.22</v>
       </c>
     </row>
     <row r="63" spans="3:5" x14ac:dyDescent="0.25">
@@ -9068,10 +9077,10 @@
         <v>-472</v>
       </c>
       <c r="D63" s="11">
-        <v>-153.38999999999999</v>
+        <v>-405.5900000000006</v>
       </c>
       <c r="E63" s="11">
-        <v>-23.409999999999989</v>
+        <v>-82.169999999999987</v>
       </c>
     </row>
     <row r="64" spans="3:5" x14ac:dyDescent="0.25">
@@ -9079,10 +9088,10 @@
         <v>-402</v>
       </c>
       <c r="D64" s="11">
-        <v>-13.20999999999999</v>
+        <v>-45.940000000000033</v>
       </c>
       <c r="E64" s="11">
-        <v>-50.880000000000038</v>
+        <v>-53.120000000000033</v>
       </c>
     </row>
     <row r="65" spans="3:5" x14ac:dyDescent="0.25">
@@ -9090,10 +9099,10 @@
         <v>-294</v>
       </c>
       <c r="D65" s="11">
-        <v>-121.01</v>
+        <v>-133.03</v>
       </c>
       <c r="E65" s="11">
-        <v>-111.88</v>
+        <v>-81.75</v>
       </c>
     </row>
     <row r="66" spans="3:5" x14ac:dyDescent="0.25">
@@ -9101,10 +9110,10 @@
         <v>-541</v>
       </c>
       <c r="D66" s="11">
-        <v>-100.94</v>
+        <v>-167.35</v>
       </c>
       <c r="E66" s="11">
-        <v>-100.94</v>
+        <v>-167.35</v>
       </c>
     </row>
     <row r="67" spans="3:5" x14ac:dyDescent="0.25">
@@ -9112,10 +9121,10 @@
         <v>-192</v>
       </c>
       <c r="D67" s="11">
-        <v>-192.22</v>
+        <v>-181.37999999999991</v>
       </c>
       <c r="E67" s="11">
-        <v>-199.71</v>
+        <v>-210.99999999999989</v>
       </c>
     </row>
     <row r="68" spans="3:5" x14ac:dyDescent="0.25">
@@ -9123,10 +9132,10 @@
         <v>-300</v>
       </c>
       <c r="D68" s="11">
-        <v>-232.42000000000041</v>
+        <v>-221.16000000000031</v>
       </c>
       <c r="E68" s="11">
-        <v>-234.7600000000003</v>
+        <v>-221.6200000000002</v>
       </c>
     </row>
     <row r="69" spans="3:5" x14ac:dyDescent="0.25">
@@ -9134,20 +9143,20 @@
         <v>-429</v>
       </c>
       <c r="D69" s="11">
-        <v>-186</v>
+        <v>-291.58999999999992</v>
       </c>
       <c r="E69" s="11">
-        <v>-200.12000000000009</v>
+        <v>-314.64999999999992</v>
       </c>
     </row>
     <row r="70" spans="3:5" x14ac:dyDescent="0.25">
       <c r="D70" s="11">
         <f>AVERAGE(D40:D69)</f>
-        <v>-146.70299999999995</v>
+        <v>-171.9436666666667</v>
       </c>
       <c r="E70" s="11">
         <f>AVERAGE(E40:E69)</f>
-        <v>-82.725000000000009</v>
+        <v>-132.83066666666667</v>
       </c>
     </row>
   </sheetData>

--- a/migforecasting/clustering/for paper/examples for improv test.xlsx
+++ b/migforecasting/clustering/for paper/examples for improv test.xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="examples" sheetId="1" r:id="rId1"/>
     <sheet name="examples abs" sheetId="3" r:id="rId2"/>
     <sheet name="examples abs + changes" sheetId="4" r:id="rId3"/>
+    <sheet name="c2c" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="62">
   <si>
     <t>oktmo</t>
   </si>
@@ -195,6 +196,18 @@
   </si>
   <si>
     <t>pred (adaptive changes)</t>
+  </si>
+  <si>
+    <t>actual</t>
+  </si>
+  <si>
+    <t>incluster</t>
+  </si>
+  <si>
+    <t>c2c</t>
+  </si>
+  <si>
+    <t>avg</t>
   </si>
 </sst>
 </file>
@@ -1212,7 +1225,520 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'c2c'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>actual</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'c2c'!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-109.93</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-153.16999999999979</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-156.44</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-183.66000000000011</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-143.85</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-71.339999999999904</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-143.55000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-177.11999999999989</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-101.57</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-94.579999999999984</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-239.99000000000021</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-89.410000000000025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-176.49000000000009</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-72.67000000000003</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-219.95</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4428-429B-9C41-7E207C674486}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'c2c'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>incluster</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'c2c'!$C$2:$C$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-81.589999999999961</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-70.429999999999964</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-101.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-161.27000000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-87.09</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-26.47000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-107.12</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-198.94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-81.2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-89.980000000000018</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-66.109999999999985</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-89.410000000000025</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-209.66</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-102.33</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-232.18999999999991</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-4428-429B-9C41-7E207C674486}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'c2c'!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>c2c</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="00B050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>'c2c'!$D$2:$D$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>-91.249999999999972</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-74.489999999999966</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-115.57000000000011</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-163.14999999999989</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-55.029999999999987</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-19.879999999999981</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-104.95</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-43.67999999999995</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-107.29</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-70.13</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-65.57999999999997</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-96.99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-196.03</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-110.99</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-209.30999999999989</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4428-429B-9C41-7E207C674486}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="972796239"/>
+        <c:axId val="972802063"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="972796239"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="972802063"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="972802063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="972796239"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1755,6 +2281,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1769,6 +2811,41 @@
       <xdr:colOff>1700893</xdr:colOff>
       <xdr:row>63</xdr:row>
       <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>247649</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>71436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>504824</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>171449</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4096,7 +5173,7 @@
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="E27" sqref="E27:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6205,8 +7282,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W36" sqref="W36"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6380,10 +7457,7 @@
       <c r="W2" s="14">
         <v>-94.229999999999961</v>
       </c>
-      <c r="X2" s="11">
-        <f t="shared" ref="X2:X31" si="0">IF(W2&gt;V2,1,0)</f>
-        <v>1</v>
-      </c>
+      <c r="X2" s="11"/>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
@@ -6456,7 +7530,7 @@
         <v>-154.85</v>
       </c>
       <c r="X3" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="X2:X31" si="0">IF(W3&gt;V3,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -8584,7 +9658,7 @@
       <c r="U32" s="11"/>
       <c r="X32" s="15">
         <f>COUNTIF(X2:X31,1)</f>
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
@@ -9164,4 +10238,280 @@
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="3" max="3" width="12" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B2" s="11">
+        <v>-109.93</v>
+      </c>
+      <c r="C2" s="11">
+        <v>-81.589999999999961</v>
+      </c>
+      <c r="D2" s="11">
+        <v>-91.249999999999972</v>
+      </c>
+      <c r="E2" s="11">
+        <f>IF(D2&gt;C2,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B3" s="11">
+        <v>-153.16999999999979</v>
+      </c>
+      <c r="C3" s="11">
+        <v>-70.429999999999964</v>
+      </c>
+      <c r="D3" s="11">
+        <v>-74.489999999999966</v>
+      </c>
+      <c r="E3" s="11">
+        <f t="shared" ref="E3:E16" si="0">IF(D3&gt;C3,1,0)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="11">
+        <v>-156.44</v>
+      </c>
+      <c r="C4" s="11">
+        <v>-101.92</v>
+      </c>
+      <c r="D4" s="11">
+        <v>-115.57000000000011</v>
+      </c>
+      <c r="E4" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B5" s="11">
+        <v>-183.66000000000011</v>
+      </c>
+      <c r="C5" s="11">
+        <v>-161.27000000000001</v>
+      </c>
+      <c r="D5" s="11">
+        <v>-163.14999999999989</v>
+      </c>
+      <c r="E5" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B6" s="11">
+        <v>-143.85</v>
+      </c>
+      <c r="C6" s="11">
+        <v>-87.09</v>
+      </c>
+      <c r="D6" s="11">
+        <v>-55.029999999999987</v>
+      </c>
+      <c r="E6" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="11">
+        <v>-71.339999999999904</v>
+      </c>
+      <c r="C7" s="11">
+        <v>-26.47000000000001</v>
+      </c>
+      <c r="D7" s="11">
+        <v>-19.879999999999981</v>
+      </c>
+      <c r="E7" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B8" s="11">
+        <v>-143.55000000000001</v>
+      </c>
+      <c r="C8" s="11">
+        <v>-107.12</v>
+      </c>
+      <c r="D8" s="11">
+        <v>-104.95</v>
+      </c>
+      <c r="E8" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B9" s="11">
+        <v>-177.11999999999989</v>
+      </c>
+      <c r="C9" s="11">
+        <v>-198.94</v>
+      </c>
+      <c r="D9" s="11">
+        <v>-43.67999999999995</v>
+      </c>
+      <c r="E9" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="11">
+        <v>-101.57</v>
+      </c>
+      <c r="C10" s="11">
+        <v>-81.2</v>
+      </c>
+      <c r="D10" s="11">
+        <v>-107.29</v>
+      </c>
+      <c r="E10" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B11" s="11">
+        <v>-94.579999999999984</v>
+      </c>
+      <c r="C11" s="11">
+        <v>-89.980000000000018</v>
+      </c>
+      <c r="D11" s="11">
+        <v>-70.13</v>
+      </c>
+      <c r="E11" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B12" s="11">
+        <v>-239.99000000000021</v>
+      </c>
+      <c r="C12" s="11">
+        <v>-66.109999999999985</v>
+      </c>
+      <c r="D12" s="11">
+        <v>-65.57999999999997</v>
+      </c>
+      <c r="E12" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="11">
+        <v>-89.410000000000025</v>
+      </c>
+      <c r="C13" s="11">
+        <v>-89.410000000000025</v>
+      </c>
+      <c r="D13" s="11">
+        <v>-96.99</v>
+      </c>
+      <c r="E13" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B14" s="11">
+        <v>-176.49000000000009</v>
+      </c>
+      <c r="C14" s="11">
+        <v>-209.66</v>
+      </c>
+      <c r="D14" s="11">
+        <v>-196.03</v>
+      </c>
+      <c r="E14" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B15" s="11">
+        <v>-72.67000000000003</v>
+      </c>
+      <c r="C15" s="11">
+        <v>-102.33</v>
+      </c>
+      <c r="D15" s="11">
+        <v>-110.99</v>
+      </c>
+      <c r="E15" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="11">
+        <v>-219.95</v>
+      </c>
+      <c r="C16" s="11">
+        <v>-232.18999999999991</v>
+      </c>
+      <c r="D16" s="11">
+        <v>-209.30999999999989</v>
+      </c>
+      <c r="E16" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="12" t="s">
+        <v>61</v>
+      </c>
+      <c r="B17" s="12">
+        <f>AVERAGE(B2:B16)</f>
+        <v>-142.24799999999999</v>
+      </c>
+      <c r="C17" s="12">
+        <f t="shared" ref="C17:D17" si="1">AVERAGE(C2:C16)</f>
+        <v>-113.71399999999998</v>
+      </c>
+      <c r="D17" s="12">
+        <f t="shared" si="1"/>
+        <v>-101.62133333333331</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/migforecasting/clustering/for paper/examples for improv test.xlsx
+++ b/migforecasting/clustering/for paper/examples for improv test.xlsx
@@ -4,13 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="examples" sheetId="1" r:id="rId1"/>
     <sheet name="examples abs" sheetId="3" r:id="rId2"/>
-    <sheet name="examples abs + changes" sheetId="4" r:id="rId3"/>
-    <sheet name="c2c" sheetId="5" r:id="rId4"/>
+    <sheet name="examples abs c2c" sheetId="6" r:id="rId3"/>
+    <sheet name="examples abs + changes" sheetId="4" r:id="rId4"/>
+    <sheet name="c2c" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="67">
   <si>
     <t>oktmo</t>
   </si>
@@ -198,16 +199,31 @@
     <t>pred (adaptive changes)</t>
   </si>
   <si>
-    <t>actual</t>
+    <t>avg</t>
   </si>
   <si>
-    <t>incluster</t>
+    <t>actual (prediction)</t>
   </si>
   <si>
-    <t>c2c</t>
+    <t>cluster to cluster</t>
   </si>
   <si>
-    <t>avg</t>
+    <t>within cluster</t>
+  </si>
+  <si>
+    <t>Большечерниговский</t>
+  </si>
+  <si>
+    <t>Борский</t>
+  </si>
+  <si>
+    <t>Шенталинский</t>
+  </si>
+  <si>
+    <t>Альменевский</t>
+  </si>
+  <si>
+    <t>Звериноголовский</t>
   </si>
 </sst>
 </file>
@@ -1246,7 +1262,7 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -1254,7 +1270,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>actual</c:v>
+                  <c:v>actual (prediction)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1328,12 +1344,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-4428-429B-9C41-7E207C674486}"/>
+              <c16:uniqueId val="{00000001-4428-429B-9C41-7E207C674486}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="2"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -1341,7 +1357,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>incluster</c:v>
+                  <c:v>within cluster</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1415,12 +1431,12 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-4428-429B-9C41-7E207C674486}"/>
+              <c16:uniqueId val="{00000002-4428-429B-9C41-7E207C674486}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="3"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -1428,7 +1444,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>c2c</c:v>
+                  <c:v>cluster to cluster</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1502,7 +1518,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-4428-429B-9C41-7E207C674486}"/>
+              <c16:uniqueId val="{00000000-1873-4483-BD0A-011E40E8E2DE}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2839,13 +2855,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>247649</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>71436</xdr:rowOff>
+      <xdr:rowOff>71437</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>504824</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>171449</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5173,7 +5189,7 @@
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27:E31"/>
+      <selection activeCell="A12" sqref="A12:U16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7280,9 +7296,851 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:U17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="6" max="6" width="15.42578125" customWidth="1"/>
+    <col min="10" max="10" width="14.28515625" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" customWidth="1"/>
+    <col min="20" max="20" width="18.5703125" customWidth="1"/>
+    <col min="21" max="21" width="23.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="N1" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="R1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="S1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="U1" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="11">
+        <v>1606000</v>
+      </c>
+      <c r="B2" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" s="11">
+        <v>2</v>
+      </c>
+      <c r="E2" s="11">
+        <v>9622.9999999999964</v>
+      </c>
+      <c r="F2" s="11">
+        <v>1207.9999999999993</v>
+      </c>
+      <c r="G2" s="11">
+        <v>16635.344249999991</v>
+      </c>
+      <c r="H2" s="11">
+        <v>3746.5999999999967</v>
+      </c>
+      <c r="I2" s="11">
+        <v>44.99999999999995</v>
+      </c>
+      <c r="J2" s="11">
+        <v>79286.091859999928</v>
+      </c>
+      <c r="K2" s="11">
+        <v>30.1</v>
+      </c>
+      <c r="L2" s="11">
+        <v>32.999999999999773</v>
+      </c>
+      <c r="M2" s="11">
+        <v>9.9999999999999485</v>
+      </c>
+      <c r="N2" s="11">
+        <v>212.39999999999975</v>
+      </c>
+      <c r="O2" s="11">
+        <v>22989.999999999982</v>
+      </c>
+      <c r="P2" s="11">
+        <v>7487.889999999994</v>
+      </c>
+      <c r="Q2" s="11">
+        <v>613356.16829999944</v>
+      </c>
+      <c r="R2" s="11">
+        <v>14.999999999999956</v>
+      </c>
+      <c r="S2" s="11">
+        <v>672.99999999999989</v>
+      </c>
+      <c r="T2" s="11">
+        <v>232900.09079999954</v>
+      </c>
+      <c r="U2" s="11">
+        <v>-168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="11">
+        <v>1620000</v>
+      </c>
+      <c r="B3" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="11">
+        <v>2</v>
+      </c>
+      <c r="E3" s="11">
+        <v>16685</v>
+      </c>
+      <c r="F3" s="11">
+        <v>2386</v>
+      </c>
+      <c r="G3" s="11">
+        <v>16273.3732</v>
+      </c>
+      <c r="H3" s="11">
+        <v>10592.199999999999</v>
+      </c>
+      <c r="I3" s="11">
+        <v>377.99999999999972</v>
+      </c>
+      <c r="J3" s="11">
+        <v>398404.10683999996</v>
+      </c>
+      <c r="K3" s="11">
+        <v>26.4</v>
+      </c>
+      <c r="L3" s="11">
+        <v>27.999999999999833</v>
+      </c>
+      <c r="M3" s="11">
+        <v>22.999999999999915</v>
+      </c>
+      <c r="N3" s="11">
+        <v>800.99999999999955</v>
+      </c>
+      <c r="O3" s="11">
+        <v>112136.99999999997</v>
+      </c>
+      <c r="P3" s="11">
+        <v>9244.5999999999931</v>
+      </c>
+      <c r="Q3" s="11">
+        <v>1610842.1835999999</v>
+      </c>
+      <c r="R3" s="11">
+        <v>21.999999999999957</v>
+      </c>
+      <c r="S3" s="11">
+        <v>624.00000000000011</v>
+      </c>
+      <c r="T3" s="11">
+        <v>1492496.0792400001</v>
+      </c>
+      <c r="U3" s="11">
+        <v>-174</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="11">
+        <v>1719000</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="11">
+        <v>2</v>
+      </c>
+      <c r="E4" s="11">
+        <v>40956</v>
+      </c>
+      <c r="F4" s="11">
+        <v>6906.9999999999973</v>
+      </c>
+      <c r="G4" s="11">
+        <v>16179.493109999999</v>
+      </c>
+      <c r="H4" s="11">
+        <v>45679.399999999994</v>
+      </c>
+      <c r="I4" s="11">
+        <v>943.99999999999955</v>
+      </c>
+      <c r="J4" s="11">
+        <v>1135992.2059199996</v>
+      </c>
+      <c r="K4" s="11">
+        <v>22.9</v>
+      </c>
+      <c r="L4" s="11">
+        <v>86.999999999999389</v>
+      </c>
+      <c r="M4" s="11">
+        <v>196.9999999999992</v>
+      </c>
+      <c r="N4" s="11">
+        <v>2450.9999999999986</v>
+      </c>
+      <c r="O4" s="11">
+        <v>49269.999999999935</v>
+      </c>
+      <c r="P4" s="11">
+        <v>10475.609999999997</v>
+      </c>
+      <c r="Q4" s="11">
+        <v>832899.14939999871</v>
+      </c>
+      <c r="R4" s="11">
+        <v>26.99999999999994</v>
+      </c>
+      <c r="S4" s="11">
+        <v>1959.9999999999998</v>
+      </c>
+      <c r="T4" s="11">
+        <v>1961160.027659998</v>
+      </c>
+      <c r="U4" s="11">
+        <v>-193</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="11">
+        <v>4621000</v>
+      </c>
+      <c r="B5" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5" s="11">
+        <v>2</v>
+      </c>
+      <c r="E5" s="11">
+        <v>24184.999999999989</v>
+      </c>
+      <c r="F5" s="11">
+        <v>4568.9999999999982</v>
+      </c>
+      <c r="G5" s="11">
+        <v>21418.87329</v>
+      </c>
+      <c r="H5" s="11">
+        <v>4933.5999999999949</v>
+      </c>
+      <c r="I5" s="11">
+        <v>130.99999999999977</v>
+      </c>
+      <c r="J5" s="11">
+        <v>143687.26248999985</v>
+      </c>
+      <c r="K5" s="11">
+        <v>22.3</v>
+      </c>
+      <c r="L5" s="11">
+        <v>103.9999999999993</v>
+      </c>
+      <c r="M5" s="11">
+        <v>2.9999999999999765</v>
+      </c>
+      <c r="N5" s="11">
+        <v>316.99999999999955</v>
+      </c>
+      <c r="O5" s="11">
+        <v>106497.99999999996</v>
+      </c>
+      <c r="P5" s="11">
+        <v>19137.909999999989</v>
+      </c>
+      <c r="Q5" s="11">
+        <v>3427876.6054999977</v>
+      </c>
+      <c r="R5" s="11">
+        <v>50.999999999999886</v>
+      </c>
+      <c r="S5" s="11">
+        <v>1217.9999999999995</v>
+      </c>
+      <c r="T5" s="11">
+        <v>3524494.8488999987</v>
+      </c>
+      <c r="U5" s="11">
+        <v>-121</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="11">
+        <v>36616000</v>
+      </c>
+      <c r="B6" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="11">
+        <v>2</v>
+      </c>
+      <c r="E6" s="11">
+        <v>12565.999999999991</v>
+      </c>
+      <c r="F6" s="11">
+        <v>2093.9999999999991</v>
+      </c>
+      <c r="G6" s="11">
+        <v>16955.84604</v>
+      </c>
+      <c r="H6" s="11">
+        <v>7192.4999999999927</v>
+      </c>
+      <c r="I6" s="11">
+        <v>449.99999999999943</v>
+      </c>
+      <c r="J6" s="11">
+        <v>298227.95619999972</v>
+      </c>
+      <c r="K6" s="11">
+        <v>30.03</v>
+      </c>
+      <c r="L6" s="11">
+        <v>59.999999999999581</v>
+      </c>
+      <c r="M6" s="11">
+        <v>14.999999999999922</v>
+      </c>
+      <c r="N6" s="11">
+        <v>647.79999999999916</v>
+      </c>
+      <c r="O6" s="11">
+        <v>25719.999999999982</v>
+      </c>
+      <c r="P6" s="11">
+        <v>20804.14999999998</v>
+      </c>
+      <c r="Q6" s="11">
+        <v>1533618.0888999989</v>
+      </c>
+      <c r="R6" s="11">
+        <v>21.999999999999932</v>
+      </c>
+      <c r="S6" s="11">
+        <v>676.99999999999955</v>
+      </c>
+      <c r="T6" s="11">
+        <v>1868542.2159599983</v>
+      </c>
+      <c r="U6" s="11">
+        <v>-158</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="11">
+        <v>36610000</v>
+      </c>
+      <c r="B7" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C7" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="11">
+        <v>2</v>
+      </c>
+      <c r="E7" s="11">
+        <v>17499</v>
+      </c>
+      <c r="F7" s="11">
+        <v>2815</v>
+      </c>
+      <c r="G7" s="11">
+        <v>20675.747319999999</v>
+      </c>
+      <c r="H7" s="11">
+        <v>4044.4999999999973</v>
+      </c>
+      <c r="I7" s="11">
+        <v>387.99999999999983</v>
+      </c>
+      <c r="J7" s="11">
+        <v>509272.59583999997</v>
+      </c>
+      <c r="K7" s="11">
+        <v>29.82</v>
+      </c>
+      <c r="L7" s="11">
+        <v>53.999999999999659</v>
+      </c>
+      <c r="M7" s="11">
+        <v>31.999999999999865</v>
+      </c>
+      <c r="N7" s="11">
+        <v>1231.9999999999993</v>
+      </c>
+      <c r="O7" s="11">
+        <v>47001.999999999993</v>
+      </c>
+      <c r="P7" s="11">
+        <v>8969.9999999999982</v>
+      </c>
+      <c r="Q7" s="11">
+        <v>2998146.3123999988</v>
+      </c>
+      <c r="R7" s="11">
+        <v>21.99999999999995</v>
+      </c>
+      <c r="S7" s="11">
+        <v>1535</v>
+      </c>
+      <c r="T7" s="11">
+        <v>4597855.1592400009</v>
+      </c>
+      <c r="U7" s="11">
+        <v>-139</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="11">
+        <v>36612000</v>
+      </c>
+      <c r="B8" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="11">
+        <v>2</v>
+      </c>
+      <c r="E8" s="11">
+        <v>22832.999999999989</v>
+      </c>
+      <c r="F8" s="11">
+        <v>2624.9999999999973</v>
+      </c>
+      <c r="G8" s="11">
+        <v>19000.342280000001</v>
+      </c>
+      <c r="H8" s="11">
+        <v>12773.499999999993</v>
+      </c>
+      <c r="I8" s="11">
+        <v>480.99999999999943</v>
+      </c>
+      <c r="J8" s="11">
+        <v>477102.61020999961</v>
+      </c>
+      <c r="K8" s="11">
+        <v>32.450000000000003</v>
+      </c>
+      <c r="L8" s="11">
+        <v>83.999999999999417</v>
+      </c>
+      <c r="M8" s="11">
+        <v>66.999999999999702</v>
+      </c>
+      <c r="N8" s="11">
+        <v>586.09999999999911</v>
+      </c>
+      <c r="O8" s="11">
+        <v>13303.999999999976</v>
+      </c>
+      <c r="P8" s="11">
+        <v>31991.309999999979</v>
+      </c>
+      <c r="Q8" s="11">
+        <v>2339528.8654999975</v>
+      </c>
+      <c r="R8" s="11">
+        <v>40.999999999999879</v>
+      </c>
+      <c r="S8" s="11">
+        <v>960.99999999999955</v>
+      </c>
+      <c r="T8" s="11">
+        <v>507575.87836999819</v>
+      </c>
+      <c r="U8" s="11">
+        <v>-126</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="11">
+        <v>36648000</v>
+      </c>
+      <c r="B9" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D9" s="11">
+        <v>2</v>
+      </c>
+      <c r="E9" s="11">
+        <v>15277.999999999991</v>
+      </c>
+      <c r="F9" s="11">
+        <v>2241.9999999999986</v>
+      </c>
+      <c r="G9" s="11">
+        <v>18928.538</v>
+      </c>
+      <c r="H9" s="11">
+        <v>5624.599999999994</v>
+      </c>
+      <c r="I9" s="11">
+        <v>253.99999999999974</v>
+      </c>
+      <c r="J9" s="11">
+        <v>305353.16715999978</v>
+      </c>
+      <c r="K9" s="11">
+        <v>28.41</v>
+      </c>
+      <c r="L9" s="11">
+        <v>54.999999999999609</v>
+      </c>
+      <c r="M9" s="11">
+        <v>34.999999999999837</v>
+      </c>
+      <c r="N9" s="11">
+        <v>982.89999999999884</v>
+      </c>
+      <c r="O9" s="11">
+        <v>22820.999999999982</v>
+      </c>
+      <c r="P9" s="11">
+        <v>13234.999999999989</v>
+      </c>
+      <c r="Q9" s="11">
+        <v>1244565.0463999989</v>
+      </c>
+      <c r="R9" s="11">
+        <v>24.999999999999929</v>
+      </c>
+      <c r="S9" s="11">
+        <v>693.99999999999932</v>
+      </c>
+      <c r="T9" s="11">
+        <v>3344506.7167999977</v>
+      </c>
+      <c r="U9" s="11">
+        <v>-61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="11">
+        <v>37602000</v>
+      </c>
+      <c r="B10" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="11">
+        <v>2</v>
+      </c>
+      <c r="E10" s="11">
+        <v>9624.9999999999891</v>
+      </c>
+      <c r="F10" s="11">
+        <v>1255.9999999999986</v>
+      </c>
+      <c r="G10" s="11">
+        <v>16376.46312</v>
+      </c>
+      <c r="H10" s="11">
+        <v>6331.8999999999915</v>
+      </c>
+      <c r="I10" s="11">
+        <v>135.99999999999977</v>
+      </c>
+      <c r="J10" s="11">
+        <v>158372.48895999984</v>
+      </c>
+      <c r="K10" s="11">
+        <v>25.4</v>
+      </c>
+      <c r="L10" s="11">
+        <v>45.999999999999659</v>
+      </c>
+      <c r="M10" s="11">
+        <v>8.9999999999999467</v>
+      </c>
+      <c r="N10" s="11">
+        <v>169.29999999999961</v>
+      </c>
+      <c r="O10" s="11">
+        <v>61603.99999999992</v>
+      </c>
+      <c r="P10" s="11">
+        <v>13867.999999999985</v>
+      </c>
+      <c r="Q10" s="11">
+        <v>611275.27679999929</v>
+      </c>
+      <c r="R10" s="11">
+        <v>31.99999999999989</v>
+      </c>
+      <c r="S10" s="11">
+        <v>405.99999999999937</v>
+      </c>
+      <c r="T10" s="11">
+        <v>85781.077479999847</v>
+      </c>
+      <c r="U10" s="11">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="11">
+        <v>37609000</v>
+      </c>
+      <c r="B11" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D11" s="11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="11">
+        <v>7424.9999999999973</v>
+      </c>
+      <c r="F11" s="11">
+        <v>1293</v>
+      </c>
+      <c r="G11" s="11">
+        <v>16443.209169999991</v>
+      </c>
+      <c r="H11" s="11">
+        <v>4607.6999999999971</v>
+      </c>
+      <c r="I11" s="11">
+        <v>119.99999999999987</v>
+      </c>
+      <c r="J11" s="11">
+        <v>219599.7193099999</v>
+      </c>
+      <c r="K11" s="11">
+        <v>27.9</v>
+      </c>
+      <c r="L11" s="11">
+        <v>20.999999999999858</v>
+      </c>
+      <c r="M11" s="11">
+        <v>17.999999999999915</v>
+      </c>
+      <c r="N11" s="11">
+        <v>153.79999999999984</v>
+      </c>
+      <c r="O11" s="11">
+        <v>16620.999999999989</v>
+      </c>
+      <c r="P11" s="11">
+        <v>11932.299999999996</v>
+      </c>
+      <c r="Q11" s="11">
+        <v>742537.84159999969</v>
+      </c>
+      <c r="R11" s="11">
+        <v>14.999999999999963</v>
+      </c>
+      <c r="S11" s="11">
+        <v>440.99999999999977</v>
+      </c>
+      <c r="T11" s="11">
+        <v>123348.75611999938</v>
+      </c>
+      <c r="U11" s="11">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11"/>
+      <c r="O12" s="11"/>
+      <c r="P12" s="11"/>
+      <c r="Q12" s="11"/>
+      <c r="R12" s="11"/>
+      <c r="S12" s="11"/>
+      <c r="T12" s="11"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11"/>
+      <c r="O13" s="11"/>
+      <c r="P13" s="11"/>
+      <c r="Q13" s="11"/>
+      <c r="R13" s="11"/>
+      <c r="S13" s="11"/>
+      <c r="T13" s="11"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11"/>
+      <c r="O14" s="11"/>
+      <c r="P14" s="11"/>
+      <c r="Q14" s="11"/>
+      <c r="R14" s="11"/>
+      <c r="S14" s="11"/>
+      <c r="T14" s="11"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+      <c r="J15" s="11"/>
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11"/>
+      <c r="O15" s="11"/>
+      <c r="P15" s="11"/>
+      <c r="Q15" s="11"/>
+      <c r="R15" s="11"/>
+      <c r="S15" s="11"/>
+      <c r="T15" s="11"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11"/>
+      <c r="N16" s="11"/>
+      <c r="O16" s="11"/>
+      <c r="P16" s="11"/>
+      <c r="Q16" s="11"/>
+      <c r="R16" s="11"/>
+      <c r="S16" s="11"/>
+      <c r="T16" s="11"/>
+    </row>
+    <row r="17" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11"/>
+      <c r="O17" s="11"/>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="11"/>
+      <c r="R17" s="11"/>
+      <c r="S17" s="11"/>
+      <c r="T17" s="11"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X70"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
@@ -7530,7 +8388,7 @@
         <v>-154.85</v>
       </c>
       <c r="X3" s="11">
-        <f t="shared" ref="X2:X31" si="0">IF(W3&gt;V3,1,0)</f>
+        <f t="shared" ref="X3:X31" si="0">IF(W3&gt;V3,1,0)</f>
         <v>0</v>
       </c>
     </row>
@@ -10240,28 +11098,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D1" s="12" t="s">
         <v>60</v>
@@ -10494,7 +11352,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B17" s="12">
         <f>AVERAGE(B2:B16)</f>

--- a/migforecasting/clustering/for paper/examples for improv test.xlsx
+++ b/migforecasting/clustering/for paper/examples for improv test.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="72">
   <si>
     <t>oktmo</t>
   </si>
@@ -224,6 +224,21 @@
   </si>
   <si>
     <t>Звериноголовский</t>
+  </si>
+  <si>
+    <t>Троснянский</t>
+  </si>
+  <si>
+    <t>Верхнедонской</t>
+  </si>
+  <si>
+    <t>Дубовский</t>
+  </si>
+  <si>
+    <t>Зимовниковский</t>
+  </si>
+  <si>
+    <t>Увельский</t>
   </si>
 </sst>
 </file>
@@ -1650,7 +1665,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5189,7 +5203,7 @@
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:U16"/>
+      <selection activeCell="A17" sqref="A17:U21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7296,10 +7310,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U17"/>
+  <dimension ref="A1:U34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="S26" sqref="S26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7309,7 +7323,7 @@
     <col min="10" max="10" width="14.28515625" customWidth="1"/>
     <col min="19" max="19" width="15.28515625" customWidth="1"/>
     <col min="20" max="20" width="18.5703125" customWidth="1"/>
-    <col min="21" max="21" width="23.28515625" customWidth="1"/>
+    <col min="21" max="21" width="21.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.25">
@@ -8028,108 +8042,829 @@
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11"/>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
-      <c r="Q12" s="11"/>
-      <c r="R12" s="11"/>
-      <c r="S12" s="11"/>
-      <c r="T12" s="11"/>
+      <c r="A12" s="11">
+        <v>1641000</v>
+      </c>
+      <c r="B12" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="11">
+        <v>3</v>
+      </c>
+      <c r="E12" s="11">
+        <v>4183.9999999999918</v>
+      </c>
+      <c r="F12" s="11">
+        <v>788.99999999999841</v>
+      </c>
+      <c r="G12" s="11">
+        <v>19068.8688</v>
+      </c>
+      <c r="H12" s="11">
+        <v>1820.9999999999964</v>
+      </c>
+      <c r="I12" s="11">
+        <v>79.999999999999787</v>
+      </c>
+      <c r="J12" s="11">
+        <v>57968.611199999868</v>
+      </c>
+      <c r="K12" s="11">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="L12" s="11">
+        <v>12.999999999999892</v>
+      </c>
+      <c r="M12" s="11">
+        <v>1.9999999999999847</v>
+      </c>
+      <c r="N12" s="11">
+        <v>81.399999999999764</v>
+      </c>
+      <c r="O12" s="11">
+        <v>32010.999999999935</v>
+      </c>
+      <c r="P12" s="11">
+        <v>1244.4599999999969</v>
+      </c>
+      <c r="Q12" s="11">
+        <v>838591.639199998</v>
+      </c>
+      <c r="R12" s="11">
+        <v>9.9999999999999591</v>
+      </c>
+      <c r="S12" s="11">
+        <v>251.99999999999952</v>
+      </c>
+      <c r="T12" s="11">
+        <v>750105.80711999815</v>
+      </c>
+      <c r="U12" s="11">
+        <v>-76</v>
+      </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11"/>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
-      <c r="Q13" s="11"/>
-      <c r="R13" s="11"/>
-      <c r="S13" s="11"/>
-      <c r="T13" s="11"/>
+      <c r="A13" s="5">
+        <v>52623000</v>
+      </c>
+      <c r="B13" s="6">
+        <v>2018</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D13" s="6">
+        <v>3</v>
+      </c>
+      <c r="E13" s="11">
+        <v>25263.999999999989</v>
+      </c>
+      <c r="F13" s="11">
+        <v>4126.9999999999991</v>
+      </c>
+      <c r="G13" s="6">
+        <v>20441.322639999999</v>
+      </c>
+      <c r="H13" s="11">
+        <v>17070.69999999999</v>
+      </c>
+      <c r="I13" s="11">
+        <v>27.999999999999929</v>
+      </c>
+      <c r="J13" s="11">
+        <v>268457.68935999984</v>
+      </c>
+      <c r="K13" s="6">
+        <v>21.79</v>
+      </c>
+      <c r="L13" s="11">
+        <v>73.999999999999488</v>
+      </c>
+      <c r="M13" s="11">
+        <v>69.999999999999687</v>
+      </c>
+      <c r="N13" s="11">
+        <v>202.59999999999971</v>
+      </c>
+      <c r="O13" s="11">
+        <v>314708.99999999988</v>
+      </c>
+      <c r="P13" s="11">
+        <v>18979.989999999991</v>
+      </c>
+      <c r="Q13" s="11">
+        <v>3873762.5743999979</v>
+      </c>
+      <c r="R13" s="11">
+        <v>28.999999999999932</v>
+      </c>
+      <c r="S13" s="11">
+        <v>1107.9999999999998</v>
+      </c>
+      <c r="T13" s="11">
+        <v>3584846.1060399981</v>
+      </c>
+      <c r="U13" s="11">
+        <v>-164</v>
+      </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11"/>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
-      <c r="Q14" s="11"/>
-      <c r="R14" s="11"/>
-      <c r="S14" s="11"/>
-      <c r="T14" s="11"/>
+      <c r="A14" s="11">
+        <v>18652000</v>
+      </c>
+      <c r="B14" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C14" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" s="11">
+        <v>3</v>
+      </c>
+      <c r="E14" s="11">
+        <v>17569.999999999989</v>
+      </c>
+      <c r="F14" s="11">
+        <v>1887.9999999999989</v>
+      </c>
+      <c r="G14" s="11">
+        <v>18376.923200000001</v>
+      </c>
+      <c r="H14" s="11">
+        <v>8486.1999999999953</v>
+      </c>
+      <c r="I14" s="11">
+        <v>234.99999999999972</v>
+      </c>
+      <c r="J14" s="11">
+        <v>341592.53969999967</v>
+      </c>
+      <c r="K14" s="11">
+        <v>26.3</v>
+      </c>
+      <c r="L14" s="11">
+        <v>155.99999999999895</v>
+      </c>
+      <c r="M14" s="11">
+        <v>56.999999999999723</v>
+      </c>
+      <c r="N14" s="11">
+        <v>389.39999999999952</v>
+      </c>
+      <c r="O14" s="11">
+        <v>182951.9999999998</v>
+      </c>
+      <c r="P14" s="11">
+        <v>19100.999999999978</v>
+      </c>
+      <c r="Q14" s="11">
+        <v>2366184.0724999984</v>
+      </c>
+      <c r="R14" s="11">
+        <v>24.999999999999932</v>
+      </c>
+      <c r="S14" s="11">
+        <v>790.99999999999943</v>
+      </c>
+      <c r="T14" s="11">
+        <v>322435.87408999965</v>
+      </c>
+      <c r="U14" s="11">
+        <v>-188</v>
+      </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11"/>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11"/>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11"/>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
-      <c r="Q15" s="11"/>
-      <c r="R15" s="11"/>
-      <c r="S15" s="11"/>
-      <c r="T15" s="11"/>
+      <c r="A15" s="11">
+        <v>22712000</v>
+      </c>
+      <c r="B15" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="11">
+        <v>3</v>
+      </c>
+      <c r="E15" s="11">
+        <v>120926</v>
+      </c>
+      <c r="F15" s="11">
+        <v>20037.999999999996</v>
+      </c>
+      <c r="G15" s="11">
+        <v>25152.816680000011</v>
+      </c>
+      <c r="H15" s="11">
+        <v>72911.599999999991</v>
+      </c>
+      <c r="I15" s="11">
+        <v>2549.9999999999977</v>
+      </c>
+      <c r="J15" s="11">
+        <v>4713511.9352799999</v>
+      </c>
+      <c r="K15" s="11">
+        <v>29.9</v>
+      </c>
+      <c r="L15" s="11">
+        <v>195.99999999999872</v>
+      </c>
+      <c r="M15" s="11">
+        <v>248.99999999999895</v>
+      </c>
+      <c r="N15" s="11">
+        <v>1123.1999999999985</v>
+      </c>
+      <c r="O15" s="11">
+        <v>1264806.9999999993</v>
+      </c>
+      <c r="P15" s="11">
+        <v>104307.92999999998</v>
+      </c>
+      <c r="Q15" s="11">
+        <v>2214641.3434399972</v>
+      </c>
+      <c r="R15" s="11">
+        <v>34.999999999999915</v>
+      </c>
+      <c r="S15" s="11">
+        <v>6308.9999999999991</v>
+      </c>
+      <c r="T15" s="11">
+        <v>26988496.705479994</v>
+      </c>
+      <c r="U15" s="11">
+        <v>-483</v>
+      </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11"/>
-      <c r="N16" s="11"/>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
-      <c r="Q16" s="11"/>
-      <c r="R16" s="11"/>
-      <c r="S16" s="11"/>
-      <c r="T16" s="11"/>
-    </row>
-    <row r="17" spans="6:20" x14ac:dyDescent="0.25">
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
+      <c r="A16" s="11">
+        <v>53725000</v>
+      </c>
+      <c r="B16" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="11">
+        <v>3</v>
+      </c>
+      <c r="E16" s="11">
+        <v>50473.999999999993</v>
+      </c>
+      <c r="F16" s="11">
+        <v>8680.9999999999982</v>
+      </c>
+      <c r="G16" s="11">
+        <v>19397.3076</v>
+      </c>
+      <c r="H16" s="11">
+        <v>32935.899999999994</v>
+      </c>
+      <c r="I16" s="11">
+        <v>1673.9999999999982</v>
+      </c>
+      <c r="J16" s="11">
+        <v>1330729.4930399999</v>
+      </c>
+      <c r="K16" s="11">
+        <v>25.1</v>
+      </c>
+      <c r="L16" s="11">
+        <v>158.99999999999895</v>
+      </c>
+      <c r="M16" s="11">
+        <v>184.99999999999918</v>
+      </c>
+      <c r="N16" s="11">
+        <v>386.19999999999953</v>
+      </c>
+      <c r="O16" s="11">
+        <v>810919.99999999977</v>
+      </c>
+      <c r="P16" s="11">
+        <v>182696</v>
+      </c>
+      <c r="Q16" s="11">
+        <v>5519372.8535999991</v>
+      </c>
+      <c r="R16" s="11">
+        <v>38.999999999999908</v>
+      </c>
+      <c r="S16" s="11">
+        <v>2499.9999999999995</v>
+      </c>
+      <c r="T16" s="11">
+        <v>3749387.5015199976</v>
+      </c>
+      <c r="U16" s="11">
+        <v>-523</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A17" s="11">
+        <v>54654000</v>
+      </c>
+      <c r="B17" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="11">
+        <v>3</v>
+      </c>
+      <c r="E17" s="11">
+        <v>8854.9999999999945</v>
+      </c>
+      <c r="F17" s="11">
+        <v>1278.9999999999998</v>
+      </c>
+      <c r="G17" s="11">
+        <v>2585.4999999999986</v>
+      </c>
+      <c r="H17" s="11">
+        <v>281.99999999999972</v>
+      </c>
+      <c r="I17" s="11">
+        <v>415783.74875999975</v>
+      </c>
+      <c r="J17" s="11">
+        <v>46.954686477696221</v>
+      </c>
+      <c r="K17" s="11">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="L17" s="11">
+        <v>16.999999999999883</v>
+      </c>
+      <c r="M17" s="11">
+        <v>15.999999999999924</v>
+      </c>
+      <c r="N17" s="11">
+        <v>410.99999999999943</v>
+      </c>
+      <c r="O17" s="11">
+        <v>89147.199999999983</v>
+      </c>
+      <c r="P17" s="11">
+        <v>7671.9999999999945</v>
+      </c>
+      <c r="Q17" s="11">
+        <v>2684633.8327999976</v>
+      </c>
+      <c r="R17" s="11">
+        <v>18.999999999999947</v>
+      </c>
+      <c r="S17" s="11">
+        <v>376.99999999999977</v>
+      </c>
+      <c r="T17" s="11">
+        <v>366113.43699999945</v>
+      </c>
+      <c r="U17" s="11">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A18" s="11">
+        <v>60608000</v>
+      </c>
+      <c r="B18" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="11">
+        <v>3</v>
+      </c>
+      <c r="E18" s="11">
+        <v>17833.999999999989</v>
+      </c>
+      <c r="F18" s="11">
+        <v>2086.9999999999986</v>
+      </c>
+      <c r="G18" s="11">
+        <v>6433.2999999999956</v>
+      </c>
+      <c r="H18" s="11">
+        <v>210.99999999999983</v>
+      </c>
+      <c r="I18" s="11">
+        <v>267414.72803999996</v>
+      </c>
+      <c r="J18" s="11">
+        <v>14.994657846809471</v>
+      </c>
+      <c r="K18" s="11">
+        <v>32.08</v>
+      </c>
+      <c r="L18" s="11">
+        <v>84.999999999999403</v>
+      </c>
+      <c r="M18" s="11">
+        <v>54.999999999999737</v>
+      </c>
+      <c r="N18" s="11">
+        <v>537.09999999999934</v>
+      </c>
+      <c r="O18" s="11">
+        <v>297093.99999999983</v>
+      </c>
+      <c r="P18" s="11">
+        <v>16965.999999999989</v>
+      </c>
+      <c r="Q18" s="11">
+        <v>2513116.4799999981</v>
+      </c>
+      <c r="R18" s="11">
+        <v>39.999999999999886</v>
+      </c>
+      <c r="S18" s="11">
+        <v>810.99999999999943</v>
+      </c>
+      <c r="T18" s="11">
+        <v>1568477.3210399991</v>
+      </c>
+      <c r="U18" s="11">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A19" s="11">
+        <v>60613000</v>
+      </c>
+      <c r="B19" s="11">
+        <v>2014</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="11">
+        <v>3</v>
+      </c>
+      <c r="E19" s="11">
+        <v>22243.999999999989</v>
+      </c>
+      <c r="F19" s="11">
+        <v>2688.9999999999995</v>
+      </c>
+      <c r="G19" s="11">
+        <v>9015.3999999999905</v>
+      </c>
+      <c r="H19" s="11">
+        <v>204.99999999999977</v>
+      </c>
+      <c r="I19" s="11">
+        <v>229243.99999999988</v>
+      </c>
+      <c r="J19" s="11">
+        <v>10.305880237367379</v>
+      </c>
+      <c r="K19" s="11">
+        <v>21.93</v>
+      </c>
+      <c r="L19" s="11">
+        <v>70.999999999999531</v>
+      </c>
+      <c r="M19" s="11">
+        <v>30.999999999999837</v>
+      </c>
+      <c r="N19" s="11">
+        <v>98.599999999999739</v>
+      </c>
+      <c r="O19" s="11">
+        <v>279415.99999999988</v>
+      </c>
+      <c r="P19" s="11">
+        <v>4925.9999999999973</v>
+      </c>
+      <c r="Q19" s="11">
+        <v>3402333.9999999972</v>
+      </c>
+      <c r="R19" s="11">
+        <v>20.999999999999943</v>
+      </c>
+      <c r="S19" s="11">
+        <v>978.9999999999992</v>
+      </c>
+      <c r="T19" s="11">
+        <v>602011.49999999895</v>
+      </c>
+      <c r="U19" s="11">
+        <v>-107</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A20" s="11">
+        <v>60619000</v>
+      </c>
+      <c r="B20" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D20" s="11">
+        <v>3</v>
+      </c>
+      <c r="E20" s="11">
+        <v>35142.999999999993</v>
+      </c>
+      <c r="F20" s="11">
+        <v>4696.9999999999991</v>
+      </c>
+      <c r="G20" s="11">
+        <v>27639.699999999986</v>
+      </c>
+      <c r="H20" s="11">
+        <v>219.99999999999972</v>
+      </c>
+      <c r="I20" s="11">
+        <v>794230.03655999957</v>
+      </c>
+      <c r="J20" s="11">
+        <v>22.599949821016981</v>
+      </c>
+      <c r="K20" s="11">
+        <v>22.85</v>
+      </c>
+      <c r="L20" s="11">
+        <v>125.9999999999992</v>
+      </c>
+      <c r="M20" s="11">
+        <v>95.999999999999559</v>
+      </c>
+      <c r="N20" s="11">
+        <v>536.7999999999995</v>
+      </c>
+      <c r="O20" s="11">
+        <v>378688.00000000006</v>
+      </c>
+      <c r="P20" s="11">
+        <v>9071.9999999999927</v>
+      </c>
+      <c r="Q20" s="11">
+        <v>8906174.1647999976</v>
+      </c>
+      <c r="R20" s="11">
+        <v>18.999999999999954</v>
+      </c>
+      <c r="S20" s="11">
+        <v>1432.9999999999993</v>
+      </c>
+      <c r="T20" s="11">
+        <v>3135363.9667199976</v>
+      </c>
+      <c r="U20" s="11">
+        <v>-217</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A21" s="11">
+        <v>75655000</v>
+      </c>
+      <c r="B21" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D21" s="11">
+        <v>3</v>
+      </c>
+      <c r="E21" s="11">
+        <v>31885.999999999989</v>
+      </c>
+      <c r="F21" s="11">
+        <v>5471</v>
+      </c>
+      <c r="G21" s="11">
+        <v>9993.7999999999938</v>
+      </c>
+      <c r="H21" s="11">
+        <v>349.99999999999949</v>
+      </c>
+      <c r="I21" s="11">
+        <v>135007.86686999991</v>
+      </c>
+      <c r="J21" s="11">
+        <v>4.2340797487925723</v>
+      </c>
+      <c r="K21" s="11">
+        <v>22.88</v>
+      </c>
+      <c r="L21" s="11">
+        <v>126.99999999999916</v>
+      </c>
+      <c r="M21" s="11">
+        <v>24.999999999999879</v>
+      </c>
+      <c r="N21" s="11">
+        <v>357.59999999999962</v>
+      </c>
+      <c r="O21" s="11">
+        <v>532404</v>
+      </c>
+      <c r="P21" s="11">
+        <v>27023.969999999979</v>
+      </c>
+      <c r="Q21" s="11">
+        <v>9174521.0092999972</v>
+      </c>
+      <c r="R21" s="11">
+        <v>29.999999999999922</v>
+      </c>
+      <c r="S21" s="11">
+        <v>2096.9999999999995</v>
+      </c>
+      <c r="T21" s="11">
+        <v>17566777.100189991</v>
+      </c>
+      <c r="U21" s="11">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E25" s="11"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="11"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11"/>
+      <c r="J25" s="11"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="11"/>
+      <c r="N25" s="11"/>
+      <c r="O25" s="11"/>
+      <c r="P25" s="11"/>
+      <c r="Q25" s="11"/>
+      <c r="R25" s="11"/>
+      <c r="S25" s="11"/>
+      <c r="T25" s="11"/>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E26" s="11"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="11"/>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11"/>
+      <c r="J26" s="11"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="11"/>
+      <c r="N26" s="11"/>
+      <c r="O26" s="11"/>
+      <c r="P26" s="11"/>
+      <c r="Q26" s="11"/>
+      <c r="R26" s="11"/>
+      <c r="S26" s="11"/>
+      <c r="T26" s="11"/>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E27" s="11"/>
+      <c r="F27" s="11"/>
+      <c r="G27" s="11"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11"/>
+      <c r="J27" s="11"/>
+      <c r="K27" s="11"/>
+      <c r="L27" s="11"/>
+      <c r="M27" s="11"/>
+      <c r="N27" s="11"/>
+      <c r="O27" s="11"/>
+      <c r="P27" s="11"/>
+      <c r="Q27" s="11"/>
+      <c r="R27" s="11"/>
+      <c r="S27" s="11"/>
+      <c r="T27" s="11"/>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E28" s="11"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="11"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11"/>
+      <c r="J28" s="11"/>
+      <c r="K28" s="11"/>
+      <c r="L28" s="11"/>
+      <c r="M28" s="11"/>
+      <c r="N28" s="11"/>
+      <c r="O28" s="11"/>
+      <c r="P28" s="11"/>
+      <c r="Q28" s="11"/>
+      <c r="R28" s="11"/>
+      <c r="S28" s="11"/>
+      <c r="T28" s="11"/>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E29" s="11"/>
+      <c r="F29" s="11"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="11"/>
+      <c r="J29" s="11"/>
+      <c r="K29" s="11"/>
+      <c r="L29" s="11"/>
+      <c r="M29" s="11"/>
+      <c r="N29" s="11"/>
+      <c r="O29" s="11"/>
+      <c r="P29" s="11"/>
+      <c r="Q29" s="11"/>
+      <c r="R29" s="11"/>
+      <c r="S29" s="11"/>
+      <c r="T29" s="11"/>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F30" s="11"/>
+      <c r="G30" s="11"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="11"/>
+      <c r="J30" s="11"/>
+      <c r="K30" s="11"/>
+      <c r="L30" s="11"/>
+      <c r="M30" s="11"/>
+      <c r="N30" s="11"/>
+      <c r="O30" s="11"/>
+      <c r="P30" s="11"/>
+      <c r="Q30" s="11"/>
+      <c r="R30" s="11"/>
+      <c r="S30" s="11"/>
+      <c r="T30" s="11"/>
+    </row>
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F31" s="11"/>
+      <c r="G31" s="11"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="11"/>
+      <c r="J31" s="11"/>
+      <c r="K31" s="11"/>
+      <c r="L31" s="11"/>
+      <c r="M31" s="11"/>
+      <c r="N31" s="11"/>
+      <c r="O31" s="11"/>
+      <c r="P31" s="11"/>
+      <c r="Q31" s="11"/>
+      <c r="R31" s="11"/>
+      <c r="S31" s="11"/>
+      <c r="T31" s="11"/>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F32" s="11"/>
+      <c r="G32" s="11"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="11"/>
+      <c r="J32" s="11"/>
+      <c r="K32" s="11"/>
+      <c r="L32" s="11"/>
+      <c r="M32" s="11"/>
+      <c r="N32" s="11"/>
+      <c r="O32" s="11"/>
+      <c r="P32" s="11"/>
+      <c r="Q32" s="11"/>
+      <c r="R32" s="11"/>
+      <c r="S32" s="11"/>
+      <c r="T32" s="11"/>
+    </row>
+    <row r="33" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F33" s="11"/>
+      <c r="G33" s="11"/>
+      <c r="H33" s="11"/>
+      <c r="I33" s="11"/>
+      <c r="J33" s="11"/>
+      <c r="K33" s="11"/>
+      <c r="L33" s="11"/>
+      <c r="M33" s="11"/>
+      <c r="N33" s="11"/>
+      <c r="O33" s="11"/>
+      <c r="P33" s="11"/>
+      <c r="Q33" s="11"/>
+      <c r="R33" s="11"/>
+      <c r="S33" s="11"/>
+      <c r="T33" s="11"/>
+    </row>
+    <row r="34" spans="6:20" x14ac:dyDescent="0.25">
+      <c r="F34" s="11"/>
+      <c r="G34" s="11"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
+      <c r="L34" s="11"/>
+      <c r="M34" s="11"/>
+      <c r="N34" s="11"/>
+      <c r="O34" s="11"/>
+      <c r="P34" s="11"/>
+      <c r="Q34" s="11"/>
+      <c r="R34" s="11"/>
+      <c r="S34" s="11"/>
+      <c r="T34" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/migforecasting/clustering/for paper/examples for improv test.xlsx
+++ b/migforecasting/clustering/for paper/examples for improv test.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="77">
   <si>
     <t>oktmo</t>
   </si>
@@ -239,6 +239,21 @@
   </si>
   <si>
     <t>Увельский</t>
+  </si>
+  <si>
+    <t>Кораблинский</t>
+  </si>
+  <si>
+    <t>Старожиловский</t>
+  </si>
+  <si>
+    <t>Аткарский</t>
+  </si>
+  <si>
+    <t>Базарно-Карабулакский</t>
+  </si>
+  <si>
+    <t>Калининский</t>
   </si>
 </sst>
 </file>
@@ -5203,7 +5218,7 @@
   <dimension ref="A1:U39"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:U21"/>
+      <selection activeCell="A27" sqref="A27:U31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7310,10 +7325,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U34"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8691,129 +8706,655 @@
         <v>-150</v>
       </c>
     </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A22" s="11">
+        <v>1625000</v>
+      </c>
+      <c r="B22" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="11">
+        <v>5</v>
+      </c>
+      <c r="E22" s="11">
+        <v>23671.999999999989</v>
+      </c>
+      <c r="F22" s="11">
+        <v>2819.9999999999991</v>
+      </c>
+      <c r="G22" s="11">
+        <v>17545.93204</v>
+      </c>
+      <c r="H22" s="11">
+        <v>16399.19999999999</v>
+      </c>
+      <c r="I22" s="11">
+        <v>346.9999999999996</v>
+      </c>
+      <c r="J22" s="11">
+        <v>573514.04293999996</v>
+      </c>
+      <c r="K22" s="11">
+        <v>28</v>
+      </c>
+      <c r="L22" s="11">
+        <v>64.999999999999574</v>
+      </c>
+      <c r="M22" s="11">
+        <v>59.999999999999716</v>
+      </c>
+      <c r="N22" s="11">
+        <v>382.49999999999949</v>
+      </c>
+      <c r="O22" s="11">
+        <v>39639.999999999935</v>
+      </c>
+      <c r="P22" s="11">
+        <v>9314.3999999999924</v>
+      </c>
+      <c r="Q22" s="11">
+        <v>3234408.7671999987</v>
+      </c>
+      <c r="R22" s="11">
+        <v>17.99999999999995</v>
+      </c>
+      <c r="S22" s="11">
+        <v>744.99999999999955</v>
+      </c>
+      <c r="T22" s="11">
+        <v>828015.21829999797</v>
+      </c>
+      <c r="U22" s="11">
+        <v>-294</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A23" s="11">
+        <v>3654000</v>
+      </c>
+      <c r="B23" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D23" s="11">
+        <v>5</v>
+      </c>
+      <c r="E23" s="11">
+        <v>116468</v>
+      </c>
+      <c r="F23" s="11">
+        <v>21239.000000000004</v>
+      </c>
+      <c r="G23" s="11">
+        <v>23604.910929999998</v>
+      </c>
+      <c r="H23" s="11">
+        <v>64664.399999999987</v>
+      </c>
+      <c r="I23" s="11">
+        <v>2076.9999999999995</v>
+      </c>
+      <c r="J23" s="11">
+        <v>4676977.1911800001</v>
+      </c>
+      <c r="K23" s="11">
+        <v>30.2</v>
+      </c>
+      <c r="L23" s="11">
+        <v>300.99999999999807</v>
+      </c>
+      <c r="M23" s="11">
+        <v>303.99999999999869</v>
+      </c>
+      <c r="N23" s="11">
+        <v>783.79999999999882</v>
+      </c>
+      <c r="O23" s="11">
+        <v>202571.00000000003</v>
+      </c>
+      <c r="P23" s="11">
+        <v>87368.909999999974</v>
+      </c>
+      <c r="Q23" s="11">
+        <v>8408723.8795999978</v>
+      </c>
+      <c r="R23" s="11">
+        <v>34.999999999999901</v>
+      </c>
+      <c r="S23" s="11">
+        <v>4502</v>
+      </c>
+      <c r="T23" s="11">
+        <v>19397519.885310002</v>
+      </c>
+      <c r="U23" s="11">
+        <v>-541</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A24" s="11">
+        <v>4722000</v>
+      </c>
+      <c r="B24" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D24" s="11">
+        <v>5</v>
+      </c>
+      <c r="E24" s="11">
+        <v>64841.999999999993</v>
+      </c>
+      <c r="F24" s="11">
+        <v>15028.999999999996</v>
+      </c>
+      <c r="G24" s="11">
+        <v>25869.387780000001</v>
+      </c>
+      <c r="H24" s="11">
+        <v>17235.499999999989</v>
+      </c>
+      <c r="I24" s="11">
+        <v>1123.9999999999986</v>
+      </c>
+      <c r="J24" s="11">
+        <v>866008.93850999954</v>
+      </c>
+      <c r="K24" s="11">
+        <v>23.8</v>
+      </c>
+      <c r="L24" s="11">
+        <v>124.99999999999919</v>
+      </c>
+      <c r="M24" s="11">
+        <v>194.99999999999915</v>
+      </c>
+      <c r="N24" s="11">
+        <v>235.39999999999975</v>
+      </c>
+      <c r="O24" s="11">
+        <v>2168.999999999995</v>
+      </c>
+      <c r="P24" s="11">
+        <v>22439.059999999987</v>
+      </c>
+      <c r="Q24" s="11">
+        <v>259751.15039999882</v>
+      </c>
+      <c r="R24" s="11">
+        <v>11.999999999999948</v>
+      </c>
+      <c r="S24" s="11">
+        <v>3210.9999999999995</v>
+      </c>
+      <c r="T24" s="11">
+        <v>9430951.7147999946</v>
+      </c>
+      <c r="U24" s="11">
+        <v>-192</v>
+      </c>
+    </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
+      <c r="A25" s="11">
+        <v>7726000</v>
+      </c>
+      <c r="B25" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D25" s="11">
+        <v>5</v>
+      </c>
+      <c r="E25" s="11">
+        <v>64100</v>
+      </c>
+      <c r="F25" s="11">
+        <v>9192</v>
+      </c>
+      <c r="G25" s="11">
+        <v>21205.026720000002</v>
+      </c>
+      <c r="H25" s="11">
+        <v>59994</v>
+      </c>
+      <c r="I25" s="11">
+        <v>1042.9999999999993</v>
+      </c>
+      <c r="J25" s="11">
+        <v>1194600.3487199994</v>
+      </c>
+      <c r="K25" s="11">
+        <v>24.81</v>
+      </c>
+      <c r="L25" s="11">
+        <v>140.99999999999912</v>
+      </c>
+      <c r="M25" s="11">
+        <v>92.999999999999559</v>
+      </c>
+      <c r="N25" s="11">
+        <v>563.59999999999923</v>
+      </c>
+      <c r="O25" s="11">
+        <v>35895.999999999993</v>
+      </c>
+      <c r="P25" s="11">
+        <v>57654.419999999991</v>
+      </c>
+      <c r="Q25" s="11">
+        <v>8271274.1760000018</v>
+      </c>
+      <c r="R25" s="11">
+        <v>36.999999999999908</v>
+      </c>
+      <c r="S25" s="11">
+        <v>3089.9999999999995</v>
+      </c>
+      <c r="T25" s="11">
+        <v>7029925.2345599988</v>
+      </c>
+      <c r="U25" s="11">
+        <v>-300</v>
+      </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
+      <c r="A26" s="11">
+        <v>60730000</v>
+      </c>
+      <c r="B26" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="11">
+        <v>5</v>
+      </c>
+      <c r="E26" s="11">
+        <v>105038</v>
+      </c>
+      <c r="F26" s="11">
+        <v>11442</v>
+      </c>
+      <c r="G26" s="11">
+        <v>18218.315640000001</v>
+      </c>
+      <c r="H26" s="11">
+        <v>69421.599999999991</v>
+      </c>
+      <c r="I26" s="11">
+        <v>79.999999999999517</v>
+      </c>
+      <c r="J26" s="11">
+        <v>3389505.0556999999</v>
+      </c>
+      <c r="K26" s="11">
+        <v>21.85</v>
+      </c>
+      <c r="L26" s="11">
+        <v>164.99999999999895</v>
+      </c>
+      <c r="M26" s="11">
+        <v>248.99999999999898</v>
+      </c>
+      <c r="N26" s="11">
+        <v>369.09999999999923</v>
+      </c>
+      <c r="O26" s="11">
+        <v>18256.999999999818</v>
+      </c>
+      <c r="P26" s="11">
+        <v>57789.999999999949</v>
+      </c>
+      <c r="Q26" s="11">
+        <v>521260.11459999764</v>
+      </c>
+      <c r="R26" s="11">
+        <v>5.9999999999999627</v>
+      </c>
+      <c r="S26" s="11">
+        <v>3403</v>
+      </c>
+      <c r="T26" s="11">
+        <v>5939939.1027600002</v>
+      </c>
+      <c r="U26" s="11">
+        <v>-429</v>
+      </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
+      <c r="A27" s="11">
+        <v>61612000</v>
+      </c>
+      <c r="B27" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D27" s="11">
+        <v>5</v>
+      </c>
+      <c r="E27" s="11">
+        <v>22677.999999999989</v>
+      </c>
+      <c r="F27" s="11">
+        <v>2547.9999999999977</v>
+      </c>
+      <c r="G27" s="11">
+        <v>18638.87111</v>
+      </c>
+      <c r="H27" s="11">
+        <v>10254.999999999993</v>
+      </c>
+      <c r="I27" s="11">
+        <v>511.99999999999943</v>
+      </c>
+      <c r="J27" s="11">
+        <v>451466.86220999988</v>
+      </c>
+      <c r="K27" s="11">
+        <v>25</v>
+      </c>
+      <c r="L27" s="11">
+        <v>83.999999999999432</v>
+      </c>
+      <c r="M27" s="11">
+        <v>32.999999999999851</v>
+      </c>
+      <c r="N27" s="11">
+        <v>265.79999999999973</v>
+      </c>
+      <c r="O27" s="11">
+        <v>14455.999999999975</v>
+      </c>
+      <c r="P27" s="11">
+        <v>35901.049999999996</v>
+      </c>
+      <c r="Q27" s="11">
+        <v>1395103.6922999984</v>
+      </c>
+      <c r="R27" s="11">
+        <v>25.999999999999936</v>
+      </c>
+      <c r="S27" s="11">
+        <v>919.99999999999955</v>
+      </c>
+      <c r="T27" s="11">
+        <v>932526.86903999816</v>
+      </c>
+      <c r="U27" s="11">
+        <v>-297</v>
+      </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
+      <c r="A28" s="11">
+        <v>61648000</v>
+      </c>
+      <c r="B28" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D28" s="11">
+        <v>5</v>
+      </c>
+      <c r="E28" s="11">
+        <v>17174.999999999989</v>
+      </c>
+      <c r="F28" s="11">
+        <v>2330.9999999999977</v>
+      </c>
+      <c r="G28" s="11">
+        <v>22823.19152</v>
+      </c>
+      <c r="H28" s="11">
+        <v>6715.4999999999927</v>
+      </c>
+      <c r="I28" s="11">
+        <v>244.99999999999955</v>
+      </c>
+      <c r="J28" s="11">
+        <v>235832.72977999973</v>
+      </c>
+      <c r="K28" s="11">
+        <v>27.3</v>
+      </c>
+      <c r="L28" s="11">
+        <v>76.99999999999946</v>
+      </c>
+      <c r="M28" s="11">
+        <v>7.9999999999999538</v>
+      </c>
+      <c r="N28" s="11">
+        <v>81.299999999999784</v>
+      </c>
+      <c r="O28" s="11">
+        <v>86576.999999999913</v>
+      </c>
+      <c r="P28" s="11">
+        <v>15944.749999999989</v>
+      </c>
+      <c r="Q28" s="11">
+        <v>1820784.7858999991</v>
+      </c>
+      <c r="R28" s="11">
+        <v>15.99999999999995</v>
+      </c>
+      <c r="S28" s="11">
+        <v>729.99999999999955</v>
+      </c>
+      <c r="T28" s="11">
+        <v>1460779.4436599989</v>
+      </c>
+      <c r="U28" s="11">
+        <v>-182</v>
+      </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
+      <c r="A29" s="11">
+        <v>63604000</v>
+      </c>
+      <c r="B29" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D29" s="11">
+        <v>5</v>
+      </c>
+      <c r="E29" s="11">
+        <v>39066.999999999993</v>
+      </c>
+      <c r="F29" s="11">
+        <v>6011.9999999999982</v>
+      </c>
+      <c r="G29" s="11">
+        <v>18611.958289999999</v>
+      </c>
+      <c r="H29" s="11">
+        <v>20455.999999999993</v>
+      </c>
+      <c r="I29" s="11">
+        <v>645.99999999999943</v>
+      </c>
+      <c r="J29" s="11">
+        <v>899043.39099999995</v>
+      </c>
+      <c r="K29" s="11">
+        <v>37.19</v>
+      </c>
+      <c r="L29" s="11">
+        <v>147.99999999999906</v>
+      </c>
+      <c r="M29" s="11">
+        <v>40.999999999999794</v>
+      </c>
+      <c r="N29" s="11">
+        <v>618.49999999999932</v>
+      </c>
+      <c r="O29" s="11">
+        <v>27023.999999999942</v>
+      </c>
+      <c r="P29" s="11">
+        <v>26455.999999999993</v>
+      </c>
+      <c r="Q29" s="11">
+        <v>2652645.5177999986</v>
+      </c>
+      <c r="R29" s="11">
+        <v>18.99999999999995</v>
+      </c>
+      <c r="S29" s="11">
+        <v>1149.9999999999995</v>
+      </c>
+      <c r="T29" s="11">
+        <v>6067714.9468499981</v>
+      </c>
+      <c r="U29" s="11">
+        <v>-298</v>
+      </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
+      <c r="A30" s="11">
+        <v>63606000</v>
+      </c>
+      <c r="B30" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D30" s="11">
+        <v>5</v>
+      </c>
+      <c r="E30" s="11">
+        <v>27626.999999999989</v>
+      </c>
+      <c r="F30" s="11">
+        <v>3520.9999999999991</v>
+      </c>
+      <c r="G30" s="11">
+        <v>19147.145039999999</v>
+      </c>
+      <c r="H30" s="11">
+        <v>11267.999999999993</v>
+      </c>
+      <c r="I30" s="11">
+        <v>1097.9999999999991</v>
+      </c>
+      <c r="J30" s="11">
+        <v>584236.91447999945</v>
+      </c>
+      <c r="K30" s="11">
+        <v>51.2</v>
+      </c>
+      <c r="L30" s="11">
+        <v>122.99999999999919</v>
+      </c>
+      <c r="M30" s="11">
+        <v>36.999999999999829</v>
+      </c>
+      <c r="N30" s="11">
+        <v>408.3999999999993</v>
+      </c>
+      <c r="O30" s="11">
+        <v>38837.999999999964</v>
+      </c>
+      <c r="P30" s="11">
+        <v>26779.999999999989</v>
+      </c>
+      <c r="Q30" s="11">
+        <v>2725337.6207999978</v>
+      </c>
+      <c r="R30" s="11">
+        <v>16.999999999999954</v>
+      </c>
+      <c r="S30" s="11">
+        <v>1043.9999999999995</v>
+      </c>
+      <c r="T30" s="11">
+        <v>556306.09055999748</v>
+      </c>
+      <c r="U30" s="11">
+        <v>-89</v>
+      </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
+      <c r="A31" s="11">
+        <v>63621000</v>
+      </c>
+      <c r="B31" s="11">
+        <v>2016</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="11">
+        <v>5</v>
+      </c>
+      <c r="E31" s="11">
+        <v>31271</v>
+      </c>
+      <c r="F31" s="11">
+        <v>4769.9999999999982</v>
+      </c>
+      <c r="G31" s="11">
+        <v>16996.987359999999</v>
+      </c>
+      <c r="H31" s="11">
+        <v>11655.999999999998</v>
+      </c>
+      <c r="I31" s="11">
+        <v>633.99999999999977</v>
+      </c>
+      <c r="J31" s="11">
+        <v>312410.58597000001</v>
+      </c>
+      <c r="K31" s="11">
+        <v>29.58</v>
+      </c>
+      <c r="L31" s="11">
+        <v>71.999999999999559</v>
+      </c>
+      <c r="M31" s="11">
+        <v>113.99999999999952</v>
+      </c>
+      <c r="N31" s="11">
+        <v>478.49999999999966</v>
+      </c>
+      <c r="O31" s="11">
+        <v>116217.99999999997</v>
+      </c>
+      <c r="P31" s="11">
+        <v>29804.749999999989</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>5228156.3358999994</v>
+      </c>
+      <c r="R31" s="11">
+        <v>38.999999999999915</v>
+      </c>
+      <c r="S31" s="11">
+        <v>1186.9999999999998</v>
+      </c>
+      <c r="T31" s="11">
+        <v>2895385.0253199995</v>
+      </c>
+      <c r="U31" s="11">
+        <v>-262</v>
+      </c>
     </row>
     <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="F32" s="11"/>
@@ -8832,7 +9373,7 @@
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
     </row>
-    <row r="33" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:20" x14ac:dyDescent="0.25">
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="11"/>
@@ -8849,7 +9390,7 @@
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
     </row>
-    <row r="34" spans="6:20" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:20" x14ac:dyDescent="0.25">
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
       <c r="H34" s="11"/>
@@ -8865,6 +9406,181 @@
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
+    </row>
+    <row r="35" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="11"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+      <c r="K35" s="11"/>
+      <c r="L35" s="11"/>
+      <c r="M35" s="11"/>
+      <c r="N35" s="11"/>
+      <c r="O35" s="11"/>
+      <c r="P35" s="11"/>
+      <c r="Q35" s="11"/>
+      <c r="R35" s="11"/>
+      <c r="S35" s="11"/>
+      <c r="T35" s="11"/>
+    </row>
+    <row r="36" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E36" s="11"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="11"/>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11"/>
+      <c r="J36" s="11"/>
+      <c r="K36" s="11"/>
+      <c r="L36" s="11"/>
+      <c r="M36" s="11"/>
+      <c r="N36" s="11"/>
+      <c r="O36" s="11"/>
+      <c r="P36" s="11"/>
+      <c r="Q36" s="11"/>
+      <c r="R36" s="11"/>
+      <c r="S36" s="11"/>
+      <c r="T36" s="11"/>
+    </row>
+    <row r="37" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E37" s="11"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="11"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11"/>
+      <c r="J37" s="11"/>
+      <c r="K37" s="11"/>
+      <c r="L37" s="11"/>
+      <c r="M37" s="11"/>
+      <c r="N37" s="11"/>
+      <c r="O37" s="11"/>
+      <c r="P37" s="11"/>
+      <c r="Q37" s="11"/>
+      <c r="R37" s="11"/>
+      <c r="S37" s="11"/>
+      <c r="T37" s="11"/>
+    </row>
+    <row r="38" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E38" s="11"/>
+      <c r="F38" s="11"/>
+      <c r="G38" s="11"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11"/>
+      <c r="J38" s="11"/>
+      <c r="K38" s="11"/>
+      <c r="L38" s="11"/>
+      <c r="M38" s="11"/>
+      <c r="N38" s="11"/>
+      <c r="O38" s="11"/>
+      <c r="P38" s="11"/>
+      <c r="Q38" s="11"/>
+      <c r="R38" s="11"/>
+      <c r="S38" s="11"/>
+      <c r="T38" s="11"/>
+    </row>
+    <row r="39" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="E39" s="11"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="11"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11"/>
+      <c r="J39" s="11"/>
+      <c r="K39" s="11"/>
+      <c r="L39" s="11"/>
+      <c r="M39" s="11"/>
+      <c r="N39" s="11"/>
+      <c r="O39" s="11"/>
+      <c r="P39" s="11"/>
+      <c r="Q39" s="11"/>
+      <c r="R39" s="11"/>
+      <c r="S39" s="11"/>
+      <c r="T39" s="11"/>
+    </row>
+    <row r="40" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="F40" s="11"/>
+      <c r="G40" s="11"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11"/>
+      <c r="J40" s="11"/>
+      <c r="K40" s="11"/>
+      <c r="L40" s="11"/>
+      <c r="M40" s="11"/>
+      <c r="N40" s="11"/>
+      <c r="O40" s="11"/>
+      <c r="P40" s="11"/>
+      <c r="Q40" s="11"/>
+      <c r="R40" s="11"/>
+      <c r="S40" s="11"/>
+      <c r="T40" s="11"/>
+    </row>
+    <row r="41" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="F41" s="11"/>
+      <c r="G41" s="11"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11"/>
+      <c r="J41" s="11"/>
+      <c r="K41" s="11"/>
+      <c r="L41" s="11"/>
+      <c r="M41" s="11"/>
+      <c r="N41" s="11"/>
+      <c r="O41" s="11"/>
+      <c r="P41" s="11"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+    </row>
+    <row r="42" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="F42" s="11"/>
+      <c r="G42" s="11"/>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="11"/>
+      <c r="L42" s="11"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+      <c r="R42" s="11"/>
+      <c r="S42" s="11"/>
+      <c r="T42" s="11"/>
+    </row>
+    <row r="43" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="F43" s="11"/>
+      <c r="G43" s="11"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11"/>
+      <c r="J43" s="11"/>
+      <c r="K43" s="11"/>
+      <c r="L43" s="11"/>
+      <c r="M43" s="11"/>
+      <c r="N43" s="11"/>
+      <c r="O43" s="11"/>
+      <c r="P43" s="11"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+    </row>
+    <row r="44" spans="5:20" x14ac:dyDescent="0.25">
+      <c r="F44" s="11"/>
+      <c r="G44" s="11"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11"/>
+      <c r="J44" s="11"/>
+      <c r="K44" s="11"/>
+      <c r="L44" s="11"/>
+      <c r="M44" s="11"/>
+      <c r="N44" s="11"/>
+      <c r="O44" s="11"/>
+      <c r="P44" s="11"/>
+      <c r="Q44" s="11"/>
+      <c r="R44" s="11"/>
+      <c r="S44" s="11"/>
+      <c r="T44" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/migforecasting/clustering/for paper/examples for improv test.xlsx
+++ b/migforecasting/clustering/for paper/examples for improv test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="examples" sheetId="1" r:id="rId1"/>
@@ -402,7 +402,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -459,6 +459,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1319,54 +1322,99 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'c2c'!$B$2:$B$16</c:f>
+              <c:f>'c2c'!$B$2:$B$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>-109.93</c:v>
+                  <c:v>-153</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-153.16999999999979</c:v>
+                  <c:v>-163.60999999999979</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-156.44</c:v>
+                  <c:v>-131.78</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-183.66000000000011</c:v>
+                  <c:v>-163.98</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-143.85</c:v>
+                  <c:v>-136.39999999999989</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-71.339999999999904</c:v>
+                  <c:v>-153.20999999999989</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-143.55000000000001</c:v>
+                  <c:v>-114.6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-177.11999999999989</c:v>
+                  <c:v>-80.139999999999887</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-101.57</c:v>
+                  <c:v>-84.269999999999825</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-94.579999999999984</c:v>
+                  <c:v>-36.829999999999963</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-239.99000000000021</c:v>
+                  <c:v>-62.359999999999921</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-89.410000000000025</c:v>
+                  <c:v>-148.1600000000002</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-176.49000000000009</c:v>
+                  <c:v>-182.5499999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-72.67000000000003</c:v>
+                  <c:v>-64.3</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-219.95</c:v>
+                  <c:v>-28.88000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-9.6199999999999832</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-57.85</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>40.85</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-19.810000000000009</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-136.19999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-223.58</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-122.4200000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-182.79000000000011</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-75.759999999999991</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-104.77</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-52.519999999999989</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-139.49999999999969</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-179.28999999999991</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-85.24</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-232.14999999999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1406,54 +1454,99 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'c2c'!$C$2:$C$16</c:f>
+              <c:f>'c2c'!$C$2:$C$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>-81.589999999999961</c:v>
+                  <c:v>-80.44999999999996</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-70.429999999999964</c:v>
+                  <c:v>-94.280000000000015</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-101.92</c:v>
+                  <c:v>-90.589999999999961</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-161.27000000000001</c:v>
+                  <c:v>-175.4500000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-87.09</c:v>
+                  <c:v>-72.459999999999951</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-26.47000000000001</c:v>
+                  <c:v>-114.8099999999999</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-107.12</c:v>
+                  <c:v>-118.3099999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-198.94</c:v>
+                  <c:v>-57.129999999999988</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-81.2</c:v>
+                  <c:v>-87.949999999999946</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-89.980000000000018</c:v>
+                  <c:v>-59.639999999999993</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-66.109999999999985</c:v>
+                  <c:v>-30.690000000000008</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-89.410000000000025</c:v>
+                  <c:v>-108.54</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-209.66</c:v>
+                  <c:v>-181.11</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-102.33</c:v>
+                  <c:v>-58.259999999999991</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-232.18999999999991</c:v>
+                  <c:v>5.2399999999999851</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-52.93</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-188.71</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-167.31</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-78.600000000000037</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-129.88</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-95.01</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-122.4200000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-211.16</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-79.169999999999973</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-120.74</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-97.59999999999998</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-132.27999999999989</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-170.20999999999989</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-119.97</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-165.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1493,54 +1586,99 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'c2c'!$D$2:$D$16</c:f>
+              <c:f>'c2c'!$D$2:$D$31</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
+                <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>-91.249999999999972</c:v>
+                  <c:v>-105.97</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-74.489999999999966</c:v>
+                  <c:v>-101.76</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-115.57000000000011</c:v>
+                  <c:v>-112.59</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-163.14999999999989</c:v>
+                  <c:v>-161.63</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-55.029999999999987</c:v>
+                  <c:v>-83.959999999999937</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-19.879999999999981</c:v>
+                  <c:v>-133.37999999999991</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-104.95</c:v>
+                  <c:v>-181.31000000000009</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-43.67999999999995</c:v>
+                  <c:v>-65.749999999999972</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-107.29</c:v>
+                  <c:v>-106.1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-70.13</c:v>
+                  <c:v>-45.259999999999991</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-65.57999999999997</c:v>
+                  <c:v>-21.72999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-96.99</c:v>
+                  <c:v>-117.69</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-196.03</c:v>
+                  <c:v>-88.69</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-110.99</c:v>
+                  <c:v>-64.390000000000029</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-209.30999999999989</c:v>
+                  <c:v>0.69999999999999274</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-62.099999999999987</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-171.36999999999989</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-152.38999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-47.63000000000001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-142.7999999999999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-56.939999999999984</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-139.65</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-171.17</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-59.899999999999977</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-92.869999999999948</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-120.05</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-114.33</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-136.61999999999989</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-89.160000000000039</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-138.61999999999989</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1680,6 +1818,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -7327,7 +7466,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -12551,10 +12690,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12578,13 +12717,13 @@
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="11">
-        <v>-109.93</v>
+        <v>-153</v>
       </c>
       <c r="C2" s="11">
-        <v>-81.589999999999961</v>
+        <v>-80.44999999999996</v>
       </c>
       <c r="D2" s="11">
-        <v>-91.249999999999972</v>
+        <v>-105.97</v>
       </c>
       <c r="E2" s="11">
         <f>IF(D2&gt;C2,1,0)</f>
@@ -12593,28 +12732,28 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="11">
-        <v>-153.16999999999979</v>
+        <v>-163.60999999999979</v>
       </c>
       <c r="C3" s="11">
-        <v>-70.429999999999964</v>
+        <v>-94.280000000000015</v>
       </c>
       <c r="D3" s="11">
-        <v>-74.489999999999966</v>
+        <v>-101.76</v>
       </c>
       <c r="E3" s="11">
-        <f t="shared" ref="E3:E16" si="0">IF(D3&gt;C3,1,0)</f>
+        <f t="shared" ref="E3:E31" si="0">IF(D3&gt;C3,1,0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="11">
-        <v>-156.44</v>
+        <v>-131.78</v>
       </c>
       <c r="C4" s="11">
-        <v>-101.92</v>
+        <v>-90.589999999999961</v>
       </c>
       <c r="D4" s="11">
-        <v>-115.57000000000011</v>
+        <v>-112.59</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
@@ -12623,88 +12762,88 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="11">
-        <v>-183.66000000000011</v>
+        <v>-163.98</v>
       </c>
       <c r="C5" s="11">
-        <v>-161.27000000000001</v>
+        <v>-175.4500000000001</v>
       </c>
       <c r="D5" s="11">
-        <v>-163.14999999999989</v>
+        <v>-161.63</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="11">
-        <v>-143.85</v>
+        <v>-136.39999999999989</v>
       </c>
       <c r="C6" s="11">
-        <v>-87.09</v>
+        <v>-72.459999999999951</v>
       </c>
       <c r="D6" s="11">
-        <v>-55.029999999999987</v>
+        <v>-83.959999999999937</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="11">
-        <v>-71.339999999999904</v>
+        <v>-153.20999999999989</v>
       </c>
       <c r="C7" s="11">
-        <v>-26.47000000000001</v>
+        <v>-114.8099999999999</v>
       </c>
       <c r="D7" s="11">
-        <v>-19.879999999999981</v>
+        <v>-133.37999999999991</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="11">
-        <v>-143.55000000000001</v>
+        <v>-114.6</v>
       </c>
       <c r="C8" s="11">
-        <v>-107.12</v>
+        <v>-118.3099999999999</v>
       </c>
       <c r="D8" s="11">
-        <v>-104.95</v>
+        <v>-181.31000000000009</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
-        <v>-177.11999999999989</v>
+        <v>-80.139999999999887</v>
       </c>
       <c r="C9" s="11">
-        <v>-198.94</v>
+        <v>-57.129999999999988</v>
       </c>
       <c r="D9" s="11">
-        <v>-43.67999999999995</v>
+        <v>-65.749999999999972</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
-        <v>-101.57</v>
+        <v>-84.269999999999825</v>
       </c>
       <c r="C10" s="11">
-        <v>-81.2</v>
+        <v>-87.949999999999946</v>
       </c>
       <c r="D10" s="11">
-        <v>-107.29</v>
+        <v>-106.1</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
@@ -12713,13 +12852,13 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
-        <v>-94.579999999999984</v>
+        <v>-36.829999999999963</v>
       </c>
       <c r="C11" s="11">
-        <v>-89.980000000000018</v>
+        <v>-59.639999999999993</v>
       </c>
       <c r="D11" s="11">
-        <v>-70.13</v>
+        <v>-45.259999999999991</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
@@ -12728,13 +12867,13 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
-        <v>-239.99000000000021</v>
+        <v>-62.359999999999921</v>
       </c>
       <c r="C12" s="11">
-        <v>-66.109999999999985</v>
+        <v>-30.690000000000008</v>
       </c>
       <c r="D12" s="11">
-        <v>-65.57999999999997</v>
+        <v>-21.72999999999999</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="0"/>
@@ -12743,13 +12882,13 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
-        <v>-89.410000000000025</v>
+        <v>-148.1600000000002</v>
       </c>
       <c r="C13" s="11">
-        <v>-89.410000000000025</v>
+        <v>-108.54</v>
       </c>
       <c r="D13" s="11">
-        <v>-96.99</v>
+        <v>-117.69</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="0"/>
@@ -12758,13 +12897,13 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
-        <v>-176.49000000000009</v>
+        <v>-182.5499999999999</v>
       </c>
       <c r="C14" s="11">
-        <v>-209.66</v>
+        <v>-181.11</v>
       </c>
       <c r="D14" s="11">
-        <v>-196.03</v>
+        <v>-88.69</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
@@ -12773,13 +12912,13 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
-        <v>-72.67000000000003</v>
+        <v>-64.3</v>
       </c>
       <c r="C15" s="11">
-        <v>-102.33</v>
+        <v>-58.259999999999991</v>
       </c>
       <c r="D15" s="11">
-        <v>-110.99</v>
+        <v>-64.390000000000029</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
@@ -12788,34 +12927,259 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
-        <v>-219.95</v>
+        <v>-28.88000000000001</v>
       </c>
       <c r="C16" s="11">
-        <v>-232.18999999999991</v>
+        <v>5.2399999999999851</v>
       </c>
       <c r="D16" s="11">
-        <v>-209.30999999999989</v>
+        <v>0.69999999999999274</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B17" s="11">
+        <v>-9.6199999999999832</v>
+      </c>
+      <c r="C17" s="11">
+        <v>-52.93</v>
+      </c>
+      <c r="D17" s="11">
+        <v>-62.099999999999987</v>
+      </c>
+      <c r="E17" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="11">
+        <v>-57.85</v>
+      </c>
+      <c r="C18" s="11">
+        <v>-188.71</v>
+      </c>
+      <c r="D18" s="11">
+        <v>-171.36999999999989</v>
+      </c>
+      <c r="E18" s="11">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="12" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="11">
+        <v>40.85</v>
+      </c>
+      <c r="C19" s="11">
+        <v>-167.31</v>
+      </c>
+      <c r="D19" s="11">
+        <v>-152.38999999999999</v>
+      </c>
+      <c r="E19" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="11">
+        <v>-19.810000000000009</v>
+      </c>
+      <c r="C20" s="11">
+        <v>-78.600000000000037</v>
+      </c>
+      <c r="D20" s="11">
+        <v>-47.63000000000001</v>
+      </c>
+      <c r="E20" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="11">
+        <v>-136.19999999999999</v>
+      </c>
+      <c r="C21" s="11">
+        <v>-129.88</v>
+      </c>
+      <c r="D21" s="11">
+        <v>-142.7999999999999</v>
+      </c>
+      <c r="E21" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="11">
+        <v>-223.58</v>
+      </c>
+      <c r="C22" s="11">
+        <v>-95.01</v>
+      </c>
+      <c r="D22" s="11">
+        <v>-56.939999999999984</v>
+      </c>
+      <c r="E22" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="11">
+        <v>-122.4200000000001</v>
+      </c>
+      <c r="C23" s="11">
+        <v>-122.4200000000001</v>
+      </c>
+      <c r="D23" s="11">
+        <v>-139.65</v>
+      </c>
+      <c r="E23" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="11">
+        <v>-182.79000000000011</v>
+      </c>
+      <c r="C24" s="11">
+        <v>-211.16</v>
+      </c>
+      <c r="D24" s="11">
+        <v>-171.17</v>
+      </c>
+      <c r="E24" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="11">
+        <v>-75.759999999999991</v>
+      </c>
+      <c r="C25" s="11">
+        <v>-79.169999999999973</v>
+      </c>
+      <c r="D25" s="11">
+        <v>-59.899999999999977</v>
+      </c>
+      <c r="E25" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="11">
+        <v>-104.77</v>
+      </c>
+      <c r="C26" s="11">
+        <v>-120.74</v>
+      </c>
+      <c r="D26" s="11">
+        <v>-92.869999999999948</v>
+      </c>
+      <c r="E26" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="11">
+        <v>-52.519999999999989</v>
+      </c>
+      <c r="C27" s="11">
+        <v>-97.59999999999998</v>
+      </c>
+      <c r="D27" s="11">
+        <v>-120.05</v>
+      </c>
+      <c r="E27" s="11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B28" s="11">
+        <v>-139.49999999999969</v>
+      </c>
+      <c r="C28" s="11">
+        <v>-132.27999999999989</v>
+      </c>
+      <c r="D28" s="11">
+        <v>-114.33</v>
+      </c>
+      <c r="E28" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="11">
+        <v>-179.28999999999991</v>
+      </c>
+      <c r="C29" s="11">
+        <v>-170.20999999999989</v>
+      </c>
+      <c r="D29" s="11">
+        <v>-136.61999999999989</v>
+      </c>
+      <c r="E29" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="11">
+        <v>-85.24</v>
+      </c>
+      <c r="C30" s="11">
+        <v>-119.97</v>
+      </c>
+      <c r="D30" s="11">
+        <v>-89.160000000000039</v>
+      </c>
+      <c r="E30" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="11">
+        <v>-232.14999999999989</v>
+      </c>
+      <c r="C31" s="11">
+        <v>-165.6</v>
+      </c>
+      <c r="D31" s="11">
+        <v>-138.61999999999989</v>
+      </c>
+      <c r="E31" s="11">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="B17" s="12">
-        <f>AVERAGE(B2:B16)</f>
-        <v>-142.24799999999999</v>
-      </c>
-      <c r="C17" s="12">
-        <f t="shared" ref="C17:D17" si="1">AVERAGE(C2:C16)</f>
-        <v>-113.71399999999998</v>
-      </c>
-      <c r="D17" s="12">
-        <f t="shared" si="1"/>
-        <v>-101.62133333333331</v>
+      <c r="B32" s="20">
+        <f>AVERAGE(B2:B31)</f>
+        <v>-109.49066666666661</v>
+      </c>
+      <c r="C32" s="20">
+        <f>AVERAGE(C2:C31)</f>
+        <v>-108.53399999999998</v>
+      </c>
+      <c r="D32" s="20">
+        <f>AVERAGE(D2:D31)</f>
+        <v>-102.83699999999999</v>
       </c>
     </row>
   </sheetData>

--- a/migforecasting/clustering/for paper/examples for improv test.xlsx
+++ b/migforecasting/clustering/for paper/examples for improv test.xlsx
@@ -272,6 +272,8 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
     <font>
       <b/>
@@ -1327,94 +1329,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>-153</c:v>
+                  <c:v>-140.74899999999994</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-163.60999999999979</c:v>
+                  <c:v>-146.71599999999987</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-131.78</c:v>
+                  <c:v>-159.93199999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-163.98</c:v>
+                  <c:v>-187.04899999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-136.39999999999989</c:v>
+                  <c:v>-128.40999999999994</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-153.20999999999989</c:v>
+                  <c:v>-142.56999999999982</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-114.6</c:v>
+                  <c:v>-126.36899999999989</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-80.139999999999887</c:v>
+                  <c:v>-69.602999999999895</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-84.269999999999825</c:v>
+                  <c:v>-86.481999999999886</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-36.829999999999963</c:v>
+                  <c:v>-44.18499999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-62.359999999999921</c:v>
+                  <c:v>-59.221999999999944</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-148.1600000000002</c:v>
+                  <c:v>-158.73100000000017</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-182.5499999999999</c:v>
+                  <c:v>-173.87099999999992</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-64.3</c:v>
+                  <c:v>-88.013999999999996</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-28.88000000000001</c:v>
+                  <c:v>-74.768000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-9.6199999999999832</c:v>
+                  <c:v>0.8140000000000065</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-57.85</c:v>
+                  <c:v>-59.026999999999987</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40.85</c:v>
+                  <c:v>13.420999999999992</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-19.810000000000009</c:v>
+                  <c:v>-75.507000000000033</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-136.19999999999999</c:v>
+                  <c:v>-58.750000000000014</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-223.58</c:v>
+                  <c:v>-197.49700000000004</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-122.4200000000001</c:v>
+                  <c:v>-122.875</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-182.79000000000011</c:v>
+                  <c:v>-191.58400000000009</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-75.759999999999991</c:v>
+                  <c:v>-193.36200000000025</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-104.77</c:v>
+                  <c:v>-188.84100000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-52.519999999999989</c:v>
+                  <c:v>-195.10499999999982</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-139.49999999999969</c:v>
+                  <c:v>-118.74599999999982</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-179.28999999999991</c:v>
+                  <c:v>-280.59900000000033</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-85.24</c:v>
+                  <c:v>-85.670999999999964</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-232.14999999999989</c:v>
+                  <c:v>-234.333</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1459,94 +1461,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>-80.44999999999996</c:v>
+                  <c:v>-87.33299999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-94.280000000000015</c:v>
+                  <c:v>-92.926999999999978</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-90.589999999999961</c:v>
+                  <c:v>-107.68599999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-175.4500000000001</c:v>
+                  <c:v>-186.20799999999997</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-72.459999999999951</c:v>
+                  <c:v>-76.975999999999971</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-114.8099999999999</c:v>
+                  <c:v>-116.59099999999989</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-118.3099999999999</c:v>
+                  <c:v>-124.21499999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-57.129999999999988</c:v>
+                  <c:v>-56.097999999999971</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-87.949999999999946</c:v>
+                  <c:v>-89.161999999999964</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-59.639999999999993</c:v>
+                  <c:v>-59.36399999999999</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-30.690000000000008</c:v>
+                  <c:v>-33.309000000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-108.54</c:v>
+                  <c:v>-101.45999999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-181.11</c:v>
+                  <c:v>-165.82299999999995</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-58.259999999999991</c:v>
+                  <c:v>-76.695000000000007</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>5.2399999999999851</c:v>
+                  <c:v>-51.128999999999984</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-52.93</c:v>
+                  <c:v>-33.237999999999992</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-188.71</c:v>
+                  <c:v>-187.94099999999997</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-167.31</c:v>
+                  <c:v>-143.13800000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-78.600000000000037</c:v>
+                  <c:v>-79.863000000000028</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-129.88</c:v>
+                  <c:v>-96.802999999999969</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-95.01</c:v>
+                  <c:v>-74.227999999999994</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-122.4200000000001</c:v>
+                  <c:v>-122.875</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-211.16</c:v>
+                  <c:v>-214.62100000000004</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-79.169999999999973</c:v>
+                  <c:v>-191.50400000000022</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-120.74</c:v>
+                  <c:v>-190.46999999999997</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-97.59999999999998</c:v>
+                  <c:v>-99.288999999999959</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-132.27999999999989</c:v>
+                  <c:v>-116.65599999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-170.20999999999989</c:v>
+                  <c:v>-177.57900000000001</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-119.97</c:v>
+                  <c:v>-105.25399999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-165.6</c:v>
+                  <c:v>-176.25199999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1591,94 +1593,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>-105.97</c:v>
+                  <c:v>-83.953999999999979</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-101.76</c:v>
+                  <c:v>-81.792999999999964</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-112.59</c:v>
+                  <c:v>-142.77299999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-161.63</c:v>
+                  <c:v>-184.68099999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-83.959999999999937</c:v>
+                  <c:v>-72.106999999999971</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-133.37999999999991</c:v>
+                  <c:v>-127.85399999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-181.31000000000009</c:v>
+                  <c:v>-217.63900000000004</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-65.749999999999972</c:v>
+                  <c:v>-70.777999999999992</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-106.1</c:v>
+                  <c:v>-82.573999999999984</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-45.259999999999991</c:v>
+                  <c:v>-43.571999999999989</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-21.72999999999999</c:v>
+                  <c:v>-26.684000000000005</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-117.69</c:v>
+                  <c:v>-107.75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-88.69</c:v>
+                  <c:v>-68.205999999999989</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-64.390000000000029</c:v>
+                  <c:v>-89.818000000000012</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>0.69999999999999274</c:v>
+                  <c:v>-42.427999999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-62.099999999999987</c:v>
+                  <c:v>-22.391999999999992</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-171.36999999999989</c:v>
+                  <c:v>-171.63199999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-152.38999999999999</c:v>
+                  <c:v>-150.91599999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-47.63000000000001</c:v>
+                  <c:v>-76.243000000000023</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-142.7999999999999</c:v>
+                  <c:v>-101.88300000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-56.939999999999984</c:v>
+                  <c:v>-75.795999999999978</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-139.65</c:v>
+                  <c:v>-125.92900000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-171.17</c:v>
+                  <c:v>-219.29300000000003</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-59.899999999999977</c:v>
+                  <c:v>-180.74600000000007</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-92.869999999999948</c:v>
+                  <c:v>-169.71700000000001</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-120.05</c:v>
+                  <c:v>-129.161</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-114.33</c:v>
+                  <c:v>-106.78600000000002</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-136.61999999999989</c:v>
+                  <c:v>-101.53999999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-89.160000000000039</c:v>
+                  <c:v>-118.31599999999996</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-138.61999999999989</c:v>
+                  <c:v>-150.62599999999995</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1730,12 +1732,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1773,6 +1772,60 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1800" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Net migration</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:sysClr val="windowText" lastClr="000000"/>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1789,12 +1842,9 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
+                  <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
                 <a:ea typeface="+mn-ea"/>
@@ -1823,7 +1873,9 @@
       <c:spPr>
         <a:noFill/>
         <a:ln>
-          <a:noFill/>
+          <a:solidFill>
+            <a:schemeClr val="bg1"/>
+          </a:solidFill>
         </a:ln>
         <a:effectLst/>
       </c:spPr>
@@ -1831,8 +1883,8 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr>
-            <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+          <a:pPr rtl="0">
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:sysClr val="windowText" lastClr="000000"/>
               </a:solidFill>
@@ -3023,13 +3075,13 @@
       <xdr:col>8</xdr:col>
       <xdr:colOff>247649</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>71437</xdr:rowOff>
+      <xdr:rowOff>71436</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:col>27</xdr:col>
+      <xdr:colOff>280147</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>67235</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -12693,7 +12745,7 @@
   <dimension ref="A1:E32"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12717,43 +12769,43 @@
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="11">
-        <v>-153</v>
+        <v>-140.74899999999994</v>
       </c>
       <c r="C2" s="11">
-        <v>-80.44999999999996</v>
+        <v>-87.33299999999997</v>
       </c>
       <c r="D2" s="11">
-        <v>-105.97</v>
+        <v>-83.953999999999979</v>
       </c>
       <c r="E2" s="11">
         <f>IF(D2&gt;C2,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="11">
-        <v>-163.60999999999979</v>
+        <v>-146.71599999999987</v>
       </c>
       <c r="C3" s="11">
-        <v>-94.280000000000015</v>
+        <v>-92.926999999999978</v>
       </c>
       <c r="D3" s="11">
-        <v>-101.76</v>
+        <v>-81.792999999999964</v>
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E31" si="0">IF(D3&gt;C3,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="11">
-        <v>-131.78</v>
+        <v>-159.93199999999999</v>
       </c>
       <c r="C4" s="11">
-        <v>-90.589999999999961</v>
+        <v>-107.68599999999999</v>
       </c>
       <c r="D4" s="11">
-        <v>-112.59</v>
+        <v>-142.77299999999997</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
@@ -12762,13 +12814,13 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="11">
-        <v>-163.98</v>
+        <v>-187.04899999999998</v>
       </c>
       <c r="C5" s="11">
-        <v>-175.4500000000001</v>
+        <v>-186.20799999999997</v>
       </c>
       <c r="D5" s="11">
-        <v>-161.63</v>
+        <v>-184.68099999999998</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
@@ -12777,28 +12829,28 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="11">
-        <v>-136.39999999999989</v>
+        <v>-128.40999999999994</v>
       </c>
       <c r="C6" s="11">
-        <v>-72.459999999999951</v>
+        <v>-76.975999999999971</v>
       </c>
       <c r="D6" s="11">
-        <v>-83.959999999999937</v>
+        <v>-72.106999999999971</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="11">
-        <v>-153.20999999999989</v>
+        <v>-142.56999999999982</v>
       </c>
       <c r="C7" s="11">
-        <v>-114.8099999999999</v>
+        <v>-116.59099999999989</v>
       </c>
       <c r="D7" s="11">
-        <v>-133.37999999999991</v>
+        <v>-127.85399999999997</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
@@ -12807,13 +12859,13 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="11">
-        <v>-114.6</v>
+        <v>-126.36899999999989</v>
       </c>
       <c r="C8" s="11">
-        <v>-118.3099999999999</v>
+        <v>-124.21499999999992</v>
       </c>
       <c r="D8" s="11">
-        <v>-181.31000000000009</v>
+        <v>-217.63900000000004</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
@@ -12822,13 +12874,13 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
-        <v>-80.139999999999887</v>
+        <v>-69.602999999999895</v>
       </c>
       <c r="C9" s="11">
-        <v>-57.129999999999988</v>
+        <v>-56.097999999999971</v>
       </c>
       <c r="D9" s="11">
-        <v>-65.749999999999972</v>
+        <v>-70.777999999999992</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
@@ -12837,28 +12889,28 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
-        <v>-84.269999999999825</v>
+        <v>-86.481999999999886</v>
       </c>
       <c r="C10" s="11">
-        <v>-87.949999999999946</v>
+        <v>-89.161999999999964</v>
       </c>
       <c r="D10" s="11">
-        <v>-106.1</v>
+        <v>-82.573999999999984</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
-        <v>-36.829999999999963</v>
+        <v>-44.18499999999996</v>
       </c>
       <c r="C11" s="11">
-        <v>-59.639999999999993</v>
+        <v>-59.36399999999999</v>
       </c>
       <c r="D11" s="11">
-        <v>-45.259999999999991</v>
+        <v>-43.571999999999989</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
@@ -12867,13 +12919,13 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
-        <v>-62.359999999999921</v>
+        <v>-59.221999999999944</v>
       </c>
       <c r="C12" s="11">
-        <v>-30.690000000000008</v>
+        <v>-33.309000000000005</v>
       </c>
       <c r="D12" s="11">
-        <v>-21.72999999999999</v>
+        <v>-26.684000000000005</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="0"/>
@@ -12882,13 +12934,13 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
-        <v>-148.1600000000002</v>
+        <v>-158.73100000000017</v>
       </c>
       <c r="C13" s="11">
-        <v>-108.54</v>
+        <v>-101.45999999999998</v>
       </c>
       <c r="D13" s="11">
-        <v>-117.69</v>
+        <v>-107.75</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="0"/>
@@ -12897,13 +12949,13 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
-        <v>-182.5499999999999</v>
+        <v>-173.87099999999992</v>
       </c>
       <c r="C14" s="11">
-        <v>-181.11</v>
+        <v>-165.82299999999995</v>
       </c>
       <c r="D14" s="11">
-        <v>-88.69</v>
+        <v>-68.205999999999989</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
@@ -12912,13 +12964,13 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
-        <v>-64.3</v>
+        <v>-88.013999999999996</v>
       </c>
       <c r="C15" s="11">
-        <v>-58.259999999999991</v>
+        <v>-76.695000000000007</v>
       </c>
       <c r="D15" s="11">
-        <v>-64.390000000000029</v>
+        <v>-89.818000000000012</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
@@ -12927,43 +12979,43 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
-        <v>-28.88000000000001</v>
+        <v>-74.768000000000001</v>
       </c>
       <c r="C16" s="11">
-        <v>5.2399999999999851</v>
+        <v>-51.128999999999984</v>
       </c>
       <c r="D16" s="11">
-        <v>0.69999999999999274</v>
+        <v>-42.427999999999997</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
-        <v>-9.6199999999999832</v>
+        <v>0.8140000000000065</v>
       </c>
       <c r="C17" s="11">
-        <v>-52.93</v>
+        <v>-33.237999999999992</v>
       </c>
       <c r="D17" s="11">
-        <v>-62.099999999999987</v>
+        <v>-22.391999999999992</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
-        <v>-57.85</v>
+        <v>-59.026999999999987</v>
       </c>
       <c r="C18" s="11">
-        <v>-188.71</v>
+        <v>-187.94099999999997</v>
       </c>
       <c r="D18" s="11">
-        <v>-171.36999999999989</v>
+        <v>-171.63199999999995</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="0"/>
@@ -12972,28 +13024,28 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
-        <v>40.85</v>
+        <v>13.420999999999992</v>
       </c>
       <c r="C19" s="11">
-        <v>-167.31</v>
+        <v>-143.13800000000001</v>
       </c>
       <c r="D19" s="11">
-        <v>-152.38999999999999</v>
+        <v>-150.91599999999997</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
-        <v>-19.810000000000009</v>
+        <v>-75.507000000000033</v>
       </c>
       <c r="C20" s="11">
-        <v>-78.600000000000037</v>
+        <v>-79.863000000000028</v>
       </c>
       <c r="D20" s="11">
-        <v>-47.63000000000001</v>
+        <v>-76.243000000000023</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="0"/>
@@ -13002,13 +13054,13 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
-        <v>-136.19999999999999</v>
+        <v>-58.750000000000014</v>
       </c>
       <c r="C21" s="11">
-        <v>-129.88</v>
+        <v>-96.802999999999969</v>
       </c>
       <c r="D21" s="11">
-        <v>-142.7999999999999</v>
+        <v>-101.88300000000001</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="0"/>
@@ -13017,28 +13069,28 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
-        <v>-223.58</v>
+        <v>-197.49700000000004</v>
       </c>
       <c r="C22" s="11">
-        <v>-95.01</v>
+        <v>-74.227999999999994</v>
       </c>
       <c r="D22" s="11">
-        <v>-56.939999999999984</v>
+        <v>-75.795999999999978</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
-        <v>-122.4200000000001</v>
+        <v>-122.875</v>
       </c>
       <c r="C23" s="11">
-        <v>-122.4200000000001</v>
+        <v>-122.875</v>
       </c>
       <c r="D23" s="11">
-        <v>-139.65</v>
+        <v>-125.92900000000002</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="0"/>
@@ -13047,28 +13099,28 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
-        <v>-182.79000000000011</v>
+        <v>-191.58400000000009</v>
       </c>
       <c r="C24" s="11">
-        <v>-211.16</v>
+        <v>-214.62100000000004</v>
       </c>
       <c r="D24" s="11">
-        <v>-171.17</v>
+        <v>-219.29300000000003</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
-        <v>-75.759999999999991</v>
+        <v>-193.36200000000025</v>
       </c>
       <c r="C25" s="11">
-        <v>-79.169999999999973</v>
+        <v>-191.50400000000022</v>
       </c>
       <c r="D25" s="11">
-        <v>-59.899999999999977</v>
+        <v>-180.74600000000007</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="0"/>
@@ -13077,13 +13129,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
-        <v>-104.77</v>
+        <v>-188.84100000000001</v>
       </c>
       <c r="C26" s="11">
-        <v>-120.74</v>
+        <v>-190.46999999999997</v>
       </c>
       <c r="D26" s="11">
-        <v>-92.869999999999948</v>
+        <v>-169.71700000000001</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="0"/>
@@ -13092,13 +13144,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
-        <v>-52.519999999999989</v>
+        <v>-195.10499999999982</v>
       </c>
       <c r="C27" s="11">
-        <v>-97.59999999999998</v>
+        <v>-99.288999999999959</v>
       </c>
       <c r="D27" s="11">
-        <v>-120.05</v>
+        <v>-129.161</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" si="0"/>
@@ -13107,13 +13159,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
-        <v>-139.49999999999969</v>
+        <v>-118.74599999999982</v>
       </c>
       <c r="C28" s="11">
-        <v>-132.27999999999989</v>
+        <v>-116.65599999999998</v>
       </c>
       <c r="D28" s="11">
-        <v>-114.33</v>
+        <v>-106.78600000000002</v>
       </c>
       <c r="E28" s="11">
         <f t="shared" si="0"/>
@@ -13122,13 +13174,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
-        <v>-179.28999999999991</v>
+        <v>-280.59900000000033</v>
       </c>
       <c r="C29" s="11">
-        <v>-170.20999999999989</v>
+        <v>-177.57900000000001</v>
       </c>
       <c r="D29" s="11">
-        <v>-136.61999999999989</v>
+        <v>-101.53999999999998</v>
       </c>
       <c r="E29" s="11">
         <f t="shared" si="0"/>
@@ -13137,28 +13189,28 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
-        <v>-85.24</v>
+        <v>-85.670999999999964</v>
       </c>
       <c r="C30" s="11">
-        <v>-119.97</v>
+        <v>-105.25399999999999</v>
       </c>
       <c r="D30" s="11">
-        <v>-89.160000000000039</v>
+        <v>-118.31599999999996</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
-        <v>-232.14999999999989</v>
+        <v>-234.333</v>
       </c>
       <c r="C31" s="11">
-        <v>-165.6</v>
+        <v>-176.25199999999995</v>
       </c>
       <c r="D31" s="11">
-        <v>-138.61999999999989</v>
+        <v>-150.62599999999995</v>
       </c>
       <c r="E31" s="11">
         <f t="shared" si="0"/>
@@ -13171,15 +13223,15 @@
       </c>
       <c r="B32" s="20">
         <f>AVERAGE(B2:B31)</f>
-        <v>-109.49066666666661</v>
+        <v>-125.81109999999997</v>
       </c>
       <c r="C32" s="20">
         <f>AVERAGE(C2:C31)</f>
-        <v>-108.53399999999998</v>
+        <v>-114.48956666666665</v>
       </c>
       <c r="D32" s="20">
         <f>AVERAGE(D2:D31)</f>
-        <v>-102.83699999999999</v>
+        <v>-111.45289999999997</v>
       </c>
     </row>
   </sheetData>

--- a/migforecasting/clustering/for paper/examples for improv test.xlsx
+++ b/migforecasting/clustering/for paper/examples for improv test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="examples" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="91">
   <si>
     <t>oktmo</t>
   </si>
@@ -254,6 +254,48 @@
   </si>
   <si>
     <t>Калининский</t>
+  </si>
+  <si>
+    <t>Слободской</t>
+  </si>
+  <si>
+    <t>Сызранский</t>
+  </si>
+  <si>
+    <t>Шатровский</t>
+  </si>
+  <si>
+    <t>Угловский</t>
+  </si>
+  <si>
+    <t>город Гусь-Хрустальный</t>
+  </si>
+  <si>
+    <t>город Урюпинск</t>
+  </si>
+  <si>
+    <t>город Фролово</t>
+  </si>
+  <si>
+    <t>город Шахунья</t>
+  </si>
+  <si>
+    <t>Тейково</t>
+  </si>
+  <si>
+    <t>Выселковский</t>
+  </si>
+  <si>
+    <t>Рыбинский</t>
+  </si>
+  <si>
+    <t>Ванинский</t>
+  </si>
+  <si>
+    <t>Верхнебуреинский</t>
+  </si>
+  <si>
+    <t>Кошкинский</t>
   </si>
 </sst>
 </file>
@@ -5406,10 +5448,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U39"/>
+  <dimension ref="A1:U76"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:U31"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U78" sqref="C66:U78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5818,1695 +5860,3852 @@
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
-        <v>1703000</v>
+        <v>33635000</v>
       </c>
       <c r="B7" s="11">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>22</v>
+        <v>77</v>
       </c>
       <c r="D7" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E7" s="11">
-        <v>28434</v>
+        <v>30730</v>
       </c>
       <c r="F7" s="11">
-        <v>5725</v>
+        <v>3948</v>
       </c>
       <c r="G7" s="11">
-        <v>20773.66617</v>
+        <v>16306.88399</v>
       </c>
       <c r="H7" s="11">
-        <v>26868.199999999993</v>
+        <v>11177.6</v>
       </c>
       <c r="I7" s="11">
-        <v>1111.9999999999993</v>
+        <v>691.99999999999966</v>
       </c>
       <c r="J7" s="11">
-        <v>1674021.9106300003</v>
+        <v>815485.63283999986</v>
       </c>
       <c r="K7" s="11">
-        <v>22.6</v>
+        <v>28.6</v>
       </c>
       <c r="L7" s="11">
-        <v>72.999999999999545</v>
+        <v>96.999999999999389</v>
       </c>
       <c r="M7" s="11">
-        <v>113.99999999999952</v>
+        <v>63.999999999999744</v>
       </c>
       <c r="N7" s="11">
-        <v>350.99999999999966</v>
+        <v>889.29999999999927</v>
       </c>
       <c r="O7" s="11">
-        <v>10711.999999999955</v>
+        <v>29091.999999999985</v>
       </c>
       <c r="P7" s="11">
-        <v>7011.1399999999894</v>
+        <v>64303.80999999999</v>
       </c>
       <c r="Q7" s="11">
-        <v>49916.868199999284</v>
+        <v>894989.54199999874</v>
       </c>
       <c r="R7" s="11">
-        <v>1.9999999999999927</v>
+        <v>31.999999999999918</v>
       </c>
       <c r="S7" s="11">
-        <v>1617.9999999999998</v>
+        <v>1646</v>
       </c>
       <c r="T7" s="11">
-        <v>5355232.274249997</v>
+        <v>2503429.8272599983</v>
       </c>
       <c r="U7" s="11">
-        <v>-291</v>
+        <v>-179</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" s="11">
-        <v>1716000</v>
+        <v>36642000</v>
       </c>
       <c r="B8" s="11">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="D8" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" s="11">
-        <v>139565</v>
+        <v>23798.999999999989</v>
       </c>
       <c r="F8" s="11">
-        <v>24379.999999999993</v>
+        <v>3246.9999999999968</v>
       </c>
       <c r="G8" s="11">
-        <v>19874.44096</v>
+        <v>22498.426080000001</v>
       </c>
       <c r="H8" s="11">
-        <v>207240.69999999998</v>
+        <v>6459.0999999999967</v>
       </c>
       <c r="I8" s="11">
-        <v>1859.9999999999984</v>
+        <v>1088.9999999999989</v>
       </c>
       <c r="J8" s="11">
-        <v>5926777.3109299988</v>
+        <v>621232.85015999957</v>
       </c>
       <c r="K8" s="11">
-        <v>21.6</v>
+        <v>29.25</v>
       </c>
       <c r="L8" s="11">
-        <v>311.9999999999979</v>
+        <v>50.999999999999659</v>
       </c>
       <c r="M8" s="11">
-        <v>386.99999999999841</v>
+        <v>23.99999999999989</v>
       </c>
       <c r="N8" s="11">
-        <v>962.79999999999893</v>
+        <v>591.49999999999932</v>
       </c>
       <c r="O8" s="11">
-        <v>8125.9999999999918</v>
+        <v>17366.999999999989</v>
       </c>
       <c r="P8" s="11">
-        <v>44861.889999999948</v>
+        <v>79477.839999999967</v>
       </c>
       <c r="Q8" s="11">
-        <v>199155.57099999874</v>
+        <v>2193016.3343999982</v>
       </c>
       <c r="R8" s="11">
-        <v>33.999999999999922</v>
+        <v>29.999999999999911</v>
       </c>
       <c r="S8" s="11">
-        <v>6249</v>
+        <v>1564.9999999999991</v>
       </c>
       <c r="T8" s="11">
-        <v>15178335.903369986</v>
+        <v>1421570.0404799981</v>
       </c>
       <c r="U8" s="11">
-        <v>-284</v>
+        <v>-125</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A9" s="11">
-        <v>10615000</v>
+        <v>37640000</v>
       </c>
       <c r="B9" s="11">
-        <v>2019</v>
+        <v>2016</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="D9" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="11">
-        <v>19887.999999999989</v>
+        <v>16244</v>
       </c>
       <c r="F9" s="11">
-        <v>4481.9999999999982</v>
+        <v>2323.9999999999991</v>
       </c>
       <c r="G9" s="11">
-        <v>37917.462079999998</v>
+        <v>15907.71135</v>
       </c>
       <c r="H9" s="11">
-        <v>14558.999999999989</v>
+        <v>7991.9999999999982</v>
       </c>
       <c r="I9" s="11">
-        <v>609.99999999999943</v>
+        <v>39.999999999999901</v>
       </c>
       <c r="J9" s="11">
-        <v>1282627.8831299993</v>
+        <v>133791.38202999989</v>
       </c>
       <c r="K9" s="11">
-        <v>29.1</v>
+        <v>31.1</v>
       </c>
       <c r="L9" s="11">
-        <v>67.999999999999545</v>
+        <v>79.999999999999503</v>
       </c>
       <c r="M9" s="11">
-        <v>114.99999999999949</v>
+        <v>22.999999999999893</v>
       </c>
       <c r="N9" s="11">
-        <v>358.69999999999959</v>
+        <v>524.09999999999968</v>
       </c>
       <c r="O9" s="11">
-        <v>4886.9999999999818</v>
+        <v>29622.999999999985</v>
       </c>
       <c r="P9" s="11">
-        <v>8000.4999999999918</v>
+        <v>43840.999999999985</v>
       </c>
       <c r="Q9" s="11">
-        <v>794969.88139999914</v>
+        <v>1160238.6936999995</v>
       </c>
       <c r="R9" s="11">
-        <v>14.999999999999956</v>
+        <v>22.99999999999994</v>
       </c>
       <c r="S9" s="11">
-        <v>1094.9999999999995</v>
+        <v>840</v>
       </c>
       <c r="T9" s="11">
-        <v>5006117.3553799978</v>
+        <v>310629.55309999897</v>
       </c>
       <c r="U9" s="11">
-        <v>-274</v>
+        <v>-72</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" s="11">
-        <v>10710000</v>
+        <v>1653000</v>
       </c>
       <c r="B10" s="11">
         <v>2020</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>24</v>
+        <v>80</v>
       </c>
       <c r="D10" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" s="11">
-        <v>65776</v>
+        <v>11710.999999999991</v>
       </c>
       <c r="F10" s="11">
-        <v>14881</v>
+        <v>1564.9999999999989</v>
       </c>
       <c r="G10" s="11">
-        <v>35840.741759999997</v>
+        <v>17400.493439999998</v>
       </c>
       <c r="H10" s="11">
-        <v>52247.999999999993</v>
+        <v>5934.2999999999947</v>
       </c>
       <c r="I10" s="11">
-        <v>2190.9999999999991</v>
+        <v>258.99999999999966</v>
       </c>
       <c r="J10" s="11">
-        <v>2740590.23832</v>
+        <v>102640.8412799998</v>
       </c>
       <c r="K10" s="11">
-        <v>22.8</v>
+        <v>27.4</v>
       </c>
       <c r="L10" s="11">
-        <v>240.99999999999852</v>
+        <v>47.999999999999673</v>
       </c>
       <c r="M10" s="11">
-        <v>194.99999999999918</v>
+        <v>20.999999999999893</v>
       </c>
       <c r="N10" s="11">
-        <v>225.39999999999938</v>
+        <v>308.79999999999956</v>
       </c>
       <c r="O10" s="11">
-        <v>2243.9999999999036</v>
+        <v>32438.999999999975</v>
       </c>
       <c r="P10" s="11">
-        <v>11420.029999999982</v>
+        <v>34895.129999999976</v>
       </c>
       <c r="Q10" s="11">
-        <v>169468.43350463765</v>
+        <v>836820.54719999898</v>
       </c>
       <c r="R10" s="11">
-        <v>5.9999999999999716</v>
+        <v>15.999999999999943</v>
       </c>
       <c r="S10" s="11">
-        <v>3302</v>
+        <v>529.99999999999966</v>
       </c>
       <c r="T10" s="11">
-        <v>8353078.9401600007</v>
+        <v>391012.65215999895</v>
       </c>
       <c r="U10" s="11">
-        <v>-340</v>
+        <v>-110</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" s="11">
-        <v>18720000</v>
+        <v>18608000</v>
       </c>
       <c r="B11" s="11">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="D11" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E11" s="11">
-        <v>86435.999999999985</v>
+        <v>29815.999999999989</v>
       </c>
       <c r="F11" s="11">
-        <v>13019.999999999993</v>
-      </c>
-      <c r="G11" s="6">
-        <v>21164.783759999998</v>
-      </c>
-      <c r="H11" s="6">
-        <v>56657.999999999985</v>
-      </c>
-      <c r="I11" s="6">
-        <v>1856.999999999998</v>
-      </c>
-      <c r="J11" s="6">
-        <v>3773107.8136799997</v>
-      </c>
-      <c r="K11" s="6">
-        <v>28.1</v>
+        <v>2908.9999999999977</v>
+      </c>
+      <c r="G11" s="11">
+        <v>15931.32554</v>
+      </c>
+      <c r="H11" s="11">
+        <v>10793.899999999996</v>
+      </c>
+      <c r="I11" s="11">
+        <v>268.9999999999996</v>
+      </c>
+      <c r="J11" s="11">
+        <v>416409.6848999997</v>
+      </c>
+      <c r="K11" s="11">
+        <v>24.2</v>
       </c>
       <c r="L11" s="11">
-        <v>112.99999999999922</v>
+        <v>57.999999999999616</v>
       </c>
       <c r="M11" s="11">
-        <v>371.99999999999841</v>
+        <v>74.999999999999673</v>
       </c>
       <c r="N11" s="11">
-        <v>995.09999999999877</v>
+        <v>219.79999999999964</v>
       </c>
       <c r="O11" s="11">
-        <v>134789</v>
+        <v>137192.99999999991</v>
       </c>
       <c r="P11" s="11">
-        <v>68742.999999999971</v>
+        <v>146352.99999999994</v>
       </c>
       <c r="Q11" s="11">
-        <v>5197507.5167999975</v>
+        <v>1813391.6641999981</v>
       </c>
       <c r="R11" s="11">
-        <v>51.999999999999872</v>
+        <v>28.999999999999922</v>
       </c>
       <c r="S11" s="11">
-        <v>3298.9999999999995</v>
+        <v>1071.9999999999995</v>
       </c>
       <c r="T11" s="11">
-        <v>11634696.470159991</v>
+        <v>226704.80354999797</v>
       </c>
       <c r="U11" s="11">
-        <v>-193</v>
+        <v>-179</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
-        <v>1606000</v>
+        <v>1703000</v>
       </c>
       <c r="B12" s="11">
         <v>2021</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="D12" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E12" s="11">
-        <v>9622.9999999999964</v>
+        <v>28434</v>
       </c>
       <c r="F12" s="11">
-        <v>1207.9999999999993</v>
+        <v>5725</v>
       </c>
       <c r="G12" s="11">
-        <v>16635.344249999991</v>
+        <v>20773.66617</v>
       </c>
       <c r="H12" s="11">
-        <v>3746.5999999999967</v>
+        <v>26868.199999999993</v>
       </c>
       <c r="I12" s="11">
-        <v>44.99999999999995</v>
+        <v>1111.9999999999993</v>
       </c>
       <c r="J12" s="11">
-        <v>79286.091859999928</v>
+        <v>1674021.9106300003</v>
       </c>
       <c r="K12" s="11">
-        <v>30.1</v>
+        <v>22.6</v>
       </c>
       <c r="L12" s="11">
-        <v>32.999999999999773</v>
+        <v>72.999999999999545</v>
       </c>
       <c r="M12" s="11">
-        <v>9.9999999999999485</v>
+        <v>113.99999999999952</v>
       </c>
       <c r="N12" s="11">
-        <v>212.39999999999975</v>
+        <v>350.99999999999966</v>
       </c>
       <c r="O12" s="11">
-        <v>22989.999999999982</v>
+        <v>10711.999999999955</v>
       </c>
       <c r="P12" s="11">
-        <v>7487.889999999994</v>
+        <v>7011.1399999999894</v>
       </c>
       <c r="Q12" s="11">
-        <v>613356.16829999944</v>
+        <v>49916.868199999284</v>
       </c>
       <c r="R12" s="11">
-        <v>14.999999999999956</v>
+        <v>1.9999999999999927</v>
       </c>
       <c r="S12" s="11">
-        <v>672.99999999999989</v>
+        <v>1617.9999999999998</v>
       </c>
       <c r="T12" s="11">
-        <v>232900.09079999954</v>
+        <v>5355232.274249997</v>
       </c>
       <c r="U12" s="11">
-        <v>-168</v>
+        <v>-291</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A13" s="11">
-        <v>1620000</v>
+        <v>1716000</v>
       </c>
       <c r="B13" s="11">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>38</v>
+        <v>23</v>
       </c>
       <c r="D13" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E13" s="11">
-        <v>16685</v>
+        <v>139565</v>
       </c>
       <c r="F13" s="11">
-        <v>2386</v>
+        <v>24379.999999999993</v>
       </c>
       <c r="G13" s="11">
-        <v>16273.3732</v>
+        <v>19874.44096</v>
       </c>
       <c r="H13" s="11">
-        <v>10592.199999999999</v>
+        <v>207240.69999999998</v>
       </c>
       <c r="I13" s="11">
-        <v>377.99999999999972</v>
+        <v>1859.9999999999984</v>
       </c>
       <c r="J13" s="11">
-        <v>398404.10683999996</v>
+        <v>5926777.3109299988</v>
       </c>
       <c r="K13" s="11">
-        <v>26.4</v>
+        <v>21.6</v>
       </c>
       <c r="L13" s="11">
-        <v>27.999999999999833</v>
+        <v>311.9999999999979</v>
       </c>
       <c r="M13" s="11">
-        <v>22.999999999999915</v>
+        <v>386.99999999999841</v>
       </c>
       <c r="N13" s="11">
-        <v>800.99999999999955</v>
+        <v>962.79999999999893</v>
       </c>
       <c r="O13" s="11">
-        <v>112136.99999999997</v>
+        <v>8125.9999999999918</v>
       </c>
       <c r="P13" s="11">
-        <v>9244.5999999999931</v>
+        <v>44861.889999999948</v>
       </c>
       <c r="Q13" s="11">
-        <v>1610842.1835999999</v>
+        <v>199155.57099999874</v>
       </c>
       <c r="R13" s="11">
-        <v>21.999999999999957</v>
+        <v>33.999999999999922</v>
       </c>
       <c r="S13" s="11">
-        <v>624.00000000000011</v>
+        <v>6249</v>
       </c>
       <c r="T13" s="11">
-        <v>1492496.0792400001</v>
+        <v>15178335.903369986</v>
       </c>
       <c r="U13" s="11">
-        <v>-174</v>
+        <v>-284</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="11">
-        <v>1719000</v>
+        <v>10615000</v>
       </c>
       <c r="B14" s="11">
-        <v>2015</v>
+        <v>2019</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="D14" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E14" s="11">
-        <v>40956</v>
+        <v>19887.999999999989</v>
       </c>
       <c r="F14" s="11">
-        <v>6906.9999999999973</v>
+        <v>4481.9999999999982</v>
       </c>
       <c r="G14" s="11">
-        <v>16179.493109999999</v>
+        <v>37917.462079999998</v>
       </c>
       <c r="H14" s="11">
-        <v>45679.399999999994</v>
+        <v>14558.999999999989</v>
       </c>
       <c r="I14" s="11">
-        <v>943.99999999999955</v>
+        <v>609.99999999999943</v>
       </c>
       <c r="J14" s="11">
-        <v>1135992.2059199996</v>
+        <v>1282627.8831299993</v>
       </c>
       <c r="K14" s="11">
-        <v>22.9</v>
+        <v>29.1</v>
       </c>
       <c r="L14" s="11">
-        <v>86.999999999999389</v>
+        <v>67.999999999999545</v>
       </c>
       <c r="M14" s="11">
-        <v>196.9999999999992</v>
+        <v>114.99999999999949</v>
       </c>
       <c r="N14" s="11">
-        <v>2450.9999999999986</v>
+        <v>358.69999999999959</v>
       </c>
       <c r="O14" s="11">
-        <v>49269.999999999935</v>
+        <v>4886.9999999999818</v>
       </c>
       <c r="P14" s="11">
-        <v>10475.609999999997</v>
+        <v>8000.4999999999918</v>
       </c>
       <c r="Q14" s="11">
-        <v>832899.14939999871</v>
+        <v>794969.88139999914</v>
       </c>
       <c r="R14" s="11">
-        <v>26.99999999999994</v>
+        <v>14.999999999999956</v>
       </c>
       <c r="S14" s="11">
-        <v>1959.9999999999998</v>
+        <v>1094.9999999999995</v>
       </c>
       <c r="T14" s="11">
-        <v>1961160.027659998</v>
+        <v>5006117.3553799978</v>
       </c>
       <c r="U14" s="11">
-        <v>-193</v>
+        <v>-274</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A15" s="11">
-        <v>4621000</v>
+        <v>10710000</v>
       </c>
       <c r="B15" s="11">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="D15" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E15" s="11">
-        <v>24184.999999999989</v>
+        <v>65776</v>
       </c>
       <c r="F15" s="11">
-        <v>4568.9999999999982</v>
+        <v>14881</v>
       </c>
       <c r="G15" s="11">
-        <v>21418.87329</v>
+        <v>35840.741759999997</v>
       </c>
       <c r="H15" s="11">
-        <v>4933.5999999999949</v>
+        <v>52247.999999999993</v>
       </c>
       <c r="I15" s="11">
-        <v>130.99999999999977</v>
+        <v>2190.9999999999991</v>
       </c>
       <c r="J15" s="11">
-        <v>143687.26248999985</v>
+        <v>2740590.23832</v>
       </c>
       <c r="K15" s="11">
-        <v>22.3</v>
+        <v>22.8</v>
       </c>
       <c r="L15" s="11">
-        <v>103.9999999999993</v>
+        <v>240.99999999999852</v>
       </c>
       <c r="M15" s="11">
-        <v>2.9999999999999765</v>
+        <v>194.99999999999918</v>
       </c>
       <c r="N15" s="11">
-        <v>316.99999999999955</v>
+        <v>225.39999999999938</v>
       </c>
       <c r="O15" s="11">
-        <v>106497.99999999996</v>
+        <v>2243.9999999999036</v>
       </c>
       <c r="P15" s="11">
-        <v>19137.909999999989</v>
+        <v>11420.029999999982</v>
       </c>
       <c r="Q15" s="11">
-        <v>3427876.6054999977</v>
+        <v>169468.43350463765</v>
       </c>
       <c r="R15" s="11">
-        <v>50.999999999999886</v>
+        <v>5.9999999999999716</v>
       </c>
       <c r="S15" s="11">
-        <v>1217.9999999999995</v>
+        <v>3302</v>
       </c>
       <c r="T15" s="11">
-        <v>3524494.8488999987</v>
+        <v>8353078.9401600007</v>
       </c>
       <c r="U15" s="11">
-        <v>-121</v>
+        <v>-340</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A16" s="11">
-        <v>36616000</v>
+        <v>18720000</v>
       </c>
       <c r="B16" s="11">
-        <v>2017</v>
+        <v>2020</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D16" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E16" s="11">
-        <v>12565.999999999991</v>
+        <v>86435.999999999985</v>
       </c>
       <c r="F16" s="11">
-        <v>2093.9999999999991</v>
-      </c>
-      <c r="G16" s="11">
-        <v>16955.84604</v>
-      </c>
-      <c r="H16" s="11">
-        <v>7192.4999999999927</v>
-      </c>
-      <c r="I16" s="11">
-        <v>449.99999999999943</v>
-      </c>
-      <c r="J16" s="11">
-        <v>298227.95619999972</v>
-      </c>
-      <c r="K16" s="11">
-        <v>30.03</v>
+        <v>13019.999999999993</v>
+      </c>
+      <c r="G16" s="6">
+        <v>21164.783759999998</v>
+      </c>
+      <c r="H16" s="6">
+        <v>56657.999999999985</v>
+      </c>
+      <c r="I16" s="6">
+        <v>1856.999999999998</v>
+      </c>
+      <c r="J16" s="6">
+        <v>3773107.8136799997</v>
+      </c>
+      <c r="K16" s="6">
+        <v>28.1</v>
       </c>
       <c r="L16" s="11">
-        <v>59.999999999999581</v>
+        <v>112.99999999999922</v>
       </c>
       <c r="M16" s="11">
-        <v>14.999999999999922</v>
+        <v>371.99999999999841</v>
       </c>
       <c r="N16" s="11">
-        <v>647.79999999999916</v>
+        <v>995.09999999999877</v>
       </c>
       <c r="O16" s="11">
-        <v>25719.999999999982</v>
+        <v>134789</v>
       </c>
       <c r="P16" s="11">
-        <v>20804.14999999998</v>
+        <v>68742.999999999971</v>
       </c>
       <c r="Q16" s="11">
-        <v>1533618.0888999989</v>
+        <v>5197507.5167999975</v>
       </c>
       <c r="R16" s="11">
-        <v>21.999999999999932</v>
+        <v>51.999999999999872</v>
       </c>
       <c r="S16" s="11">
-        <v>676.99999999999955</v>
+        <v>3298.9999999999995</v>
       </c>
       <c r="T16" s="11">
-        <v>1868542.2159599983</v>
+        <v>11634696.470159991</v>
       </c>
       <c r="U16" s="11">
-        <v>-158</v>
+        <v>-193</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A17" s="11">
-        <v>1641000</v>
+        <v>17720000</v>
       </c>
       <c r="B17" s="11">
         <v>2020</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="D17" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E17" s="11">
-        <v>4183.9999999999918</v>
+        <v>55511.999999999993</v>
       </c>
       <c r="F17" s="11">
-        <v>788.99999999999841</v>
+        <v>13204.999999999998</v>
       </c>
       <c r="G17" s="11">
-        <v>19068.8688</v>
+        <v>23396.225760000001</v>
       </c>
       <c r="H17" s="11">
-        <v>1820.9999999999964</v>
+        <v>83197.2</v>
       </c>
       <c r="I17" s="11">
-        <v>79.999999999999787</v>
+        <v>1948.9999999999984</v>
       </c>
       <c r="J17" s="11">
-        <v>57968.611199999868</v>
+        <v>3114118.2283199993</v>
       </c>
       <c r="K17" s="11">
-        <v>35.799999999999997</v>
+        <v>28.4</v>
       </c>
       <c r="L17" s="11">
-        <v>12.999999999999892</v>
+        <v>180.99999999999883</v>
       </c>
       <c r="M17" s="11">
-        <v>1.9999999999999847</v>
+        <v>201.99999999999909</v>
       </c>
       <c r="N17" s="11">
-        <v>81.399999999999764</v>
+        <v>187.19999999999979</v>
       </c>
       <c r="O17" s="11">
-        <v>32010.999999999935</v>
+        <v>770.99999999998715</v>
       </c>
       <c r="P17" s="11">
-        <v>1244.4599999999969</v>
+        <v>8337.9999999999836</v>
       </c>
       <c r="Q17" s="11">
-        <v>838591.639199998</v>
+        <v>59104.252799998845</v>
       </c>
       <c r="R17" s="11">
-        <v>9.9999999999999591</v>
+        <v>22.99999999999994</v>
       </c>
       <c r="S17" s="11">
-        <v>251.99999999999952</v>
+        <v>4264.9999999999991</v>
       </c>
       <c r="T17" s="11">
-        <v>750105.80711999815</v>
+        <v>14759491.671359997</v>
       </c>
       <c r="U17" s="11">
-        <v>-76</v>
+        <v>-329</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A18" s="5">
-        <v>52623000</v>
-      </c>
-      <c r="B18" s="6">
-        <v>2018</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="D18" s="6">
-        <v>3</v>
+      <c r="A18" s="11">
+        <v>18725000</v>
+      </c>
+      <c r="B18" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="D18" s="11">
+        <v>1</v>
       </c>
       <c r="E18" s="11">
-        <v>25263.999999999989</v>
+        <v>36704</v>
       </c>
       <c r="F18" s="11">
-        <v>4126.9999999999991</v>
-      </c>
-      <c r="G18" s="6">
-        <v>20441.322639999999</v>
+        <v>7345</v>
+      </c>
+      <c r="G18" s="11">
+        <v>20933.503919999999</v>
       </c>
       <c r="H18" s="11">
-        <v>17070.69999999999</v>
+        <v>33377.19999999999</v>
       </c>
       <c r="I18" s="11">
-        <v>27.999999999999929</v>
+        <v>634.99999999999943</v>
       </c>
       <c r="J18" s="11">
-        <v>268457.68935999984</v>
-      </c>
-      <c r="K18" s="6">
-        <v>21.79</v>
+        <v>2290850.5860000006</v>
+      </c>
+      <c r="K18" s="11">
+        <v>28.3</v>
       </c>
       <c r="L18" s="11">
-        <v>73.999999999999488</v>
+        <v>130.99999999999915</v>
       </c>
       <c r="M18" s="11">
-        <v>69.999999999999687</v>
+        <v>121.9999999999995</v>
       </c>
       <c r="N18" s="11">
-        <v>202.59999999999971</v>
+        <v>211.59999999999974</v>
       </c>
       <c r="O18" s="11">
-        <v>314708.99999999988</v>
+        <v>19513.999999999989</v>
       </c>
       <c r="P18" s="11">
-        <v>18979.989999999991</v>
+        <v>6673</v>
       </c>
       <c r="Q18" s="11">
-        <v>3873762.5743999979</v>
+        <v>174197.10959999921</v>
       </c>
       <c r="R18" s="11">
-        <v>28.999999999999932</v>
+        <v>17.999999999999947</v>
       </c>
       <c r="S18" s="11">
-        <v>1107.9999999999998</v>
+        <v>1608</v>
       </c>
       <c r="T18" s="11">
-        <v>3584846.1060399981</v>
+        <v>3699859.1983200009</v>
       </c>
       <c r="U18" s="11">
-        <v>-164</v>
+        <v>-103</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A19" s="11">
-        <v>18652000</v>
+        <v>18728000</v>
       </c>
       <c r="B19" s="11">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="D19" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E19" s="11">
-        <v>17569.999999999989</v>
+        <v>37377</v>
       </c>
       <c r="F19" s="11">
-        <v>1887.9999999999989</v>
+        <v>6628.9999999999982</v>
       </c>
       <c r="G19" s="11">
-        <v>18376.923200000001</v>
+        <v>19979.241050000001</v>
       </c>
       <c r="H19" s="11">
-        <v>8486.1999999999953</v>
+        <v>24799.299999999996</v>
       </c>
       <c r="I19" s="11">
-        <v>234.99999999999972</v>
+        <v>495.99999999999955</v>
       </c>
       <c r="J19" s="11">
-        <v>341592.53969999967</v>
+        <v>1431726.77079</v>
       </c>
       <c r="K19" s="11">
-        <v>26.3</v>
+        <v>23.4</v>
       </c>
       <c r="L19" s="11">
-        <v>155.99999999999895</v>
+        <v>102.99999999999933</v>
       </c>
       <c r="M19" s="11">
-        <v>56.999999999999723</v>
+        <v>154.99999999999937</v>
       </c>
       <c r="N19" s="11">
-        <v>389.39999999999952</v>
+        <v>206.89999999999966</v>
       </c>
       <c r="O19" s="11">
-        <v>182951.9999999998</v>
+        <v>23897.999999999993</v>
       </c>
       <c r="P19" s="11">
-        <v>19100.999999999978</v>
+        <v>10754.999999999993</v>
       </c>
       <c r="Q19" s="11">
-        <v>2366184.0724999984</v>
+        <v>271809.38029999856</v>
       </c>
       <c r="R19" s="11">
-        <v>24.999999999999932</v>
+        <v>10.999999999999966</v>
       </c>
       <c r="S19" s="11">
-        <v>790.99999999999943</v>
+        <v>1573.9999999999998</v>
       </c>
       <c r="T19" s="11">
-        <v>322435.87408999965</v>
+        <v>2329628.0499</v>
       </c>
       <c r="U19" s="11">
-        <v>-188</v>
+        <v>-234</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A20" s="11">
-        <v>22712000</v>
+        <v>22758000</v>
       </c>
       <c r="B20" s="11">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>26</v>
+        <v>84</v>
       </c>
       <c r="D20" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E20" s="11">
-        <v>120926</v>
+        <v>36616.999999999993</v>
       </c>
       <c r="F20" s="11">
-        <v>20037.999999999996</v>
+        <v>4992.9999999999982</v>
       </c>
       <c r="G20" s="11">
-        <v>25152.816680000011</v>
+        <v>16722.441760000002</v>
       </c>
       <c r="H20" s="11">
-        <v>72911.599999999991</v>
+        <v>30655.999999999985</v>
       </c>
       <c r="I20" s="11">
-        <v>2549.9999999999977</v>
+        <v>1037.9999999999993</v>
       </c>
       <c r="J20" s="11">
-        <v>4713511.9352799999</v>
+        <v>788151.45435999963</v>
       </c>
       <c r="K20" s="11">
-        <v>29.9</v>
+        <v>25.7</v>
       </c>
       <c r="L20" s="11">
-        <v>195.99999999999872</v>
+        <v>113.99999999999925</v>
       </c>
       <c r="M20" s="11">
-        <v>248.99999999999895</v>
+        <v>121.99999999999946</v>
       </c>
       <c r="N20" s="11">
-        <v>1123.1999999999985</v>
+        <v>384.19999999999942</v>
       </c>
       <c r="O20" s="11">
-        <v>1264806.9999999993</v>
+        <v>25676.999999999949</v>
       </c>
       <c r="P20" s="11">
-        <v>104307.92999999998</v>
+        <v>13056.299999999997</v>
       </c>
       <c r="Q20" s="11">
-        <v>2214641.3434399972</v>
+        <v>416468.51609999931</v>
       </c>
       <c r="R20" s="11">
-        <v>34.999999999999915</v>
+        <v>26.999999999999929</v>
       </c>
       <c r="S20" s="11">
-        <v>6308.9999999999991</v>
+        <v>1999.9999999999995</v>
       </c>
       <c r="T20" s="11">
-        <v>26988496.705479994</v>
+        <v>3340485.9510699986</v>
       </c>
       <c r="U20" s="11">
-        <v>-483</v>
+        <v>-154</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A21" s="11">
-        <v>53725000</v>
+        <v>24707000</v>
       </c>
       <c r="B21" s="11">
-        <v>2020</v>
+        <v>2016</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>27</v>
+        <v>85</v>
       </c>
       <c r="D21" s="11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E21" s="11">
-        <v>50473.999999999993</v>
+        <v>33061</v>
       </c>
       <c r="F21" s="11">
-        <v>8680.9999999999982</v>
+        <v>6711</v>
       </c>
       <c r="G21" s="11">
-        <v>19397.3076</v>
+        <v>16213.878720000001</v>
       </c>
       <c r="H21" s="11">
-        <v>32935.899999999994</v>
+        <v>21373.399999999998</v>
       </c>
       <c r="I21" s="11">
-        <v>1673.9999999999982</v>
+        <v>523.99999999999966</v>
       </c>
       <c r="J21" s="11">
-        <v>1330729.4930399999</v>
+        <v>952980.54330999986</v>
       </c>
       <c r="K21" s="11">
-        <v>25.1</v>
+        <v>24.33</v>
       </c>
       <c r="L21" s="11">
-        <v>158.99999999999895</v>
+        <v>50.99999999999968</v>
       </c>
       <c r="M21" s="11">
-        <v>184.99999999999918</v>
+        <v>87.999999999999631</v>
       </c>
       <c r="N21" s="11">
-        <v>386.19999999999953</v>
+        <v>113.89999999999986</v>
       </c>
       <c r="O21" s="11">
-        <v>810919.99999999977</v>
+        <v>7999.9999999999436</v>
       </c>
       <c r="P21" s="11">
-        <v>182696</v>
+        <v>4292.9999999999982</v>
       </c>
       <c r="Q21" s="11">
-        <v>5519372.8535999991</v>
+        <v>57192.097399999264</v>
       </c>
       <c r="R21" s="11">
-        <v>38.999999999999908</v>
+        <v>7.9999999999999725</v>
       </c>
       <c r="S21" s="11">
-        <v>2499.9999999999995</v>
+        <v>2061</v>
       </c>
       <c r="T21" s="11">
-        <v>3749387.5015199976</v>
+        <v>3033452.7819099985</v>
       </c>
       <c r="U21" s="11">
-        <v>-523</v>
+        <v>-219</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A22" s="11">
-        <v>1706000</v>
+        <v>1606000</v>
       </c>
       <c r="B22" s="11">
-        <v>2014</v>
+        <v>2021</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>28</v>
+        <v>37</v>
       </c>
       <c r="D22" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E22" s="11">
-        <v>47578.999999999993</v>
+        <v>9622.9999999999964</v>
       </c>
       <c r="F22" s="11">
-        <v>11633.999999999998</v>
+        <v>1207.9999999999993</v>
       </c>
       <c r="G22" s="11">
-        <v>24954.799999999999</v>
+        <v>16635.344249999991</v>
       </c>
       <c r="H22" s="11">
-        <v>37654.999999999985</v>
+        <v>3746.5999999999967</v>
       </c>
       <c r="I22" s="11">
-        <v>898.99999999999943</v>
+        <v>44.99999999999995</v>
       </c>
       <c r="J22" s="11">
-        <v>1350652</v>
+        <v>79286.091859999928</v>
       </c>
       <c r="K22" s="11">
-        <v>23.5</v>
+        <v>30.1</v>
       </c>
       <c r="L22" s="11">
-        <v>69.999999999999503</v>
+        <v>32.999999999999773</v>
       </c>
       <c r="M22" s="11">
-        <v>171.99999999999929</v>
+        <v>9.9999999999999485</v>
       </c>
       <c r="N22" s="11">
-        <v>201.0999999999998</v>
+        <v>212.39999999999975</v>
       </c>
       <c r="O22" s="11">
-        <v>14598.999999999955</v>
+        <v>22989.999999999982</v>
       </c>
       <c r="P22" s="11">
-        <v>16640.329999999991</v>
+        <v>7487.889999999994</v>
       </c>
       <c r="Q22" s="11">
-        <v>232538.99999999936</v>
+        <v>613356.16829999944</v>
       </c>
       <c r="R22" s="11">
-        <v>10.999999999999968</v>
+        <v>14.999999999999956</v>
       </c>
       <c r="S22" s="11">
-        <v>2737.9999999999991</v>
+        <v>672.99999999999989</v>
       </c>
       <c r="T22" s="11">
-        <v>32418265.199999992</v>
+        <v>232900.09079999954</v>
       </c>
       <c r="U22" s="11">
-        <v>-199</v>
+        <v>-168</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A23" s="11">
-        <v>5634000</v>
+        <v>1620000</v>
       </c>
       <c r="B23" s="11">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="D23" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E23" s="11">
-        <v>28553</v>
+        <v>16685</v>
       </c>
       <c r="F23" s="11">
-        <v>6935.9999999999991</v>
+        <v>2386</v>
       </c>
       <c r="G23" s="11">
-        <v>34591.617420000002</v>
+        <v>16273.3732</v>
       </c>
       <c r="H23" s="11">
-        <v>13338.599999999997</v>
+        <v>10592.199999999999</v>
       </c>
       <c r="I23" s="11">
-        <v>494.99999999999943</v>
+        <v>377.99999999999972</v>
       </c>
       <c r="J23" s="11">
-        <v>139069.51849999998</v>
+        <v>398404.10683999996</v>
       </c>
       <c r="K23" s="11">
-        <v>22.9</v>
+        <v>26.4</v>
       </c>
       <c r="L23" s="11">
-        <v>76.999999999999531</v>
+        <v>27.999999999999833</v>
       </c>
       <c r="M23" s="11">
-        <v>124.99999999999952</v>
+        <v>22.999999999999915</v>
       </c>
       <c r="N23" s="11">
-        <v>169.2999999999999</v>
+        <v>800.99999999999955</v>
       </c>
       <c r="O23" s="11">
-        <v>19625.999999999978</v>
+        <v>112136.99999999997</v>
       </c>
       <c r="P23" s="11">
-        <v>10308.619999999997</v>
+        <v>9244.5999999999931</v>
       </c>
       <c r="Q23" s="11">
-        <v>429026.07919999963</v>
+        <v>1610842.1835999999</v>
       </c>
       <c r="R23" s="11">
-        <v>11.999999999999972</v>
+        <v>21.999999999999957</v>
       </c>
       <c r="S23" s="11">
-        <v>2062</v>
+        <v>624.00000000000011</v>
       </c>
       <c r="T23" s="11">
-        <v>13315114.298400002</v>
+        <v>1492496.0792400001</v>
       </c>
       <c r="U23" s="11">
-        <v>-310</v>
+        <v>-174</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" s="11">
-        <v>25738000</v>
+        <v>1719000</v>
       </c>
       <c r="B24" s="11">
-        <v>2021</v>
+        <v>2015</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D24" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E24" s="11">
-        <v>79746</v>
+        <v>40956</v>
       </c>
       <c r="F24" s="11">
-        <v>16843</v>
+        <v>6906.9999999999973</v>
       </c>
       <c r="G24" s="11">
-        <v>35339.908029999999</v>
+        <v>16179.493109999999</v>
       </c>
       <c r="H24" s="11">
-        <v>73491.599999999991</v>
+        <v>45679.399999999994</v>
       </c>
       <c r="I24" s="11">
-        <v>2645.9999999999991</v>
+        <v>943.99999999999955</v>
       </c>
       <c r="J24" s="11">
-        <v>2006637.54357</v>
+        <v>1135992.2059199996</v>
       </c>
       <c r="K24" s="11">
-        <v>24.6</v>
+        <v>22.9</v>
       </c>
       <c r="L24" s="11">
-        <v>164.99999999999895</v>
+        <v>86.999999999999389</v>
       </c>
       <c r="M24" s="11">
-        <v>232.99999999999903</v>
+        <v>196.9999999999992</v>
       </c>
       <c r="N24" s="11">
-        <v>188.49999999999935</v>
+        <v>2450.9999999999986</v>
       </c>
       <c r="O24" s="11">
-        <v>1592.9999999998829</v>
+        <v>49269.999999999935</v>
       </c>
       <c r="P24" s="11">
-        <v>23405.999999999971</v>
+        <v>10475.609999999997</v>
       </c>
       <c r="Q24" s="11">
-        <v>313421.54109999974</v>
+        <v>832899.14939999871</v>
       </c>
       <c r="R24" s="11">
-        <v>7.9999999999999671</v>
+        <v>26.99999999999994</v>
       </c>
       <c r="S24" s="11">
-        <v>5536</v>
+        <v>1959.9999999999998</v>
       </c>
       <c r="T24" s="11">
-        <v>37484508.028549999</v>
+        <v>1961160.027659998</v>
       </c>
       <c r="U24" s="11">
-        <v>-236</v>
+        <v>-193</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" s="11">
-        <v>36704000</v>
+        <v>4621000</v>
       </c>
       <c r="B25" s="11">
-        <v>2018</v>
+        <v>2021</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>48</v>
+        <v>39</v>
       </c>
       <c r="D25" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E25" s="11">
-        <v>57687</v>
+        <v>24184.999999999989</v>
       </c>
       <c r="F25" s="11">
-        <v>11292</v>
+        <v>4568.9999999999982</v>
       </c>
       <c r="G25" s="11">
-        <v>23845.612519999999</v>
+        <v>21418.87329</v>
       </c>
       <c r="H25" s="11">
-        <v>33352.599999999984</v>
+        <v>4933.5999999999949</v>
       </c>
       <c r="I25" s="11">
-        <v>1263.9999999999993</v>
+        <v>130.99999999999977</v>
       </c>
       <c r="J25" s="11">
-        <v>1716389.6294400003</v>
+        <v>143687.26248999985</v>
       </c>
       <c r="K25" s="11">
-        <v>29.41</v>
+        <v>22.3</v>
       </c>
       <c r="L25" s="11">
-        <v>70.999999999999531</v>
+        <v>103.9999999999993</v>
       </c>
       <c r="M25" s="11">
-        <v>230.99999999999903</v>
+        <v>2.9999999999999765</v>
       </c>
       <c r="N25" s="11">
-        <v>233.29999999999964</v>
+        <v>316.99999999999955</v>
       </c>
       <c r="O25" s="11">
-        <v>383.99999999993003</v>
+        <v>106497.99999999996</v>
       </c>
       <c r="P25" s="11">
-        <v>37867.999999999993</v>
+        <v>19137.909999999989</v>
       </c>
       <c r="Q25" s="11">
-        <v>322803.30879999872</v>
+        <v>3427876.6054999977</v>
       </c>
       <c r="R25" s="11">
-        <v>0.99999999999999423</v>
+        <v>50.999999999999886</v>
       </c>
       <c r="S25" s="11">
-        <v>2426.9999999999995</v>
+        <v>1217.9999999999995</v>
       </c>
       <c r="T25" s="11">
-        <v>32139963.465120006</v>
+        <v>3524494.8488999987</v>
       </c>
       <c r="U25" s="11">
-        <v>-472</v>
+        <v>-121</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A26" s="11">
-        <v>65753000</v>
+        <v>36616000</v>
       </c>
       <c r="B26" s="11">
-        <v>2021</v>
+        <v>2017</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D26" s="11">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E26" s="11">
-        <v>141368</v>
+        <v>12565.999999999991</v>
       </c>
       <c r="F26" s="11">
-        <v>33537</v>
+        <v>2093.9999999999991</v>
       </c>
       <c r="G26" s="11">
-        <v>27126.22694</v>
+        <v>16955.84604</v>
       </c>
       <c r="H26" s="11">
-        <v>58200</v>
+        <v>7192.4999999999927</v>
       </c>
       <c r="I26" s="11">
-        <v>2876.9999999999973</v>
+        <v>449.99999999999943</v>
       </c>
       <c r="J26" s="11">
-        <v>10541809.012150001</v>
+        <v>298227.95619999972</v>
       </c>
       <c r="K26" s="11">
-        <v>31.4</v>
+        <v>30.03</v>
       </c>
       <c r="L26" s="11">
-        <v>306.99999999999795</v>
+        <v>59.999999999999581</v>
       </c>
       <c r="M26" s="11">
-        <v>198.99999999999918</v>
+        <v>14.999999999999922</v>
       </c>
       <c r="N26" s="11">
-        <v>474.69999999999879</v>
+        <v>647.79999999999916</v>
       </c>
       <c r="O26" s="11">
-        <v>595570.99999999977</v>
+        <v>25719.999999999982</v>
       </c>
       <c r="P26" s="11">
-        <v>59771.349999999991</v>
+        <v>20804.14999999998</v>
       </c>
       <c r="Q26" s="11">
-        <v>1632754.1328999992</v>
+        <v>1533618.0888999989</v>
       </c>
       <c r="R26" s="11">
-        <v>90.999999999999801</v>
+        <v>21.999999999999932</v>
       </c>
       <c r="S26" s="11">
-        <v>9371</v>
+        <v>676.99999999999955</v>
       </c>
       <c r="T26" s="11">
-        <v>79424596.731749997</v>
+        <v>1868542.2159599983</v>
       </c>
       <c r="U26" s="11">
-        <v>-402</v>
+        <v>-158</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" s="11">
-        <v>1625000</v>
+        <v>36610000</v>
       </c>
       <c r="B27" s="11">
-        <v>2021</v>
+        <v>2018</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="D27" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E27" s="11">
-        <v>23671.999999999989</v>
+        <v>17499</v>
       </c>
       <c r="F27" s="11">
-        <v>2819.9999999999991</v>
+        <v>2815</v>
       </c>
       <c r="G27" s="11">
-        <v>17545.93204</v>
+        <v>20675.747319999999</v>
       </c>
       <c r="H27" s="11">
-        <v>16399.19999999999</v>
+        <v>4044.4999999999973</v>
       </c>
       <c r="I27" s="11">
-        <v>346.9999999999996</v>
+        <v>387.99999999999983</v>
       </c>
       <c r="J27" s="11">
-        <v>573514.04293999996</v>
+        <v>509272.59583999997</v>
       </c>
       <c r="K27" s="11">
-        <v>28</v>
+        <v>29.82</v>
       </c>
       <c r="L27" s="11">
-        <v>64.999999999999574</v>
+        <v>53.999999999999659</v>
       </c>
       <c r="M27" s="11">
-        <v>59.999999999999716</v>
+        <v>31.999999999999865</v>
       </c>
       <c r="N27" s="11">
-        <v>382.49999999999949</v>
+        <v>1231.9999999999993</v>
       </c>
       <c r="O27" s="11">
-        <v>39639.999999999935</v>
+        <v>47001.999999999993</v>
       </c>
       <c r="P27" s="11">
-        <v>9314.3999999999924</v>
+        <v>8969.9999999999982</v>
       </c>
       <c r="Q27" s="11">
-        <v>3234408.7671999987</v>
+        <v>2998146.3123999988</v>
       </c>
       <c r="R27" s="11">
-        <v>17.99999999999995</v>
+        <v>21.99999999999995</v>
       </c>
       <c r="S27" s="11">
-        <v>744.99999999999955</v>
+        <v>1535</v>
       </c>
       <c r="T27" s="11">
-        <v>828015.21829999797</v>
+        <v>4597855.1592400009</v>
       </c>
       <c r="U27" s="11">
-        <v>-294</v>
+        <v>-139</v>
       </c>
     </row>
     <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" s="11">
-        <v>3654000</v>
+        <v>36612000</v>
       </c>
       <c r="B28" s="11">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="D28" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E28" s="11">
-        <v>116468</v>
+        <v>22832.999999999989</v>
       </c>
       <c r="F28" s="11">
-        <v>21239.000000000004</v>
+        <v>2624.9999999999973</v>
       </c>
       <c r="G28" s="11">
-        <v>23604.910929999998</v>
+        <v>19000.342280000001</v>
       </c>
       <c r="H28" s="11">
-        <v>64664.399999999987</v>
+        <v>12773.499999999993</v>
       </c>
       <c r="I28" s="11">
-        <v>2076.9999999999995</v>
+        <v>480.99999999999943</v>
       </c>
       <c r="J28" s="11">
-        <v>4676977.1911800001</v>
+        <v>477102.61020999961</v>
       </c>
       <c r="K28" s="11">
-        <v>30.2</v>
+        <v>32.450000000000003</v>
       </c>
       <c r="L28" s="11">
-        <v>300.99999999999807</v>
+        <v>83.999999999999417</v>
       </c>
       <c r="M28" s="11">
-        <v>303.99999999999869</v>
+        <v>66.999999999999702</v>
       </c>
       <c r="N28" s="11">
-        <v>783.79999999999882</v>
+        <v>586.09999999999911</v>
       </c>
       <c r="O28" s="11">
-        <v>202571.00000000003</v>
+        <v>13303.999999999976</v>
       </c>
       <c r="P28" s="11">
-        <v>87368.909999999974</v>
+        <v>31991.309999999979</v>
       </c>
       <c r="Q28" s="11">
-        <v>8408723.8795999978</v>
+        <v>2339528.8654999975</v>
       </c>
       <c r="R28" s="11">
-        <v>34.999999999999901</v>
+        <v>40.999999999999879</v>
       </c>
       <c r="S28" s="11">
-        <v>4502</v>
+        <v>960.99999999999955</v>
       </c>
       <c r="T28" s="11">
-        <v>19397519.885310002</v>
+        <v>507575.87836999819</v>
       </c>
       <c r="U28" s="11">
-        <v>-541</v>
+        <v>-126</v>
       </c>
     </row>
     <row r="29" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A29" s="11">
-        <v>4722000</v>
+        <v>36648000</v>
       </c>
       <c r="B29" s="11">
-        <v>2015</v>
+        <v>2018</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="D29" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E29" s="11">
-        <v>64841.999999999993</v>
+        <v>15277.999999999991</v>
       </c>
       <c r="F29" s="11">
-        <v>15028.999999999996</v>
+        <v>2241.9999999999986</v>
       </c>
       <c r="G29" s="11">
-        <v>25869.387780000001</v>
+        <v>18928.538</v>
       </c>
       <c r="H29" s="11">
-        <v>17235.499999999989</v>
+        <v>5624.599999999994</v>
       </c>
       <c r="I29" s="11">
-        <v>1123.9999999999986</v>
+        <v>253.99999999999974</v>
       </c>
       <c r="J29" s="11">
-        <v>866008.93850999954</v>
+        <v>305353.16715999978</v>
       </c>
       <c r="K29" s="11">
-        <v>23.8</v>
+        <v>28.41</v>
       </c>
       <c r="L29" s="11">
-        <v>124.99999999999919</v>
+        <v>54.999999999999609</v>
       </c>
       <c r="M29" s="11">
-        <v>194.99999999999915</v>
+        <v>34.999999999999837</v>
       </c>
       <c r="N29" s="11">
-        <v>235.39999999999975</v>
+        <v>982.89999999999884</v>
       </c>
       <c r="O29" s="11">
-        <v>2168.999999999995</v>
+        <v>22820.999999999982</v>
       </c>
       <c r="P29" s="11">
-        <v>22439.059999999987</v>
+        <v>13234.999999999989</v>
       </c>
       <c r="Q29" s="11">
-        <v>259751.15039999882</v>
+        <v>1244565.0463999989</v>
       </c>
       <c r="R29" s="11">
-        <v>11.999999999999948</v>
+        <v>24.999999999999929</v>
       </c>
       <c r="S29" s="11">
-        <v>3210.9999999999995</v>
+        <v>693.99999999999932</v>
       </c>
       <c r="T29" s="11">
-        <v>9430951.7147999946</v>
+        <v>3344506.7167999977</v>
       </c>
       <c r="U29" s="11">
-        <v>-192</v>
+        <v>-61</v>
       </c>
     </row>
     <row r="30" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A30" s="11">
-        <v>7726000</v>
+        <v>37602000</v>
       </c>
       <c r="B30" s="11">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>46</v>
+        <v>65</v>
       </c>
       <c r="D30" s="11">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E30" s="11">
-        <v>64100</v>
+        <v>9624.9999999999891</v>
       </c>
       <c r="F30" s="11">
-        <v>9192</v>
+        <v>1255.9999999999986</v>
       </c>
       <c r="G30" s="11">
-        <v>21205.026720000002</v>
+        <v>16376.46312</v>
       </c>
       <c r="H30" s="11">
-        <v>59994</v>
+        <v>6331.8999999999915</v>
       </c>
       <c r="I30" s="11">
-        <v>1042.9999999999993</v>
+        <v>135.99999999999977</v>
       </c>
       <c r="J30" s="11">
-        <v>1194600.3487199994</v>
+        <v>158372.48895999984</v>
       </c>
       <c r="K30" s="11">
-        <v>24.81</v>
+        <v>25.4</v>
       </c>
       <c r="L30" s="11">
-        <v>140.99999999999912</v>
+        <v>45.999999999999659</v>
       </c>
       <c r="M30" s="11">
-        <v>92.999999999999559</v>
+        <v>8.9999999999999467</v>
       </c>
       <c r="N30" s="11">
-        <v>563.59999999999923</v>
+        <v>169.29999999999961</v>
       </c>
       <c r="O30" s="11">
-        <v>35895.999999999993</v>
+        <v>61603.99999999992</v>
       </c>
       <c r="P30" s="11">
-        <v>57654.419999999991</v>
+        <v>13867.999999999985</v>
       </c>
       <c r="Q30" s="11">
-        <v>8271274.1760000018</v>
+        <v>611275.27679999929</v>
       </c>
       <c r="R30" s="11">
-        <v>36.999999999999908</v>
+        <v>31.99999999999989</v>
       </c>
       <c r="S30" s="11">
-        <v>3089.9999999999995</v>
+        <v>405.99999999999937</v>
       </c>
       <c r="T30" s="11">
-        <v>7029925.2345599988</v>
+        <v>85781.077479999847</v>
       </c>
       <c r="U30" s="11">
-        <v>-300</v>
+        <v>-75</v>
       </c>
     </row>
     <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="11">
+        <v>37609000</v>
+      </c>
+      <c r="B31" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="11">
+        <v>2</v>
+      </c>
+      <c r="E31" s="11">
+        <v>7424.9999999999973</v>
+      </c>
+      <c r="F31" s="11">
+        <v>1293</v>
+      </c>
+      <c r="G31" s="11">
+        <v>16443.209169999991</v>
+      </c>
+      <c r="H31" s="11">
+        <v>4607.6999999999971</v>
+      </c>
+      <c r="I31" s="11">
+        <v>119.99999999999987</v>
+      </c>
+      <c r="J31" s="11">
+        <v>219599.7193099999</v>
+      </c>
+      <c r="K31" s="11">
+        <v>27.9</v>
+      </c>
+      <c r="L31" s="11">
+        <v>20.999999999999858</v>
+      </c>
+      <c r="M31" s="11">
+        <v>17.999999999999915</v>
+      </c>
+      <c r="N31" s="11">
+        <v>153.79999999999984</v>
+      </c>
+      <c r="O31" s="11">
+        <v>16620.999999999989</v>
+      </c>
+      <c r="P31" s="11">
+        <v>11932.299999999996</v>
+      </c>
+      <c r="Q31" s="11">
+        <v>742537.84159999969</v>
+      </c>
+      <c r="R31" s="11">
+        <v>14.999999999999963</v>
+      </c>
+      <c r="S31" s="11">
+        <v>440.99999999999977</v>
+      </c>
+      <c r="T31" s="11">
+        <v>123348.75611999938</v>
+      </c>
+      <c r="U31" s="11">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A32" s="11">
+        <v>1641000</v>
+      </c>
+      <c r="B32" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="11">
+        <v>3</v>
+      </c>
+      <c r="E32" s="11">
+        <v>4183.9999999999918</v>
+      </c>
+      <c r="F32" s="11">
+        <v>788.99999999999841</v>
+      </c>
+      <c r="G32" s="11">
+        <v>19068.8688</v>
+      </c>
+      <c r="H32" s="11">
+        <v>1820.9999999999964</v>
+      </c>
+      <c r="I32" s="11">
+        <v>79.999999999999787</v>
+      </c>
+      <c r="J32" s="11">
+        <v>57968.611199999868</v>
+      </c>
+      <c r="K32" s="11">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="L32" s="11">
+        <v>12.999999999999892</v>
+      </c>
+      <c r="M32" s="11">
+        <v>1.9999999999999847</v>
+      </c>
+      <c r="N32" s="11">
+        <v>81.399999999999764</v>
+      </c>
+      <c r="O32" s="11">
+        <v>32010.999999999935</v>
+      </c>
+      <c r="P32" s="11">
+        <v>1244.4599999999969</v>
+      </c>
+      <c r="Q32" s="11">
+        <v>838591.639199998</v>
+      </c>
+      <c r="R32" s="11">
+        <v>9.9999999999999591</v>
+      </c>
+      <c r="S32" s="11">
+        <v>251.99999999999952</v>
+      </c>
+      <c r="T32" s="11">
+        <v>750105.80711999815</v>
+      </c>
+      <c r="U32" s="11">
+        <v>-76</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A33" s="5">
+        <v>52623000</v>
+      </c>
+      <c r="B33" s="6">
+        <v>2018</v>
+      </c>
+      <c r="C33" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D33" s="6">
+        <v>3</v>
+      </c>
+      <c r="E33" s="11">
+        <v>25263.999999999989</v>
+      </c>
+      <c r="F33" s="11">
+        <v>4126.9999999999991</v>
+      </c>
+      <c r="G33" s="6">
+        <v>20441.322639999999</v>
+      </c>
+      <c r="H33" s="11">
+        <v>17070.69999999999</v>
+      </c>
+      <c r="I33" s="11">
+        <v>27.999999999999929</v>
+      </c>
+      <c r="J33" s="11">
+        <v>268457.68935999984</v>
+      </c>
+      <c r="K33" s="6">
+        <v>21.79</v>
+      </c>
+      <c r="L33" s="11">
+        <v>73.999999999999488</v>
+      </c>
+      <c r="M33" s="11">
+        <v>69.999999999999687</v>
+      </c>
+      <c r="N33" s="11">
+        <v>202.59999999999971</v>
+      </c>
+      <c r="O33" s="11">
+        <v>314708.99999999988</v>
+      </c>
+      <c r="P33" s="11">
+        <v>18979.989999999991</v>
+      </c>
+      <c r="Q33" s="11">
+        <v>3873762.5743999979</v>
+      </c>
+      <c r="R33" s="11">
+        <v>28.999999999999932</v>
+      </c>
+      <c r="S33" s="11">
+        <v>1107.9999999999998</v>
+      </c>
+      <c r="T33" s="11">
+        <v>3584846.1060399981</v>
+      </c>
+      <c r="U33" s="11">
+        <v>-164</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="11">
+        <v>18652000</v>
+      </c>
+      <c r="B34" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C34" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="11">
+        <v>3</v>
+      </c>
+      <c r="E34" s="11">
+        <v>17569.999999999989</v>
+      </c>
+      <c r="F34" s="11">
+        <v>1887.9999999999989</v>
+      </c>
+      <c r="G34" s="11">
+        <v>18376.923200000001</v>
+      </c>
+      <c r="H34" s="11">
+        <v>8486.1999999999953</v>
+      </c>
+      <c r="I34" s="11">
+        <v>234.99999999999972</v>
+      </c>
+      <c r="J34" s="11">
+        <v>341592.53969999967</v>
+      </c>
+      <c r="K34" s="11">
+        <v>26.3</v>
+      </c>
+      <c r="L34" s="11">
+        <v>155.99999999999895</v>
+      </c>
+      <c r="M34" s="11">
+        <v>56.999999999999723</v>
+      </c>
+      <c r="N34" s="11">
+        <v>389.39999999999952</v>
+      </c>
+      <c r="O34" s="11">
+        <v>182951.9999999998</v>
+      </c>
+      <c r="P34" s="11">
+        <v>19100.999999999978</v>
+      </c>
+      <c r="Q34" s="11">
+        <v>2366184.0724999984</v>
+      </c>
+      <c r="R34" s="11">
+        <v>24.999999999999932</v>
+      </c>
+      <c r="S34" s="11">
+        <v>790.99999999999943</v>
+      </c>
+      <c r="T34" s="11">
+        <v>322435.87408999965</v>
+      </c>
+      <c r="U34" s="11">
+        <v>-188</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A35" s="11">
+        <v>22712000</v>
+      </c>
+      <c r="B35" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C35" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D35" s="11">
+        <v>3</v>
+      </c>
+      <c r="E35" s="11">
+        <v>120926</v>
+      </c>
+      <c r="F35" s="11">
+        <v>20037.999999999996</v>
+      </c>
+      <c r="G35" s="11">
+        <v>25152.816680000011</v>
+      </c>
+      <c r="H35" s="11">
+        <v>72911.599999999991</v>
+      </c>
+      <c r="I35" s="11">
+        <v>2549.9999999999977</v>
+      </c>
+      <c r="J35" s="11">
+        <v>4713511.9352799999</v>
+      </c>
+      <c r="K35" s="11">
+        <v>29.9</v>
+      </c>
+      <c r="L35" s="11">
+        <v>195.99999999999872</v>
+      </c>
+      <c r="M35" s="11">
+        <v>248.99999999999895</v>
+      </c>
+      <c r="N35" s="11">
+        <v>1123.1999999999985</v>
+      </c>
+      <c r="O35" s="11">
+        <v>1264806.9999999993</v>
+      </c>
+      <c r="P35" s="11">
+        <v>104307.92999999998</v>
+      </c>
+      <c r="Q35" s="11">
+        <v>2214641.3434399972</v>
+      </c>
+      <c r="R35" s="11">
+        <v>34.999999999999915</v>
+      </c>
+      <c r="S35" s="11">
+        <v>6308.9999999999991</v>
+      </c>
+      <c r="T35" s="11">
+        <v>26988496.705479994</v>
+      </c>
+      <c r="U35" s="11">
+        <v>-483</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A36" s="11">
+        <v>53725000</v>
+      </c>
+      <c r="B36" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C36" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" s="11">
+        <v>3</v>
+      </c>
+      <c r="E36" s="11">
+        <v>50473.999999999993</v>
+      </c>
+      <c r="F36" s="11">
+        <v>8680.9999999999982</v>
+      </c>
+      <c r="G36" s="11">
+        <v>19397.3076</v>
+      </c>
+      <c r="H36" s="11">
+        <v>32935.899999999994</v>
+      </c>
+      <c r="I36" s="11">
+        <v>1673.9999999999982</v>
+      </c>
+      <c r="J36" s="11">
+        <v>1330729.4930399999</v>
+      </c>
+      <c r="K36" s="11">
+        <v>25.1</v>
+      </c>
+      <c r="L36" s="11">
+        <v>158.99999999999895</v>
+      </c>
+      <c r="M36" s="11">
+        <v>184.99999999999918</v>
+      </c>
+      <c r="N36" s="11">
+        <v>386.19999999999953</v>
+      </c>
+      <c r="O36" s="11">
+        <v>810919.99999999977</v>
+      </c>
+      <c r="P36" s="11">
+        <v>182696</v>
+      </c>
+      <c r="Q36" s="11">
+        <v>5519372.8535999991</v>
+      </c>
+      <c r="R36" s="11">
+        <v>38.999999999999908</v>
+      </c>
+      <c r="S36" s="11">
+        <v>2499.9999999999995</v>
+      </c>
+      <c r="T36" s="11">
+        <v>3749387.5015199976</v>
+      </c>
+      <c r="U36" s="11">
+        <v>-523</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A37" s="11">
+        <v>54654000</v>
+      </c>
+      <c r="B37" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C37" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37" s="11">
+        <v>3</v>
+      </c>
+      <c r="E37" s="11">
+        <v>8854.9999999999945</v>
+      </c>
+      <c r="F37" s="11">
+        <v>1278.9999999999998</v>
+      </c>
+      <c r="G37" s="11">
+        <v>19406.97712</v>
+      </c>
+      <c r="H37" s="11">
+        <v>2585.4999999999986</v>
+      </c>
+      <c r="I37" s="11">
+        <v>281.99999999999972</v>
+      </c>
+      <c r="J37" s="11">
+        <v>415783.74875999975</v>
+      </c>
+      <c r="K37" s="11">
+        <v>37.299999999999997</v>
+      </c>
+      <c r="L37" s="11">
+        <v>16.999999999999883</v>
+      </c>
+      <c r="M37" s="11">
+        <v>15.999999999999924</v>
+      </c>
+      <c r="N37" s="11">
+        <v>410.99999999999943</v>
+      </c>
+      <c r="O37" s="11">
+        <v>89147.199999999983</v>
+      </c>
+      <c r="P37" s="11">
+        <v>7671.9999999999945</v>
+      </c>
+      <c r="Q37" s="11">
+        <v>2684633.8327999976</v>
+      </c>
+      <c r="R37" s="11">
+        <v>18.999999999999947</v>
+      </c>
+      <c r="S37" s="11">
+        <v>376.99999999999977</v>
+      </c>
+      <c r="T37" s="11">
+        <v>366113.43699999945</v>
+      </c>
+      <c r="U37" s="11">
+        <v>-75</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A38" s="11">
+        <v>60608000</v>
+      </c>
+      <c r="B38" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C38" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D38" s="11">
+        <v>3</v>
+      </c>
+      <c r="E38" s="11">
+        <v>17833.999999999989</v>
+      </c>
+      <c r="F38" s="11">
+        <v>2086.9999999999986</v>
+      </c>
+      <c r="G38" s="11">
+        <v>17100.190320000002</v>
+      </c>
+      <c r="H38" s="11">
+        <v>6433.2999999999956</v>
+      </c>
+      <c r="I38" s="11">
+        <v>210.99999999999983</v>
+      </c>
+      <c r="J38" s="11">
+        <v>267414.72803999996</v>
+      </c>
+      <c r="K38" s="11">
+        <v>32.08</v>
+      </c>
+      <c r="L38" s="11">
+        <v>84.999999999999403</v>
+      </c>
+      <c r="M38" s="11">
+        <v>54.999999999999737</v>
+      </c>
+      <c r="N38" s="11">
+        <v>537.09999999999934</v>
+      </c>
+      <c r="O38" s="11">
+        <v>297093.99999999983</v>
+      </c>
+      <c r="P38" s="11">
+        <v>16965.999999999989</v>
+      </c>
+      <c r="Q38" s="11">
+        <v>2513116.4799999981</v>
+      </c>
+      <c r="R38" s="11">
+        <v>39.999999999999886</v>
+      </c>
+      <c r="S38" s="11">
+        <v>810.99999999999943</v>
+      </c>
+      <c r="T38" s="11">
+        <v>1568477.3210399991</v>
+      </c>
+      <c r="U38" s="11">
+        <v>-115</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A39" s="11">
+        <v>60613000</v>
+      </c>
+      <c r="B39" s="11">
+        <v>2014</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="11">
+        <v>3</v>
+      </c>
+      <c r="E39" s="11">
+        <v>22243.999999999989</v>
+      </c>
+      <c r="F39" s="11">
+        <v>2688.9999999999995</v>
+      </c>
+      <c r="G39" s="11">
+        <v>18039.2</v>
+      </c>
+      <c r="H39" s="11">
+        <v>9015.3999999999905</v>
+      </c>
+      <c r="I39" s="11">
+        <v>204.99999999999977</v>
+      </c>
+      <c r="J39" s="11">
+        <v>229243.99999999988</v>
+      </c>
+      <c r="K39" s="11">
+        <v>21.93</v>
+      </c>
+      <c r="L39" s="11">
+        <v>70.999999999999531</v>
+      </c>
+      <c r="M39" s="11">
+        <v>30.999999999999837</v>
+      </c>
+      <c r="N39" s="11">
+        <v>98.599999999999739</v>
+      </c>
+      <c r="O39" s="11">
+        <v>279415.99999999988</v>
+      </c>
+      <c r="P39" s="11">
+        <v>4925.9999999999973</v>
+      </c>
+      <c r="Q39" s="11">
+        <v>3402333.9999999972</v>
+      </c>
+      <c r="R39" s="11">
+        <v>20.999999999999943</v>
+      </c>
+      <c r="S39" s="11">
+        <v>978.9999999999992</v>
+      </c>
+      <c r="T39" s="11">
+        <v>602011.49999999895</v>
+      </c>
+      <c r="U39" s="11">
+        <v>-107</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A40" s="11">
+        <v>60619000</v>
+      </c>
+      <c r="B40" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D40" s="11">
+        <v>3</v>
+      </c>
+      <c r="E40" s="11">
+        <v>35142.999999999993</v>
+      </c>
+      <c r="F40" s="11">
+        <v>4696.9999999999991</v>
+      </c>
+      <c r="G40" s="11">
+        <v>19598.053680000001</v>
+      </c>
+      <c r="H40" s="11">
+        <v>27639.699999999986</v>
+      </c>
+      <c r="I40" s="11">
+        <v>219.99999999999972</v>
+      </c>
+      <c r="J40" s="11">
+        <v>794230.03655999957</v>
+      </c>
+      <c r="K40" s="11">
+        <v>22.85</v>
+      </c>
+      <c r="L40" s="11">
+        <v>125.9999999999992</v>
+      </c>
+      <c r="M40" s="11">
+        <v>95.999999999999559</v>
+      </c>
+      <c r="N40" s="11">
+        <v>536.7999999999995</v>
+      </c>
+      <c r="O40" s="11">
+        <v>378688.00000000006</v>
+      </c>
+      <c r="P40" s="11">
+        <v>9071.9999999999927</v>
+      </c>
+      <c r="Q40" s="11">
+        <v>8906174.1647999976</v>
+      </c>
+      <c r="R40" s="11">
+        <v>18.999999999999954</v>
+      </c>
+      <c r="S40" s="11">
+        <v>1432.9999999999993</v>
+      </c>
+      <c r="T40" s="11">
+        <v>3135363.9667199976</v>
+      </c>
+      <c r="U40" s="11">
+        <v>-217</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="11">
+        <v>75655000</v>
+      </c>
+      <c r="B41" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="D41" s="11">
+        <v>3</v>
+      </c>
+      <c r="E41" s="11">
+        <v>31885.999999999989</v>
+      </c>
+      <c r="F41" s="11">
+        <v>5471</v>
+      </c>
+      <c r="G41" s="11">
+        <v>24531.17148999999</v>
+      </c>
+      <c r="H41" s="11">
+        <v>9993.7999999999938</v>
+      </c>
+      <c r="I41" s="11">
+        <v>349.99999999999949</v>
+      </c>
+      <c r="J41" s="11">
+        <v>135007.86686999991</v>
+      </c>
+      <c r="K41" s="11">
+        <v>22.88</v>
+      </c>
+      <c r="L41" s="11">
+        <v>126.99999999999916</v>
+      </c>
+      <c r="M41" s="11">
+        <v>24.999999999999879</v>
+      </c>
+      <c r="N41" s="11">
+        <v>357.59999999999962</v>
+      </c>
+      <c r="O41" s="11">
+        <v>532404</v>
+      </c>
+      <c r="P41" s="11">
+        <v>27023.969999999979</v>
+      </c>
+      <c r="Q41" s="11">
+        <v>9174521.0092999972</v>
+      </c>
+      <c r="R41" s="11">
+        <v>29.999999999999922</v>
+      </c>
+      <c r="S41" s="11">
+        <v>2096.9999999999995</v>
+      </c>
+      <c r="T41" s="11">
+        <v>17566777.100189991</v>
+      </c>
+      <c r="U41" s="11">
+        <v>-150</v>
+      </c>
+    </row>
+    <row r="42" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A42" s="11">
+        <v>1706000</v>
+      </c>
+      <c r="B42" s="11">
+        <v>2014</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="D42" s="11">
+        <v>4</v>
+      </c>
+      <c r="E42" s="11">
+        <v>47578.999999999993</v>
+      </c>
+      <c r="F42" s="11">
+        <v>11633.999999999998</v>
+      </c>
+      <c r="G42" s="11">
+        <v>24954.799999999999</v>
+      </c>
+      <c r="H42" s="11">
+        <v>37654.999999999985</v>
+      </c>
+      <c r="I42" s="11">
+        <v>898.99999999999943</v>
+      </c>
+      <c r="J42" s="11">
+        <v>1350652</v>
+      </c>
+      <c r="K42" s="11">
+        <v>23.5</v>
+      </c>
+      <c r="L42" s="11">
+        <v>69.999999999999503</v>
+      </c>
+      <c r="M42" s="11">
+        <v>171.99999999999929</v>
+      </c>
+      <c r="N42" s="11">
+        <v>201.0999999999998</v>
+      </c>
+      <c r="O42" s="11">
+        <v>14598.999999999955</v>
+      </c>
+      <c r="P42" s="11">
+        <v>16640.329999999991</v>
+      </c>
+      <c r="Q42" s="11">
+        <v>232538.99999999936</v>
+      </c>
+      <c r="R42" s="11">
+        <v>10.999999999999968</v>
+      </c>
+      <c r="S42" s="11">
+        <v>2737.9999999999991</v>
+      </c>
+      <c r="T42" s="11">
+        <v>32418265.199999992</v>
+      </c>
+      <c r="U42" s="11">
+        <v>-199</v>
+      </c>
+    </row>
+    <row r="43" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A43" s="11">
+        <v>5634000</v>
+      </c>
+      <c r="B43" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D43" s="11">
+        <v>4</v>
+      </c>
+      <c r="E43" s="11">
+        <v>28553</v>
+      </c>
+      <c r="F43" s="11">
+        <v>6935.9999999999991</v>
+      </c>
+      <c r="G43" s="11">
+        <v>34591.617420000002</v>
+      </c>
+      <c r="H43" s="11">
+        <v>13338.599999999997</v>
+      </c>
+      <c r="I43" s="11">
+        <v>494.99999999999943</v>
+      </c>
+      <c r="J43" s="11">
+        <v>139069.51849999998</v>
+      </c>
+      <c r="K43" s="11">
+        <v>22.9</v>
+      </c>
+      <c r="L43" s="11">
+        <v>76.999999999999531</v>
+      </c>
+      <c r="M43" s="11">
+        <v>124.99999999999952</v>
+      </c>
+      <c r="N43" s="11">
+        <v>169.2999999999999</v>
+      </c>
+      <c r="O43" s="11">
+        <v>19625.999999999978</v>
+      </c>
+      <c r="P43" s="11">
+        <v>10308.619999999997</v>
+      </c>
+      <c r="Q43" s="11">
+        <v>429026.07919999963</v>
+      </c>
+      <c r="R43" s="11">
+        <v>11.999999999999972</v>
+      </c>
+      <c r="S43" s="11">
+        <v>2062</v>
+      </c>
+      <c r="T43" s="11">
+        <v>13315114.298400002</v>
+      </c>
+      <c r="U43" s="11">
+        <v>-310</v>
+      </c>
+    </row>
+    <row r="44" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A44" s="11">
+        <v>25738000</v>
+      </c>
+      <c r="B44" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D44" s="11">
+        <v>4</v>
+      </c>
+      <c r="E44" s="11">
+        <v>79746</v>
+      </c>
+      <c r="F44" s="11">
+        <v>16843</v>
+      </c>
+      <c r="G44" s="11">
+        <v>35339.908029999999</v>
+      </c>
+      <c r="H44" s="11">
+        <v>73491.599999999991</v>
+      </c>
+      <c r="I44" s="11">
+        <v>2645.9999999999991</v>
+      </c>
+      <c r="J44" s="11">
+        <v>2006637.54357</v>
+      </c>
+      <c r="K44" s="11">
+        <v>24.6</v>
+      </c>
+      <c r="L44" s="11">
+        <v>164.99999999999895</v>
+      </c>
+      <c r="M44" s="11">
+        <v>232.99999999999903</v>
+      </c>
+      <c r="N44" s="11">
+        <v>188.49999999999935</v>
+      </c>
+      <c r="O44" s="11">
+        <v>1592.9999999998829</v>
+      </c>
+      <c r="P44" s="11">
+        <v>23405.999999999971</v>
+      </c>
+      <c r="Q44" s="11">
+        <v>313421.54109999974</v>
+      </c>
+      <c r="R44" s="11">
+        <v>7.9999999999999671</v>
+      </c>
+      <c r="S44" s="11">
+        <v>5536</v>
+      </c>
+      <c r="T44" s="11">
+        <v>37484508.028549999</v>
+      </c>
+      <c r="U44" s="11">
+        <v>-236</v>
+      </c>
+    </row>
+    <row r="45" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A45" s="11">
+        <v>36704000</v>
+      </c>
+      <c r="B45" s="11">
+        <v>2018</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="D45" s="11">
+        <v>4</v>
+      </c>
+      <c r="E45" s="11">
+        <v>57687</v>
+      </c>
+      <c r="F45" s="11">
+        <v>11292</v>
+      </c>
+      <c r="G45" s="11">
+        <v>23845.612519999999</v>
+      </c>
+      <c r="H45" s="11">
+        <v>33352.599999999984</v>
+      </c>
+      <c r="I45" s="11">
+        <v>1263.9999999999993</v>
+      </c>
+      <c r="J45" s="11">
+        <v>1716389.6294400003</v>
+      </c>
+      <c r="K45" s="11">
+        <v>29.41</v>
+      </c>
+      <c r="L45" s="11">
+        <v>70.999999999999531</v>
+      </c>
+      <c r="M45" s="11">
+        <v>230.99999999999903</v>
+      </c>
+      <c r="N45" s="11">
+        <v>233.29999999999964</v>
+      </c>
+      <c r="O45" s="11">
+        <v>383.99999999993003</v>
+      </c>
+      <c r="P45" s="11">
+        <v>37867.999999999993</v>
+      </c>
+      <c r="Q45" s="11">
+        <v>322803.30879999872</v>
+      </c>
+      <c r="R45" s="11">
+        <v>0.99999999999999423</v>
+      </c>
+      <c r="S45" s="11">
+        <v>2426.9999999999995</v>
+      </c>
+      <c r="T45" s="11">
+        <v>32139963.465120006</v>
+      </c>
+      <c r="U45" s="11">
+        <v>-472</v>
+      </c>
+    </row>
+    <row r="46" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A46" s="11">
+        <v>65753000</v>
+      </c>
+      <c r="B46" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C46" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D46" s="11">
+        <v>4</v>
+      </c>
+      <c r="E46" s="11">
+        <v>141368</v>
+      </c>
+      <c r="F46" s="11">
+        <v>33537</v>
+      </c>
+      <c r="G46" s="11">
+        <v>27126.22694</v>
+      </c>
+      <c r="H46" s="11">
+        <v>58200</v>
+      </c>
+      <c r="I46" s="11">
+        <v>2876.9999999999973</v>
+      </c>
+      <c r="J46" s="11">
+        <v>10541809.012150001</v>
+      </c>
+      <c r="K46" s="11">
+        <v>31.4</v>
+      </c>
+      <c r="L46" s="11">
+        <v>306.99999999999795</v>
+      </c>
+      <c r="M46" s="11">
+        <v>198.99999999999918</v>
+      </c>
+      <c r="N46" s="11">
+        <v>474.69999999999879</v>
+      </c>
+      <c r="O46" s="11">
+        <v>595570.99999999977</v>
+      </c>
+      <c r="P46" s="11">
+        <v>59771.349999999991</v>
+      </c>
+      <c r="Q46" s="11">
+        <v>1632754.1328999992</v>
+      </c>
+      <c r="R46" s="11">
+        <v>90.999999999999801</v>
+      </c>
+      <c r="S46" s="11">
+        <v>9371</v>
+      </c>
+      <c r="T46" s="11">
+        <v>79424596.731749997</v>
+      </c>
+      <c r="U46" s="11">
+        <v>-402</v>
+      </c>
+    </row>
+    <row r="47" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A47" s="11">
+        <v>3612000</v>
+      </c>
+      <c r="B47" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C47" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="11">
+        <v>4</v>
+      </c>
+      <c r="E47" s="11">
+        <v>59753</v>
+      </c>
+      <c r="F47" s="11">
+        <v>18176.000000000004</v>
+      </c>
+      <c r="G47" s="11">
+        <v>23163.327300000001</v>
+      </c>
+      <c r="H47" s="11">
+        <v>31730.199999999993</v>
+      </c>
+      <c r="I47" s="11">
+        <v>917.9999999999992</v>
+      </c>
+      <c r="J47" s="11">
+        <v>452989.22927999997</v>
+      </c>
+      <c r="K47" s="11">
+        <v>25.9</v>
+      </c>
+      <c r="L47" s="11">
+        <v>95.999999999999417</v>
+      </c>
+      <c r="M47" s="11">
+        <v>288.99999999999881</v>
+      </c>
+      <c r="N47" s="11">
+        <v>587.09999999999934</v>
+      </c>
+      <c r="O47" s="11">
+        <v>126725.99999999991</v>
+      </c>
+      <c r="P47" s="11">
+        <v>185639.8</v>
+      </c>
+      <c r="Q47" s="11">
+        <v>14552482.084499996</v>
+      </c>
+      <c r="R47" s="11">
+        <v>24.99999999999995</v>
+      </c>
+      <c r="S47" s="11">
+        <v>2873</v>
+      </c>
+      <c r="T47" s="11">
+        <v>36429440.007749997</v>
+      </c>
+      <c r="U47" s="11">
+        <v>-268</v>
+      </c>
+    </row>
+    <row r="48" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A48" s="11">
+        <v>4647000</v>
+      </c>
+      <c r="B48" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C48" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="D48" s="11">
+        <v>4</v>
+      </c>
+      <c r="E48" s="11">
+        <v>29720.999999999989</v>
+      </c>
+      <c r="F48" s="11">
+        <v>7325.9999999999973</v>
+      </c>
+      <c r="G48" s="11">
+        <v>26937.748680000001</v>
+      </c>
+      <c r="H48" s="11">
+        <v>34428.699999999997</v>
+      </c>
+      <c r="I48" s="11">
+        <v>295.99999999999977</v>
+      </c>
+      <c r="J48" s="11">
+        <v>874914.97008999961</v>
+      </c>
+      <c r="K48" s="11">
+        <v>27.8</v>
+      </c>
+      <c r="L48" s="11">
+        <v>71.999999999999531</v>
+      </c>
+      <c r="M48" s="11">
+        <v>61.99999999999973</v>
+      </c>
+      <c r="N48" s="11">
+        <v>326.69999999999953</v>
+      </c>
+      <c r="O48" s="11">
+        <v>242107.99999999991</v>
+      </c>
+      <c r="P48" s="11">
+        <v>22680.459999999981</v>
+      </c>
+      <c r="Q48" s="11">
+        <v>1912868.0863999992</v>
+      </c>
+      <c r="R48" s="11">
+        <v>33.999999999999929</v>
+      </c>
+      <c r="S48" s="11">
+        <v>2005.9999999999991</v>
+      </c>
+      <c r="T48" s="11">
+        <v>10106972.212469997</v>
+      </c>
+      <c r="U48" s="11">
+        <v>-135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A49" s="11">
+        <v>8612000</v>
+      </c>
+      <c r="B49" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C49" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="D49" s="11">
+        <v>4</v>
+      </c>
+      <c r="E49" s="11">
+        <v>33916.999999999993</v>
+      </c>
+      <c r="F49" s="11">
+        <v>8685.9999999999982</v>
+      </c>
+      <c r="G49" s="11">
+        <v>42094.553160000003</v>
+      </c>
+      <c r="H49" s="11">
+        <v>24708.299999999988</v>
+      </c>
+      <c r="I49" s="11">
+        <v>784.99999999999943</v>
+      </c>
+      <c r="J49" s="11">
+        <v>235916.11684999964</v>
+      </c>
+      <c r="K49" s="11">
+        <v>24.1</v>
+      </c>
+      <c r="L49" s="11">
+        <v>95.999999999999361</v>
+      </c>
+      <c r="M49" s="11">
+        <v>89.999999999999616</v>
+      </c>
+      <c r="N49" s="11">
+        <v>203.39999999999958</v>
+      </c>
+      <c r="O49" s="11">
+        <v>5408.9999999999827</v>
+      </c>
+      <c r="P49" s="11">
+        <v>10979.999999999987</v>
+      </c>
+      <c r="Q49" s="11">
+        <v>284662.70919999992</v>
+      </c>
+      <c r="R49" s="11">
+        <v>22.999999999999936</v>
+      </c>
+      <c r="S49" s="11">
+        <v>2374.9999999999995</v>
+      </c>
+      <c r="T49" s="11">
+        <v>19503601.519479997</v>
+      </c>
+      <c r="U49" s="11">
+        <v>-235</v>
+      </c>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A50" s="11">
+        <v>8614000</v>
+      </c>
+      <c r="B50" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="D50" s="11">
+        <v>4</v>
+      </c>
+      <c r="E50" s="11">
+        <v>24095.999999999989</v>
+      </c>
+      <c r="F50" s="11">
+        <v>7612.9999999999955</v>
+      </c>
+      <c r="G50" s="11">
+        <v>46334.301520000001</v>
+      </c>
+      <c r="H50" s="11">
+        <v>16250.099999999991</v>
+      </c>
+      <c r="I50" s="11">
+        <v>234.99999999999969</v>
+      </c>
+      <c r="J50" s="11">
+        <v>32648.816119999738</v>
+      </c>
+      <c r="K50" s="11">
+        <v>30</v>
+      </c>
+      <c r="L50" s="11">
+        <v>79.999999999999446</v>
+      </c>
+      <c r="M50" s="11">
+        <v>107.9999999999995</v>
+      </c>
+      <c r="N50" s="11">
+        <v>427.19999999999948</v>
+      </c>
+      <c r="O50" s="11">
+        <v>4131.9999999999918</v>
+      </c>
+      <c r="P50" s="11">
+        <v>8392.9999999999873</v>
+      </c>
+      <c r="Q50" s="11">
+        <v>188124.7558999997</v>
+      </c>
+      <c r="R50" s="11">
+        <v>17.99999999999995</v>
+      </c>
+      <c r="S50" s="11">
+        <v>2056.9999999999991</v>
+      </c>
+      <c r="T50" s="11">
+        <v>14058344.947639994</v>
+      </c>
+      <c r="U50" s="11">
+        <v>-180</v>
+      </c>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A51" s="11">
+        <v>36624000</v>
+      </c>
+      <c r="B51" s="11">
+        <v>2016</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D51" s="11">
+        <v>4</v>
+      </c>
+      <c r="E51" s="11">
+        <v>22690.999999999989</v>
+      </c>
+      <c r="F51" s="11">
+        <v>4205.9999999999991</v>
+      </c>
+      <c r="G51" s="11">
+        <v>19389.94642</v>
+      </c>
+      <c r="H51" s="11">
+        <v>11099.749999999991</v>
+      </c>
+      <c r="I51" s="11">
+        <v>433.9999999999996</v>
+      </c>
+      <c r="J51" s="11">
+        <v>788066.8027999996</v>
+      </c>
+      <c r="K51" s="11">
+        <v>24.92</v>
+      </c>
+      <c r="L51" s="11">
+        <v>97.999999999999346</v>
+      </c>
+      <c r="M51" s="11">
+        <v>39.999999999999808</v>
+      </c>
+      <c r="N51" s="11">
+        <v>809.89999999999918</v>
+      </c>
+      <c r="O51" s="11">
+        <v>34895.999999999935</v>
+      </c>
+      <c r="P51" s="11">
+        <v>20614.999999999989</v>
+      </c>
+      <c r="Q51" s="11">
+        <v>3207835.7308999989</v>
+      </c>
+      <c r="R51" s="11">
+        <v>23.999999999999936</v>
+      </c>
+      <c r="S51" s="11">
+        <v>862.99999999999943</v>
+      </c>
+      <c r="T51" s="11">
+        <v>14660212.994809996</v>
+      </c>
+      <c r="U51" s="11">
+        <v>-190</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A52" s="11">
+        <v>1625000</v>
+      </c>
+      <c r="B52" s="11">
+        <v>2021</v>
+      </c>
+      <c r="C52" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="11">
+        <v>5</v>
+      </c>
+      <c r="E52" s="11">
+        <v>23671.999999999989</v>
+      </c>
+      <c r="F52" s="11">
+        <v>2819.9999999999991</v>
+      </c>
+      <c r="G52" s="11">
+        <v>17545.93204</v>
+      </c>
+      <c r="H52" s="11">
+        <v>16399.19999999999</v>
+      </c>
+      <c r="I52" s="11">
+        <v>346.9999999999996</v>
+      </c>
+      <c r="J52" s="11">
+        <v>573514.04293999996</v>
+      </c>
+      <c r="K52" s="11">
+        <v>28</v>
+      </c>
+      <c r="L52" s="11">
+        <v>64.999999999999574</v>
+      </c>
+      <c r="M52" s="11">
+        <v>59.999999999999716</v>
+      </c>
+      <c r="N52" s="11">
+        <v>382.49999999999949</v>
+      </c>
+      <c r="O52" s="11">
+        <v>39639.999999999935</v>
+      </c>
+      <c r="P52" s="11">
+        <v>9314.3999999999924</v>
+      </c>
+      <c r="Q52" s="11">
+        <v>3234408.7671999987</v>
+      </c>
+      <c r="R52" s="11">
+        <v>17.99999999999995</v>
+      </c>
+      <c r="S52" s="11">
+        <v>744.99999999999955</v>
+      </c>
+      <c r="T52" s="11">
+        <v>828015.21829999797</v>
+      </c>
+      <c r="U52" s="11">
+        <v>-294</v>
+      </c>
+    </row>
+    <row r="53" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A53" s="11">
+        <v>3654000</v>
+      </c>
+      <c r="B53" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C53" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="D53" s="11">
+        <v>5</v>
+      </c>
+      <c r="E53" s="11">
+        <v>116468</v>
+      </c>
+      <c r="F53" s="11">
+        <v>21239.000000000004</v>
+      </c>
+      <c r="G53" s="11">
+        <v>23604.910929999998</v>
+      </c>
+      <c r="H53" s="11">
+        <v>64664.399999999987</v>
+      </c>
+      <c r="I53" s="11">
+        <v>2076.9999999999995</v>
+      </c>
+      <c r="J53" s="11">
+        <v>4676977.1911800001</v>
+      </c>
+      <c r="K53" s="11">
+        <v>30.2</v>
+      </c>
+      <c r="L53" s="11">
+        <v>300.99999999999807</v>
+      </c>
+      <c r="M53" s="11">
+        <v>303.99999999999869</v>
+      </c>
+      <c r="N53" s="11">
+        <v>783.79999999999882</v>
+      </c>
+      <c r="O53" s="11">
+        <v>202571.00000000003</v>
+      </c>
+      <c r="P53" s="11">
+        <v>87368.909999999974</v>
+      </c>
+      <c r="Q53" s="11">
+        <v>8408723.8795999978</v>
+      </c>
+      <c r="R53" s="11">
+        <v>34.999999999999901</v>
+      </c>
+      <c r="S53" s="11">
+        <v>4502</v>
+      </c>
+      <c r="T53" s="11">
+        <v>19397519.885310002</v>
+      </c>
+      <c r="U53" s="11">
+        <v>-541</v>
+      </c>
+    </row>
+    <row r="54" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A54" s="11">
+        <v>4722000</v>
+      </c>
+      <c r="B54" s="11">
+        <v>2015</v>
+      </c>
+      <c r="C54" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="D54" s="11">
+        <v>5</v>
+      </c>
+      <c r="E54" s="11">
+        <v>64841.999999999993</v>
+      </c>
+      <c r="F54" s="11">
+        <v>15028.999999999996</v>
+      </c>
+      <c r="G54" s="11">
+        <v>25869.387780000001</v>
+      </c>
+      <c r="H54" s="11">
+        <v>17235.499999999989</v>
+      </c>
+      <c r="I54" s="11">
+        <v>1123.9999999999986</v>
+      </c>
+      <c r="J54" s="11">
+        <v>866008.93850999954</v>
+      </c>
+      <c r="K54" s="11">
+        <v>23.8</v>
+      </c>
+      <c r="L54" s="11">
+        <v>124.99999999999919</v>
+      </c>
+      <c r="M54" s="11">
+        <v>194.99999999999915</v>
+      </c>
+      <c r="N54" s="11">
+        <v>235.39999999999975</v>
+      </c>
+      <c r="O54" s="11">
+        <v>2168.999999999995</v>
+      </c>
+      <c r="P54" s="11">
+        <v>22439.059999999987</v>
+      </c>
+      <c r="Q54" s="11">
+        <v>259751.15039999882</v>
+      </c>
+      <c r="R54" s="11">
+        <v>11.999999999999948</v>
+      </c>
+      <c r="S54" s="11">
+        <v>3210.9999999999995</v>
+      </c>
+      <c r="T54" s="11">
+        <v>9430951.7147999946</v>
+      </c>
+      <c r="U54" s="11">
+        <v>-192</v>
+      </c>
+    </row>
+    <row r="55" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A55" s="11">
+        <v>7726000</v>
+      </c>
+      <c r="B55" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C55" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="D55" s="11">
+        <v>5</v>
+      </c>
+      <c r="E55" s="11">
+        <v>64100</v>
+      </c>
+      <c r="F55" s="11">
+        <v>9192</v>
+      </c>
+      <c r="G55" s="11">
+        <v>21205.026720000002</v>
+      </c>
+      <c r="H55" s="11">
+        <v>59994</v>
+      </c>
+      <c r="I55" s="11">
+        <v>1042.9999999999993</v>
+      </c>
+      <c r="J55" s="11">
+        <v>1194600.3487199994</v>
+      </c>
+      <c r="K55" s="11">
+        <v>24.81</v>
+      </c>
+      <c r="L55" s="11">
+        <v>140.99999999999912</v>
+      </c>
+      <c r="M55" s="11">
+        <v>92.999999999999559</v>
+      </c>
+      <c r="N55" s="11">
+        <v>563.59999999999923</v>
+      </c>
+      <c r="O55" s="11">
+        <v>35895.999999999993</v>
+      </c>
+      <c r="P55" s="11">
+        <v>57654.419999999991</v>
+      </c>
+      <c r="Q55" s="11">
+        <v>8271274.1760000018</v>
+      </c>
+      <c r="R55" s="11">
+        <v>36.999999999999908</v>
+      </c>
+      <c r="S55" s="11">
+        <v>3089.9999999999995</v>
+      </c>
+      <c r="T55" s="11">
+        <v>7029925.2345599988</v>
+      </c>
+      <c r="U55" s="11">
+        <v>-300</v>
+      </c>
+    </row>
+    <row r="56" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A56" s="11">
         <v>60730000</v>
       </c>
-      <c r="B31" s="11">
+      <c r="B56" s="11">
         <v>2021</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C56" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="11">
+      <c r="D56" s="11">
         <v>5</v>
       </c>
-      <c r="E31" s="11">
+      <c r="E56" s="11">
         <v>105038</v>
       </c>
-      <c r="F31" s="11">
+      <c r="F56" s="11">
         <v>11442</v>
       </c>
-      <c r="G31" s="11">
+      <c r="G56" s="11">
         <v>18218.315640000001</v>
       </c>
-      <c r="H31" s="11">
+      <c r="H56" s="11">
         <v>69421.599999999991</v>
       </c>
-      <c r="I31" s="11">
+      <c r="I56" s="11">
         <v>79.999999999999517</v>
       </c>
-      <c r="J31" s="11">
+      <c r="J56" s="11">
         <v>3389505.0556999999</v>
       </c>
-      <c r="K31" s="11">
+      <c r="K56" s="11">
         <v>21.85</v>
       </c>
-      <c r="L31" s="11">
+      <c r="L56" s="11">
         <v>164.99999999999895</v>
       </c>
-      <c r="M31" s="11">
+      <c r="M56" s="11">
         <v>248.99999999999898</v>
       </c>
-      <c r="N31" s="11">
+      <c r="N56" s="11">
         <v>369.09999999999923</v>
       </c>
-      <c r="O31" s="11">
+      <c r="O56" s="11">
         <v>18256.999999999818</v>
       </c>
-      <c r="P31" s="11">
+      <c r="P56" s="11">
         <v>57789.999999999949</v>
       </c>
-      <c r="Q31" s="11">
+      <c r="Q56" s="11">
         <v>521260.11459999764</v>
       </c>
-      <c r="R31" s="11">
+      <c r="R56" s="11">
         <v>5.9999999999999627</v>
       </c>
-      <c r="S31" s="11">
+      <c r="S56" s="11">
         <v>3403</v>
       </c>
-      <c r="T31" s="11">
+      <c r="T56" s="11">
         <v>5939939.1027600002</v>
       </c>
-      <c r="U31" s="11">
+      <c r="U56" s="11">
         <v>-429</v>
       </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A35" s="5"/>
-      <c r="B35" s="6"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-      <c r="F35" s="6"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="6"/>
-      <c r="I35" s="6"/>
-      <c r="J35" s="6"/>
-      <c r="K35" s="6"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-      <c r="N35" s="6"/>
-      <c r="O35" s="6"/>
-      <c r="P35" s="6"/>
-      <c r="Q35" s="6"/>
-      <c r="R35" s="6"/>
-      <c r="S35" s="6"/>
-      <c r="T35" s="6"/>
-      <c r="U35" s="6"/>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F36" s="6"/>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A38" s="6"/>
-      <c r="B38" s="6"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6"/>
-      <c r="E38" s="6"/>
-      <c r="F38" s="6"/>
-      <c r="G38" s="6"/>
-      <c r="H38" s="6"/>
-      <c r="I38" s="6"/>
-      <c r="J38" s="6"/>
-      <c r="K38" s="6"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-      <c r="N38" s="6"/>
-      <c r="O38" s="6"/>
-      <c r="P38" s="6"/>
-      <c r="Q38" s="6"/>
-      <c r="R38" s="6"/>
-      <c r="S38" s="6"/>
-      <c r="T38" s="6"/>
-      <c r="U38" s="6"/>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="F39" s="6"/>
-      <c r="G39" s="11"/>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11"/>
-      <c r="J39" s="11"/>
-      <c r="K39" s="11"/>
-      <c r="L39" s="11"/>
-      <c r="M39" s="11"/>
-      <c r="N39" s="11"/>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
-      <c r="Q39" s="11"/>
-      <c r="R39" s="11"/>
-      <c r="S39" s="11"/>
-      <c r="T39" s="11"/>
-      <c r="U39" s="11"/>
+    <row r="57" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A57" s="11">
+        <v>61612000</v>
+      </c>
+      <c r="B57" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C57" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D57" s="11">
+        <v>5</v>
+      </c>
+      <c r="E57" s="11">
+        <v>22677.999999999989</v>
+      </c>
+      <c r="F57" s="11">
+        <v>2547.9999999999977</v>
+      </c>
+      <c r="G57" s="11">
+        <v>18638.87111</v>
+      </c>
+      <c r="H57" s="11">
+        <v>10254.999999999993</v>
+      </c>
+      <c r="I57" s="11">
+        <v>511.99999999999943</v>
+      </c>
+      <c r="J57" s="11">
+        <v>451466.86220999988</v>
+      </c>
+      <c r="K57" s="11">
+        <v>25</v>
+      </c>
+      <c r="L57" s="11">
+        <v>83.999999999999432</v>
+      </c>
+      <c r="M57" s="11">
+        <v>32.999999999999851</v>
+      </c>
+      <c r="N57" s="11">
+        <v>265.79999999999973</v>
+      </c>
+      <c r="O57" s="11">
+        <v>14455.999999999975</v>
+      </c>
+      <c r="P57" s="11">
+        <v>35901.049999999996</v>
+      </c>
+      <c r="Q57" s="11">
+        <v>1395103.6922999984</v>
+      </c>
+      <c r="R57" s="11">
+        <v>25.999999999999936</v>
+      </c>
+      <c r="S57" s="11">
+        <v>919.99999999999955</v>
+      </c>
+      <c r="T57" s="11">
+        <v>932526.86903999816</v>
+      </c>
+      <c r="U57" s="11">
+        <v>-297</v>
+      </c>
+    </row>
+    <row r="58" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A58" s="11">
+        <v>61648000</v>
+      </c>
+      <c r="B58" s="11">
+        <v>2017</v>
+      </c>
+      <c r="C58" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="D58" s="11">
+        <v>5</v>
+      </c>
+      <c r="E58" s="11">
+        <v>17174.999999999989</v>
+      </c>
+      <c r="F58" s="11">
+        <v>2330.9999999999977</v>
+      </c>
+      <c r="G58" s="11">
+        <v>22823.19152</v>
+      </c>
+      <c r="H58" s="11">
+        <v>6715.4999999999927</v>
+      </c>
+      <c r="I58" s="11">
+        <v>244.99999999999955</v>
+      </c>
+      <c r="J58" s="11">
+        <v>235832.72977999973</v>
+      </c>
+      <c r="K58" s="11">
+        <v>27.3</v>
+      </c>
+      <c r="L58" s="11">
+        <v>76.99999999999946</v>
+      </c>
+      <c r="M58" s="11">
+        <v>7.9999999999999538</v>
+      </c>
+      <c r="N58" s="11">
+        <v>81.299999999999784</v>
+      </c>
+      <c r="O58" s="11">
+        <v>86576.999999999913</v>
+      </c>
+      <c r="P58" s="11">
+        <v>15944.749999999989</v>
+      </c>
+      <c r="Q58" s="11">
+        <v>1820784.7858999991</v>
+      </c>
+      <c r="R58" s="11">
+        <v>15.99999999999995</v>
+      </c>
+      <c r="S58" s="11">
+        <v>729.99999999999955</v>
+      </c>
+      <c r="T58" s="11">
+        <v>1460779.4436599989</v>
+      </c>
+      <c r="U58" s="11">
+        <v>-182</v>
+      </c>
+    </row>
+    <row r="59" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A59" s="11">
+        <v>63604000</v>
+      </c>
+      <c r="B59" s="11">
+        <v>2019</v>
+      </c>
+      <c r="C59" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="D59" s="11">
+        <v>5</v>
+      </c>
+      <c r="E59" s="11">
+        <v>39066.999999999993</v>
+      </c>
+      <c r="F59" s="11">
+        <v>6011.9999999999982</v>
+      </c>
+      <c r="G59" s="11">
+        <v>18611.958289999999</v>
+      </c>
+      <c r="H59" s="11">
+        <v>20455.999999999993</v>
+      </c>
+      <c r="I59" s="11">
+        <v>645.99999999999943</v>
+      </c>
+      <c r="J59" s="11">
+        <v>899043.39099999995</v>
+      </c>
+      <c r="K59" s="11">
+        <v>37.19</v>
+      </c>
+      <c r="L59" s="11">
+        <v>147.99999999999906</v>
+      </c>
+      <c r="M59" s="11">
+        <v>40.999999999999794</v>
+      </c>
+      <c r="N59" s="11">
+        <v>618.49999999999932</v>
+      </c>
+      <c r="O59" s="11">
+        <v>27023.999999999942</v>
+      </c>
+      <c r="P59" s="11">
+        <v>26455.999999999993</v>
+      </c>
+      <c r="Q59" s="11">
+        <v>2652645.5177999986</v>
+      </c>
+      <c r="R59" s="11">
+        <v>18.99999999999995</v>
+      </c>
+      <c r="S59" s="11">
+        <v>1149.9999999999995</v>
+      </c>
+      <c r="T59" s="11">
+        <v>6067714.9468499981</v>
+      </c>
+      <c r="U59" s="11">
+        <v>-298</v>
+      </c>
+    </row>
+    <row r="60" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A60" s="11">
+        <v>63606000</v>
+      </c>
+      <c r="B60" s="11">
+        <v>2020</v>
+      </c>
+      <c r="C60" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="D60" s="11">
+        <v>5</v>
+      </c>
+      <c r="E60" s="11">
+        <v>27626.999999999989</v>
+      </c>
+      <c r="F60" s="11">
+        <v>3520.9999999999991</v>
+      </c>
+      <c r="G60" s="11">
+        <v>19147.145039999999</v>
+      </c>
+      <c r="H60" s="11">
+        <v>11267.999999999993</v>
+      </c>
+      <c r="I60" s="11">
+        <v>1097.9999999999991</v>
+      </c>
+      <c r="J60" s="11">
+        <v>584236.91447999945</v>
+      </c>
+      <c r="K60" s="11">
+        <v>51.2</v>
+      </c>
+      <c r="L60" s="11">
+        <v>122.99999999999919</v>
+      </c>
+      <c r="M60" s="11">
+        <v>36.999999999999829</v>
+      </c>
+      <c r="N60" s="11">
+        <v>408.3999999999993</v>
+      </c>
+      <c r="O60" s="11">
+        <v>38837.999999999964</v>
+      </c>
+      <c r="P60" s="11">
+        <v>26779.999999999989</v>
+      </c>
+      <c r="Q60" s="11">
+        <v>2725337.6207999978</v>
+      </c>
+      <c r="R60" s="11">
+        <v>16.999999999999954</v>
+      </c>
+      <c r="S60" s="11">
+        <v>1043.9999999999995</v>
+      </c>
+      <c r="T60" s="11">
+        <v>556306.09055999748</v>
+      </c>
+      <c r="U60" s="11">
+        <v>-89</v>
+      </c>
+    </row>
+    <row r="61" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A61" s="11">
+        <v>63621000</v>
+      </c>
+      <c r="B61" s="11">
+        <v>2016</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="D61" s="11">
+        <v>5</v>
+      </c>
+      <c r="E61" s="11">
+        <v>31271</v>
+      </c>
+      <c r="F61" s="11">
+        <v>4769.9999999999982</v>
+      </c>
+      <c r="G61" s="11">
+        <v>16996.987359999999</v>
+      </c>
+      <c r="H61" s="11">
+        <v>11655.999999999998</v>
+      </c>
+      <c r="I61" s="11">
+        <v>633.99999999999977</v>
+      </c>
+      <c r="J61" s="11">
+        <v>312410.58597000001</v>
+      </c>
+      <c r="K61" s="11">
+        <v>29.58</v>
+      </c>
+      <c r="L61" s="11">
+        <v>71.999999999999559</v>
+      </c>
+      <c r="M61" s="11">
+        <v>113.99999999999952</v>
+      </c>
+      <c r="N61" s="11">
+        <v>478.49999999999966</v>
+      </c>
+      <c r="O61" s="11">
+        <v>116217.99999999997</v>
+      </c>
+      <c r="P61" s="11">
+        <v>29804.749999999989</v>
+      </c>
+      <c r="Q61" s="11">
+        <v>5228156.3358999994</v>
+      </c>
+      <c r="R61" s="11">
+        <v>38.999999999999915</v>
+      </c>
+      <c r="S61" s="11">
+        <v>1186.9999999999998</v>
+      </c>
+      <c r="T61" s="11">
+        <v>2895385.0253199995</v>
+      </c>
+      <c r="U61" s="11">
+        <v>-262</v>
+      </c>
+    </row>
+    <row r="62" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E62" s="11"/>
+      <c r="F62" s="11"/>
+      <c r="G62" s="11"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="11"/>
+      <c r="J62" s="11"/>
+      <c r="K62" s="11"/>
+      <c r="L62" s="11"/>
+      <c r="M62" s="11"/>
+      <c r="N62" s="11"/>
+      <c r="O62" s="11"/>
+      <c r="P62" s="11"/>
+      <c r="Q62" s="11"/>
+      <c r="R62" s="11"/>
+      <c r="S62" s="11"/>
+      <c r="T62" s="11"/>
+      <c r="U62" s="11"/>
+    </row>
+    <row r="63" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E63" s="11"/>
+      <c r="F63" s="11"/>
+      <c r="G63" s="11"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11"/>
+      <c r="J63" s="11"/>
+      <c r="K63" s="11"/>
+      <c r="L63" s="11"/>
+      <c r="M63" s="11"/>
+      <c r="N63" s="11"/>
+      <c r="O63" s="11"/>
+      <c r="P63" s="11"/>
+      <c r="Q63" s="11"/>
+      <c r="R63" s="11"/>
+      <c r="S63" s="11"/>
+      <c r="T63" s="11"/>
+      <c r="U63" s="11"/>
+    </row>
+    <row r="64" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E64" s="11"/>
+      <c r="F64" s="11"/>
+      <c r="G64" s="11"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="11"/>
+      <c r="J64" s="11"/>
+      <c r="K64" s="11"/>
+      <c r="L64" s="11"/>
+      <c r="M64" s="11"/>
+      <c r="N64" s="11"/>
+      <c r="O64" s="11"/>
+      <c r="P64" s="11"/>
+      <c r="Q64" s="11"/>
+      <c r="R64" s="11"/>
+      <c r="S64" s="11"/>
+      <c r="T64" s="11"/>
+      <c r="U64" s="11"/>
+    </row>
+    <row r="65" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E65" s="11"/>
+      <c r="F65" s="11"/>
+      <c r="G65" s="11"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11"/>
+      <c r="L65" s="11"/>
+      <c r="M65" s="11"/>
+      <c r="N65" s="11"/>
+      <c r="O65" s="11"/>
+      <c r="P65" s="11"/>
+      <c r="Q65" s="11"/>
+      <c r="R65" s="11"/>
+      <c r="S65" s="11"/>
+      <c r="T65" s="11"/>
+      <c r="U65" s="11"/>
+    </row>
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E66" s="11"/>
+      <c r="F66" s="11"/>
+      <c r="G66" s="11"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11"/>
+      <c r="J66" s="11"/>
+      <c r="K66" s="11"/>
+      <c r="L66" s="11"/>
+      <c r="M66" s="11"/>
+      <c r="N66" s="11"/>
+      <c r="O66" s="11"/>
+      <c r="P66" s="11"/>
+      <c r="Q66" s="11"/>
+      <c r="R66" s="11"/>
+      <c r="S66" s="11"/>
+      <c r="T66" s="11"/>
+      <c r="U66" s="11"/>
+    </row>
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="11"/>
+      <c r="G67" s="11"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11"/>
+      <c r="J67" s="11"/>
+      <c r="K67" s="11"/>
+      <c r="L67" s="11"/>
+      <c r="M67" s="11"/>
+      <c r="N67" s="11"/>
+      <c r="O67" s="11"/>
+      <c r="P67" s="11"/>
+      <c r="Q67" s="11"/>
+      <c r="R67" s="11"/>
+      <c r="S67" s="11"/>
+      <c r="T67" s="11"/>
+      <c r="U67" s="11"/>
+    </row>
+    <row r="68" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E68" s="11"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="11"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11"/>
+      <c r="J68" s="11"/>
+      <c r="K68" s="11"/>
+      <c r="L68" s="11"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="11"/>
+      <c r="P68" s="11"/>
+      <c r="Q68" s="11"/>
+      <c r="R68" s="11"/>
+      <c r="S68" s="11"/>
+      <c r="T68" s="11"/>
+    </row>
+    <row r="69" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E69" s="11"/>
+      <c r="F69" s="11"/>
+      <c r="G69" s="11"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11"/>
+      <c r="J69" s="11"/>
+      <c r="K69" s="11"/>
+      <c r="L69" s="11"/>
+      <c r="M69" s="11"/>
+      <c r="N69" s="11"/>
+      <c r="O69" s="11"/>
+      <c r="P69" s="11"/>
+      <c r="Q69" s="11"/>
+      <c r="R69" s="11"/>
+      <c r="S69" s="11"/>
+      <c r="T69" s="11"/>
+    </row>
+    <row r="70" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="E70" s="11"/>
+      <c r="F70" s="11"/>
+      <c r="G70" s="11"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11"/>
+      <c r="J70" s="11"/>
+      <c r="K70" s="11"/>
+      <c r="L70" s="11"/>
+      <c r="M70" s="11"/>
+      <c r="N70" s="11"/>
+      <c r="O70" s="11"/>
+      <c r="P70" s="11"/>
+      <c r="Q70" s="11"/>
+      <c r="R70" s="11"/>
+      <c r="S70" s="11"/>
+      <c r="T70" s="11"/>
+    </row>
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F71" s="11"/>
+      <c r="G71" s="11"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11"/>
+      <c r="J71" s="11"/>
+      <c r="K71" s="11"/>
+      <c r="L71" s="11"/>
+      <c r="M71" s="11"/>
+      <c r="N71" s="11"/>
+      <c r="O71" s="11"/>
+      <c r="P71" s="11"/>
+      <c r="Q71" s="11"/>
+      <c r="R71" s="11"/>
+      <c r="S71" s="11"/>
+      <c r="T71" s="11"/>
+    </row>
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F72" s="11"/>
+      <c r="G72" s="11"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="11"/>
+      <c r="J72" s="11"/>
+      <c r="K72" s="11"/>
+      <c r="L72" s="11"/>
+      <c r="M72" s="11"/>
+      <c r="N72" s="11"/>
+      <c r="O72" s="11"/>
+      <c r="P72" s="11"/>
+      <c r="Q72" s="11"/>
+      <c r="R72" s="11"/>
+      <c r="S72" s="11"/>
+      <c r="T72" s="11"/>
+    </row>
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F73" s="11"/>
+      <c r="G73" s="11"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11"/>
+      <c r="J73" s="11"/>
+      <c r="K73" s="11"/>
+      <c r="L73" s="11"/>
+      <c r="M73" s="11"/>
+      <c r="N73" s="11"/>
+      <c r="O73" s="11"/>
+      <c r="P73" s="11"/>
+      <c r="Q73" s="11"/>
+      <c r="R73" s="11"/>
+      <c r="S73" s="11"/>
+      <c r="T73" s="11"/>
+    </row>
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F74" s="11"/>
+      <c r="G74" s="11"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11"/>
+      <c r="J74" s="11"/>
+      <c r="K74" s="11"/>
+      <c r="L74" s="11"/>
+      <c r="M74" s="11"/>
+      <c r="N74" s="11"/>
+      <c r="O74" s="11"/>
+      <c r="P74" s="11"/>
+      <c r="Q74" s="11"/>
+      <c r="R74" s="11"/>
+      <c r="S74" s="11"/>
+      <c r="T74" s="11"/>
+    </row>
+    <row r="75" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F75" s="11"/>
+      <c r="G75" s="11"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="11"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="11"/>
+      <c r="N75" s="11"/>
+      <c r="O75" s="11"/>
+      <c r="P75" s="11"/>
+      <c r="Q75" s="11"/>
+      <c r="R75" s="11"/>
+      <c r="S75" s="11"/>
+      <c r="T75" s="11"/>
+    </row>
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="F76" s="11"/>
+      <c r="G76" s="11"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="11"/>
+      <c r="J76" s="11"/>
+      <c r="K76" s="11"/>
+      <c r="L76" s="11"/>
+      <c r="M76" s="11"/>
+      <c r="N76" s="11"/>
+      <c r="O76" s="11"/>
+      <c r="P76" s="11"/>
+      <c r="Q76" s="11"/>
+      <c r="R76" s="11"/>
+      <c r="S76" s="11"/>
+      <c r="T76" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7519,7 +9718,7 @@
   <dimension ref="A1:U44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8592,16 +10791,16 @@
         <v>1278.9999999999998</v>
       </c>
       <c r="G17" s="11">
+        <v>19406.97712</v>
+      </c>
+      <c r="H17" s="11">
         <v>2585.4999999999986</v>
       </c>
-      <c r="H17" s="11">
+      <c r="I17" s="11">
         <v>281.99999999999972</v>
       </c>
-      <c r="I17" s="11">
+      <c r="J17" s="11">
         <v>415783.74875999975</v>
-      </c>
-      <c r="J17" s="11">
-        <v>46.954686477696221</v>
       </c>
       <c r="K17" s="11">
         <v>37.299999999999997</v>
@@ -8657,16 +10856,16 @@
         <v>2086.9999999999986</v>
       </c>
       <c r="G18" s="11">
+        <v>17100.190320000002</v>
+      </c>
+      <c r="H18" s="11">
         <v>6433.2999999999956</v>
       </c>
-      <c r="H18" s="11">
+      <c r="I18" s="11">
         <v>210.99999999999983</v>
       </c>
-      <c r="I18" s="11">
+      <c r="J18" s="11">
         <v>267414.72803999996</v>
-      </c>
-      <c r="J18" s="11">
-        <v>14.994657846809471</v>
       </c>
       <c r="K18" s="11">
         <v>32.08</v>
@@ -8722,16 +10921,16 @@
         <v>2688.9999999999995</v>
       </c>
       <c r="G19" s="11">
+        <v>18039.2</v>
+      </c>
+      <c r="H19" s="11">
         <v>9015.3999999999905</v>
       </c>
-      <c r="H19" s="11">
+      <c r="I19" s="11">
         <v>204.99999999999977</v>
       </c>
-      <c r="I19" s="11">
+      <c r="J19" s="11">
         <v>229243.99999999988</v>
-      </c>
-      <c r="J19" s="11">
-        <v>10.305880237367379</v>
       </c>
       <c r="K19" s="11">
         <v>21.93</v>
@@ -8787,16 +10986,16 @@
         <v>4696.9999999999991</v>
       </c>
       <c r="G20" s="11">
+        <v>19598.053680000001</v>
+      </c>
+      <c r="H20" s="11">
         <v>27639.699999999986</v>
       </c>
-      <c r="H20" s="11">
+      <c r="I20" s="11">
         <v>219.99999999999972</v>
       </c>
-      <c r="I20" s="11">
+      <c r="J20" s="11">
         <v>794230.03655999957</v>
-      </c>
-      <c r="J20" s="11">
-        <v>22.599949821016981</v>
       </c>
       <c r="K20" s="11">
         <v>22.85</v>
@@ -8852,16 +11051,16 @@
         <v>5471</v>
       </c>
       <c r="G21" s="11">
+        <v>24531.17148999999</v>
+      </c>
+      <c r="H21" s="11">
         <v>9993.7999999999938</v>
       </c>
-      <c r="H21" s="11">
+      <c r="I21" s="11">
         <v>349.99999999999949</v>
       </c>
-      <c r="I21" s="11">
+      <c r="J21" s="11">
         <v>135007.86686999991</v>
-      </c>
-      <c r="J21" s="11">
-        <v>4.2340797487925723</v>
       </c>
       <c r="K21" s="11">
         <v>22.88</v>
@@ -12744,7 +14943,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>

--- a/migforecasting/clustering/for paper/examples for improv test.xlsx
+++ b/migforecasting/clustering/for paper/examples for improv test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="examples" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="91">
   <si>
     <t>oktmo</t>
   </si>
@@ -595,10 +595,10 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'examples abs + changes'!$C$40:$C$69</c:f>
+              <c:f>'examples abs + changes'!$C$40:$C$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>-140</c:v>
                 </c:pt>
@@ -615,79 +615,169 @@
                   <c:v>-210</c:v>
                 </c:pt>
                 <c:pt idx="5">
+                  <c:v>-179</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-72</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-110</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-179</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>-291</c:v>
                 </c:pt>
-                <c:pt idx="6">
+                <c:pt idx="11">
                   <c:v>-284</c:v>
                 </c:pt>
-                <c:pt idx="7">
+                <c:pt idx="12">
                   <c:v>-274</c:v>
                 </c:pt>
-                <c:pt idx="8">
+                <c:pt idx="13">
                   <c:v>-340</c:v>
                 </c:pt>
-                <c:pt idx="9">
+                <c:pt idx="14">
                   <c:v>-193</c:v>
                 </c:pt>
-                <c:pt idx="10">
+                <c:pt idx="15">
+                  <c:v>-329</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-103</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-234</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-154</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-219</c:v>
+                </c:pt>
+                <c:pt idx="20">
                   <c:v>-168</c:v>
                 </c:pt>
-                <c:pt idx="11">
+                <c:pt idx="21">
                   <c:v>-174</c:v>
                 </c:pt>
-                <c:pt idx="12">
+                <c:pt idx="22">
                   <c:v>-193</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="23">
                   <c:v>-121</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="24">
                   <c:v>-158</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="25">
+                  <c:v>-139</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-126</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-61</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-75</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="30">
                   <c:v>-76</c:v>
                 </c:pt>
-                <c:pt idx="16">
+                <c:pt idx="31">
                   <c:v>-164</c:v>
                 </c:pt>
-                <c:pt idx="17">
+                <c:pt idx="32">
                   <c:v>-188</c:v>
                 </c:pt>
-                <c:pt idx="18">
+                <c:pt idx="33">
                   <c:v>-483</c:v>
                 </c:pt>
-                <c:pt idx="19">
+                <c:pt idx="34">
                   <c:v>-523</c:v>
                 </c:pt>
-                <c:pt idx="20">
+                <c:pt idx="35">
+                  <c:v>-75</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-115</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-107</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-217</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-150</c:v>
+                </c:pt>
+                <c:pt idx="40">
                   <c:v>-199</c:v>
                 </c:pt>
-                <c:pt idx="21">
+                <c:pt idx="41">
                   <c:v>-310</c:v>
                 </c:pt>
-                <c:pt idx="22">
+                <c:pt idx="42">
                   <c:v>-236</c:v>
                 </c:pt>
-                <c:pt idx="23">
+                <c:pt idx="43">
                   <c:v>-472</c:v>
                 </c:pt>
-                <c:pt idx="24">
+                <c:pt idx="44">
                   <c:v>-402</c:v>
                 </c:pt>
-                <c:pt idx="25">
+                <c:pt idx="45">
+                  <c:v>-268</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-135</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-235</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-180</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-190</c:v>
+                </c:pt>
+                <c:pt idx="50">
                   <c:v>-294</c:v>
                 </c:pt>
-                <c:pt idx="26">
+                <c:pt idx="51">
                   <c:v>-541</c:v>
                 </c:pt>
-                <c:pt idx="27">
+                <c:pt idx="52">
                   <c:v>-192</c:v>
                 </c:pt>
-                <c:pt idx="28">
+                <c:pt idx="53">
                   <c:v>-300</c:v>
                 </c:pt>
-                <c:pt idx="29">
+                <c:pt idx="54">
                   <c:v>-429</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-297</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-182</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-298</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-89</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-262</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -739,99 +829,189 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'examples abs + changes'!$D$40:$D$69</c:f>
+              <c:f>'examples abs + changes'!$D$40:$D$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>-134.09999999999991</c:v>
+                  <c:v>-111.20199999999986</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-65.860000000000014</c:v>
+                  <c:v>-46.659999999999982</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-214.9399999999998</c:v>
+                  <c:v>-240.85599999999971</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-112.9399999999998</c:v>
+                  <c:v>-109.95699999999981</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-216.70999999999981</c:v>
+                  <c:v>-154.35899999999992</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-257.14999999999992</c:v>
+                  <c:v>-71.085000000000036</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-174.21000000000009</c:v>
+                  <c:v>-135.73299999999992</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-245.06999999999991</c:v>
+                  <c:v>-106.66399999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-282.63000000000011</c:v>
+                  <c:v>-91.310999999999964</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>29.48</c:v>
+                  <c:v>-170.27100000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-146.71999999999991</c:v>
+                  <c:v>-226.63199999999992</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-162.49999999999969</c:v>
+                  <c:v>-177.19100000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-164.46999999999991</c:v>
+                  <c:v>-197.47799999999987</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-177.36</c:v>
+                  <c:v>-295.00400000000002</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-146.4199999999999</c:v>
+                  <c:v>-15.560000000000002</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-67.559999999999889</c:v>
+                  <c:v>-244.09599999999995</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-148.33000000000021</c:v>
+                  <c:v>-108.90699999999988</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-167.30999999999989</c:v>
+                  <c:v>-179.28400000000011</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-168.3000000000001</c:v>
+                  <c:v>-168.81799999999981</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-36.560000000000016</c:v>
+                  <c:v>-209.66400000000021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-167.89999999999969</c:v>
+                  <c:v>-139.64199999999988</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-251.58999999999969</c:v>
+                  <c:v>-149.68499999999986</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-233.12000000000029</c:v>
+                  <c:v>-166.41299999999995</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-405.5900000000006</c:v>
+                  <c:v>-175.14</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-45.940000000000033</c:v>
+                  <c:v>-133.13399999999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-133.03</c:v>
+                  <c:v>-145.69799999999987</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-167.35</c:v>
+                  <c:v>-121.49299999999987</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-181.37999999999991</c:v>
+                  <c:v>-68.912999999999883</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-221.16000000000031</c:v>
+                  <c:v>-89.249999999999901</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-291.58999999999992</c:v>
+                  <c:v>-42.673999999999964</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-58.625999999999934</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-158.27800000000016</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-168.14199999999991</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-98.890000000000015</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-85.644000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-44.685999999999936</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-99.022999999999982</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-114.69799999999987</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-207.06100000000015</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>15.657999999999992</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-155.22299999999984</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-240.22799999999978</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-280.27000000000027</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-363.27800000000036</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-89.835999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-99.59899999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-143.61199999999977</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-240.95999999999987</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-187.51500000000004</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-152.76799999999997</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-227.58500000000009</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-112.81300000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-180.47100000000009</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-193.62900000000027</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-218.69099999999997</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-183.65299999999985</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-126.91899999999987</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-265.40700000000027</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-82.686999999999983</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-228.23200000000006</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -871,11 +1051,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:srgbClr val="00B050"/>
+                  <a:schemeClr val="accent3"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -883,99 +1063,189 @@
           </c:marker>
           <c:val>
             <c:numRef>
-              <c:f>'examples abs + changes'!$E$40:$E$69</c:f>
+              <c:f>'examples abs + changes'!$E$40:$E$99</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>-94.229999999999961</c:v>
+                  <c:v>-78.375999999999976</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-154.85</c:v>
+                  <c:v>-125.97199999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-196.7999999999999</c:v>
+                  <c:v>-230.78999999999988</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-120.63</c:v>
+                  <c:v>-74.557999999999993</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-176.57</c:v>
+                  <c:v>-142.483</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-106.74</c:v>
+                  <c:v>-91.874999999999957</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-157.94999999999999</c:v>
+                  <c:v>-61.379999999999981</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-51.019999999999982</c:v>
+                  <c:v>-180.49999999999994</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-271.08000000000021</c:v>
+                  <c:v>-73.611999999999981</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>59.129999999999988</c:v>
+                  <c:v>-85.929999999999978</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-96.48</c:v>
+                  <c:v>-154.78400000000002</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-96.749999999999943</c:v>
+                  <c:v>-152.02600000000007</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-122.05</c:v>
+                  <c:v>-5.2660000000000036</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-207.77999999999989</c:v>
+                  <c:v>-265.673</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-91.530000000000015</c:v>
+                  <c:v>36.029000000000011</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-35.519999999999982</c:v>
+                  <c:v>-229.21299999999997</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-124.98</c:v>
+                  <c:v>-107.61899999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-210.17999999999989</c:v>
+                  <c:v>-68.685999999999993</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-131.60000000000011</c:v>
+                  <c:v>-99.60499999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-31.200000000000021</c:v>
+                  <c:v>-157.39500000000004</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-53.430000000000007</c:v>
+                  <c:v>-82.534999999999997</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-205.8</c:v>
+                  <c:v>-95.034999999999997</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-175.22</c:v>
+                  <c:v>-102.848</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-82.169999999999987</c:v>
+                  <c:v>-194.46199999999999</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-53.120000000000033</c:v>
+                  <c:v>-79.182999999999964</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-81.75</c:v>
+                  <c:v>-123.5569999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-167.35</c:v>
+                  <c:v>-122.2559999999999</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-210.99999999999989</c:v>
+                  <c:v>-60.650999999999975</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-221.6200000000002</c:v>
+                  <c:v>-94.985999999999976</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-314.64999999999992</c:v>
+                  <c:v>-56.833999999999968</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-32.007999999999996</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-118.76299999999999</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-177.15400000000002</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-83.421000000000021</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-39.001000000000005</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-28.974999999999987</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-194.45</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-161.24299999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-144.40199999999999</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-133.91800000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-52.636999999999986</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-211.458</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-249.1010000000002</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-85.417000000000002</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-97.991000000000014</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-126.63999999999999</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-179.57300000000001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-230.43700000000004</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-247.369</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-70.185999999999979</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-65.047999999999973</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-112.81300000000002</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-187.06900000000007</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-187.1910000000002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-217.94</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-97.473999999999975</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-121.35499999999998</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-162.29000000000002</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-118.58199999999999</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-189.48399999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -983,7 +1253,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-920F-41CE-9A43-8A98894AC6C7}"/>
+              <c16:uniqueId val="{00000000-2231-4E83-80E1-179F628A2581}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1016,10 +1286,7 @@
                 <a:pPr>
                   <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
+                      <a:sysClr val="windowText" lastClr="000000"/>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -1065,10 +1332,7 @@
               <a:pPr>
                 <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
+                    <a:sysClr val="windowText" lastClr="000000"/>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -1100,7 +1364,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1800" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1217,7 +1481,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -1249,8 +1513,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.10106219157501722"/>
           <c:y val="1.4881737061970131E-2"/>
-          <c:w val="0.79787552275161644"/>
-          <c:h val="6.1400055074145032E-2"/>
+          <c:w val="0.83151969679496085"/>
+          <c:h val="6.8840923605130097E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -1841,7 +2105,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1910,7 +2173,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3080,14 +3342,14 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>40823</xdr:colOff>
+      <xdr:colOff>40821</xdr:colOff>
       <xdr:row>36</xdr:row>
       <xdr:rowOff>172809</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>1700893</xdr:colOff>
-      <xdr:row>63</xdr:row>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>993321</xdr:colOff>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>149679</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5450,8 +5712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U78" sqref="C66:U78"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="U2" sqref="U2:U61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11979,16 +12241,16 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:X70"/>
+  <dimension ref="A1:X100"/>
   <sheetViews>
-    <sheetView topLeftCell="B19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="4" max="4" width="19.28515625" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
@@ -14539,12 +14801,15 @@
         <v>-140</v>
       </c>
       <c r="D40" s="11">
-        <v>-134.09999999999991</v>
+        <v>-111.20199999999986</v>
       </c>
       <c r="E40" s="11">
-        <v>-94.229999999999961</v>
-      </c>
-      <c r="F40" s="11"/>
+        <v>-78.375999999999976</v>
+      </c>
+      <c r="F40" s="11">
+        <f>IF(E40&gt;D40,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="G40" s="11"/>
       <c r="H40" s="11"/>
       <c r="I40" s="11"/>
@@ -14568,12 +14833,15 @@
         <v>-476</v>
       </c>
       <c r="D41" s="11">
-        <v>-65.860000000000014</v>
+        <v>-46.659999999999982</v>
       </c>
       <c r="E41" s="11">
-        <v>-154.85</v>
-      </c>
-      <c r="F41" s="11"/>
+        <v>-125.97199999999998</v>
+      </c>
+      <c r="F41" s="11">
+        <f>IF(E41&gt;D41,1,0)</f>
+        <v>0</v>
+      </c>
       <c r="G41" s="11"/>
       <c r="H41" s="11"/>
       <c r="I41" s="11"/>
@@ -14598,12 +14866,15 @@
         <v>-246</v>
       </c>
       <c r="D42" s="11">
-        <v>-214.9399999999998</v>
+        <v>-240.85599999999971</v>
       </c>
       <c r="E42" s="11">
-        <v>-196.7999999999999</v>
-      </c>
-      <c r="F42" s="11"/>
+        <v>-230.78999999999988</v>
+      </c>
+      <c r="F42" s="11">
+        <f t="shared" ref="F42:F99" si="1">IF(E42&gt;D42,1,0)</f>
+        <v>1</v>
+      </c>
       <c r="G42" s="11"/>
       <c r="H42" s="11"/>
       <c r="I42" s="11"/>
@@ -14625,10 +14896,14 @@
         <v>-166</v>
       </c>
       <c r="D43" s="11">
-        <v>-112.9399999999998</v>
+        <v>-109.95699999999981</v>
       </c>
       <c r="E43" s="11">
-        <v>-120.63</v>
+        <v>-74.557999999999993</v>
+      </c>
+      <c r="F43" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="V43" s="11"/>
     </row>
@@ -14637,299 +14912,864 @@
         <v>-210</v>
       </c>
       <c r="D44" s="11">
-        <v>-216.70999999999981</v>
+        <v>-154.35899999999992</v>
       </c>
       <c r="E44" s="11">
-        <v>-176.57</v>
+        <v>-142.483</v>
+      </c>
+      <c r="F44" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="V44" s="11"/>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C45" s="11">
-        <v>-291</v>
+        <v>-179</v>
       </c>
       <c r="D45" s="11">
-        <v>-257.14999999999992</v>
+        <v>-71.085000000000036</v>
       </c>
       <c r="E45" s="11">
-        <v>-106.74</v>
+        <v>-91.874999999999957</v>
+      </c>
+      <c r="F45" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="V45" s="11"/>
     </row>
     <row r="46" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C46" s="11">
-        <v>-284</v>
+        <v>-125</v>
       </c>
       <c r="D46" s="11">
-        <v>-174.21000000000009</v>
+        <v>-135.73299999999992</v>
       </c>
       <c r="E46" s="11">
-        <v>-157.94999999999999</v>
+        <v>-61.379999999999981</v>
+      </c>
+      <c r="F46" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="V46" s="11"/>
     </row>
     <row r="47" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C47" s="11">
-        <v>-274</v>
+        <v>-72</v>
       </c>
       <c r="D47" s="11">
-        <v>-245.06999999999991</v>
+        <v>-106.66399999999996</v>
       </c>
       <c r="E47" s="11">
-        <v>-51.019999999999982</v>
+        <v>-180.49999999999994</v>
+      </c>
+      <c r="F47" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
       <c r="V47" s="11"/>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="C48" s="11">
+        <v>-110</v>
+      </c>
+      <c r="D48" s="11">
+        <v>-91.310999999999964</v>
+      </c>
+      <c r="E48" s="11">
+        <v>-73.611999999999981</v>
+      </c>
+      <c r="F48" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C49" s="11">
+        <v>-179</v>
+      </c>
+      <c r="D49" s="11">
+        <v>-170.27100000000002</v>
+      </c>
+      <c r="E49" s="11">
+        <v>-85.929999999999978</v>
+      </c>
+      <c r="F49" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C50" s="11">
+        <v>-291</v>
+      </c>
+      <c r="D50" s="11">
+        <v>-226.63199999999992</v>
+      </c>
+      <c r="E50" s="11">
+        <v>-154.78400000000002</v>
+      </c>
+      <c r="F50" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C51" s="11">
+        <v>-284</v>
+      </c>
+      <c r="D51" s="11">
+        <v>-177.19100000000003</v>
+      </c>
+      <c r="E51" s="11">
+        <v>-152.02600000000007</v>
+      </c>
+      <c r="F51" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C52" s="11">
+        <v>-274</v>
+      </c>
+      <c r="D52" s="11">
+        <v>-197.47799999999987</v>
+      </c>
+      <c r="E52" s="11">
+        <v>-5.2660000000000036</v>
+      </c>
+      <c r="F52" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C53" s="11">
         <v>-340</v>
       </c>
-      <c r="D48" s="11">
-        <v>-282.63000000000011</v>
-      </c>
-      <c r="E48" s="11">
-        <v>-271.08000000000021</v>
-      </c>
-    </row>
-    <row r="49" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C49" s="11">
+      <c r="D53" s="11">
+        <v>-295.00400000000002</v>
+      </c>
+      <c r="E53" s="11">
+        <v>-265.673</v>
+      </c>
+      <c r="F53" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C54" s="11">
         <v>-193</v>
       </c>
-      <c r="D49" s="11">
-        <v>29.48</v>
-      </c>
-      <c r="E49" s="11">
-        <v>59.129999999999988</v>
-      </c>
-    </row>
-    <row r="50" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C50" s="11">
+      <c r="D54" s="11">
+        <v>-15.560000000000002</v>
+      </c>
+      <c r="E54" s="11">
+        <v>36.029000000000011</v>
+      </c>
+      <c r="F54" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C55" s="11">
+        <v>-329</v>
+      </c>
+      <c r="D55" s="11">
+        <v>-244.09599999999995</v>
+      </c>
+      <c r="E55" s="11">
+        <v>-229.21299999999997</v>
+      </c>
+      <c r="F55" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C56" s="11">
+        <v>-103</v>
+      </c>
+      <c r="D56" s="11">
+        <v>-108.90699999999988</v>
+      </c>
+      <c r="E56" s="11">
+        <v>-107.61899999999999</v>
+      </c>
+      <c r="F56" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C57" s="11">
+        <v>-234</v>
+      </c>
+      <c r="D57" s="11">
+        <v>-179.28400000000011</v>
+      </c>
+      <c r="E57" s="11">
+        <v>-68.685999999999993</v>
+      </c>
+      <c r="F57" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C58" s="11">
+        <v>-154</v>
+      </c>
+      <c r="D58" s="11">
+        <v>-168.81799999999981</v>
+      </c>
+      <c r="E58" s="11">
+        <v>-99.60499999999999</v>
+      </c>
+      <c r="F58" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C59" s="11">
+        <v>-219</v>
+      </c>
+      <c r="D59" s="11">
+        <v>-209.66400000000021</v>
+      </c>
+      <c r="E59" s="11">
+        <v>-157.39500000000004</v>
+      </c>
+      <c r="F59" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C60" s="11">
         <v>-168</v>
       </c>
-      <c r="D50" s="11">
-        <v>-146.71999999999991</v>
-      </c>
-      <c r="E50" s="11">
-        <v>-96.48</v>
-      </c>
-    </row>
-    <row r="51" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C51" s="11">
+      <c r="D60" s="11">
+        <v>-139.64199999999988</v>
+      </c>
+      <c r="E60" s="11">
+        <v>-82.534999999999997</v>
+      </c>
+      <c r="F60" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C61" s="11">
         <v>-174</v>
       </c>
-      <c r="D51" s="11">
-        <v>-162.49999999999969</v>
-      </c>
-      <c r="E51" s="11">
-        <v>-96.749999999999943</v>
-      </c>
-    </row>
-    <row r="52" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C52" s="11">
+      <c r="D61" s="11">
+        <v>-149.68499999999986</v>
+      </c>
+      <c r="E61" s="11">
+        <v>-95.034999999999997</v>
+      </c>
+      <c r="F61" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C62" s="11">
         <v>-193</v>
       </c>
-      <c r="D52" s="11">
-        <v>-164.46999999999991</v>
-      </c>
-      <c r="E52" s="11">
-        <v>-122.05</v>
-      </c>
-    </row>
-    <row r="53" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C53" s="11">
+      <c r="D62" s="11">
+        <v>-166.41299999999995</v>
+      </c>
+      <c r="E62" s="11">
+        <v>-102.848</v>
+      </c>
+      <c r="F62" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C63" s="11">
         <v>-121</v>
       </c>
-      <c r="D53" s="11">
-        <v>-177.36</v>
-      </c>
-      <c r="E53" s="11">
-        <v>-207.77999999999989</v>
-      </c>
-    </row>
-    <row r="54" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C54" s="11">
+      <c r="D63" s="11">
+        <v>-175.14</v>
+      </c>
+      <c r="E63" s="11">
+        <v>-194.46199999999999</v>
+      </c>
+      <c r="F63" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C64" s="11">
         <v>-158</v>
       </c>
-      <c r="D54" s="11">
-        <v>-146.4199999999999</v>
-      </c>
-      <c r="E54" s="11">
-        <v>-91.530000000000015</v>
-      </c>
-    </row>
-    <row r="55" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C55" s="11">
+      <c r="D64" s="11">
+        <v>-133.13399999999996</v>
+      </c>
+      <c r="E64" s="11">
+        <v>-79.182999999999964</v>
+      </c>
+      <c r="F64" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C65" s="11">
+        <v>-139</v>
+      </c>
+      <c r="D65" s="11">
+        <v>-145.69799999999987</v>
+      </c>
+      <c r="E65" s="11">
+        <v>-123.5569999999999</v>
+      </c>
+      <c r="F65" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C66" s="11">
+        <v>-126</v>
+      </c>
+      <c r="D66" s="11">
+        <v>-121.49299999999987</v>
+      </c>
+      <c r="E66" s="11">
+        <v>-122.2559999999999</v>
+      </c>
+      <c r="F66" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C67" s="11">
+        <v>-61</v>
+      </c>
+      <c r="D67" s="11">
+        <v>-68.912999999999883</v>
+      </c>
+      <c r="E67" s="11">
+        <v>-60.650999999999975</v>
+      </c>
+      <c r="F67" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C68" s="11">
+        <v>-75</v>
+      </c>
+      <c r="D68" s="11">
+        <v>-89.249999999999901</v>
+      </c>
+      <c r="E68" s="11">
+        <v>-94.985999999999976</v>
+      </c>
+      <c r="F68" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C69" s="11">
+        <v>-18</v>
+      </c>
+      <c r="D69" s="11">
+        <v>-42.673999999999964</v>
+      </c>
+      <c r="E69" s="11">
+        <v>-56.833999999999968</v>
+      </c>
+      <c r="F69" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C70" s="11">
         <v>-76</v>
       </c>
-      <c r="D55" s="11">
-        <v>-67.559999999999889</v>
-      </c>
-      <c r="E55" s="11">
-        <v>-35.519999999999982</v>
-      </c>
-    </row>
-    <row r="56" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C56" s="11">
+      <c r="D70" s="11">
+        <v>-58.625999999999934</v>
+      </c>
+      <c r="E70" s="11">
+        <v>-32.007999999999996</v>
+      </c>
+      <c r="F70" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C71" s="11">
         <v>-164</v>
       </c>
-      <c r="D56" s="11">
-        <v>-148.33000000000021</v>
-      </c>
-      <c r="E56" s="11">
-        <v>-124.98</v>
-      </c>
-    </row>
-    <row r="57" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C57" s="11">
+      <c r="D71" s="11">
+        <v>-158.27800000000016</v>
+      </c>
+      <c r="E71" s="11">
+        <v>-118.76299999999999</v>
+      </c>
+      <c r="F71" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C72" s="11">
         <v>-188</v>
       </c>
-      <c r="D57" s="11">
-        <v>-167.30999999999989</v>
-      </c>
-      <c r="E57" s="11">
-        <v>-210.17999999999989</v>
-      </c>
-    </row>
-    <row r="58" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C58" s="11">
+      <c r="D72" s="11">
+        <v>-168.14199999999991</v>
+      </c>
+      <c r="E72" s="11">
+        <v>-177.15400000000002</v>
+      </c>
+      <c r="F72" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C73" s="11">
         <v>-483</v>
       </c>
-      <c r="D58" s="11">
-        <v>-168.3000000000001</v>
-      </c>
-      <c r="E58" s="11">
-        <v>-131.60000000000011</v>
-      </c>
-    </row>
-    <row r="59" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C59" s="11">
+      <c r="D73" s="11">
+        <v>-98.890000000000015</v>
+      </c>
+      <c r="E73" s="11">
+        <v>-83.421000000000021</v>
+      </c>
+      <c r="F73" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C74" s="11">
         <v>-523</v>
       </c>
-      <c r="D59" s="11">
-        <v>-36.560000000000016</v>
-      </c>
-      <c r="E59" s="11">
-        <v>-31.200000000000021</v>
-      </c>
-    </row>
-    <row r="60" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C60" s="11">
+      <c r="D74" s="11">
+        <v>-85.644000000000005</v>
+      </c>
+      <c r="E74" s="11">
+        <v>-39.001000000000005</v>
+      </c>
+      <c r="F74" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C75" s="11">
+        <v>-75</v>
+      </c>
+      <c r="D75" s="11">
+        <v>-44.685999999999936</v>
+      </c>
+      <c r="E75" s="11">
+        <v>-28.974999999999987</v>
+      </c>
+      <c r="F75" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C76" s="11">
+        <v>-115</v>
+      </c>
+      <c r="D76" s="11">
+        <v>-99.022999999999982</v>
+      </c>
+      <c r="E76" s="11">
+        <v>-194.45</v>
+      </c>
+      <c r="F76" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C77" s="11">
+        <v>-107</v>
+      </c>
+      <c r="D77" s="11">
+        <v>-114.69799999999987</v>
+      </c>
+      <c r="E77" s="11">
+        <v>-161.24299999999997</v>
+      </c>
+      <c r="F77" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C78" s="11">
+        <v>-217</v>
+      </c>
+      <c r="D78" s="11">
+        <v>-207.06100000000015</v>
+      </c>
+      <c r="E78" s="11">
+        <v>-144.40199999999999</v>
+      </c>
+      <c r="F78" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C79" s="11">
+        <v>-150</v>
+      </c>
+      <c r="D79" s="11">
+        <v>15.657999999999992</v>
+      </c>
+      <c r="E79" s="11">
+        <v>-133.91800000000001</v>
+      </c>
+      <c r="F79" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C80" s="11">
         <v>-199</v>
       </c>
-      <c r="D60" s="11">
-        <v>-167.89999999999969</v>
-      </c>
-      <c r="E60" s="11">
-        <v>-53.430000000000007</v>
-      </c>
-    </row>
-    <row r="61" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C61" s="11">
+      <c r="D80" s="11">
+        <v>-155.22299999999984</v>
+      </c>
+      <c r="E80" s="11">
+        <v>-52.636999999999986</v>
+      </c>
+      <c r="F80" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C81" s="11">
         <v>-310</v>
       </c>
-      <c r="D61" s="11">
-        <v>-251.58999999999969</v>
-      </c>
-      <c r="E61" s="11">
-        <v>-205.8</v>
-      </c>
-    </row>
-    <row r="62" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C62" s="11">
+      <c r="D81" s="11">
+        <v>-240.22799999999978</v>
+      </c>
+      <c r="E81" s="11">
+        <v>-211.458</v>
+      </c>
+      <c r="F81" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C82" s="11">
         <v>-236</v>
       </c>
-      <c r="D62" s="11">
-        <v>-233.12000000000029</v>
-      </c>
-      <c r="E62" s="11">
-        <v>-175.22</v>
-      </c>
-    </row>
-    <row r="63" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C63" s="11">
+      <c r="D82" s="11">
+        <v>-280.27000000000027</v>
+      </c>
+      <c r="E82" s="11">
+        <v>-249.1010000000002</v>
+      </c>
+      <c r="F82" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C83" s="11">
         <v>-472</v>
       </c>
-      <c r="D63" s="11">
-        <v>-405.5900000000006</v>
-      </c>
-      <c r="E63" s="11">
-        <v>-82.169999999999987</v>
-      </c>
-    </row>
-    <row r="64" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C64" s="11">
+      <c r="D83" s="11">
+        <v>-363.27800000000036</v>
+      </c>
+      <c r="E83" s="11">
+        <v>-85.417000000000002</v>
+      </c>
+      <c r="F83" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C84" s="11">
         <v>-402</v>
       </c>
-      <c r="D64" s="11">
-        <v>-45.940000000000033</v>
-      </c>
-      <c r="E64" s="11">
-        <v>-53.120000000000033</v>
-      </c>
-    </row>
-    <row r="65" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C65" s="11">
+      <c r="D84" s="11">
+        <v>-89.835999999999999</v>
+      </c>
+      <c r="E84" s="11">
+        <v>-97.991000000000014</v>
+      </c>
+      <c r="F84" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C85" s="11">
+        <v>-268</v>
+      </c>
+      <c r="D85" s="11">
+        <v>-99.59899999999999</v>
+      </c>
+      <c r="E85" s="11">
+        <v>-126.63999999999999</v>
+      </c>
+      <c r="F85" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C86" s="11">
+        <v>-135</v>
+      </c>
+      <c r="D86" s="11">
+        <v>-143.61199999999977</v>
+      </c>
+      <c r="E86" s="11">
+        <v>-179.57300000000001</v>
+      </c>
+      <c r="F86" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C87" s="11">
+        <v>-235</v>
+      </c>
+      <c r="D87" s="11">
+        <v>-240.95999999999987</v>
+      </c>
+      <c r="E87" s="11">
+        <v>-230.43700000000004</v>
+      </c>
+      <c r="F87" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C88" s="11">
+        <v>-180</v>
+      </c>
+      <c r="D88" s="11">
+        <v>-187.51500000000004</v>
+      </c>
+      <c r="E88" s="11">
+        <v>-247.369</v>
+      </c>
+      <c r="F88" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C89" s="11">
+        <v>-190</v>
+      </c>
+      <c r="D89" s="11">
+        <v>-152.76799999999997</v>
+      </c>
+      <c r="E89" s="11">
+        <v>-70.185999999999979</v>
+      </c>
+      <c r="F89" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C90" s="11">
         <v>-294</v>
       </c>
-      <c r="D65" s="11">
-        <v>-133.03</v>
-      </c>
-      <c r="E65" s="11">
-        <v>-81.75</v>
-      </c>
-    </row>
-    <row r="66" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C66" s="11">
+      <c r="D90" s="11">
+        <v>-227.58500000000009</v>
+      </c>
+      <c r="E90" s="11">
+        <v>-65.047999999999973</v>
+      </c>
+      <c r="F90" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C91" s="11">
         <v>-541</v>
       </c>
-      <c r="D66" s="11">
-        <v>-167.35</v>
-      </c>
-      <c r="E66" s="11">
-        <v>-167.35</v>
-      </c>
-    </row>
-    <row r="67" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C67" s="11">
+      <c r="D91" s="11">
+        <v>-112.81300000000002</v>
+      </c>
+      <c r="E91" s="11">
+        <v>-112.81300000000002</v>
+      </c>
+      <c r="F91" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C92" s="11">
         <v>-192</v>
       </c>
-      <c r="D67" s="11">
-        <v>-181.37999999999991</v>
-      </c>
-      <c r="E67" s="11">
-        <v>-210.99999999999989</v>
-      </c>
-    </row>
-    <row r="68" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C68" s="11">
+      <c r="D92" s="11">
+        <v>-180.47100000000009</v>
+      </c>
+      <c r="E92" s="11">
+        <v>-187.06900000000007</v>
+      </c>
+      <c r="F92" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C93" s="11">
         <v>-300</v>
       </c>
-      <c r="D68" s="11">
-        <v>-221.16000000000031</v>
-      </c>
-      <c r="E68" s="11">
-        <v>-221.6200000000002</v>
-      </c>
-    </row>
-    <row r="69" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C69" s="11">
+      <c r="D93" s="11">
+        <v>-193.62900000000027</v>
+      </c>
+      <c r="E93" s="11">
+        <v>-187.1910000000002</v>
+      </c>
+      <c r="F93" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C94" s="11">
         <v>-429</v>
       </c>
-      <c r="D69" s="11">
-        <v>-291.58999999999992</v>
-      </c>
-      <c r="E69" s="11">
-        <v>-314.64999999999992</v>
-      </c>
-    </row>
-    <row r="70" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="D70" s="11">
-        <f>AVERAGE(D40:D69)</f>
-        <v>-171.9436666666667</v>
-      </c>
-      <c r="E70" s="11">
-        <f>AVERAGE(E40:E69)</f>
-        <v>-132.83066666666667</v>
+      <c r="D94" s="11">
+        <v>-218.69099999999997</v>
+      </c>
+      <c r="E94" s="11">
+        <v>-217.94</v>
+      </c>
+      <c r="F94" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C95" s="11">
+        <v>-297</v>
+      </c>
+      <c r="D95" s="11">
+        <v>-183.65299999999985</v>
+      </c>
+      <c r="E95" s="11">
+        <v>-97.473999999999975</v>
+      </c>
+      <c r="F95" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="3:6" x14ac:dyDescent="0.25">
+      <c r="C96" s="11">
+        <v>-182</v>
+      </c>
+      <c r="D96" s="11">
+        <v>-126.91899999999987</v>
+      </c>
+      <c r="E96" s="11">
+        <v>-121.35499999999998</v>
+      </c>
+      <c r="F96" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C97" s="11">
+        <v>-298</v>
+      </c>
+      <c r="D97" s="11">
+        <v>-265.40700000000027</v>
+      </c>
+      <c r="E97" s="11">
+        <v>-162.29000000000002</v>
+      </c>
+      <c r="F97" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C98" s="11">
+        <v>-89</v>
+      </c>
+      <c r="D98" s="11">
+        <v>-82.686999999999983</v>
+      </c>
+      <c r="E98" s="11">
+        <v>-118.58199999999999</v>
+      </c>
+      <c r="F98" s="11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C99" s="11">
+        <v>-262</v>
+      </c>
+      <c r="D99" s="11">
+        <v>-228.23200000000006</v>
+      </c>
+      <c r="E99" s="11">
+        <v>-189.48399999999998</v>
+      </c>
+      <c r="F99" s="11">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B100" s="12" t="s">
+        <v>58</v>
+      </c>
+      <c r="C100" s="12">
+        <f>AVERAGE(C40:C99)</f>
+        <v>-219.43333333333334</v>
+      </c>
+      <c r="D100" s="12">
+        <f t="shared" ref="D100:E100" si="2">AVERAGE(D40:D99)</f>
+        <v>-151.42566666666667</v>
+      </c>
+      <c r="E100" s="12">
+        <f t="shared" si="2"/>
+        <v>-124.75751666666663</v>
+      </c>
+      <c r="F100" s="15">
+        <f>COUNTIF(F40:F99,1)</f>
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/migforecasting/clustering/for paper/examples for improv test.xlsx
+++ b/migforecasting/clustering/for paper/examples for improv test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="examples" sheetId="1" r:id="rId1"/>
@@ -1635,94 +1635,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>-140.74899999999994</c:v>
+                  <c:v>-141.35299999999989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-146.71599999999987</c:v>
+                  <c:v>-142.40799999999984</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-159.93199999999999</c:v>
+                  <c:v>-146.70199999999997</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-187.04899999999998</c:v>
+                  <c:v>-191.87799999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-128.40999999999994</c:v>
+                  <c:v>-129.77099999999993</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-142.56999999999982</c:v>
+                  <c:v>-145.54599999999985</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-126.36899999999989</c:v>
+                  <c:v>-126.19799999999991</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-69.602999999999895</c:v>
+                  <c:v>-68.389999999999915</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-86.481999999999886</c:v>
+                  <c:v>-91.423999999999893</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-44.18499999999996</c:v>
+                  <c:v>-54.461999999999932</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-59.221999999999944</c:v>
+                  <c:v>-65.255999999999929</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-158.73100000000017</c:v>
+                  <c:v>-160.41000000000011</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-173.87099999999992</c:v>
+                  <c:v>-174.51399999999992</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-88.013999999999996</c:v>
+                  <c:v>-63.915000000000006</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-74.768000000000001</c:v>
+                  <c:v>-74.513000000000005</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>0.8140000000000065</c:v>
+                  <c:v>-53.878999999999905</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-59.026999999999987</c:v>
+                  <c:v>-108.63200000000002</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>13.420999999999992</c:v>
+                  <c:v>-113.20799999999983</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-75.507000000000033</c:v>
+                  <c:v>-205.11800000000017</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-58.750000000000014</c:v>
+                  <c:v>8.0069999999999908</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-197.49700000000004</c:v>
+                  <c:v>-214.90500000000006</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-122.875</c:v>
+                  <c:v>-99.260000000000048</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-191.58400000000009</c:v>
+                  <c:v>-197.89600000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-193.36200000000025</c:v>
+                  <c:v>-179.38700000000023</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-188.84100000000001</c:v>
+                  <c:v>-194.65200000000002</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-195.10499999999982</c:v>
+                  <c:v>-192.83299999999986</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-118.74599999999982</c:v>
+                  <c:v>-125.4409999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-280.59900000000033</c:v>
+                  <c:v>-286.47400000000033</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-85.670999999999964</c:v>
+                  <c:v>-83.578999999999979</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-234.333</c:v>
+                  <c:v>-232.68800000000005</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1767,94 +1767,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>-87.33299999999997</c:v>
+                  <c:v>-80.321999999999989</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-92.926999999999978</c:v>
+                  <c:v>-102.13499999999998</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-107.68599999999999</c:v>
+                  <c:v>-106.40899999999999</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-186.20799999999997</c:v>
+                  <c:v>-194.41</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-76.975999999999971</c:v>
+                  <c:v>-79.969999999999985</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-116.59099999999989</c:v>
+                  <c:v>-124.12199999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-124.21499999999992</c:v>
+                  <c:v>-125.93799999999987</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-56.097999999999971</c:v>
+                  <c:v>-65.623999999999967</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-89.161999999999964</c:v>
+                  <c:v>-93.367999999999967</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-59.36399999999999</c:v>
+                  <c:v>-56.262999999999977</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-33.309000000000005</c:v>
+                  <c:v>-37.85199999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-101.45999999999998</c:v>
+                  <c:v>-113.64699999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-165.82299999999995</c:v>
+                  <c:v>-185.47899999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-76.695000000000007</c:v>
+                  <c:v>-54.69100000000001</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-51.128999999999984</c:v>
+                  <c:v>-43.817999999999998</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-33.237999999999992</c:v>
+                  <c:v>-28.80899999999999</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-187.94099999999997</c:v>
+                  <c:v>-190.02499999999995</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-143.13800000000001</c:v>
+                  <c:v>-146.08799999999997</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-79.863000000000028</c:v>
+                  <c:v>-139.21299999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-96.802999999999969</c:v>
+                  <c:v>-108.69000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-74.227999999999994</c:v>
+                  <c:v>-78.413999999999973</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-122.875</c:v>
+                  <c:v>-99.260000000000048</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-214.62100000000004</c:v>
+                  <c:v>-215.59</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-191.50400000000022</c:v>
+                  <c:v>-180.08200000000016</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-190.46999999999997</c:v>
+                  <c:v>-192.48499999999996</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-99.288999999999959</c:v>
+                  <c:v>-110.13099999999994</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-116.65599999999998</c:v>
+                  <c:v>-124.44599999999994</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-177.57900000000001</c:v>
+                  <c:v>-179.33</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-105.25399999999999</c:v>
+                  <c:v>-116.44999999999997</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-176.25199999999995</c:v>
+                  <c:v>-175.52500000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1899,94 +1899,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>-83.953999999999979</c:v>
+                  <c:v>-88.49799999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-81.792999999999964</c:v>
+                  <c:v>-75.112999999999985</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-142.77299999999997</c:v>
+                  <c:v>-143.61200000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-184.68099999999998</c:v>
+                  <c:v>-178.74099999999996</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-72.106999999999971</c:v>
+                  <c:v>-71.772999999999982</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-127.85399999999997</c:v>
+                  <c:v>-148.29300000000001</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-217.63900000000004</c:v>
+                  <c:v>-204.07999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-70.777999999999992</c:v>
+                  <c:v>-75.577999999999975</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-82.573999999999984</c:v>
+                  <c:v>-78.123999999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-43.571999999999989</c:v>
+                  <c:v>-43.769999999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-26.684000000000005</c:v>
+                  <c:v>-36.071999999999989</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-107.75</c:v>
+                  <c:v>-118.97</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-68.205999999999989</c:v>
+                  <c:v>-73.092000000000013</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-89.818000000000012</c:v>
+                  <c:v>-69.450000000000017</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-42.427999999999997</c:v>
+                  <c:v>-47.326000000000001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-22.391999999999992</c:v>
+                  <c:v>-4.6049999999999978</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-171.63199999999995</c:v>
+                  <c:v>-189.67699999999999</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-150.91599999999997</c:v>
+                  <c:v>-153.63</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-76.243000000000023</c:v>
+                  <c:v>-143.08799999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-101.88300000000001</c:v>
+                  <c:v>-68.823999999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-75.795999999999978</c:v>
+                  <c:v>-80.34899999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-125.92900000000002</c:v>
+                  <c:v>-96.960000000000065</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-219.29300000000003</c:v>
+                  <c:v>-222.66199999999998</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-180.74600000000007</c:v>
+                  <c:v>-160.74700000000007</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-169.71700000000001</c:v>
+                  <c:v>-168.81299999999999</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-129.161</c:v>
+                  <c:v>-132.56599999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-106.78600000000002</c:v>
+                  <c:v>-104.31399999999996</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-101.53999999999998</c:v>
+                  <c:v>-121.46</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-118.31599999999996</c:v>
+                  <c:v>-113.16200000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-150.62599999999995</c:v>
+                  <c:v>-153.83099999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2105,6 +2105,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2173,6 +2174,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12243,7 +12245,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A29" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
@@ -15783,8 +15785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15808,28 +15810,28 @@
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="11">
-        <v>-140.74899999999994</v>
+        <v>-141.35299999999989</v>
       </c>
       <c r="C2" s="11">
-        <v>-87.33299999999997</v>
+        <v>-80.321999999999989</v>
       </c>
       <c r="D2" s="11">
-        <v>-83.953999999999979</v>
+        <v>-88.49799999999999</v>
       </c>
       <c r="E2" s="11">
         <f>IF(D2&gt;C2,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="11">
-        <v>-146.71599999999987</v>
+        <v>-142.40799999999984</v>
       </c>
       <c r="C3" s="11">
-        <v>-92.926999999999978</v>
+        <v>-102.13499999999998</v>
       </c>
       <c r="D3" s="11">
-        <v>-81.792999999999964</v>
+        <v>-75.112999999999985</v>
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E31" si="0">IF(D3&gt;C3,1,0)</f>
@@ -15838,13 +15840,13 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="11">
-        <v>-159.93199999999999</v>
+        <v>-146.70199999999997</v>
       </c>
       <c r="C4" s="11">
-        <v>-107.68599999999999</v>
+        <v>-106.40899999999999</v>
       </c>
       <c r="D4" s="11">
-        <v>-142.77299999999997</v>
+        <v>-143.61200000000002</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
@@ -15853,13 +15855,13 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="11">
-        <v>-187.04899999999998</v>
+        <v>-191.87799999999996</v>
       </c>
       <c r="C5" s="11">
-        <v>-186.20799999999997</v>
+        <v>-194.41</v>
       </c>
       <c r="D5" s="11">
-        <v>-184.68099999999998</v>
+        <v>-178.74099999999996</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
@@ -15868,13 +15870,13 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="11">
-        <v>-128.40999999999994</v>
+        <v>-129.77099999999993</v>
       </c>
       <c r="C6" s="11">
-        <v>-76.975999999999971</v>
+        <v>-79.969999999999985</v>
       </c>
       <c r="D6" s="11">
-        <v>-72.106999999999971</v>
+        <v>-71.772999999999982</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
@@ -15883,13 +15885,13 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="11">
-        <v>-142.56999999999982</v>
+        <v>-145.54599999999985</v>
       </c>
       <c r="C7" s="11">
-        <v>-116.59099999999989</v>
+        <v>-124.12199999999993</v>
       </c>
       <c r="D7" s="11">
-        <v>-127.85399999999997</v>
+        <v>-148.29300000000001</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
@@ -15898,13 +15900,13 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="11">
-        <v>-126.36899999999989</v>
+        <v>-126.19799999999991</v>
       </c>
       <c r="C8" s="11">
-        <v>-124.21499999999992</v>
+        <v>-125.93799999999987</v>
       </c>
       <c r="D8" s="11">
-        <v>-217.63900000000004</v>
+        <v>-204.07999999999996</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
@@ -15913,13 +15915,13 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
-        <v>-69.602999999999895</v>
+        <v>-68.389999999999915</v>
       </c>
       <c r="C9" s="11">
-        <v>-56.097999999999971</v>
+        <v>-65.623999999999967</v>
       </c>
       <c r="D9" s="11">
-        <v>-70.777999999999992</v>
+        <v>-75.577999999999975</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
@@ -15928,13 +15930,13 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
-        <v>-86.481999999999886</v>
+        <v>-91.423999999999893</v>
       </c>
       <c r="C10" s="11">
-        <v>-89.161999999999964</v>
+        <v>-93.367999999999967</v>
       </c>
       <c r="D10" s="11">
-        <v>-82.573999999999984</v>
+        <v>-78.123999999999995</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
@@ -15943,13 +15945,13 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
-        <v>-44.18499999999996</v>
+        <v>-54.461999999999932</v>
       </c>
       <c r="C11" s="11">
-        <v>-59.36399999999999</v>
+        <v>-56.262999999999977</v>
       </c>
       <c r="D11" s="11">
-        <v>-43.571999999999989</v>
+        <v>-43.769999999999996</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
@@ -15958,13 +15960,13 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
-        <v>-59.221999999999944</v>
+        <v>-65.255999999999929</v>
       </c>
       <c r="C12" s="11">
-        <v>-33.309000000000005</v>
+        <v>-37.85199999999999</v>
       </c>
       <c r="D12" s="11">
-        <v>-26.684000000000005</v>
+        <v>-36.071999999999989</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="0"/>
@@ -15973,13 +15975,13 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
-        <v>-158.73100000000017</v>
+        <v>-160.41000000000011</v>
       </c>
       <c r="C13" s="11">
-        <v>-101.45999999999998</v>
+        <v>-113.64699999999998</v>
       </c>
       <c r="D13" s="11">
-        <v>-107.75</v>
+        <v>-118.97</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="0"/>
@@ -15988,13 +15990,13 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
-        <v>-173.87099999999992</v>
+        <v>-174.51399999999992</v>
       </c>
       <c r="C14" s="11">
-        <v>-165.82299999999995</v>
+        <v>-185.47899999999998</v>
       </c>
       <c r="D14" s="11">
-        <v>-68.205999999999989</v>
+        <v>-73.092000000000013</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
@@ -16003,13 +16005,13 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
-        <v>-88.013999999999996</v>
+        <v>-63.915000000000006</v>
       </c>
       <c r="C15" s="11">
-        <v>-76.695000000000007</v>
+        <v>-54.69100000000001</v>
       </c>
       <c r="D15" s="11">
-        <v>-89.818000000000012</v>
+        <v>-69.450000000000017</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
@@ -16018,28 +16020,28 @@
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
-        <v>-74.768000000000001</v>
+        <v>-74.513000000000005</v>
       </c>
       <c r="C16" s="11">
-        <v>-51.128999999999984</v>
+        <v>-43.817999999999998</v>
       </c>
       <c r="D16" s="11">
-        <v>-42.427999999999997</v>
+        <v>-47.326000000000001</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
-        <v>0.8140000000000065</v>
+        <v>-53.878999999999905</v>
       </c>
       <c r="C17" s="11">
-        <v>-33.237999999999992</v>
+        <v>-28.80899999999999</v>
       </c>
       <c r="D17" s="11">
-        <v>-22.391999999999992</v>
+        <v>-4.6049999999999978</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="0"/>
@@ -16048,13 +16050,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
-        <v>-59.026999999999987</v>
+        <v>-108.63200000000002</v>
       </c>
       <c r="C18" s="11">
-        <v>-187.94099999999997</v>
+        <v>-190.02499999999995</v>
       </c>
       <c r="D18" s="11">
-        <v>-171.63199999999995</v>
+        <v>-189.67699999999999</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="0"/>
@@ -16063,13 +16065,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
-        <v>13.420999999999992</v>
+        <v>-113.20799999999983</v>
       </c>
       <c r="C19" s="11">
-        <v>-143.13800000000001</v>
+        <v>-146.08799999999997</v>
       </c>
       <c r="D19" s="11">
-        <v>-150.91599999999997</v>
+        <v>-153.63</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="0"/>
@@ -16078,43 +16080,43 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
-        <v>-75.507000000000033</v>
+        <v>-205.11800000000017</v>
       </c>
       <c r="C20" s="11">
-        <v>-79.863000000000028</v>
+        <v>-139.21299999999999</v>
       </c>
       <c r="D20" s="11">
-        <v>-76.243000000000023</v>
+        <v>-143.08799999999999</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
-        <v>-58.750000000000014</v>
+        <v>8.0069999999999908</v>
       </c>
       <c r="C21" s="11">
-        <v>-96.802999999999969</v>
+        <v>-108.69000000000001</v>
       </c>
       <c r="D21" s="11">
-        <v>-101.88300000000001</v>
+        <v>-68.823999999999998</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
-        <v>-197.49700000000004</v>
+        <v>-214.90500000000006</v>
       </c>
       <c r="C22" s="11">
-        <v>-74.227999999999994</v>
+        <v>-78.413999999999973</v>
       </c>
       <c r="D22" s="11">
-        <v>-75.795999999999978</v>
+        <v>-80.34899999999999</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="0"/>
@@ -16123,28 +16125,28 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
-        <v>-122.875</v>
+        <v>-99.260000000000048</v>
       </c>
       <c r="C23" s="11">
-        <v>-122.875</v>
+        <v>-99.260000000000048</v>
       </c>
       <c r="D23" s="11">
-        <v>-125.92900000000002</v>
+        <v>-96.960000000000065</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
-        <v>-191.58400000000009</v>
+        <v>-197.89600000000002</v>
       </c>
       <c r="C24" s="11">
-        <v>-214.62100000000004</v>
+        <v>-215.59</v>
       </c>
       <c r="D24" s="11">
-        <v>-219.29300000000003</v>
+        <v>-222.66199999999998</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="0"/>
@@ -16153,13 +16155,13 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
-        <v>-193.36200000000025</v>
+        <v>-179.38700000000023</v>
       </c>
       <c r="C25" s="11">
-        <v>-191.50400000000022</v>
+        <v>-180.08200000000016</v>
       </c>
       <c r="D25" s="11">
-        <v>-180.74600000000007</v>
+        <v>-160.74700000000007</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="0"/>
@@ -16168,13 +16170,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
-        <v>-188.84100000000001</v>
+        <v>-194.65200000000002</v>
       </c>
       <c r="C26" s="11">
-        <v>-190.46999999999997</v>
+        <v>-192.48499999999996</v>
       </c>
       <c r="D26" s="11">
-        <v>-169.71700000000001</v>
+        <v>-168.81299999999999</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="0"/>
@@ -16183,13 +16185,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
-        <v>-195.10499999999982</v>
+        <v>-192.83299999999986</v>
       </c>
       <c r="C27" s="11">
-        <v>-99.288999999999959</v>
+        <v>-110.13099999999994</v>
       </c>
       <c r="D27" s="11">
-        <v>-129.161</v>
+        <v>-132.56599999999997</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" si="0"/>
@@ -16198,13 +16200,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
-        <v>-118.74599999999982</v>
+        <v>-125.4409999999998</v>
       </c>
       <c r="C28" s="11">
-        <v>-116.65599999999998</v>
+        <v>-124.44599999999994</v>
       </c>
       <c r="D28" s="11">
-        <v>-106.78600000000002</v>
+        <v>-104.31399999999996</v>
       </c>
       <c r="E28" s="11">
         <f t="shared" si="0"/>
@@ -16213,13 +16215,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
-        <v>-280.59900000000033</v>
+        <v>-286.47400000000033</v>
       </c>
       <c r="C29" s="11">
-        <v>-177.57900000000001</v>
+        <v>-179.33</v>
       </c>
       <c r="D29" s="11">
-        <v>-101.53999999999998</v>
+        <v>-121.46</v>
       </c>
       <c r="E29" s="11">
         <f t="shared" si="0"/>
@@ -16228,28 +16230,28 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
-        <v>-85.670999999999964</v>
+        <v>-83.578999999999979</v>
       </c>
       <c r="C30" s="11">
-        <v>-105.25399999999999</v>
+        <v>-116.44999999999997</v>
       </c>
       <c r="D30" s="11">
-        <v>-118.31599999999996</v>
+        <v>-113.16200000000001</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
-        <v>-234.333</v>
+        <v>-232.68800000000005</v>
       </c>
       <c r="C31" s="11">
-        <v>-176.25199999999995</v>
+        <v>-175.52500000000001</v>
       </c>
       <c r="D31" s="11">
-        <v>-150.62599999999995</v>
+        <v>-153.83099999999996</v>
       </c>
       <c r="E31" s="11">
         <f t="shared" si="0"/>
@@ -16262,15 +16264,15 @@
       </c>
       <c r="B32" s="20">
         <f>AVERAGE(B2:B31)</f>
-        <v>-125.81109999999997</v>
+        <v>-135.22283333333331</v>
       </c>
       <c r="C32" s="20">
         <f>AVERAGE(C2:C31)</f>
-        <v>-114.48956666666665</v>
+        <v>-118.28619999999999</v>
       </c>
       <c r="D32" s="20">
         <f>AVERAGE(D2:D31)</f>
-        <v>-111.45289999999997</v>
+        <v>-112.23933333333331</v>
       </c>
     </row>
   </sheetData>

--- a/migforecasting/clustering/for paper/examples for improv test.xlsx
+++ b/migforecasting/clustering/for paper/examples for improv test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="examples" sheetId="1" r:id="rId1"/>
@@ -834,184 +834,184 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>-111.20199999999986</c:v>
+                  <c:v>-115.12899999999991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-46.659999999999982</c:v>
+                  <c:v>-24.660000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-240.85599999999971</c:v>
+                  <c:v>-242.51800000000011</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-109.95699999999981</c:v>
+                  <c:v>-98.028000000000048</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-154.35899999999992</c:v>
+                  <c:v>-180.32800000000015</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-71.085000000000036</c:v>
+                  <c:v>-80.372999999999919</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-135.73299999999992</c:v>
+                  <c:v>-151.27999999999997</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-106.66399999999996</c:v>
+                  <c:v>-99.221999999999895</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-91.310999999999964</c:v>
+                  <c:v>-102.67399999999995</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-170.27100000000002</c:v>
+                  <c:v>-103.34899999999996</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-226.63199999999992</c:v>
+                  <c:v>-228.25700000000015</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-177.19100000000003</c:v>
+                  <c:v>-284.94100000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-197.47799999999987</c:v>
+                  <c:v>-206.40300000000002</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-295.00400000000002</c:v>
+                  <c:v>-314.22500000000019</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-15.560000000000002</c:v>
+                  <c:v>-115.45199999999997</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-244.09599999999995</c:v>
+                  <c:v>-305.93999999999977</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-108.90699999999988</c:v>
+                  <c:v>-90.110000000000042</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-179.28400000000011</c:v>
+                  <c:v>-158.32900000000001</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-168.81799999999981</c:v>
+                  <c:v>-157.18400000000014</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-209.66400000000021</c:v>
+                  <c:v>-214.46300000000011</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-139.64199999999988</c:v>
+                  <c:v>-141.28400000000011</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-149.68499999999986</c:v>
+                  <c:v>-148.92000000000021</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-166.41299999999995</c:v>
+                  <c:v>-153.36099999999993</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-175.14</c:v>
+                  <c:v>-215.86300000000011</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-133.13399999999996</c:v>
+                  <c:v>-132.34600000000006</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-145.69799999999987</c:v>
+                  <c:v>-144.02799999999991</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-121.49299999999987</c:v>
+                  <c:v>-122.32399999999984</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-68.912999999999883</c:v>
+                  <c:v>-59.91899999999989</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-89.249999999999901</c:v>
+                  <c:v>-84.4020000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-42.673999999999964</c:v>
+                  <c:v>-38.164999999999914</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-58.625999999999934</c:v>
+                  <c:v>-65.343000000000046</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-158.27800000000016</c:v>
+                  <c:v>-153.66000000000003</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-168.14199999999991</c:v>
+                  <c:v>-163.69899999999998</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-98.890000000000015</c:v>
+                  <c:v>82.710000000000022</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-85.644000000000005</c:v>
+                  <c:v>2.6879999999999784</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-44.685999999999936</c:v>
+                  <c:v>-54.07900000000005</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-99.022999999999982</c:v>
+                  <c:v>-101.89400000000003</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-114.69799999999987</c:v>
+                  <c:v>-125.572</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-207.06100000000015</c:v>
+                  <c:v>-197.6839999999998</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>15.657999999999992</c:v>
+                  <c:v>36.057999999999979</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-155.22299999999984</c:v>
+                  <c:v>-13.574999999999998</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-240.22799999999978</c:v>
+                  <c:v>-258.54399999999987</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-280.27000000000027</c:v>
+                  <c:v>-147.58700000000002</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-363.27800000000036</c:v>
+                  <c:v>86.981999999999999</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-89.835999999999999</c:v>
+                  <c:v>-264.26399999999995</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-99.59899999999999</c:v>
+                  <c:v>-11.911999999999997</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-143.61199999999977</c:v>
+                  <c:v>-138.20700000000002</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-240.95999999999987</c:v>
+                  <c:v>-231.28600000000012</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-187.51500000000004</c:v>
+                  <c:v>-217.47599999999989</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-152.76799999999997</c:v>
+                  <c:v>-166.1110000000001</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-227.58500000000009</c:v>
+                  <c:v>-212.79399999999987</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-112.81300000000002</c:v>
+                  <c:v>-232.77799999999996</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-180.47100000000009</c:v>
+                  <c:v>-170.72200000000001</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-193.62900000000027</c:v>
+                  <c:v>-200.64600000000024</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-218.69099999999997</c:v>
+                  <c:v>-378.15200000000033</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-183.65299999999985</c:v>
+                  <c:v>-215.72999999999988</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-126.91899999999987</c:v>
+                  <c:v>-135.04500000000013</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-265.40700000000027</c:v>
+                  <c:v>-270.65699999999998</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-82.686999999999983</c:v>
+                  <c:v>-83.719000000000023</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-228.23200000000006</c:v>
+                  <c:v>-224.661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1068,184 +1068,184 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="60"/>
                 <c:pt idx="0">
-                  <c:v>-78.375999999999976</c:v>
+                  <c:v>-76.265999999999991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-125.97199999999998</c:v>
+                  <c:v>-66.397000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-230.78999999999988</c:v>
+                  <c:v>-218.227</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-74.557999999999993</c:v>
+                  <c:v>-70.703000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-142.483</c:v>
+                  <c:v>-138.18199999999996</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-91.874999999999957</c:v>
+                  <c:v>-63.804999999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-61.379999999999981</c:v>
+                  <c:v>-18.048000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-180.49999999999994</c:v>
+                  <c:v>-168.41999999999996</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-73.611999999999981</c:v>
+                  <c:v>-79.536999999999992</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-85.929999999999978</c:v>
+                  <c:v>19.730999999999998</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-154.78400000000002</c:v>
+                  <c:v>-171.70400000000001</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-152.02600000000007</c:v>
+                  <c:v>-197.94899999999998</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-5.2660000000000036</c:v>
+                  <c:v>-61.673999999999992</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-265.673</c:v>
+                  <c:v>-288.28500000000003</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>36.029000000000011</c:v>
+                  <c:v>-85.753999999999991</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-229.21299999999997</c:v>
+                  <c:v>-280.98399999999981</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-107.61899999999999</c:v>
+                  <c:v>-77.968999999999994</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-68.685999999999993</c:v>
+                  <c:v>-46.654999999999987</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-99.60499999999999</c:v>
+                  <c:v>-125.18499999999995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-157.39500000000004</c:v>
+                  <c:v>-143.53899999999999</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-82.534999999999997</c:v>
+                  <c:v>-80.330000000000013</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-95.034999999999997</c:v>
+                  <c:v>-83.926000000000002</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-102.848</c:v>
+                  <c:v>-117.37999999999995</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-194.46199999999999</c:v>
+                  <c:v>-178.01400000000004</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-79.182999999999964</c:v>
+                  <c:v>-73.586999999999989</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-123.5569999999999</c:v>
+                  <c:v>-125.79899999999994</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-122.2559999999999</c:v>
+                  <c:v>-116.02799999999988</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-60.650999999999975</c:v>
+                  <c:v>-61.514999999999965</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-94.985999999999976</c:v>
+                  <c:v>-87.285999999999973</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-56.833999999999968</c:v>
+                  <c:v>-55.594999999999985</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-32.007999999999996</c:v>
+                  <c:v>-41.951999999999948</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-118.76299999999999</c:v>
+                  <c:v>-95.420999999999992</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-177.15400000000002</c:v>
+                  <c:v>-193.387</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>-83.421000000000021</c:v>
+                  <c:v>82.861000000000018</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>-39.001000000000005</c:v>
+                  <c:v>26.185999999999979</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>-28.974999999999987</c:v>
+                  <c:v>-39.445999999999991</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>-194.45</c:v>
+                  <c:v>-190.97299999999998</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>-161.24299999999997</c:v>
+                  <c:v>-148.113</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>-144.40199999999999</c:v>
+                  <c:v>-134.31199999999995</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>-133.91800000000001</c:v>
+                  <c:v>-96.592999999999989</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>-52.636999999999986</c:v>
+                  <c:v>32.588000000000001</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>-211.458</c:v>
+                  <c:v>-239.27199999999999</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>-249.1010000000002</c:v>
+                  <c:v>-110.035</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>-85.417000000000002</c:v>
+                  <c:v>91.218000000000032</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>-97.991000000000014</c:v>
+                  <c:v>-266.17099999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>-126.63999999999999</c:v>
+                  <c:v>-32.132000000000005</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>-179.57300000000001</c:v>
+                  <c:v>-161.69899999999998</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>-230.43700000000004</c:v>
+                  <c:v>-229.40500000000003</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>-247.369</c:v>
+                  <c:v>-269.839</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>-70.185999999999979</c:v>
+                  <c:v>-117.979</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>-65.047999999999973</c:v>
+                  <c:v>-78.414000000000016</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>-112.81300000000002</c:v>
+                  <c:v>-232.77799999999996</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>-187.06900000000007</c:v>
+                  <c:v>-181.96800000000002</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>-187.1910000000002</c:v>
+                  <c:v>-200.10200000000015</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>-217.94</c:v>
+                  <c:v>-289.17200000000014</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>-97.473999999999975</c:v>
+                  <c:v>-97.758999999999986</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>-121.35499999999998</c:v>
+                  <c:v>-124.25</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>-162.29000000000002</c:v>
+                  <c:v>-182.08999999999997</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>-118.58199999999999</c:v>
+                  <c:v>-117.63400000000001</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>-189.48399999999998</c:v>
+                  <c:v>-162.21899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -12245,8 +12245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X100"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F101" sqref="F101"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X41" sqref="X41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14803,10 +14803,10 @@
         <v>-140</v>
       </c>
       <c r="D40" s="11">
-        <v>-111.20199999999986</v>
+        <v>-115.12899999999991</v>
       </c>
       <c r="E40" s="11">
-        <v>-78.375999999999976</v>
+        <v>-76.265999999999991</v>
       </c>
       <c r="F40" s="11">
         <f>IF(E40&gt;D40,1,0)</f>
@@ -14835,10 +14835,10 @@
         <v>-476</v>
       </c>
       <c r="D41" s="11">
-        <v>-46.659999999999982</v>
+        <v>-24.660000000000007</v>
       </c>
       <c r="E41" s="11">
-        <v>-125.97199999999998</v>
+        <v>-66.397000000000006</v>
       </c>
       <c r="F41" s="11">
         <f>IF(E41&gt;D41,1,0)</f>
@@ -14868,10 +14868,10 @@
         <v>-246</v>
       </c>
       <c r="D42" s="11">
-        <v>-240.85599999999971</v>
+        <v>-242.51800000000011</v>
       </c>
       <c r="E42" s="11">
-        <v>-230.78999999999988</v>
+        <v>-218.227</v>
       </c>
       <c r="F42" s="11">
         <f t="shared" ref="F42:F99" si="1">IF(E42&gt;D42,1,0)</f>
@@ -14898,10 +14898,10 @@
         <v>-166</v>
       </c>
       <c r="D43" s="11">
-        <v>-109.95699999999981</v>
+        <v>-98.028000000000048</v>
       </c>
       <c r="E43" s="11">
-        <v>-74.557999999999993</v>
+        <v>-70.703000000000003</v>
       </c>
       <c r="F43" s="11">
         <f t="shared" si="1"/>
@@ -14914,10 +14914,10 @@
         <v>-210</v>
       </c>
       <c r="D44" s="11">
-        <v>-154.35899999999992</v>
+        <v>-180.32800000000015</v>
       </c>
       <c r="E44" s="11">
-        <v>-142.483</v>
+        <v>-138.18199999999996</v>
       </c>
       <c r="F44" s="11">
         <f t="shared" si="1"/>
@@ -14930,14 +14930,14 @@
         <v>-179</v>
       </c>
       <c r="D45" s="11">
-        <v>-71.085000000000036</v>
+        <v>-80.372999999999919</v>
       </c>
       <c r="E45" s="11">
-        <v>-91.874999999999957</v>
+        <v>-63.804999999999993</v>
       </c>
       <c r="F45" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V45" s="11"/>
     </row>
@@ -14946,10 +14946,10 @@
         <v>-125</v>
       </c>
       <c r="D46" s="11">
-        <v>-135.73299999999992</v>
+        <v>-151.27999999999997</v>
       </c>
       <c r="E46" s="11">
-        <v>-61.379999999999981</v>
+        <v>-18.048000000000002</v>
       </c>
       <c r="F46" s="11">
         <f t="shared" si="1"/>
@@ -14962,10 +14962,10 @@
         <v>-72</v>
       </c>
       <c r="D47" s="11">
-        <v>-106.66399999999996</v>
+        <v>-99.221999999999895</v>
       </c>
       <c r="E47" s="11">
-        <v>-180.49999999999994</v>
+        <v>-168.41999999999996</v>
       </c>
       <c r="F47" s="11">
         <f t="shared" si="1"/>
@@ -14978,10 +14978,10 @@
         <v>-110</v>
       </c>
       <c r="D48" s="11">
-        <v>-91.310999999999964</v>
+        <v>-102.67399999999995</v>
       </c>
       <c r="E48" s="11">
-        <v>-73.611999999999981</v>
+        <v>-79.536999999999992</v>
       </c>
       <c r="F48" s="11">
         <f t="shared" si="1"/>
@@ -14993,10 +14993,10 @@
         <v>-179</v>
       </c>
       <c r="D49" s="11">
-        <v>-170.27100000000002</v>
+        <v>-103.34899999999996</v>
       </c>
       <c r="E49" s="11">
-        <v>-85.929999999999978</v>
+        <v>19.730999999999998</v>
       </c>
       <c r="F49" s="11">
         <f t="shared" si="1"/>
@@ -15008,10 +15008,10 @@
         <v>-291</v>
       </c>
       <c r="D50" s="11">
-        <v>-226.63199999999992</v>
+        <v>-228.25700000000015</v>
       </c>
       <c r="E50" s="11">
-        <v>-154.78400000000002</v>
+        <v>-171.70400000000001</v>
       </c>
       <c r="F50" s="11">
         <f t="shared" si="1"/>
@@ -15023,10 +15023,10 @@
         <v>-284</v>
       </c>
       <c r="D51" s="11">
-        <v>-177.19100000000003</v>
+        <v>-284.94100000000003</v>
       </c>
       <c r="E51" s="11">
-        <v>-152.02600000000007</v>
+        <v>-197.94899999999998</v>
       </c>
       <c r="F51" s="11">
         <f t="shared" si="1"/>
@@ -15038,10 +15038,10 @@
         <v>-274</v>
       </c>
       <c r="D52" s="11">
-        <v>-197.47799999999987</v>
+        <v>-206.40300000000002</v>
       </c>
       <c r="E52" s="11">
-        <v>-5.2660000000000036</v>
+        <v>-61.673999999999992</v>
       </c>
       <c r="F52" s="11">
         <f t="shared" si="1"/>
@@ -15053,10 +15053,10 @@
         <v>-340</v>
       </c>
       <c r="D53" s="11">
-        <v>-295.00400000000002</v>
+        <v>-314.22500000000019</v>
       </c>
       <c r="E53" s="11">
-        <v>-265.673</v>
+        <v>-288.28500000000003</v>
       </c>
       <c r="F53" s="11">
         <f t="shared" si="1"/>
@@ -15068,10 +15068,10 @@
         <v>-193</v>
       </c>
       <c r="D54" s="11">
-        <v>-15.560000000000002</v>
+        <v>-115.45199999999997</v>
       </c>
       <c r="E54" s="11">
-        <v>36.029000000000011</v>
+        <v>-85.753999999999991</v>
       </c>
       <c r="F54" s="11">
         <f t="shared" si="1"/>
@@ -15083,10 +15083,10 @@
         <v>-329</v>
       </c>
       <c r="D55" s="11">
-        <v>-244.09599999999995</v>
+        <v>-305.93999999999977</v>
       </c>
       <c r="E55" s="11">
-        <v>-229.21299999999997</v>
+        <v>-280.98399999999981</v>
       </c>
       <c r="F55" s="11">
         <f t="shared" si="1"/>
@@ -15098,10 +15098,10 @@
         <v>-103</v>
       </c>
       <c r="D56" s="11">
-        <v>-108.90699999999988</v>
+        <v>-90.110000000000042</v>
       </c>
       <c r="E56" s="11">
-        <v>-107.61899999999999</v>
+        <v>-77.968999999999994</v>
       </c>
       <c r="F56" s="11">
         <f t="shared" si="1"/>
@@ -15113,10 +15113,10 @@
         <v>-234</v>
       </c>
       <c r="D57" s="11">
-        <v>-179.28400000000011</v>
+        <v>-158.32900000000001</v>
       </c>
       <c r="E57" s="11">
-        <v>-68.685999999999993</v>
+        <v>-46.654999999999987</v>
       </c>
       <c r="F57" s="11">
         <f t="shared" si="1"/>
@@ -15128,10 +15128,10 @@
         <v>-154</v>
       </c>
       <c r="D58" s="11">
-        <v>-168.81799999999981</v>
+        <v>-157.18400000000014</v>
       </c>
       <c r="E58" s="11">
-        <v>-99.60499999999999</v>
+        <v>-125.18499999999995</v>
       </c>
       <c r="F58" s="11">
         <f t="shared" si="1"/>
@@ -15143,10 +15143,10 @@
         <v>-219</v>
       </c>
       <c r="D59" s="11">
-        <v>-209.66400000000021</v>
+        <v>-214.46300000000011</v>
       </c>
       <c r="E59" s="11">
-        <v>-157.39500000000004</v>
+        <v>-143.53899999999999</v>
       </c>
       <c r="F59" s="11">
         <f t="shared" si="1"/>
@@ -15158,10 +15158,10 @@
         <v>-168</v>
       </c>
       <c r="D60" s="11">
-        <v>-139.64199999999988</v>
+        <v>-141.28400000000011</v>
       </c>
       <c r="E60" s="11">
-        <v>-82.534999999999997</v>
+        <v>-80.330000000000013</v>
       </c>
       <c r="F60" s="11">
         <f t="shared" si="1"/>
@@ -15173,10 +15173,10 @@
         <v>-174</v>
       </c>
       <c r="D61" s="11">
-        <v>-149.68499999999986</v>
+        <v>-148.92000000000021</v>
       </c>
       <c r="E61" s="11">
-        <v>-95.034999999999997</v>
+        <v>-83.926000000000002</v>
       </c>
       <c r="F61" s="11">
         <f t="shared" si="1"/>
@@ -15188,10 +15188,10 @@
         <v>-193</v>
       </c>
       <c r="D62" s="11">
-        <v>-166.41299999999995</v>
+        <v>-153.36099999999993</v>
       </c>
       <c r="E62" s="11">
-        <v>-102.848</v>
+        <v>-117.37999999999995</v>
       </c>
       <c r="F62" s="11">
         <f t="shared" si="1"/>
@@ -15203,14 +15203,14 @@
         <v>-121</v>
       </c>
       <c r="D63" s="11">
-        <v>-175.14</v>
+        <v>-215.86300000000011</v>
       </c>
       <c r="E63" s="11">
-        <v>-194.46199999999999</v>
+        <v>-178.01400000000004</v>
       </c>
       <c r="F63" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="3:6" x14ac:dyDescent="0.25">
@@ -15218,10 +15218,10 @@
         <v>-158</v>
       </c>
       <c r="D64" s="11">
-        <v>-133.13399999999996</v>
+        <v>-132.34600000000006</v>
       </c>
       <c r="E64" s="11">
-        <v>-79.182999999999964</v>
+        <v>-73.586999999999989</v>
       </c>
       <c r="F64" s="11">
         <f t="shared" si="1"/>
@@ -15233,10 +15233,10 @@
         <v>-139</v>
       </c>
       <c r="D65" s="11">
-        <v>-145.69799999999987</v>
+        <v>-144.02799999999991</v>
       </c>
       <c r="E65" s="11">
-        <v>-123.5569999999999</v>
+        <v>-125.79899999999994</v>
       </c>
       <c r="F65" s="11">
         <f t="shared" si="1"/>
@@ -15248,14 +15248,14 @@
         <v>-126</v>
       </c>
       <c r="D66" s="11">
-        <v>-121.49299999999987</v>
+        <v>-122.32399999999984</v>
       </c>
       <c r="E66" s="11">
-        <v>-122.2559999999999</v>
+        <v>-116.02799999999988</v>
       </c>
       <c r="F66" s="11">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="3:6" x14ac:dyDescent="0.25">
@@ -15263,14 +15263,14 @@
         <v>-61</v>
       </c>
       <c r="D67" s="11">
-        <v>-68.912999999999883</v>
+        <v>-59.91899999999989</v>
       </c>
       <c r="E67" s="11">
-        <v>-60.650999999999975</v>
+        <v>-61.514999999999965</v>
       </c>
       <c r="F67" s="11">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="3:6" x14ac:dyDescent="0.25">
@@ -15278,10 +15278,10 @@
         <v>-75</v>
       </c>
       <c r="D68" s="11">
-        <v>-89.249999999999901</v>
+        <v>-84.4020000000001</v>
       </c>
       <c r="E68" s="11">
-        <v>-94.985999999999976</v>
+        <v>-87.285999999999973</v>
       </c>
       <c r="F68" s="11">
         <f t="shared" si="1"/>
@@ -15293,10 +15293,10 @@
         <v>-18</v>
       </c>
       <c r="D69" s="11">
-        <v>-42.673999999999964</v>
+        <v>-38.164999999999914</v>
       </c>
       <c r="E69" s="11">
-        <v>-56.833999999999968</v>
+        <v>-55.594999999999985</v>
       </c>
       <c r="F69" s="11">
         <f t="shared" si="1"/>
@@ -15308,10 +15308,10 @@
         <v>-76</v>
       </c>
       <c r="D70" s="11">
-        <v>-58.625999999999934</v>
+        <v>-65.343000000000046</v>
       </c>
       <c r="E70" s="11">
-        <v>-32.007999999999996</v>
+        <v>-41.951999999999948</v>
       </c>
       <c r="F70" s="11">
         <f t="shared" si="1"/>
@@ -15323,10 +15323,10 @@
         <v>-164</v>
       </c>
       <c r="D71" s="11">
-        <v>-158.27800000000016</v>
+        <v>-153.66000000000003</v>
       </c>
       <c r="E71" s="11">
-        <v>-118.76299999999999</v>
+        <v>-95.420999999999992</v>
       </c>
       <c r="F71" s="11">
         <f t="shared" si="1"/>
@@ -15338,10 +15338,10 @@
         <v>-188</v>
       </c>
       <c r="D72" s="11">
-        <v>-168.14199999999991</v>
+        <v>-163.69899999999998</v>
       </c>
       <c r="E72" s="11">
-        <v>-177.15400000000002</v>
+        <v>-193.387</v>
       </c>
       <c r="F72" s="11">
         <f t="shared" si="1"/>
@@ -15353,10 +15353,10 @@
         <v>-483</v>
       </c>
       <c r="D73" s="11">
-        <v>-98.890000000000015</v>
+        <v>82.710000000000022</v>
       </c>
       <c r="E73" s="11">
-        <v>-83.421000000000021</v>
+        <v>82.861000000000018</v>
       </c>
       <c r="F73" s="11">
         <f t="shared" si="1"/>
@@ -15368,10 +15368,10 @@
         <v>-523</v>
       </c>
       <c r="D74" s="11">
-        <v>-85.644000000000005</v>
+        <v>2.6879999999999784</v>
       </c>
       <c r="E74" s="11">
-        <v>-39.001000000000005</v>
+        <v>26.185999999999979</v>
       </c>
       <c r="F74" s="11">
         <f t="shared" si="1"/>
@@ -15383,10 +15383,10 @@
         <v>-75</v>
       </c>
       <c r="D75" s="11">
-        <v>-44.685999999999936</v>
+        <v>-54.07900000000005</v>
       </c>
       <c r="E75" s="11">
-        <v>-28.974999999999987</v>
+        <v>-39.445999999999991</v>
       </c>
       <c r="F75" s="11">
         <f t="shared" si="1"/>
@@ -15398,10 +15398,10 @@
         <v>-115</v>
       </c>
       <c r="D76" s="11">
-        <v>-99.022999999999982</v>
+        <v>-101.89400000000003</v>
       </c>
       <c r="E76" s="11">
-        <v>-194.45</v>
+        <v>-190.97299999999998</v>
       </c>
       <c r="F76" s="11">
         <f t="shared" si="1"/>
@@ -15413,10 +15413,10 @@
         <v>-107</v>
       </c>
       <c r="D77" s="11">
-        <v>-114.69799999999987</v>
+        <v>-125.572</v>
       </c>
       <c r="E77" s="11">
-        <v>-161.24299999999997</v>
+        <v>-148.113</v>
       </c>
       <c r="F77" s="11">
         <f t="shared" si="1"/>
@@ -15428,10 +15428,10 @@
         <v>-217</v>
       </c>
       <c r="D78" s="11">
-        <v>-207.06100000000015</v>
+        <v>-197.6839999999998</v>
       </c>
       <c r="E78" s="11">
-        <v>-144.40199999999999</v>
+        <v>-134.31199999999995</v>
       </c>
       <c r="F78" s="11">
         <f t="shared" si="1"/>
@@ -15443,10 +15443,10 @@
         <v>-150</v>
       </c>
       <c r="D79" s="11">
-        <v>15.657999999999992</v>
+        <v>36.057999999999979</v>
       </c>
       <c r="E79" s="11">
-        <v>-133.91800000000001</v>
+        <v>-96.592999999999989</v>
       </c>
       <c r="F79" s="11">
         <f t="shared" si="1"/>
@@ -15458,10 +15458,10 @@
         <v>-199</v>
       </c>
       <c r="D80" s="11">
-        <v>-155.22299999999984</v>
+        <v>-13.574999999999998</v>
       </c>
       <c r="E80" s="11">
-        <v>-52.636999999999986</v>
+        <v>32.588000000000001</v>
       </c>
       <c r="F80" s="11">
         <f t="shared" si="1"/>
@@ -15473,10 +15473,10 @@
         <v>-310</v>
       </c>
       <c r="D81" s="11">
-        <v>-240.22799999999978</v>
+        <v>-258.54399999999987</v>
       </c>
       <c r="E81" s="11">
-        <v>-211.458</v>
+        <v>-239.27199999999999</v>
       </c>
       <c r="F81" s="11">
         <f t="shared" si="1"/>
@@ -15488,10 +15488,10 @@
         <v>-236</v>
       </c>
       <c r="D82" s="11">
-        <v>-280.27000000000027</v>
+        <v>-147.58700000000002</v>
       </c>
       <c r="E82" s="11">
-        <v>-249.1010000000002</v>
+        <v>-110.035</v>
       </c>
       <c r="F82" s="11">
         <f t="shared" si="1"/>
@@ -15503,10 +15503,10 @@
         <v>-472</v>
       </c>
       <c r="D83" s="11">
-        <v>-363.27800000000036</v>
+        <v>86.981999999999999</v>
       </c>
       <c r="E83" s="11">
-        <v>-85.417000000000002</v>
+        <v>91.218000000000032</v>
       </c>
       <c r="F83" s="11">
         <f t="shared" si="1"/>
@@ -15518,10 +15518,10 @@
         <v>-402</v>
       </c>
       <c r="D84" s="11">
-        <v>-89.835999999999999</v>
+        <v>-264.26399999999995</v>
       </c>
       <c r="E84" s="11">
-        <v>-97.991000000000014</v>
+        <v>-266.17099999999999</v>
       </c>
       <c r="F84" s="11">
         <f t="shared" si="1"/>
@@ -15533,10 +15533,10 @@
         <v>-268</v>
       </c>
       <c r="D85" s="11">
-        <v>-99.59899999999999</v>
+        <v>-11.911999999999997</v>
       </c>
       <c r="E85" s="11">
-        <v>-126.63999999999999</v>
+        <v>-32.132000000000005</v>
       </c>
       <c r="F85" s="11">
         <f t="shared" si="1"/>
@@ -15548,10 +15548,10 @@
         <v>-135</v>
       </c>
       <c r="D86" s="11">
-        <v>-143.61199999999977</v>
+        <v>-138.20700000000002</v>
       </c>
       <c r="E86" s="11">
-        <v>-179.57300000000001</v>
+        <v>-161.69899999999998</v>
       </c>
       <c r="F86" s="11">
         <f t="shared" si="1"/>
@@ -15563,10 +15563,10 @@
         <v>-235</v>
       </c>
       <c r="D87" s="11">
-        <v>-240.95999999999987</v>
+        <v>-231.28600000000012</v>
       </c>
       <c r="E87" s="11">
-        <v>-230.43700000000004</v>
+        <v>-229.40500000000003</v>
       </c>
       <c r="F87" s="11">
         <f t="shared" si="1"/>
@@ -15578,10 +15578,10 @@
         <v>-180</v>
       </c>
       <c r="D88" s="11">
-        <v>-187.51500000000004</v>
+        <v>-217.47599999999989</v>
       </c>
       <c r="E88" s="11">
-        <v>-247.369</v>
+        <v>-269.839</v>
       </c>
       <c r="F88" s="11">
         <f t="shared" si="1"/>
@@ -15593,10 +15593,10 @@
         <v>-190</v>
       </c>
       <c r="D89" s="11">
-        <v>-152.76799999999997</v>
+        <v>-166.1110000000001</v>
       </c>
       <c r="E89" s="11">
-        <v>-70.185999999999979</v>
+        <v>-117.979</v>
       </c>
       <c r="F89" s="11">
         <f t="shared" si="1"/>
@@ -15608,10 +15608,10 @@
         <v>-294</v>
       </c>
       <c r="D90" s="11">
-        <v>-227.58500000000009</v>
+        <v>-212.79399999999987</v>
       </c>
       <c r="E90" s="11">
-        <v>-65.047999999999973</v>
+        <v>-78.414000000000016</v>
       </c>
       <c r="F90" s="11">
         <f t="shared" si="1"/>
@@ -15623,10 +15623,10 @@
         <v>-541</v>
       </c>
       <c r="D91" s="11">
-        <v>-112.81300000000002</v>
+        <v>-232.77799999999996</v>
       </c>
       <c r="E91" s="11">
-        <v>-112.81300000000002</v>
+        <v>-232.77799999999996</v>
       </c>
       <c r="F91" s="11">
         <f t="shared" si="1"/>
@@ -15638,10 +15638,10 @@
         <v>-192</v>
       </c>
       <c r="D92" s="11">
-        <v>-180.47100000000009</v>
+        <v>-170.72200000000001</v>
       </c>
       <c r="E92" s="11">
-        <v>-187.06900000000007</v>
+        <v>-181.96800000000002</v>
       </c>
       <c r="F92" s="11">
         <f t="shared" si="1"/>
@@ -15653,10 +15653,10 @@
         <v>-300</v>
       </c>
       <c r="D93" s="11">
-        <v>-193.62900000000027</v>
+        <v>-200.64600000000024</v>
       </c>
       <c r="E93" s="11">
-        <v>-187.1910000000002</v>
+        <v>-200.10200000000015</v>
       </c>
       <c r="F93" s="11">
         <f t="shared" si="1"/>
@@ -15668,10 +15668,10 @@
         <v>-429</v>
       </c>
       <c r="D94" s="11">
-        <v>-218.69099999999997</v>
+        <v>-378.15200000000033</v>
       </c>
       <c r="E94" s="11">
-        <v>-217.94</v>
+        <v>-289.17200000000014</v>
       </c>
       <c r="F94" s="11">
         <f t="shared" si="1"/>
@@ -15683,10 +15683,10 @@
         <v>-297</v>
       </c>
       <c r="D95" s="11">
-        <v>-183.65299999999985</v>
+        <v>-215.72999999999988</v>
       </c>
       <c r="E95" s="11">
-        <v>-97.473999999999975</v>
+        <v>-97.758999999999986</v>
       </c>
       <c r="F95" s="11">
         <f t="shared" si="1"/>
@@ -15698,10 +15698,10 @@
         <v>-182</v>
       </c>
       <c r="D96" s="11">
-        <v>-126.91899999999987</v>
+        <v>-135.04500000000013</v>
       </c>
       <c r="E96" s="11">
-        <v>-121.35499999999998</v>
+        <v>-124.25</v>
       </c>
       <c r="F96" s="11">
         <f t="shared" si="1"/>
@@ -15713,10 +15713,10 @@
         <v>-298</v>
       </c>
       <c r="D97" s="11">
-        <v>-265.40700000000027</v>
+        <v>-270.65699999999998</v>
       </c>
       <c r="E97" s="11">
-        <v>-162.29000000000002</v>
+        <v>-182.08999999999997</v>
       </c>
       <c r="F97" s="11">
         <f t="shared" si="1"/>
@@ -15728,10 +15728,10 @@
         <v>-89</v>
       </c>
       <c r="D98" s="11">
-        <v>-82.686999999999983</v>
+        <v>-83.719000000000023</v>
       </c>
       <c r="E98" s="11">
-        <v>-118.58199999999999</v>
+        <v>-117.63400000000001</v>
       </c>
       <c r="F98" s="11">
         <f t="shared" si="1"/>
@@ -15743,10 +15743,10 @@
         <v>-262</v>
       </c>
       <c r="D99" s="11">
-        <v>-228.23200000000006</v>
+        <v>-224.661</v>
       </c>
       <c r="E99" s="11">
-        <v>-189.48399999999998</v>
+        <v>-162.21899999999999</v>
       </c>
       <c r="F99" s="11">
         <f t="shared" si="1"/>
@@ -15763,15 +15763,15 @@
       </c>
       <c r="D100" s="12">
         <f t="shared" ref="D100:E100" si="2">AVERAGE(D40:D99)</f>
-        <v>-151.42566666666667</v>
+        <v>-145.6806</v>
       </c>
       <c r="E100" s="12">
         <f t="shared" si="2"/>
-        <v>-124.75751666666663</v>
+        <v>-118.98789999999998</v>
       </c>
       <c r="F100" s="15">
         <f>COUNTIF(F40:F99,1)</f>
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -15785,7 +15785,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>

--- a/migforecasting/clustering/for paper/examples for improv test.xlsx
+++ b/migforecasting/clustering/for paper/examples for improv test.xlsx
@@ -2105,7 +2105,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2174,7 +2173,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5714,8 +5712,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U76"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2:U61"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12245,8 +12243,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X41" sqref="X41"/>
+    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H82" sqref="H82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/migforecasting/clustering/for paper/examples for improv test.xlsx
+++ b/migforecasting/clustering/for paper/examples for improv test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="examples" sheetId="1" r:id="rId1"/>
@@ -1635,94 +1635,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>-141.35299999999989</c:v>
+                  <c:v>-131.38700000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-142.40799999999984</c:v>
+                  <c:v>-149.24500000000018</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-146.70199999999997</c:v>
+                  <c:v>-143.47899999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-191.87799999999996</c:v>
+                  <c:v>-206.92200000000008</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-129.77099999999993</c:v>
+                  <c:v>-124.28400000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-145.54599999999985</c:v>
+                  <c:v>-144.32399999999993</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-126.19799999999991</c:v>
+                  <c:v>-122.78299999999983</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-68.389999999999915</c:v>
+                  <c:v>-70.679999999999922</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-91.423999999999893</c:v>
+                  <c:v>-84.860000000000099</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-54.461999999999932</c:v>
+                  <c:v>-38.879999999999917</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-65.255999999999929</c:v>
+                  <c:v>-60.198000000000036</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-160.41000000000011</c:v>
+                  <c:v>-158.95700000000011</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-174.51399999999992</c:v>
+                  <c:v>-159.52699999999999</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-63.915000000000006</c:v>
+                  <c:v>8.3150000000000066</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-74.513000000000005</c:v>
+                  <c:v>-29.751000000000012</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-53.878999999999905</c:v>
+                  <c:v>-50.933000000000035</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-108.63200000000002</c:v>
+                  <c:v>-96.335000000000022</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-113.20799999999983</c:v>
+                  <c:v>-121.79800000000003</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-205.11800000000017</c:v>
+                  <c:v>-197.02299999999983</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>8.0069999999999908</c:v>
+                  <c:v>15.827999999999992</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-214.90500000000006</c:v>
+                  <c:v>-211.11999999999995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-99.260000000000048</c:v>
+                  <c:v>-216.25799999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-197.89600000000002</c:v>
+                  <c:v>-180.35199999999995</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-179.38700000000023</c:v>
+                  <c:v>-193.07100000000023</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-194.65200000000002</c:v>
+                  <c:v>-394.76700000000039</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-192.83299999999986</c:v>
+                  <c:v>-151.86499999999995</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-125.4409999999998</c:v>
+                  <c:v>-129.25400000000008</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-286.47400000000033</c:v>
+                  <c:v>-276.8069999999999</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-83.578999999999979</c:v>
+                  <c:v>-90.557000000000045</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-232.68800000000005</c:v>
+                  <c:v>-239.28200000000001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1767,94 +1767,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>-80.321999999999989</c:v>
+                  <c:v>-82.061999999999983</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-102.13499999999998</c:v>
+                  <c:v>-87.453999999999994</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-106.40899999999999</c:v>
+                  <c:v>-102.55199999999998</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-194.41</c:v>
+                  <c:v>-186.41500000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-79.969999999999985</c:v>
+                  <c:v>-74.146999999999977</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-124.12199999999993</c:v>
+                  <c:v>-116.48799999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-125.93799999999987</c:v>
+                  <c:v>-110.5859999999999</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-65.623999999999967</c:v>
+                  <c:v>-58.865999999999971</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-93.367999999999967</c:v>
+                  <c:v>-84.158999999999978</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-56.262999999999977</c:v>
+                  <c:v>-55.177999999999976</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-37.85199999999999</c:v>
+                  <c:v>-40.442999999999969</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-113.64699999999998</c:v>
+                  <c:v>-107.827</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-185.47899999999998</c:v>
+                  <c:v>-187.88799999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-54.69100000000001</c:v>
+                  <c:v>10.588000000000013</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-43.817999999999998</c:v>
+                  <c:v>-16.314000000000018</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-28.80899999999999</c:v>
+                  <c:v>-42.158999999999985</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-190.02499999999995</c:v>
+                  <c:v>-191.78699999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-146.08799999999997</c:v>
+                  <c:v>-137.51099999999994</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-139.21299999999999</c:v>
+                  <c:v>-144.64500000000001</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-108.69000000000001</c:v>
+                  <c:v>-114.17499999999998</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-78.413999999999973</c:v>
+                  <c:v>-88.893000000000001</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-99.260000000000048</c:v>
+                  <c:v>-216.25799999999998</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-215.59</c:v>
+                  <c:v>-186.57400000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-180.08200000000016</c:v>
+                  <c:v>-191.36200000000014</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-192.48499999999996</c:v>
+                  <c:v>-301.80800000000016</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-110.13099999999994</c:v>
+                  <c:v>-98.763999999999982</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-124.44599999999994</c:v>
+                  <c:v>-118.6</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-179.33</c:v>
+                  <c:v>-181.65499999999994</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-116.44999999999997</c:v>
+                  <c:v>-120.96299999999999</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-175.52500000000001</c:v>
+                  <c:v>-179.13199999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1899,94 +1899,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>-88.49799999999999</c:v>
+                  <c:v>-88.117999999999995</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-75.112999999999985</c:v>
+                  <c:v>-79.170999999999964</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-143.61200000000002</c:v>
+                  <c:v>-102.48899999999996</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-178.74099999999996</c:v>
+                  <c:v>-177.792</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-71.772999999999982</c:v>
+                  <c:v>-63.61399999999999</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-148.29300000000001</c:v>
+                  <c:v>-121.43299999999996</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-204.07999999999996</c:v>
+                  <c:v>-191.99499999999995</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-75.577999999999975</c:v>
+                  <c:v>-59.465999999999973</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-78.123999999999995</c:v>
+                  <c:v>-75.194999999999993</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-43.769999999999996</c:v>
+                  <c:v>-40.958999999999968</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-36.071999999999989</c:v>
+                  <c:v>-37.172999999999959</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-118.97</c:v>
+                  <c:v>-111.33499999999997</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-73.092000000000013</c:v>
+                  <c:v>-74.145999999999987</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-69.450000000000017</c:v>
+                  <c:v>13.737000000000009</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-47.326000000000001</c:v>
+                  <c:v>-15.563000000000013</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-4.6049999999999978</c:v>
+                  <c:v>-17.812999999999992</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-189.67699999999999</c:v>
+                  <c:v>-180.82300000000001</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-153.63</c:v>
+                  <c:v>-146.333</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-143.08799999999999</c:v>
+                  <c:v>-128.94699999999997</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-68.823999999999998</c:v>
+                  <c:v>-82.554000000000002</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-80.34899999999999</c:v>
+                  <c:v>-56.440999999999995</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-96.960000000000065</c:v>
+                  <c:v>-125.56700000000001</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-222.66199999999998</c:v>
+                  <c:v>-181.54900000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-160.74700000000007</c:v>
+                  <c:v>-180.60800000000006</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-168.81299999999999</c:v>
+                  <c:v>-229.56600000000012</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-132.56599999999997</c:v>
+                  <c:v>-108.38699999999997</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-104.31399999999996</c:v>
+                  <c:v>-84.052999999999969</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-121.46</c:v>
+                  <c:v>-100.31799999999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-113.16200000000001</c:v>
+                  <c:v>-78.655999999999992</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-153.83099999999996</c:v>
+                  <c:v>-143.02100000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2105,6 +2105,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -2173,6 +2174,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -12243,8 +12245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="H82" sqref="H82"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G95" sqref="G95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15783,8 +15785,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15808,13 +15810,13 @@
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="11">
-        <v>-141.35299999999989</v>
+        <v>-131.38700000000003</v>
       </c>
       <c r="C2" s="11">
-        <v>-80.321999999999989</v>
+        <v>-82.061999999999983</v>
       </c>
       <c r="D2" s="11">
-        <v>-88.49799999999999</v>
+        <v>-88.117999999999995</v>
       </c>
       <c r="E2" s="11">
         <f>IF(D2&gt;C2,1,0)</f>
@@ -15823,13 +15825,13 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="11">
-        <v>-142.40799999999984</v>
+        <v>-149.24500000000018</v>
       </c>
       <c r="C3" s="11">
-        <v>-102.13499999999998</v>
+        <v>-87.453999999999994</v>
       </c>
       <c r="D3" s="11">
-        <v>-75.112999999999985</v>
+        <v>-79.170999999999964</v>
       </c>
       <c r="E3" s="11">
         <f t="shared" ref="E3:E31" si="0">IF(D3&gt;C3,1,0)</f>
@@ -15838,28 +15840,28 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="11">
-        <v>-146.70199999999997</v>
+        <v>-143.47899999999998</v>
       </c>
       <c r="C4" s="11">
-        <v>-106.40899999999999</v>
+        <v>-102.55199999999998</v>
       </c>
       <c r="D4" s="11">
-        <v>-143.61200000000002</v>
+        <v>-102.48899999999996</v>
       </c>
       <c r="E4" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="11">
-        <v>-191.87799999999996</v>
+        <v>-206.92200000000008</v>
       </c>
       <c r="C5" s="11">
-        <v>-194.41</v>
+        <v>-186.41500000000002</v>
       </c>
       <c r="D5" s="11">
-        <v>-178.74099999999996</v>
+        <v>-177.792</v>
       </c>
       <c r="E5" s="11">
         <f t="shared" si="0"/>
@@ -15868,13 +15870,13 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="11">
-        <v>-129.77099999999993</v>
+        <v>-124.28400000000006</v>
       </c>
       <c r="C6" s="11">
-        <v>-79.969999999999985</v>
+        <v>-74.146999999999977</v>
       </c>
       <c r="D6" s="11">
-        <v>-71.772999999999982</v>
+        <v>-63.61399999999999</v>
       </c>
       <c r="E6" s="11">
         <f t="shared" si="0"/>
@@ -15883,13 +15885,13 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="11">
-        <v>-145.54599999999985</v>
+        <v>-144.32399999999993</v>
       </c>
       <c r="C7" s="11">
-        <v>-124.12199999999993</v>
+        <v>-116.48799999999994</v>
       </c>
       <c r="D7" s="11">
-        <v>-148.29300000000001</v>
+        <v>-121.43299999999996</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
@@ -15898,13 +15900,13 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="11">
-        <v>-126.19799999999991</v>
+        <v>-122.78299999999983</v>
       </c>
       <c r="C8" s="11">
-        <v>-125.93799999999987</v>
+        <v>-110.5859999999999</v>
       </c>
       <c r="D8" s="11">
-        <v>-204.07999999999996</v>
+        <v>-191.99499999999995</v>
       </c>
       <c r="E8" s="11">
         <f t="shared" si="0"/>
@@ -15913,13 +15915,13 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
-        <v>-68.389999999999915</v>
+        <v>-70.679999999999922</v>
       </c>
       <c r="C9" s="11">
-        <v>-65.623999999999967</v>
+        <v>-58.865999999999971</v>
       </c>
       <c r="D9" s="11">
-        <v>-75.577999999999975</v>
+        <v>-59.465999999999973</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
@@ -15928,13 +15930,13 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
-        <v>-91.423999999999893</v>
+        <v>-84.860000000000099</v>
       </c>
       <c r="C10" s="11">
-        <v>-93.367999999999967</v>
+        <v>-84.158999999999978</v>
       </c>
       <c r="D10" s="11">
-        <v>-78.123999999999995</v>
+        <v>-75.194999999999993</v>
       </c>
       <c r="E10" s="11">
         <f t="shared" si="0"/>
@@ -15943,13 +15945,13 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
-        <v>-54.461999999999932</v>
+        <v>-38.879999999999917</v>
       </c>
       <c r="C11" s="11">
-        <v>-56.262999999999977</v>
+        <v>-55.177999999999976</v>
       </c>
       <c r="D11" s="11">
-        <v>-43.769999999999996</v>
+        <v>-40.958999999999968</v>
       </c>
       <c r="E11" s="11">
         <f t="shared" si="0"/>
@@ -15958,13 +15960,13 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
-        <v>-65.255999999999929</v>
+        <v>-60.198000000000036</v>
       </c>
       <c r="C12" s="11">
-        <v>-37.85199999999999</v>
+        <v>-40.442999999999969</v>
       </c>
       <c r="D12" s="11">
-        <v>-36.071999999999989</v>
+        <v>-37.172999999999959</v>
       </c>
       <c r="E12" s="11">
         <f t="shared" si="0"/>
@@ -15973,13 +15975,13 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
-        <v>-160.41000000000011</v>
+        <v>-158.95700000000011</v>
       </c>
       <c r="C13" s="11">
-        <v>-113.64699999999998</v>
+        <v>-107.827</v>
       </c>
       <c r="D13" s="11">
-        <v>-118.97</v>
+        <v>-111.33499999999997</v>
       </c>
       <c r="E13" s="11">
         <f t="shared" si="0"/>
@@ -15988,13 +15990,13 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
-        <v>-174.51399999999992</v>
+        <v>-159.52699999999999</v>
       </c>
       <c r="C14" s="11">
-        <v>-185.47899999999998</v>
+        <v>-187.88799999999998</v>
       </c>
       <c r="D14" s="11">
-        <v>-73.092000000000013</v>
+        <v>-74.145999999999987</v>
       </c>
       <c r="E14" s="11">
         <f t="shared" si="0"/>
@@ -16003,43 +16005,43 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
-        <v>-63.915000000000006</v>
+        <v>8.3150000000000066</v>
       </c>
       <c r="C15" s="11">
-        <v>-54.69100000000001</v>
+        <v>10.588000000000013</v>
       </c>
       <c r="D15" s="11">
-        <v>-69.450000000000017</v>
+        <v>13.737000000000009</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
-        <v>-74.513000000000005</v>
+        <v>-29.751000000000012</v>
       </c>
       <c r="C16" s="11">
-        <v>-43.817999999999998</v>
+        <v>-16.314000000000018</v>
       </c>
       <c r="D16" s="11">
-        <v>-47.326000000000001</v>
+        <v>-15.563000000000013</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
-        <v>-53.878999999999905</v>
+        <v>-50.933000000000035</v>
       </c>
       <c r="C17" s="11">
-        <v>-28.80899999999999</v>
+        <v>-42.158999999999985</v>
       </c>
       <c r="D17" s="11">
-        <v>-4.6049999999999978</v>
+        <v>-17.812999999999992</v>
       </c>
       <c r="E17" s="11">
         <f t="shared" si="0"/>
@@ -16048,13 +16050,13 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
-        <v>-108.63200000000002</v>
+        <v>-96.335000000000022</v>
       </c>
       <c r="C18" s="11">
-        <v>-190.02499999999995</v>
+        <v>-191.78699999999998</v>
       </c>
       <c r="D18" s="11">
-        <v>-189.67699999999999</v>
+        <v>-180.82300000000001</v>
       </c>
       <c r="E18" s="11">
         <f t="shared" si="0"/>
@@ -16063,13 +16065,13 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
-        <v>-113.20799999999983</v>
+        <v>-121.79800000000003</v>
       </c>
       <c r="C19" s="11">
-        <v>-146.08799999999997</v>
+        <v>-137.51099999999994</v>
       </c>
       <c r="D19" s="11">
-        <v>-153.63</v>
+        <v>-146.333</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="0"/>
@@ -16078,28 +16080,28 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
-        <v>-205.11800000000017</v>
+        <v>-197.02299999999983</v>
       </c>
       <c r="C20" s="11">
-        <v>-139.21299999999999</v>
+        <v>-144.64500000000001</v>
       </c>
       <c r="D20" s="11">
-        <v>-143.08799999999999</v>
+        <v>-128.94699999999997</v>
       </c>
       <c r="E20" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
-        <v>8.0069999999999908</v>
+        <v>15.827999999999992</v>
       </c>
       <c r="C21" s="11">
-        <v>-108.69000000000001</v>
+        <v>-114.17499999999998</v>
       </c>
       <c r="D21" s="11">
-        <v>-68.823999999999998</v>
+        <v>-82.554000000000002</v>
       </c>
       <c r="E21" s="11">
         <f t="shared" si="0"/>
@@ -16108,28 +16110,28 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
-        <v>-214.90500000000006</v>
+        <v>-211.11999999999995</v>
       </c>
       <c r="C22" s="11">
-        <v>-78.413999999999973</v>
+        <v>-88.893000000000001</v>
       </c>
       <c r="D22" s="11">
-        <v>-80.34899999999999</v>
+        <v>-56.440999999999995</v>
       </c>
       <c r="E22" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
-        <v>-99.260000000000048</v>
+        <v>-216.25799999999998</v>
       </c>
       <c r="C23" s="11">
-        <v>-99.260000000000048</v>
+        <v>-216.25799999999998</v>
       </c>
       <c r="D23" s="11">
-        <v>-96.960000000000065</v>
+        <v>-125.56700000000001</v>
       </c>
       <c r="E23" s="11">
         <f t="shared" si="0"/>
@@ -16138,28 +16140,28 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
-        <v>-197.89600000000002</v>
+        <v>-180.35199999999995</v>
       </c>
       <c r="C24" s="11">
-        <v>-215.59</v>
+        <v>-186.57400000000001</v>
       </c>
       <c r="D24" s="11">
-        <v>-222.66199999999998</v>
+        <v>-181.54900000000001</v>
       </c>
       <c r="E24" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
-        <v>-179.38700000000023</v>
+        <v>-193.07100000000023</v>
       </c>
       <c r="C25" s="11">
-        <v>-180.08200000000016</v>
+        <v>-191.36200000000014</v>
       </c>
       <c r="D25" s="11">
-        <v>-160.74700000000007</v>
+        <v>-180.60800000000006</v>
       </c>
       <c r="E25" s="11">
         <f t="shared" si="0"/>
@@ -16168,13 +16170,13 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
-        <v>-194.65200000000002</v>
+        <v>-394.76700000000039</v>
       </c>
       <c r="C26" s="11">
-        <v>-192.48499999999996</v>
+        <v>-301.80800000000016</v>
       </c>
       <c r="D26" s="11">
-        <v>-168.81299999999999</v>
+        <v>-229.56600000000012</v>
       </c>
       <c r="E26" s="11">
         <f t="shared" si="0"/>
@@ -16183,13 +16185,13 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
-        <v>-192.83299999999986</v>
+        <v>-151.86499999999995</v>
       </c>
       <c r="C27" s="11">
-        <v>-110.13099999999994</v>
+        <v>-98.763999999999982</v>
       </c>
       <c r="D27" s="11">
-        <v>-132.56599999999997</v>
+        <v>-108.38699999999997</v>
       </c>
       <c r="E27" s="11">
         <f t="shared" si="0"/>
@@ -16198,13 +16200,13 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
-        <v>-125.4409999999998</v>
+        <v>-129.25400000000008</v>
       </c>
       <c r="C28" s="11">
-        <v>-124.44599999999994</v>
+        <v>-118.6</v>
       </c>
       <c r="D28" s="11">
-        <v>-104.31399999999996</v>
+        <v>-84.052999999999969</v>
       </c>
       <c r="E28" s="11">
         <f t="shared" si="0"/>
@@ -16213,13 +16215,13 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
-        <v>-286.47400000000033</v>
+        <v>-276.8069999999999</v>
       </c>
       <c r="C29" s="11">
-        <v>-179.33</v>
+        <v>-181.65499999999994</v>
       </c>
       <c r="D29" s="11">
-        <v>-121.46</v>
+        <v>-100.31799999999997</v>
       </c>
       <c r="E29" s="11">
         <f t="shared" si="0"/>
@@ -16228,13 +16230,13 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
-        <v>-83.578999999999979</v>
+        <v>-90.557000000000045</v>
       </c>
       <c r="C30" s="11">
-        <v>-116.44999999999997</v>
+        <v>-120.96299999999999</v>
       </c>
       <c r="D30" s="11">
-        <v>-113.16200000000001</v>
+        <v>-78.655999999999992</v>
       </c>
       <c r="E30" s="11">
         <f t="shared" si="0"/>
@@ -16243,13 +16245,13 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
-        <v>-232.68800000000005</v>
+        <v>-239.28200000000001</v>
       </c>
       <c r="C31" s="11">
-        <v>-175.52500000000001</v>
+        <v>-179.13199999999998</v>
       </c>
       <c r="D31" s="11">
-        <v>-153.83099999999996</v>
+        <v>-143.02100000000002</v>
       </c>
       <c r="E31" s="11">
         <f t="shared" si="0"/>
@@ -16262,15 +16264,19 @@
       </c>
       <c r="B32" s="20">
         <f>AVERAGE(B2:B31)</f>
-        <v>-135.22283333333331</v>
+        <v>-138.35186666666667</v>
       </c>
       <c r="C32" s="20">
         <f>AVERAGE(C2:C31)</f>
-        <v>-118.28619999999999</v>
+        <v>-120.46923333333332</v>
       </c>
       <c r="D32" s="20">
         <f>AVERAGE(D2:D31)</f>
-        <v>-112.23933333333331</v>
+        <v>-102.31160000000001</v>
+      </c>
+      <c r="E32" s="15">
+        <f>COUNTIF(E2:E31,1)</f>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/migforecasting/clustering/for paper/examples for improv test.xlsx
+++ b/migforecasting/clustering/for paper/examples for improv test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" firstSheet="2" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="examples" sheetId="1" r:id="rId1"/>
@@ -193,22 +193,10 @@
     <t>Prediction (no modifications)</t>
   </si>
   <si>
-    <t>Prediction (with modifications)</t>
-  </si>
-  <si>
     <t>pred (adaptive changes)</t>
   </si>
   <si>
     <t>avg</t>
-  </si>
-  <si>
-    <t>actual (prediction)</t>
-  </si>
-  <si>
-    <t>cluster to cluster</t>
-  </si>
-  <si>
-    <t>within cluster</t>
   </si>
   <si>
     <t>Большечерниговский</t>
@@ -296,6 +284,18 @@
   </si>
   <si>
     <t>Кошкинский</t>
+  </si>
+  <si>
+    <t>Prediction (intra-cluster approach)</t>
+  </si>
+  <si>
+    <t>Prediction (Intra-cluster approach)</t>
+  </si>
+  <si>
+    <t>Prediction (Extra-cluster approach)</t>
+  </si>
+  <si>
+    <t>Prediction (Actual)</t>
   </si>
 </sst>
 </file>
@@ -1032,7 +1032,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Prediction (with modifications)</c:v>
+                  <c:v>Prediction (intra-cluster approach)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1611,7 +1611,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>actual (prediction)</c:v>
+                  <c:v>Prediction (Actual)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1635,94 +1635,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>-131.38700000000003</c:v>
+                  <c:v>-141.28400000000011</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-149.24500000000018</c:v>
+                  <c:v>-148.92000000000021</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-143.47899999999998</c:v>
+                  <c:v>-153.36099999999993</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-206.92200000000008</c:v>
+                  <c:v>-215.86300000000011</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-124.28400000000006</c:v>
+                  <c:v>-132.34600000000006</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-144.32399999999993</c:v>
+                  <c:v>-144.02799999999991</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-122.78299999999983</c:v>
+                  <c:v>-122.32399999999984</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-70.679999999999922</c:v>
+                  <c:v>-59.91899999999989</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-84.860000000000099</c:v>
+                  <c:v>-84.4020000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-38.879999999999917</c:v>
+                  <c:v>-38.164999999999914</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-60.198000000000036</c:v>
+                  <c:v>-65.343000000000046</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-158.95700000000011</c:v>
+                  <c:v>-153.66000000000003</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-159.52699999999999</c:v>
+                  <c:v>-163.69899999999998</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>8.3150000000000066</c:v>
+                  <c:v>82.710000000000022</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-29.751000000000012</c:v>
+                  <c:v>2.6879999999999784</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-50.933000000000035</c:v>
+                  <c:v>-54.07900000000005</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-96.335000000000022</c:v>
+                  <c:v>-101.89400000000003</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-121.79800000000003</c:v>
+                  <c:v>-125.572</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-197.02299999999983</c:v>
+                  <c:v>-197.6839999999998</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>15.827999999999992</c:v>
+                  <c:v>36.057999999999979</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-211.11999999999995</c:v>
+                  <c:v>-212.79399999999987</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-216.25799999999998</c:v>
+                  <c:v>-232.77799999999996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-180.35199999999995</c:v>
+                  <c:v>-170.72200000000001</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-193.07100000000023</c:v>
+                  <c:v>-200.64600000000024</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-394.76700000000039</c:v>
+                  <c:v>-378.15200000000033</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-151.86499999999995</c:v>
+                  <c:v>-215.72999999999988</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-129.25400000000008</c:v>
+                  <c:v>-135.04500000000013</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-276.8069999999999</c:v>
+                  <c:v>-270.65699999999998</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-90.557000000000045</c:v>
+                  <c:v>-83.719000000000023</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-239.28200000000001</c:v>
+                  <c:v>-224.661</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1743,7 +1743,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>within cluster</c:v>
+                  <c:v>Prediction (Intra-cluster approach)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1751,7 +1751,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="00B0F0"/>
+                <a:srgbClr val="00B050"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1767,94 +1767,94 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
                 <c:pt idx="0">
-                  <c:v>-82.061999999999983</c:v>
+                  <c:v>-80.330000000000013</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-87.453999999999994</c:v>
+                  <c:v>-83.926000000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-102.55199999999998</c:v>
+                  <c:v>-117.37999999999995</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-186.41500000000002</c:v>
+                  <c:v>-178.01400000000004</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-74.146999999999977</c:v>
+                  <c:v>-73.586999999999989</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-116.48799999999994</c:v>
+                  <c:v>-125.79899999999994</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-110.5859999999999</c:v>
+                  <c:v>-116.02799999999988</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-58.865999999999971</c:v>
+                  <c:v>-61.514999999999965</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-84.158999999999978</c:v>
+                  <c:v>-87.285999999999973</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-55.177999999999976</c:v>
+                  <c:v>-55.594999999999985</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-40.442999999999969</c:v>
+                  <c:v>-41.951999999999948</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-107.827</c:v>
+                  <c:v>-95.420999999999992</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-187.88799999999998</c:v>
+                  <c:v>-193.387</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>10.588000000000013</c:v>
+                  <c:v>82.861000000000018</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-16.314000000000018</c:v>
+                  <c:v>26.185999999999979</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-42.158999999999985</c:v>
+                  <c:v>-39.445999999999991</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-191.78699999999998</c:v>
+                  <c:v>-190.97299999999998</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-137.51099999999994</c:v>
+                  <c:v>-148.113</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-144.64500000000001</c:v>
+                  <c:v>-134.31199999999995</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-114.17499999999998</c:v>
+                  <c:v>-96.592999999999989</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-88.893000000000001</c:v>
+                  <c:v>-78.414000000000016</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-216.25799999999998</c:v>
+                  <c:v>-232.77799999999996</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-186.57400000000001</c:v>
+                  <c:v>-181.96800000000002</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-191.36200000000014</c:v>
+                  <c:v>-200.10200000000015</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-301.80800000000016</c:v>
+                  <c:v>-289.17200000000014</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-98.763999999999982</c:v>
+                  <c:v>-97.758999999999986</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-118.6</c:v>
+                  <c:v>-124.25</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-181.65499999999994</c:v>
+                  <c:v>-182.08999999999997</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-120.96299999999999</c:v>
+                  <c:v>-117.63400000000001</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-179.13199999999998</c:v>
+                  <c:v>-162.21899999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1875,7 +1875,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>cluster to cluster</c:v>
+                  <c:v>Prediction (Extra-cluster approach)</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1883,7 +1883,7 @@
           <c:spPr>
             <a:ln w="28575" cap="rnd">
               <a:solidFill>
-                <a:srgbClr val="00B050"/>
+                <a:srgbClr val="FF0000"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -2148,7 +2148,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
                   <a:sysClr val="windowText" lastClr="000000"/>
                 </a:solidFill>
@@ -2174,7 +2174,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10394626371596535"/>
+          <c:y val="0.91762495235245123"/>
+          <c:w val="0.84218193724738255"/>
+          <c:h val="6.2605814528401638E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5714,8 +5723,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U76"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22:E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6130,7 +6139,7 @@
         <v>2017</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="D7" s="11">
         <v>0</v>
@@ -6195,7 +6204,7 @@
         <v>2020</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D8" s="11">
         <v>0</v>
@@ -6260,7 +6269,7 @@
         <v>2016</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D9" s="11">
         <v>0</v>
@@ -6325,7 +6334,7 @@
         <v>2020</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="D10" s="11">
         <v>0</v>
@@ -6390,7 +6399,7 @@
         <v>2016</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D11" s="11">
         <v>0</v>
@@ -6780,7 +6789,7 @@
         <v>2020</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D17" s="11">
         <v>1</v>
@@ -6845,7 +6854,7 @@
         <v>2020</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D18" s="11">
         <v>1</v>
@@ -6910,7 +6919,7 @@
         <v>2017</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D19" s="11">
         <v>1</v>
@@ -6975,7 +6984,7 @@
         <v>2016</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D20" s="11">
         <v>1</v>
@@ -7040,7 +7049,7 @@
         <v>2016</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D21" s="11">
         <v>1</v>
@@ -7430,7 +7439,7 @@
         <v>2018</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D27" s="11">
         <v>2</v>
@@ -7495,7 +7504,7 @@
         <v>2021</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D28" s="11">
         <v>2</v>
@@ -7560,7 +7569,7 @@
         <v>2018</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D29" s="11">
         <v>2</v>
@@ -7625,7 +7634,7 @@
         <v>2018</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D30" s="11">
         <v>2</v>
@@ -7690,7 +7699,7 @@
         <v>2019</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D31" s="11">
         <v>2</v>
@@ -8080,7 +8089,7 @@
         <v>2018</v>
       </c>
       <c r="C37" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D37" s="11">
         <v>3</v>
@@ -8145,7 +8154,7 @@
         <v>2018</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D38" s="11">
         <v>3</v>
@@ -8210,7 +8219,7 @@
         <v>2014</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D39" s="11">
         <v>3</v>
@@ -8275,7 +8284,7 @@
         <v>2020</v>
       </c>
       <c r="C40" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D40" s="11">
         <v>3</v>
@@ -8340,7 +8349,7 @@
         <v>2019</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D41" s="11">
         <v>3</v>
@@ -8730,7 +8739,7 @@
         <v>2015</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D47" s="11">
         <v>4</v>
@@ -8795,7 +8804,7 @@
         <v>2021</v>
       </c>
       <c r="C48" s="11" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D48" s="11">
         <v>4</v>
@@ -8860,7 +8869,7 @@
         <v>2017</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D49" s="11">
         <v>4</v>
@@ -8925,7 +8934,7 @@
         <v>2019</v>
       </c>
       <c r="C50" s="11" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D50" s="11">
         <v>4</v>
@@ -8990,7 +8999,7 @@
         <v>2016</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D51" s="11">
         <v>4</v>
@@ -9380,7 +9389,7 @@
         <v>2017</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D57" s="11">
         <v>5</v>
@@ -9445,7 +9454,7 @@
         <v>2017</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D58" s="11">
         <v>5</v>
@@ -9510,7 +9519,7 @@
         <v>2019</v>
       </c>
       <c r="C59" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D59" s="11">
         <v>5</v>
@@ -9575,7 +9584,7 @@
         <v>2020</v>
       </c>
       <c r="C60" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D60" s="11">
         <v>5</v>
@@ -9640,7 +9649,7 @@
         <v>2016</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D61" s="11">
         <v>5</v>
@@ -10393,7 +10402,7 @@
         <v>2018</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D7" s="11">
         <v>2</v>
@@ -10458,7 +10467,7 @@
         <v>2021</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="D8" s="11">
         <v>2</v>
@@ -10523,7 +10532,7 @@
         <v>2018</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D9" s="11">
         <v>2</v>
@@ -10588,7 +10597,7 @@
         <v>2018</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D10" s="11">
         <v>2</v>
@@ -10653,7 +10662,7 @@
         <v>2019</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D11" s="11">
         <v>2</v>
@@ -11043,7 +11052,7 @@
         <v>2018</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="D17" s="11">
         <v>3</v>
@@ -11108,7 +11117,7 @@
         <v>2018</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="D18" s="11">
         <v>3</v>
@@ -11173,7 +11182,7 @@
         <v>2014</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="D19" s="11">
         <v>3</v>
@@ -11238,7 +11247,7 @@
         <v>2020</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D20" s="11">
         <v>3</v>
@@ -11303,7 +11312,7 @@
         <v>2019</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D21" s="11">
         <v>3</v>
@@ -11693,7 +11702,7 @@
         <v>2017</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="D27" s="11">
         <v>5</v>
@@ -11758,7 +11767,7 @@
         <v>2017</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D28" s="11">
         <v>5</v>
@@ -11823,7 +11832,7 @@
         <v>2019</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D29" s="11">
         <v>5</v>
@@ -11888,7 +11897,7 @@
         <v>2020</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D30" s="11">
         <v>5</v>
@@ -11953,7 +11962,7 @@
         <v>2016</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D31" s="11">
         <v>5</v>
@@ -12245,14 +12254,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G95" sqref="G95"/>
+    <sheetView topLeftCell="A55" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D99" sqref="D90:E99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
-    <col min="4" max="4" width="19.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="12.5703125" customWidth="1"/>
@@ -12344,7 +12353,7 @@
         <v>50</v>
       </c>
       <c r="W1" s="15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="X1" s="12" t="s">
         <v>32</v>
@@ -14776,7 +14785,7 @@
         <v>55</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="F39" s="12"/>
       <c r="G39" s="11"/>
@@ -15755,7 +15764,7 @@
     </row>
     <row r="100" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B100" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C100" s="12">
         <f>AVERAGE(C40:C99)</f>
@@ -15785,8 +15794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AD13" sqref="AD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15799,21 +15808,21 @@
   <sheetData>
     <row r="1" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B1" s="12" t="s">
-        <v>59</v>
+        <v>90</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>61</v>
+        <v>88</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>60</v>
+        <v>89</v>
       </c>
     </row>
     <row r="2" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B2" s="11">
-        <v>-131.38700000000003</v>
+        <v>-141.28400000000011</v>
       </c>
       <c r="C2" s="11">
-        <v>-82.061999999999983</v>
+        <v>-80.330000000000013</v>
       </c>
       <c r="D2" s="11">
         <v>-88.117999999999995</v>
@@ -15825,10 +15834,10 @@
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" s="11">
-        <v>-149.24500000000018</v>
+        <v>-148.92000000000021</v>
       </c>
       <c r="C3" s="11">
-        <v>-87.453999999999994</v>
+        <v>-83.926000000000002</v>
       </c>
       <c r="D3" s="11">
         <v>-79.170999999999964</v>
@@ -15840,10 +15849,10 @@
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B4" s="11">
-        <v>-143.47899999999998</v>
+        <v>-153.36099999999993</v>
       </c>
       <c r="C4" s="11">
-        <v>-102.55199999999998</v>
+        <v>-117.37999999999995</v>
       </c>
       <c r="D4" s="11">
         <v>-102.48899999999996</v>
@@ -15855,10 +15864,10 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5" s="11">
-        <v>-206.92200000000008</v>
+        <v>-215.86300000000011</v>
       </c>
       <c r="C5" s="11">
-        <v>-186.41500000000002</v>
+        <v>-178.01400000000004</v>
       </c>
       <c r="D5" s="11">
         <v>-177.792</v>
@@ -15870,10 +15879,10 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6" s="11">
-        <v>-124.28400000000006</v>
+        <v>-132.34600000000006</v>
       </c>
       <c r="C6" s="11">
-        <v>-74.146999999999977</v>
+        <v>-73.586999999999989</v>
       </c>
       <c r="D6" s="11">
         <v>-63.61399999999999</v>
@@ -15885,25 +15894,25 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7" s="11">
-        <v>-144.32399999999993</v>
+        <v>-144.02799999999991</v>
       </c>
       <c r="C7" s="11">
-        <v>-116.48799999999994</v>
+        <v>-125.79899999999994</v>
       </c>
       <c r="D7" s="11">
         <v>-121.43299999999996</v>
       </c>
       <c r="E7" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8" s="11">
-        <v>-122.78299999999983</v>
+        <v>-122.32399999999984</v>
       </c>
       <c r="C8" s="11">
-        <v>-110.5859999999999</v>
+        <v>-116.02799999999988</v>
       </c>
       <c r="D8" s="11">
         <v>-191.99499999999995</v>
@@ -15915,25 +15924,25 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9" s="11">
-        <v>-70.679999999999922</v>
+        <v>-59.91899999999989</v>
       </c>
       <c r="C9" s="11">
-        <v>-58.865999999999971</v>
+        <v>-61.514999999999965</v>
       </c>
       <c r="D9" s="11">
         <v>-59.465999999999973</v>
       </c>
       <c r="E9" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10" s="11">
-        <v>-84.860000000000099</v>
+        <v>-84.4020000000001</v>
       </c>
       <c r="C10" s="11">
-        <v>-84.158999999999978</v>
+        <v>-87.285999999999973</v>
       </c>
       <c r="D10" s="11">
         <v>-75.194999999999993</v>
@@ -15945,10 +15954,10 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11" s="11">
-        <v>-38.879999999999917</v>
+        <v>-38.164999999999914</v>
       </c>
       <c r="C11" s="11">
-        <v>-55.177999999999976</v>
+        <v>-55.594999999999985</v>
       </c>
       <c r="D11" s="11">
         <v>-40.958999999999968</v>
@@ -15960,10 +15969,10 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12" s="11">
-        <v>-60.198000000000036</v>
+        <v>-65.343000000000046</v>
       </c>
       <c r="C12" s="11">
-        <v>-40.442999999999969</v>
+        <v>-41.951999999999948</v>
       </c>
       <c r="D12" s="11">
         <v>-37.172999999999959</v>
@@ -15975,10 +15984,10 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13" s="11">
-        <v>-158.95700000000011</v>
+        <v>-153.66000000000003</v>
       </c>
       <c r="C13" s="11">
-        <v>-107.827</v>
+        <v>-95.420999999999992</v>
       </c>
       <c r="D13" s="11">
         <v>-111.33499999999997</v>
@@ -15990,10 +15999,10 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14" s="11">
-        <v>-159.52699999999999</v>
+        <v>-163.69899999999998</v>
       </c>
       <c r="C14" s="11">
-        <v>-187.88799999999998</v>
+        <v>-193.387</v>
       </c>
       <c r="D14" s="11">
         <v>-74.145999999999987</v>
@@ -16005,40 +16014,40 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15" s="11">
-        <v>8.3150000000000066</v>
+        <v>82.710000000000022</v>
       </c>
       <c r="C15" s="11">
-        <v>10.588000000000013</v>
+        <v>82.861000000000018</v>
       </c>
       <c r="D15" s="11">
         <v>13.737000000000009</v>
       </c>
       <c r="E15" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16" s="11">
-        <v>-29.751000000000012</v>
+        <v>2.6879999999999784</v>
       </c>
       <c r="C16" s="11">
-        <v>-16.314000000000018</v>
+        <v>26.185999999999979</v>
       </c>
       <c r="D16" s="11">
         <v>-15.563000000000013</v>
       </c>
       <c r="E16" s="11">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" s="11">
-        <v>-50.933000000000035</v>
+        <v>-54.07900000000005</v>
       </c>
       <c r="C17" s="11">
-        <v>-42.158999999999985</v>
+        <v>-39.445999999999991</v>
       </c>
       <c r="D17" s="11">
         <v>-17.812999999999992</v>
@@ -16050,10 +16059,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" s="11">
-        <v>-96.335000000000022</v>
+        <v>-101.89400000000003</v>
       </c>
       <c r="C18" s="11">
-        <v>-191.78699999999998</v>
+        <v>-190.97299999999998</v>
       </c>
       <c r="D18" s="11">
         <v>-180.82300000000001</v>
@@ -16065,25 +16074,25 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" s="11">
-        <v>-121.79800000000003</v>
+        <v>-125.572</v>
       </c>
       <c r="C19" s="11">
-        <v>-137.51099999999994</v>
+        <v>-148.113</v>
       </c>
       <c r="D19" s="11">
         <v>-146.333</v>
       </c>
       <c r="E19" s="11">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" s="11">
-        <v>-197.02299999999983</v>
+        <v>-197.6839999999998</v>
       </c>
       <c r="C20" s="11">
-        <v>-144.64500000000001</v>
+        <v>-134.31199999999995</v>
       </c>
       <c r="D20" s="11">
         <v>-128.94699999999997</v>
@@ -16095,10 +16104,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" s="11">
-        <v>15.827999999999992</v>
+        <v>36.057999999999979</v>
       </c>
       <c r="C21" s="11">
-        <v>-114.17499999999998</v>
+        <v>-96.592999999999989</v>
       </c>
       <c r="D21" s="11">
         <v>-82.554000000000002</v>
@@ -16110,10 +16119,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" s="11">
-        <v>-211.11999999999995</v>
+        <v>-212.79399999999987</v>
       </c>
       <c r="C22" s="11">
-        <v>-88.893000000000001</v>
+        <v>-78.414000000000016</v>
       </c>
       <c r="D22" s="11">
         <v>-56.440999999999995</v>
@@ -16125,10 +16134,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" s="11">
-        <v>-216.25799999999998</v>
+        <v>-232.77799999999996</v>
       </c>
       <c r="C23" s="11">
-        <v>-216.25799999999998</v>
+        <v>-232.77799999999996</v>
       </c>
       <c r="D23" s="11">
         <v>-125.56700000000001</v>
@@ -16140,10 +16149,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" s="11">
-        <v>-180.35199999999995</v>
+        <v>-170.72200000000001</v>
       </c>
       <c r="C24" s="11">
-        <v>-186.57400000000001</v>
+        <v>-181.96800000000002</v>
       </c>
       <c r="D24" s="11">
         <v>-181.54900000000001</v>
@@ -16155,10 +16164,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B25" s="11">
-        <v>-193.07100000000023</v>
+        <v>-200.64600000000024</v>
       </c>
       <c r="C25" s="11">
-        <v>-191.36200000000014</v>
+        <v>-200.10200000000015</v>
       </c>
       <c r="D25" s="11">
         <v>-180.60800000000006</v>
@@ -16170,10 +16179,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" s="11">
-        <v>-394.76700000000039</v>
+        <v>-378.15200000000033</v>
       </c>
       <c r="C26" s="11">
-        <v>-301.80800000000016</v>
+        <v>-289.17200000000014</v>
       </c>
       <c r="D26" s="11">
         <v>-229.56600000000012</v>
@@ -16185,10 +16194,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" s="11">
-        <v>-151.86499999999995</v>
+        <v>-215.72999999999988</v>
       </c>
       <c r="C27" s="11">
-        <v>-98.763999999999982</v>
+        <v>-97.758999999999986</v>
       </c>
       <c r="D27" s="11">
         <v>-108.38699999999997</v>
@@ -16200,10 +16209,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" s="11">
-        <v>-129.25400000000008</v>
+        <v>-135.04500000000013</v>
       </c>
       <c r="C28" s="11">
-        <v>-118.6</v>
+        <v>-124.25</v>
       </c>
       <c r="D28" s="11">
         <v>-84.052999999999969</v>
@@ -16215,10 +16224,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" s="11">
-        <v>-276.8069999999999</v>
+        <v>-270.65699999999998</v>
       </c>
       <c r="C29" s="11">
-        <v>-181.65499999999994</v>
+        <v>-182.08999999999997</v>
       </c>
       <c r="D29" s="11">
         <v>-100.31799999999997</v>
@@ -16230,10 +16239,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" s="11">
-        <v>-90.557000000000045</v>
+        <v>-83.719000000000023</v>
       </c>
       <c r="C30" s="11">
-        <v>-120.96299999999999</v>
+        <v>-117.63400000000001</v>
       </c>
       <c r="D30" s="11">
         <v>-78.655999999999992</v>
@@ -16245,10 +16254,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" s="11">
-        <v>-239.28200000000001</v>
+        <v>-224.661</v>
       </c>
       <c r="C31" s="11">
-        <v>-179.13199999999998</v>
+        <v>-162.21899999999999</v>
       </c>
       <c r="D31" s="11">
         <v>-143.02100000000002</v>
@@ -16260,15 +16269,15 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B32" s="20">
         <f>AVERAGE(B2:B31)</f>
-        <v>-138.35186666666667</v>
+        <v>-136.86636666666669</v>
       </c>
       <c r="C32" s="20">
         <f>AVERAGE(C2:C31)</f>
-        <v>-120.46923333333332</v>
+        <v>-115.89986666666667</v>
       </c>
       <c r="D32" s="20">
         <f>AVERAGE(D2:D31)</f>
@@ -16276,7 +16285,7 @@
       </c>
       <c r="E32" s="15">
         <f>COUNTIF(E2:E31,1)</f>
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>
